--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>Firm</t>
   </si>
@@ -63,6 +63,108 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>Appleby Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09s
+</t>
+  </si>
+  <si>
+    <t>Aron Tadmor Levy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15s
+</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Anand And Anand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06s
+</t>
+  </si>
+  <si>
+    <t>ALMTLegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14s
+</t>
+  </si>
+  <si>
+    <t>Ashurst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10s
+</t>
+  </si>
+  <si>
+    <t>Arnold And Porter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18s
+</t>
+  </si>
+  <si>
+    <t>Bae Kim And Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59s
+</t>
+  </si>
+  <si>
+    <t>Al Tamimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01min 00s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23s
+</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04min 03s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03min 02s
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51s
+</t>
   </si>
 </sst>
 </file>
@@ -468,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -493,24 +595,79 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>8</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
   <si>
     <t>Firm</t>
   </si>
@@ -165,6 +165,105 @@
   <si>
     <t xml:space="preserve">51s
 </t>
+  </si>
+  <si>
+    <t>Gianni And Origoni</t>
+  </si>
+  <si>
+    <t>47s</t>
+  </si>
+  <si>
+    <t>04s</t>
+  </si>
+  <si>
+    <t>09s</t>
+  </si>
+  <si>
+    <t>Conyers</t>
+  </si>
+  <si>
+    <t>08s</t>
+  </si>
+  <si>
+    <t>Collas Crill</t>
+  </si>
+  <si>
+    <t>Byrne Wallace</t>
+  </si>
+  <si>
+    <t>Campbells Legal</t>
+  </si>
+  <si>
+    <t>05s</t>
+  </si>
+  <si>
+    <t>06s</t>
+  </si>
+  <si>
+    <t>12s</t>
+  </si>
+  <si>
+    <t>01min 01s</t>
+  </si>
+  <si>
+    <t>Foyen</t>
+  </si>
+  <si>
+    <t>Deacons</t>
+  </si>
+  <si>
+    <t>11s</t>
+  </si>
+  <si>
+    <t>Dillon Eustace</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>BonelliErede</t>
+  </si>
+  <si>
+    <t>13s</t>
+  </si>
+  <si>
+    <t>Carey Olsen</t>
+  </si>
+  <si>
+    <t>03s</t>
+  </si>
+  <si>
+    <t>CFN Law</t>
+  </si>
+  <si>
+    <t>Consortium Legal</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>BNT</t>
+  </si>
+  <si>
+    <t>16s</t>
+  </si>
+  <si>
+    <t>Dittmar And Indrenius</t>
+  </si>
+  <si>
+    <t>22s</t>
+  </si>
+  <si>
+    <t>21s</t>
+  </si>
+  <si>
+    <t>Clemens Law</t>
+  </si>
+  <si>
+    <t>Dechert LLP</t>
+  </si>
+  <si>
+    <t>Dahl Law</t>
   </si>
 </sst>
 </file>
@@ -570,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -595,13 +694,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -609,65 +708,263 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s" s="2">
+      <c r="B9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="103">
   <si>
     <t>Firm</t>
   </si>
@@ -264,6 +264,105 @@
   </si>
   <si>
     <t>Dahl Law</t>
+  </si>
+  <si>
+    <t>Havel Partners</t>
+  </si>
+  <si>
+    <t>17s</t>
+  </si>
+  <si>
+    <t>Blakes</t>
+  </si>
+  <si>
+    <t>51s</t>
+  </si>
+  <si>
+    <t>Mijares Angoitia Cortés And Fuentes</t>
+  </si>
+  <si>
+    <t>07s</t>
+  </si>
+  <si>
+    <t>Hill Dickinson</t>
+  </si>
+  <si>
+    <t>McCarthy Tetrault</t>
+  </si>
+  <si>
+    <t>Bennett Jones</t>
+  </si>
+  <si>
+    <t>18s</t>
+  </si>
+  <si>
+    <t>Howse Williams</t>
+  </si>
+  <si>
+    <t>Jones Day</t>
+  </si>
+  <si>
+    <t>Cassels</t>
+  </si>
+  <si>
+    <t>01min 05s</t>
+  </si>
+  <si>
+    <t>Ritch Mueller And Nicolau</t>
+  </si>
+  <si>
+    <t>Krogerus</t>
+  </si>
+  <si>
+    <t>Latham And Watkins</t>
+  </si>
+  <si>
+    <t>20s</t>
+  </si>
+  <si>
+    <t>Kinstellar</t>
+  </si>
+  <si>
+    <t>42s</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Lee And Ko</t>
+  </si>
+  <si>
+    <t>19s</t>
+  </si>
+  <si>
+    <t>Stikeman Elliott</t>
+  </si>
+  <si>
+    <t>01min 19s</t>
+  </si>
+  <si>
+    <t>Hannes Snellman</t>
+  </si>
+  <si>
+    <t>Peter And Kim</t>
+  </si>
+  <si>
+    <t>Kromann Reumert</t>
+  </si>
+  <si>
+    <t>Hakun Law</t>
+  </si>
+  <si>
+    <t>Greenberg Traurig</t>
+  </si>
+  <si>
+    <t>HFW</t>
+  </si>
+  <si>
+    <t>03min 47s</t>
+  </si>
+  <si>
+    <t>BLG Law</t>
   </si>
 </sst>
 </file>
@@ -669,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -694,21 +793,21 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>13</v>
@@ -716,43 +815,43 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>42</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>13</v>
@@ -760,32 +859,32 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>13</v>
@@ -793,10 +892,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -804,84 +903,84 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>47</v>
@@ -892,78 +991,56 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="147">
   <si>
     <t>Firm</t>
   </si>
@@ -363,6 +363,138 @@
   </si>
   <si>
     <t>BLG Law</t>
+  </si>
+  <si>
+    <t>Schoenherr</t>
+  </si>
+  <si>
+    <t>Cassidy Levy Kent</t>
+  </si>
+  <si>
+    <t>44s</t>
+  </si>
+  <si>
+    <t>Magnusson Law</t>
+  </si>
+  <si>
+    <t>Reliance Corporate Advisors</t>
+  </si>
+  <si>
+    <t>Fox And Mandal</t>
+  </si>
+  <si>
+    <t>Spruson And Ferguson</t>
+  </si>
+  <si>
+    <t>35s</t>
+  </si>
+  <si>
+    <t>Winston And Strawn</t>
+  </si>
+  <si>
+    <t>White And Case</t>
+  </si>
+  <si>
+    <t>02min 56s</t>
+  </si>
+  <si>
+    <t>Walkers</t>
+  </si>
+  <si>
+    <t>25s</t>
+  </si>
+  <si>
+    <t>McMillan</t>
+  </si>
+  <si>
+    <t>06min 52s</t>
+  </si>
+  <si>
+    <t>Meitar Law</t>
+  </si>
+  <si>
+    <t>Tiruchelvam Associates</t>
+  </si>
+  <si>
+    <t>Crowell And Moring</t>
+  </si>
+  <si>
+    <t>31s</t>
+  </si>
+  <si>
+    <t>Tuca Zbarcea</t>
+  </si>
+  <si>
+    <t>MZM Legal</t>
+  </si>
+  <si>
+    <t>Titov</t>
+  </si>
+  <si>
+    <t>Taylor Wessing</t>
+  </si>
+  <si>
+    <t>Ropes And Gray</t>
+  </si>
+  <si>
+    <t>Pedersoli</t>
+  </si>
+  <si>
+    <t>01min 04s</t>
+  </si>
+  <si>
+    <t>LEX Logmannsstofa</t>
+  </si>
+  <si>
+    <t>Finreg 360</t>
+  </si>
+  <si>
+    <t>ShinAndKim</t>
+  </si>
+  <si>
+    <t>NPP Legal</t>
+  </si>
+  <si>
+    <t>Spencer West</t>
+  </si>
+  <si>
+    <t>26s</t>
+  </si>
+  <si>
+    <t>Watson Farley And Williams</t>
+  </si>
+  <si>
+    <t>33s</t>
+  </si>
+  <si>
+    <t>Panetta Consulting Group</t>
+  </si>
+  <si>
+    <t>Njord</t>
+  </si>
+  <si>
+    <t>06min 17s</t>
+  </si>
+  <si>
+    <t>VB Advocates</t>
+  </si>
+  <si>
+    <t>SEUM</t>
+  </si>
+  <si>
+    <t>23s</t>
+  </si>
+  <si>
+    <t>Malley And Co</t>
+  </si>
+  <si>
+    <t>02s</t>
+  </si>
+  <si>
+    <t>Matheson</t>
+  </si>
+  <si>
+    <t>Wolf Theiss</t>
   </si>
 </sst>
 </file>
@@ -768,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -793,87 +925,87 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>5</v>
@@ -881,32 +1013,32 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>13</v>
@@ -914,43 +1046,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>32</v>
@@ -958,10 +1090,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>13</v>
@@ -969,21 +1101,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -991,57 +1123,200 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="162">
   <si>
     <t>Firm</t>
   </si>
@@ -495,6 +495,51 @@
   </si>
   <si>
     <t>Wolf Theiss</t>
+  </si>
+  <si>
+    <t>Duncan Cotterill</t>
+  </si>
+  <si>
+    <t>29s</t>
+  </si>
+  <si>
+    <t>Gomez Acebo And Pombo</t>
+  </si>
+  <si>
+    <t>RDJ</t>
+  </si>
+  <si>
+    <t>06min 44s</t>
+  </si>
+  <si>
+    <t>Ogier</t>
+  </si>
+  <si>
+    <t>54s</t>
+  </si>
+  <si>
+    <t>Wildeboer Dellelce</t>
+  </si>
+  <si>
+    <t>William Fry</t>
+  </si>
+  <si>
+    <t>28s</t>
+  </si>
+  <si>
+    <t>JGSA</t>
+  </si>
+  <si>
+    <t>Werksmans</t>
+  </si>
+  <si>
+    <t>14s</t>
+  </si>
+  <si>
+    <t>HNA</t>
+  </si>
+  <si>
+    <t>Minter Ellison RuddWatts</t>
   </si>
 </sst>
 </file>
@@ -900,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -925,43 +970,43 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>13</v>
@@ -969,73 +1014,73 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>63</v>
@@ -1046,21 +1091,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>32</v>
@@ -1068,10 +1113,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>5</v>
@@ -1079,21 +1124,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>13</v>
@@ -1101,222 +1146,24 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="180">
   <si>
     <t>Firm</t>
   </si>
@@ -540,6 +540,60 @@
   </si>
   <si>
     <t>Minter Ellison RuddWatts</t>
+  </si>
+  <si>
+    <t>SFKS Law</t>
+  </si>
+  <si>
+    <t>41s</t>
+  </si>
+  <si>
+    <t>AWA</t>
+  </si>
+  <si>
+    <t>VO Patents And Trademarks</t>
+  </si>
+  <si>
+    <t>34s</t>
+  </si>
+  <si>
+    <t>Tavares</t>
+  </si>
+  <si>
+    <t>LEFOSSE</t>
+  </si>
+  <si>
+    <t>DaleAndLessmann</t>
+  </si>
+  <si>
+    <t>MBIP</t>
+  </si>
+  <si>
+    <t>Kolster</t>
+  </si>
+  <si>
+    <t>37s</t>
+  </si>
+  <si>
+    <t>BARDEHLE PAGENBERG</t>
+  </si>
+  <si>
+    <t>Viering Jentschura And Partner</t>
+  </si>
+  <si>
+    <t>Hammarskiöld And Co</t>
+  </si>
+  <si>
+    <t>01min 09s</t>
+  </si>
+  <si>
+    <t>01min 13s</t>
+  </si>
+  <si>
+    <t>Drzewiecki Tomaszek</t>
+  </si>
+  <si>
+    <t>Aguayo Ecclefield And Martinez</t>
   </si>
 </sst>
 </file>
@@ -945,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -970,7 +1024,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>61</v>
@@ -981,10 +1035,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>13</v>
@@ -992,21 +1046,21 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>13</v>
@@ -1014,87 +1068,87 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>54</v>
@@ -1102,43 +1156,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>13</v>
@@ -1146,24 +1200,376 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>13</v>
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="213">
   <si>
     <t>Firm</t>
   </si>
@@ -594,6 +594,105 @@
   </si>
   <si>
     <t>Aguayo Ecclefield And Martinez</t>
+  </si>
+  <si>
+    <t>AL Goodbody</t>
+  </si>
+  <si>
+    <t>40s</t>
+  </si>
+  <si>
+    <t>Dottir</t>
+  </si>
+  <si>
+    <t>Frontier</t>
+  </si>
+  <si>
+    <t>03min 26s</t>
+  </si>
+  <si>
+    <t>15s</t>
+  </si>
+  <si>
+    <t>DR And AJU</t>
+  </si>
+  <si>
+    <t>BCF Law</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
+    <t>Nelligan Law</t>
+  </si>
+  <si>
+    <t>Beauchamps</t>
+  </si>
+  <si>
+    <t>49s</t>
+  </si>
+  <si>
+    <t>Tompkins Wake</t>
+  </si>
+  <si>
+    <t>Andersen</t>
+  </si>
+  <si>
+    <t>Arnesen IP</t>
+  </si>
+  <si>
+    <t>Oyen Wiggs</t>
+  </si>
+  <si>
+    <t>DCC Law</t>
+  </si>
+  <si>
+    <t>39s</t>
+  </si>
+  <si>
+    <t>Zamfirescu Racoti Predoiu</t>
+  </si>
+  <si>
+    <t>Stephenson Harwood</t>
+  </si>
+  <si>
+    <t>StewartMcKelvey</t>
+  </si>
+  <si>
+    <t>DBHLaw</t>
+  </si>
+  <si>
+    <t>Liedekerke</t>
+  </si>
+  <si>
+    <t>38s</t>
+  </si>
+  <si>
+    <t>24s</t>
+  </si>
+  <si>
+    <t>Barriston Law</t>
+  </si>
+  <si>
+    <t>Borenius</t>
+  </si>
+  <si>
+    <t>Ogletree Deakins</t>
+  </si>
+  <si>
+    <t>James And Wells</t>
+  </si>
+  <si>
+    <t>Brigrard Urrutia</t>
+  </si>
+  <si>
+    <t>Covenant Chambers</t>
+  </si>
+  <si>
+    <t>Barnea And Co</t>
+  </si>
+  <si>
+    <t>27s</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1024,32 +1123,32 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>13</v>
@@ -1057,32 +1156,32 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>13</v>
@@ -1090,76 +1189,76 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>13</v>
@@ -1167,43 +1266,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>13</v>
@@ -1211,21 +1310,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1233,40 +1332,40 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>75</v>
@@ -1277,10 +1376,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>5</v>
@@ -1288,65 +1387,65 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>13</v>
@@ -1354,10 +1453,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1365,10 +1464,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>5</v>
@@ -1376,10 +1475,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1387,10 +1486,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>13</v>
@@ -1398,10 +1497,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>13</v>
@@ -1409,21 +1508,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>13</v>
@@ -1431,10 +1530,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>13</v>
@@ -1442,21 +1541,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>48</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>13</v>
@@ -1464,111 +1563,34 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C51" t="s" s="2">
         <v>5</v>
       </c>
     </row>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="281">
   <si>
     <t>Firm</t>
   </si>
@@ -693,6 +693,210 @@
   </si>
   <si>
     <t>27s</t>
+  </si>
+  <si>
+    <t>K1 Chamber</t>
+  </si>
+  <si>
+    <t>59s</t>
+  </si>
+  <si>
+    <t>MAS Law</t>
+  </si>
+  <si>
+    <t>Nurmansyah And Muzdalifah</t>
+  </si>
+  <si>
+    <t>KISCH IP</t>
+  </si>
+  <si>
+    <t>Arthur Cox</t>
+  </si>
+  <si>
+    <t>02min 22s</t>
+  </si>
+  <si>
+    <t>45s</t>
+  </si>
+  <si>
+    <t>Thompson Dorfman Sweatman</t>
+  </si>
+  <si>
+    <t>Dompatent</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>01min 40s</t>
+  </si>
+  <si>
+    <t>Gitti And Partners</t>
+  </si>
+  <si>
+    <t>Helmsman</t>
+  </si>
+  <si>
+    <t>Ellisons Solicitors</t>
+  </si>
+  <si>
+    <t>Control Risks</t>
+  </si>
+  <si>
+    <t>03min 15s</t>
+  </si>
+  <si>
+    <t>Sangra</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>Allens</t>
+  </si>
+  <si>
+    <t>03min 37s</t>
+  </si>
+  <si>
+    <t>Guantao Law</t>
+  </si>
+  <si>
+    <t>52min 08s</t>
+  </si>
+  <si>
+    <t>Oxera</t>
+  </si>
+  <si>
+    <t>02min 09s</t>
+  </si>
+  <si>
+    <t>Aera</t>
+  </si>
+  <si>
+    <t>Esche</t>
+  </si>
+  <si>
+    <t>SIRIUS</t>
+  </si>
+  <si>
+    <t>Huiye Law</t>
+  </si>
+  <si>
+    <t>Herbert Smith Freehills Kramer</t>
+  </si>
+  <si>
+    <t>Madrona</t>
+  </si>
+  <si>
+    <t>32s</t>
+  </si>
+  <si>
+    <t>03min 10s</t>
+  </si>
+  <si>
+    <t>02min 58s</t>
+  </si>
+  <si>
+    <t>Dentons</t>
+  </si>
+  <si>
+    <t>04min 27s</t>
+  </si>
+  <si>
+    <t>Clark Wilson</t>
+  </si>
+  <si>
+    <t>TEMPLARS</t>
+  </si>
+  <si>
+    <t>Tahota Law</t>
+  </si>
+  <si>
+    <t>Ramdas And Wong</t>
+  </si>
+  <si>
+    <t>Banki Haddock Fiora</t>
+  </si>
+  <si>
+    <t>Ellex</t>
+  </si>
+  <si>
+    <t>Horten</t>
+  </si>
+  <si>
+    <t>Macpherson Kelley</t>
+  </si>
+  <si>
+    <t>Zhongzi Law</t>
+  </si>
+  <si>
+    <t>Higgs And Johnson</t>
+  </si>
+  <si>
+    <t>GrandwayLaw</t>
+  </si>
+  <si>
+    <t>01min 57s</t>
+  </si>
+  <si>
+    <t>Blandy And Blandy</t>
+  </si>
+  <si>
+    <t>Carnelutti Law</t>
+  </si>
+  <si>
+    <t>46s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sherrards  </t>
+  </si>
+  <si>
+    <t>Roschier</t>
+  </si>
+  <si>
+    <t>Gornitzky And Co</t>
+  </si>
+  <si>
+    <t>Asafo And Co</t>
+  </si>
+  <si>
+    <t>DW Fox Tucker</t>
+  </si>
+  <si>
+    <t>Davies Ward Phillips And Vineberg</t>
+  </si>
+  <si>
+    <t>10min 01s</t>
+  </si>
+  <si>
+    <t>HY Leung And Co</t>
+  </si>
+  <si>
+    <t>BWB LLP</t>
+  </si>
+  <si>
+    <t>Santamarina And Steta</t>
+  </si>
+  <si>
+    <t>36s</t>
+  </si>
+  <si>
+    <t>Dale And Lessmann</t>
+  </si>
+  <si>
+    <t>EBN</t>
+  </si>
+  <si>
+    <t>01min 02s</t>
+  </si>
+  <si>
+    <t>Fangda Partners</t>
+  </si>
+  <si>
+    <t>02min 06s</t>
+  </si>
+  <si>
+    <t>Onsagers</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1123,21 +1327,21 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>32</v>
@@ -1145,10 +1349,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>13</v>
@@ -1156,10 +1360,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>54</v>
@@ -1167,21 +1371,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>13</v>
@@ -1189,21 +1393,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>13</v>
@@ -1211,10 +1415,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>13</v>
@@ -1222,32 +1426,32 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>13</v>
@@ -1255,10 +1459,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>13</v>
@@ -1266,21 +1470,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>13</v>
@@ -1288,21 +1492,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>13</v>
@@ -1310,21 +1514,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1332,21 +1536,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1354,54 +1558,54 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>13</v>
@@ -1409,21 +1613,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1431,21 +1635,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>13</v>
@@ -1453,10 +1657,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1464,32 +1668,32 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>13</v>
@@ -1497,65 +1701,65 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>92</v>
+        <v>245</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>13</v>
@@ -1563,35 +1767,464 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="282">
   <si>
     <t>Firm</t>
   </si>
@@ -897,6 +897,9 @@
   </si>
   <si>
     <t>Onsagers</t>
+  </si>
+  <si>
+    <t>Chattertons</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1327,29 +1330,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>46</v>
@@ -1358,875 +1361,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="337">
   <si>
     <t>Firm</t>
   </si>
@@ -900,6 +900,171 @@
   </si>
   <si>
     <t>Chattertons</t>
+  </si>
+  <si>
+    <t>02min 52s</t>
+  </si>
+  <si>
+    <t>Meyer Köring</t>
+  </si>
+  <si>
+    <t>02min 36s</t>
+  </si>
+  <si>
+    <t>56s</t>
+  </si>
+  <si>
+    <t>01min 37s</t>
+  </si>
+  <si>
+    <t>Legance</t>
+  </si>
+  <si>
+    <t>02min 12s</t>
+  </si>
+  <si>
+    <t>55s</t>
+  </si>
+  <si>
+    <t>10min 46s</t>
+  </si>
+  <si>
+    <t>One Essex Court</t>
+  </si>
+  <si>
+    <t>CliffordChance</t>
+  </si>
+  <si>
+    <t>Garcia Bodan</t>
+  </si>
+  <si>
+    <t>Lewiss Silkin</t>
+  </si>
+  <si>
+    <t>02min 10s</t>
+  </si>
+  <si>
+    <t>Mourant</t>
+  </si>
+  <si>
+    <t>Keystone Law</t>
+  </si>
+  <si>
+    <t>01min 32s</t>
+  </si>
+  <si>
+    <t>Young List</t>
+  </si>
+  <si>
+    <t>15min 17s</t>
+  </si>
+  <si>
+    <t>Skadden</t>
+  </si>
+  <si>
+    <t>Morgan Lewis</t>
+  </si>
+  <si>
+    <t>KRBLaw</t>
+  </si>
+  <si>
+    <t>Kuri Breña</t>
+  </si>
+  <si>
+    <t>ENS Africa</t>
+  </si>
+  <si>
+    <t>LonganLaw</t>
+  </si>
+  <si>
+    <t>05min 11s</t>
+  </si>
+  <si>
+    <t>04min 40s</t>
+  </si>
+  <si>
+    <t>Nader Hayaux And Goebel</t>
+  </si>
+  <si>
+    <t>Legalis</t>
+  </si>
+  <si>
+    <t>Prasad And Company</t>
+  </si>
+  <si>
+    <t>01min 00s</t>
+  </si>
+  <si>
+    <t>Mishcon Karas</t>
+  </si>
+  <si>
+    <t>Baumgartners</t>
+  </si>
+  <si>
+    <t>22min 46s</t>
+  </si>
+  <si>
+    <t>01min 41s</t>
+  </si>
+  <si>
+    <t>Langseth Advokat</t>
+  </si>
+  <si>
+    <t>02min 20s</t>
+  </si>
+  <si>
+    <t>01min 55s</t>
+  </si>
+  <si>
+    <t>Ibañez Parkman</t>
+  </si>
+  <si>
+    <t>TCLaw</t>
+  </si>
+  <si>
+    <t>01min 08s</t>
+  </si>
+  <si>
+    <t>01min 56s</t>
+  </si>
+  <si>
+    <t>52s</t>
+  </si>
+  <si>
+    <t>Lex Caribbean</t>
+  </si>
+  <si>
+    <t>Laszczuk And Wspolnicy</t>
+  </si>
+  <si>
+    <t>01min 54s</t>
+  </si>
+  <si>
+    <t>00s</t>
+  </si>
+  <si>
+    <t>GÖRG</t>
+  </si>
+  <si>
+    <t>02min 00s</t>
+  </si>
+  <si>
+    <t>05min 02s</t>
+  </si>
+  <si>
+    <t>01min 07s</t>
+  </si>
+  <si>
+    <t>Gadens</t>
+  </si>
+  <si>
+    <t>06min 49s</t>
+  </si>
+  <si>
+    <t>01min 26s</t>
+  </si>
+  <si>
+    <t>02min 50s</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1328,39 +1493,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="363">
   <si>
     <t>Firm</t>
   </si>
@@ -1065,6 +1065,84 @@
   </si>
   <si>
     <t>02min 50s</t>
+  </si>
+  <si>
+    <t>Noerr</t>
+  </si>
+  <si>
+    <t>10min 00s</t>
+  </si>
+  <si>
+    <t>08min 43s</t>
+  </si>
+  <si>
+    <t>Pavia And Ansaldo</t>
+  </si>
+  <si>
+    <t>01min 24s</t>
+  </si>
+  <si>
+    <t>02min 11s</t>
+  </si>
+  <si>
+    <t>43s</t>
+  </si>
+  <si>
+    <t>01min 25s</t>
+  </si>
+  <si>
+    <t>Kvale</t>
+  </si>
+  <si>
+    <t>WikborgRein</t>
+  </si>
+  <si>
+    <t>06min 04s</t>
+  </si>
+  <si>
+    <t>Portolano Cavallo</t>
+  </si>
+  <si>
+    <t>Thommessen</t>
+  </si>
+  <si>
+    <t>Pulegal</t>
+  </si>
+  <si>
+    <t>Pearl Cohen</t>
+  </si>
+  <si>
+    <t>Latam Lex</t>
+  </si>
+  <si>
+    <t>Sheppard Mullin</t>
+  </si>
+  <si>
+    <t>Myers Fletcher And Gordon</t>
+  </si>
+  <si>
+    <t>DGKV</t>
+  </si>
+  <si>
+    <t>Sorainen</t>
+  </si>
+  <si>
+    <t>RemfryAndSagar</t>
+  </si>
+  <si>
+    <t>Deutsch Miller</t>
+  </si>
+  <si>
+    <t>Sherrards</t>
+  </si>
+  <si>
+    <t>Fischer</t>
+  </si>
+  <si>
+    <t>Wiersholm</t>
+  </si>
+  <si>
+    <t>Grandway Law</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1493,6 +1571,1414 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="370">
   <si>
     <t>Firm</t>
   </si>
@@ -1143,6 +1143,27 @@
   </si>
   <si>
     <t>Grandway Law</t>
+  </si>
+  <si>
+    <t>04min 17s</t>
+  </si>
+  <si>
+    <t>01min 23s</t>
+  </si>
+  <si>
+    <t>04min 44s</t>
+  </si>
+  <si>
+    <t>48s</t>
+  </si>
+  <si>
+    <t>01min 34s</t>
+  </si>
+  <si>
+    <t>09min 25s</t>
+  </si>
+  <si>
+    <t>58s</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1573,54 +1594,54 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>335</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>13</v>
@@ -1628,76 +1649,76 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>215</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>56</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>304</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>337</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>338</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>13</v>
@@ -1705,10 +1726,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>32</v>
@@ -1716,43 +1737,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>348</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>32</v>
@@ -1760,79 +1781,79 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>340</v>
+        <v>278</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>342</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>338</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
@@ -1840,7 +1861,7 @@
         <v>313</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>32</v>
@@ -1848,65 +1869,65 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>358</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>345</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>185</v>
+        <v>369</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>52</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>32</v>
@@ -1914,21 +1935,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1936,32 +1957,32 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>347</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>32</v>
@@ -1969,10 +1990,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>32</v>
@@ -1980,10 +2001,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>32</v>
@@ -1991,992 +2012,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C97" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C116" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C124" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C125" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C126" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C127" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C128" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="405">
   <si>
     <t>Firm</t>
   </si>
@@ -1164,6 +1164,111 @@
   </si>
   <si>
     <t>58s</t>
+  </si>
+  <si>
+    <t>Kondrat</t>
+  </si>
+  <si>
+    <t>Wardynski And Partners</t>
+  </si>
+  <si>
+    <t>Hamso Patentybra</t>
+  </si>
+  <si>
+    <t>Porta &amp; Consulenti Associati</t>
+  </si>
+  <si>
+    <t>Ferrere</t>
+  </si>
+  <si>
+    <t>Le Poole Bekema</t>
+  </si>
+  <si>
+    <t>Jackson Etti And Edu</t>
+  </si>
+  <si>
+    <t>METIDA</t>
+  </si>
+  <si>
+    <t>FPS Law</t>
+  </si>
+  <si>
+    <t>JWP</t>
+  </si>
+  <si>
+    <t>Reinhard Skuhra Weise &amp; Partner GbR</t>
+  </si>
+  <si>
+    <t>DANUBIA Patent And Law</t>
+  </si>
+  <si>
+    <t>ABG IP</t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>MBM</t>
+  </si>
+  <si>
+    <t>Saba And Co</t>
+  </si>
+  <si>
+    <t>Hans Offia &amp; Associates</t>
+  </si>
+  <si>
+    <t>SBGK</t>
+  </si>
+  <si>
+    <t>Latin Alliance</t>
+  </si>
+  <si>
+    <t>Steinmetz Haring Gurman</t>
+  </si>
+  <si>
+    <t>Prinz &amp; Partner</t>
+  </si>
+  <si>
+    <t>AOil</t>
+  </si>
+  <si>
+    <t>Belgravia</t>
+  </si>
+  <si>
+    <t>FCM Limited</t>
+  </si>
+  <si>
+    <t>AC&amp;R</t>
+  </si>
+  <si>
+    <t>Kennedy Van der Laan</t>
+  </si>
+  <si>
+    <t>Prüfer &amp; Partner</t>
+  </si>
+  <si>
+    <t>EP&amp;C</t>
+  </si>
+  <si>
+    <t>EProint</t>
+  </si>
+  <si>
+    <t>Flügel Preissner</t>
+  </si>
+  <si>
+    <t>Håmsø</t>
+  </si>
+  <si>
+    <t>Marks &amp; Clerk</t>
+  </si>
+  <si>
+    <t>Dumont Bergman Bider</t>
+  </si>
+  <si>
+    <t>Sargent And Krahn</t>
+  </si>
+  <si>
+    <t>Philippe &amp; Partners</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1592,435 +1697,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="413">
   <si>
     <t>Firm</t>
   </si>
@@ -1269,6 +1269,30 @@
   </si>
   <si>
     <t>Philippe &amp; Partners</t>
+  </si>
+  <si>
+    <t>04min 22s</t>
+  </si>
+  <si>
+    <t>04min 24s</t>
+  </si>
+  <si>
+    <t>01min 16s</t>
+  </si>
+  <si>
+    <t>02min 19s</t>
+  </si>
+  <si>
+    <t>01min 18s</t>
+  </si>
+  <si>
+    <t>01min 06s</t>
+  </si>
+  <si>
+    <t>02min 08s</t>
+  </si>
+  <si>
+    <t>05min 00s</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350BCBC-CDDB-414C-9A72-BE6A09964F3F}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1697,6 +1721,1117 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="151">
   <si>
     <t>Firm</t>
   </si>
@@ -222,6 +222,264 @@
   </si>
   <si>
     <t>48s</t>
+  </si>
+  <si>
+    <t>05s</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Winston And Strawn</t>
+  </si>
+  <si>
+    <t>09s</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Matheson</t>
+  </si>
+  <si>
+    <t>Krogerus</t>
+  </si>
+  <si>
+    <t>Aron Tadmor Levy</t>
+  </si>
+  <si>
+    <t>59s</t>
+  </si>
+  <si>
+    <t>Dentons</t>
+  </si>
+  <si>
+    <t>Hakun Law</t>
+  </si>
+  <si>
+    <t>01min 20s</t>
+  </si>
+  <si>
+    <t>27s</t>
+  </si>
+  <si>
+    <t>Hans Offia And Associates</t>
+  </si>
+  <si>
+    <t>Prinz &amp; Partner</t>
+  </si>
+  <si>
+    <t>Ogier</t>
+  </si>
+  <si>
+    <t>53s</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Arthur Cox</t>
+  </si>
+  <si>
+    <t>03min 59s</t>
+  </si>
+  <si>
+    <t>BCF Law</t>
+  </si>
+  <si>
+    <t>BNT</t>
+  </si>
+  <si>
+    <t>DBHLaw</t>
+  </si>
+  <si>
+    <t>25s</t>
+  </si>
+  <si>
+    <t>37s</t>
+  </si>
+  <si>
+    <t>Foyen</t>
+  </si>
+  <si>
+    <t>JGSA</t>
+  </si>
+  <si>
+    <t>Appleby Global</t>
+  </si>
+  <si>
+    <t>Bennett Jones</t>
+  </si>
+  <si>
+    <t>Horten</t>
+  </si>
+  <si>
+    <t>Tahota Law</t>
+  </si>
+  <si>
+    <t>Nader Hayaux And Goebel</t>
+  </si>
+  <si>
+    <t>Dittmar And Indrenius</t>
+  </si>
+  <si>
+    <t>44s</t>
+  </si>
+  <si>
+    <t>Thommessen</t>
+  </si>
+  <si>
+    <t>AOil</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>Chattertons</t>
+  </si>
+  <si>
+    <t>08s</t>
+  </si>
+  <si>
+    <t>Kromann Reumert</t>
+  </si>
+  <si>
+    <t>26s</t>
+  </si>
+  <si>
+    <t>Guantao Law</t>
+  </si>
+  <si>
+    <t>03min 41s</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
+    <t>Santamarina And Steta</t>
+  </si>
+  <si>
+    <t>31s</t>
+  </si>
+  <si>
+    <t>AC&amp;R</t>
+  </si>
+  <si>
+    <t>BWB LLP</t>
+  </si>
+  <si>
+    <t>Ramdas And Wong</t>
+  </si>
+  <si>
+    <t>Kolster</t>
+  </si>
+  <si>
+    <t>16s</t>
+  </si>
+  <si>
+    <t>Viering Jentschura And Partner</t>
+  </si>
+  <si>
+    <t>20s</t>
+  </si>
+  <si>
+    <t>Reliance Corporate Advisors</t>
+  </si>
+  <si>
+    <t>01s</t>
+  </si>
+  <si>
+    <t>Kondrat</t>
+  </si>
+  <si>
+    <t>49s</t>
+  </si>
+  <si>
+    <t>Meyer Köring</t>
+  </si>
+  <si>
+    <t>Liedekerke</t>
+  </si>
+  <si>
+    <t>06s</t>
+  </si>
+  <si>
+    <t>Steinmetz Haring Gurman</t>
+  </si>
+  <si>
+    <t>Laszczuk And Wspolnicy</t>
+  </si>
+  <si>
+    <t>Gomez Acebo And Pombo</t>
+  </si>
+  <si>
+    <t>01min 01s</t>
+  </si>
+  <si>
+    <t>01min 13s</t>
+  </si>
+  <si>
+    <t>WikborgRein</t>
+  </si>
+  <si>
+    <t>William Fry</t>
+  </si>
+  <si>
+    <t>Belgravia</t>
+  </si>
+  <si>
+    <t>Peter And Kim</t>
+  </si>
+  <si>
+    <t>Carnelutti Law</t>
+  </si>
+  <si>
+    <t>Sherrards</t>
+  </si>
+  <si>
+    <t>Huiye Law</t>
+  </si>
+  <si>
+    <t>Wolf Theiss</t>
+  </si>
+  <si>
+    <t>Walkers</t>
+  </si>
+  <si>
+    <t>Dale And Lessmann</t>
+  </si>
+  <si>
+    <t>Banki Haddock Fiora</t>
+  </si>
+  <si>
+    <t>Flügel Preissner</t>
+  </si>
+  <si>
+    <t>EProint</t>
+  </si>
+  <si>
+    <t>03min 25s</t>
+  </si>
+  <si>
+    <t>24s</t>
+  </si>
+  <si>
+    <t>Ashurst</t>
+  </si>
+  <si>
+    <t>Gadens</t>
+  </si>
+  <si>
+    <t>Latham And Watkins</t>
+  </si>
+  <si>
+    <t>02min 15s</t>
+  </si>
+  <si>
+    <t>HFW</t>
+  </si>
+  <si>
+    <t>01min 22s</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1474,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1224,8 +1482,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="27.6634615384615" style="1" customWidth="1"/>
-    <col min="4" max="8" width="8.88461538461539" customWidth="1"/>
+    <col min="1" max="3" customWidth="true" style="1" width="27.6634615384615"/>
+    <col min="4" max="8" customWidth="true" width="8.88461538461539"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.2" spans="1:3">
@@ -1239,378 +1497,873 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>125</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>127</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>129</v>
+      </c>
+      <c r="C55" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="1">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C65" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="1">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="C69" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="C70" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C71" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="1">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s" s="1">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B74" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="C74" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="1">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B79" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>5</v>
+      <c r="C79" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="B80" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s" s="1">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="331">
   <si>
     <t>Firm</t>
   </si>
@@ -928,6 +928,99 @@
   </si>
   <si>
     <t>39s</t>
+  </si>
+  <si>
+    <t>Nielsen Nørager</t>
+  </si>
+  <si>
+    <t>04s</t>
+  </si>
+  <si>
+    <t>LEXIA</t>
+  </si>
+  <si>
+    <t>Moroğlu Arseven</t>
+  </si>
+  <si>
+    <t>01min 27s</t>
+  </si>
+  <si>
+    <t>H-F &amp; Co</t>
+  </si>
+  <si>
+    <t>Secretariat</t>
+  </si>
+  <si>
+    <t>03min 04s</t>
+  </si>
+  <si>
+    <t>METIDA</t>
+  </si>
+  <si>
+    <t>Knezović &amp; Associates</t>
+  </si>
+  <si>
+    <t>Cuatrecasas</t>
+  </si>
+  <si>
+    <t>01min 35s</t>
+  </si>
+  <si>
+    <t>Loopstra Nixon</t>
+  </si>
+  <si>
+    <t>32s</t>
+  </si>
+  <si>
+    <t>Joksovic Stojanovic &amp; Partners</t>
+  </si>
+  <si>
+    <t>Morris Law</t>
+  </si>
+  <si>
+    <t>01min 10s</t>
+  </si>
+  <si>
+    <t>Joffe &amp; Associés</t>
+  </si>
+  <si>
+    <t>Robortella e Peres</t>
+  </si>
+  <si>
+    <t>Molinari</t>
+  </si>
+  <si>
+    <t>Lindahl</t>
+  </si>
+  <si>
+    <t>Roca Junyent</t>
+  </si>
+  <si>
+    <t>02min 59s</t>
+  </si>
+  <si>
+    <t>Mazanti-Andersen</t>
+  </si>
+  <si>
+    <t>01min 24s</t>
+  </si>
+  <si>
+    <t>McConnell Valdés</t>
+  </si>
+  <si>
+    <t>Nelson Wilians &amp; Advogados</t>
+  </si>
+  <si>
+    <t>03min 35s</t>
+  </si>
+  <si>
+    <t>01min 33s</t>
+  </si>
+  <si>
+    <t>01min 05s</t>
+  </si>
+  <si>
+    <t>Lambadarios Law</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="402">
   <si>
     <t>Firm</t>
   </si>
@@ -1021,6 +1021,219 @@
   </si>
   <si>
     <t>Lambadarios Law</t>
+  </si>
+  <si>
+    <t>PAGBAM</t>
+  </si>
+  <si>
+    <t>Miller Thomson LLP</t>
+  </si>
+  <si>
+    <t>RMADV Advogados</t>
+  </si>
+  <si>
+    <t>Buss Murton Law</t>
+  </si>
+  <si>
+    <t>Bull &amp; Co</t>
+  </si>
+  <si>
+    <t>Habraken Rutten</t>
+  </si>
+  <si>
+    <t>03s</t>
+  </si>
+  <si>
+    <t>Kantor &amp; Immerman</t>
+  </si>
+  <si>
+    <t>Willkie</t>
+  </si>
+  <si>
+    <t>48s</t>
+  </si>
+  <si>
+    <t>01min 19s</t>
+  </si>
+  <si>
+    <t>MdME</t>
+  </si>
+  <si>
+    <t>Thomas Bodström</t>
+  </si>
+  <si>
+    <t>Hjulmand Captain</t>
+  </si>
+  <si>
+    <t>Selmer</t>
+  </si>
+  <si>
+    <t>Kienhuis Legal</t>
+  </si>
+  <si>
+    <t>Logos</t>
+  </si>
+  <si>
+    <t>Osborne Clarke</t>
+  </si>
+  <si>
+    <t>01min 01s</t>
+  </si>
+  <si>
+    <t>Alliotts</t>
+  </si>
+  <si>
+    <t>Vinge</t>
+  </si>
+  <si>
+    <t>01min 14s</t>
+  </si>
+  <si>
+    <t>HPP Attorneys</t>
+  </si>
+  <si>
+    <t>Ashitiva</t>
+  </si>
+  <si>
+    <t>01min 29s</t>
+  </si>
+  <si>
+    <t>Odigo</t>
+  </si>
+  <si>
+    <t>Vischer</t>
+  </si>
+  <si>
+    <t>Nova Law</t>
+  </si>
+  <si>
+    <t>Addleshaw Goddard LLP</t>
+  </si>
+  <si>
+    <t>Penta</t>
+  </si>
+  <si>
+    <t>Fisher Quarmby &amp; Pfeifer</t>
+  </si>
+  <si>
+    <t>Burges Salmon</t>
+  </si>
+  <si>
+    <t>Fogler Rubinoff</t>
+  </si>
+  <si>
+    <t>Milbank</t>
+  </si>
+  <si>
+    <t>Ekelmans</t>
+  </si>
+  <si>
+    <t>Kochański &amp; Partners</t>
+  </si>
+  <si>
+    <t>MSB Solicitors</t>
+  </si>
+  <si>
+    <t>Lydian</t>
+  </si>
+  <si>
+    <t>01min 36s</t>
+  </si>
+  <si>
+    <t>Fylgia</t>
+  </si>
+  <si>
+    <t>Ritch Mueller</t>
+  </si>
+  <si>
+    <t>EProint</t>
+  </si>
+  <si>
+    <t>58s</t>
+  </si>
+  <si>
+    <t>Sintons</t>
+  </si>
+  <si>
+    <t>47s</t>
+  </si>
+  <si>
+    <t>03min 41s</t>
+  </si>
+  <si>
+    <t>Smart &amp; Biggar</t>
+  </si>
+  <si>
+    <t>AGP Advokater</t>
+  </si>
+  <si>
+    <t>Osler Hoskin &amp; Harcourt</t>
+  </si>
+  <si>
+    <t>Shahid Law</t>
+  </si>
+  <si>
+    <t>RBK</t>
+  </si>
+  <si>
+    <t>DZP Law</t>
+  </si>
+  <si>
+    <t>01min 28s</t>
+  </si>
+  <si>
+    <t>Kew Law</t>
+  </si>
+  <si>
+    <t>Gorrissen Federspiel</t>
+  </si>
+  <si>
+    <t>Rennó Penteado Sampaio Advogados</t>
+  </si>
+  <si>
+    <t>SZA</t>
+  </si>
+  <si>
+    <t>Brinkmann &amp; Partner</t>
+  </si>
+  <si>
+    <t>Lawson Lundell</t>
+  </si>
+  <si>
+    <t>46s</t>
+  </si>
+  <si>
+    <t>Dimitrov Petrov &amp; Co</t>
+  </si>
+  <si>
+    <t>40s</t>
+  </si>
+  <si>
+    <t>Amorys</t>
+  </si>
+  <si>
+    <t>Faegre Drinker Biddle &amp; Reath</t>
+  </si>
+  <si>
+    <t>Burnet Duckworth &amp; Palmer</t>
+  </si>
+  <si>
+    <t>Astrea</t>
+  </si>
+  <si>
+    <t>Norens</t>
+  </si>
+  <si>
+    <t>03min 18s</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>Goodmans</t>
+  </si>
+  <si>
+    <t>Haavind</t>
   </si>
 </sst>
 </file>
@@ -2008,7 +2221,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -2029,6 +2242,1469 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>331</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>249</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>333</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>334</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>335</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>336</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>171</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>338</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>339</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>342</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>343</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>344</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>345</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>346</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>347</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>311</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>260</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>155</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>159</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>351</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>353</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>353</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>229</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>185</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>355</v>
+      </c>
+      <c r="C50" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>356</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>357</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C53" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B54" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>359</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C55" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C56" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>243</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C58" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>360</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C60" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C61" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C62" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C63" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>362</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C64" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="1">
+        <v>363</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C65" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="1">
+        <v>364</v>
+      </c>
+      <c r="B67" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="1">
+        <v>160</v>
+      </c>
+      <c r="B68" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C68" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1">
+        <v>365</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>324</v>
+      </c>
+      <c r="C70" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="1">
+        <v>366</v>
+      </c>
+      <c r="B71" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C71" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="1">
+        <v>367</v>
+      </c>
+      <c r="B72" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="B73" t="s" s="1">
+        <v>329</v>
+      </c>
+      <c r="C73" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="1">
+        <v>368</v>
+      </c>
+      <c r="B74" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C74" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="B75" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="B76" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="1">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="1">
+        <v>247</v>
+      </c>
+      <c r="B78" t="s" s="1">
+        <v>369</v>
+      </c>
+      <c r="C78" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="1">
+        <v>370</v>
+      </c>
+      <c r="B79" t="s" s="1">
+        <v>93</v>
+      </c>
+      <c r="C79" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="B80" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C80" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="B81" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C81" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
+        <v>174</v>
+      </c>
+      <c r="B82" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C82" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="1">
+        <v>372</v>
+      </c>
+      <c r="B83" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C83" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="1">
+        <v>374</v>
+      </c>
+      <c r="B84" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C84" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="B85" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="1">
+        <v>210</v>
+      </c>
+      <c r="B86" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C86" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="1">
+        <v>258</v>
+      </c>
+      <c r="B87" t="s" s="1">
+        <v>376</v>
+      </c>
+      <c r="C87" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B88" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C88" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B89" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C89" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="B90" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="C90" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="1">
+        <v>165</v>
+      </c>
+      <c r="B91" t="s" s="1">
+        <v>322</v>
+      </c>
+      <c r="C91" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="B92" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="C92" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="1">
+        <v>377</v>
+      </c>
+      <c r="B93" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C93" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="B94" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="C94" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="B95" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="1">
+        <v>379</v>
+      </c>
+      <c r="B96" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C96" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B97" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C97" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="1">
+        <v>380</v>
+      </c>
+      <c r="B98" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C98" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="B99" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C99" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="B100" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C100" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="B101" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C101" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="1">
+        <v>127</v>
+      </c>
+      <c r="B102" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C102" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="1">
+        <v>137</v>
+      </c>
+      <c r="B103" t="s" s="1">
+        <v>383</v>
+      </c>
+      <c r="C103" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="1">
+        <v>384</v>
+      </c>
+      <c r="B104" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C104" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="B105" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="C105" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
+        <v>385</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C106" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="1">
+        <v>386</v>
+      </c>
+      <c r="B107" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C107" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="1">
+        <v>387</v>
+      </c>
+      <c r="B108" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C108" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="1">
+        <v>388</v>
+      </c>
+      <c r="B110" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C110" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="1">
+        <v>389</v>
+      </c>
+      <c r="B112" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C112" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B113" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C113" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="1">
+        <v>391</v>
+      </c>
+      <c r="B114" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C114" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="B115" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C115" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="B116" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C116" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B117" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C117" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="B118" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="1">
+        <v>188</v>
+      </c>
+      <c r="B119" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C119" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B120" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C120" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="1">
+        <v>163</v>
+      </c>
+      <c r="B121" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C121" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="1">
+        <v>394</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C122" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="B123" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="1">
+        <v>395</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C124" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C125" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="B126" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>397</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C127" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C128" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C129" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="B130" t="s" s="1">
+        <v>398</v>
+      </c>
+      <c r="C130" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="1">
+        <v>399</v>
+      </c>
+      <c r="B131" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C131" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="1">
+        <v>112</v>
+      </c>
+      <c r="B132" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C132" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="1">
+        <v>400</v>
+      </c>
+      <c r="B133" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C133" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="1">
+        <v>401</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C134" t="s" s="1">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="429">
   <si>
     <t>Firm</t>
   </si>
@@ -1234,6 +1234,87 @@
   </si>
   <si>
     <t>Haavind</t>
+  </si>
+  <si>
+    <t>Castrén &amp; Snellman</t>
+  </si>
+  <si>
+    <t>03min 00s</t>
+  </si>
+  <si>
+    <t>BARENTSKRANS</t>
+  </si>
+  <si>
+    <t>Kanter</t>
+  </si>
+  <si>
+    <t>59s</t>
+  </si>
+  <si>
+    <t>Fidal</t>
+  </si>
+  <si>
+    <t>Codex</t>
+  </si>
+  <si>
+    <t>Holland And Knight</t>
+  </si>
+  <si>
+    <t>CLP Law</t>
+  </si>
+  <si>
+    <t>Boodle Hatfield</t>
+  </si>
+  <si>
+    <t>LPA Law</t>
+  </si>
+  <si>
+    <t>HBN Law</t>
+  </si>
+  <si>
+    <t>McDougall Gauley</t>
+  </si>
+  <si>
+    <t>Fillmore Riley</t>
+  </si>
+  <si>
+    <t>Langlois</t>
+  </si>
+  <si>
+    <t>CRCCD</t>
+  </si>
+  <si>
+    <t>Dale And Lessmann</t>
+  </si>
+  <si>
+    <t>02min 21s</t>
+  </si>
+  <si>
+    <t>Schurti Partners</t>
+  </si>
+  <si>
+    <t>Kvale</t>
+  </si>
+  <si>
+    <t>Aluko &amp; Oyebode</t>
+  </si>
+  <si>
+    <t>Blake Morgan</t>
+  </si>
+  <si>
+    <t>Lemstra Van der Korst</t>
+  </si>
+  <si>
+    <t>02min 49s</t>
+  </si>
+  <si>
+    <t>Ganado Advocates</t>
+  </si>
+  <si>
+    <t>03min 16s</t>
+  </si>
+  <si>
+    <t>S Horowitz &amp; Co</t>
   </si>
 </sst>
 </file>
@@ -2221,7 +2302,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -2246,10 +2327,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s" s="1">
         <v>271</v>
@@ -2257,21 +2338,21 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>108</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s" s="1">
         <v>271</v>
@@ -2279,21 +2360,21 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s" s="1">
         <v>271</v>
@@ -2301,32 +2382,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>273</v>
+        <v>403</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>333</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>334</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C9" t="s" s="1">
         <v>271</v>
@@ -2334,43 +2415,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>335</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>337</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s" s="1">
         <v>271</v>
@@ -2378,21 +2459,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s" s="1">
         <v>271</v>
@@ -2400,10 +2481,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>171</v>
+        <v>405</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>284</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s" s="1">
         <v>271</v>
@@ -2411,10 +2492,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s" s="1">
         <v>271</v>
@@ -2422,10 +2503,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s" s="1">
         <v>271</v>
@@ -2433,21 +2514,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
-        <v>339</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s" s="1">
         <v>271</v>
@@ -2455,10 +2536,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s" s="1">
         <v>271</v>
@@ -2466,21 +2547,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="C22" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>273</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s" s="1">
         <v>271</v>
@@ -2488,10 +2569,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s" s="1">
         <v>271</v>
@@ -2499,10 +2580,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
-        <v>344</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s" s="1">
         <v>271</v>
@@ -2510,32 +2591,32 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="C26" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s" s="1">
         <v>271</v>
@@ -2543,10 +2624,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
-        <v>346</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s" s="1">
         <v>271</v>
@@ -2554,10 +2635,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
-        <v>347</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s" s="1">
         <v>271</v>
@@ -2565,43 +2646,43 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
-        <v>348</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C33" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="1">
-        <v>260</v>
+        <v>408</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s" s="1">
         <v>271</v>
@@ -2609,10 +2690,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="1">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>349</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s" s="1">
         <v>271</v>
@@ -2620,21 +2701,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="1">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C36" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="1">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>66</v>
+        <v>375</v>
       </c>
       <c r="C37" t="s" s="1">
         <v>271</v>
@@ -2642,21 +2723,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="1">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="C38" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="1">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s" s="1">
         <v>271</v>
@@ -2664,10 +2745,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="1">
-        <v>351</v>
+        <v>155</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>352</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s" s="1">
         <v>271</v>
@@ -2675,10 +2756,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="1">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="C41" t="s" s="1">
         <v>271</v>
@@ -2686,21 +2767,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="1">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>284</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="1">
-        <v>353</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s" s="1">
         <v>271</v>
@@ -2708,7 +2789,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="1">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s" s="1">
         <v>27</v>
@@ -2719,21 +2800,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="1">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>276</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s" s="1">
         <v>271</v>
@@ -2741,54 +2822,54 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>49</v>
+        <v>302</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="1">
-        <v>229</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="1">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="C49" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="1">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>355</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="1">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s" s="1">
         <v>271</v>
@@ -2796,21 +2877,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="C52" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="1">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c r="C53" t="s" s="1">
         <v>271</v>
@@ -2818,10 +2899,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="1">
-        <v>358</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s" s="1">
         <v>271</v>
@@ -2829,65 +2910,65 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
-        <v>359</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C55" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C56" t="s" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
-        <v>169</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>274</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="C59" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
-        <v>360</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C60" t="s" s="1">
         <v>271</v>
@@ -2895,10 +2976,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
-        <v>254</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s" s="1">
         <v>271</v>
@@ -2906,10 +2987,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="1">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s" s="1">
         <v>271</v>
@@ -2917,10 +2998,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s" s="1">
-        <v>295</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s" s="1">
         <v>271</v>
@@ -2928,10 +3009,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>362</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s" s="1">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s" s="1">
         <v>271</v>
@@ -2939,10 +3020,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s" s="1">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s" s="1">
         <v>271</v>
@@ -2950,21 +3031,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="1">
-        <v>61</v>
+        <v>415</v>
       </c>
       <c r="B66" t="s" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="B67" t="s" s="1">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s" s="1">
         <v>271</v>
@@ -2972,10 +3053,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
-        <v>160</v>
+        <v>334</v>
       </c>
       <c r="B68" t="s" s="1">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s" s="1">
         <v>271</v>
@@ -2983,32 +3064,32 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s" s="1">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="C70" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>366</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s" s="1">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="C71" t="s" s="1">
         <v>271</v>
@@ -3016,10 +3097,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
-        <v>367</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s" s="1">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s" s="1">
         <v>271</v>
@@ -3027,21 +3108,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="B73" t="s" s="1">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="C73" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
-        <v>368</v>
+        <v>183</v>
       </c>
       <c r="B74" t="s" s="1">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="C74" t="s" s="1">
         <v>271</v>
@@ -3049,10 +3130,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>47</v>
+        <v>417</v>
       </c>
       <c r="B75" t="s" s="1">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s" s="1">
         <v>271</v>
@@ -3060,54 +3141,54 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="B76" t="s" s="1">
-        <v>27</v>
+        <v>313</v>
       </c>
       <c r="C76" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="B77" t="s" s="1">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="C77" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s" s="1">
-        <v>369</v>
+        <v>283</v>
       </c>
       <c r="C78" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>370</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s" s="1">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="C79" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="B80" t="s" s="1">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="C80" t="s" s="1">
         <v>271</v>
@@ -3115,18 +3196,18 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="1">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="B81" t="s" s="1">
         <v>69</v>
       </c>
       <c r="C81" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="1">
-        <v>174</v>
+        <v>326</v>
       </c>
       <c r="B82" t="s" s="1">
         <v>38</v>
@@ -3137,43 +3218,43 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="B83" t="s" s="1">
-        <v>373</v>
+        <v>287</v>
       </c>
       <c r="C83" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="B84" t="s" s="1">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="C84" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
-        <v>218</v>
+        <v>420</v>
       </c>
       <c r="B85" t="s" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C85" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="1">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s" s="1">
-        <v>375</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s" s="1">
         <v>271</v>
@@ -3181,32 +3262,32 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
-        <v>258</v>
+        <v>421</v>
       </c>
       <c r="B87" t="s" s="1">
-        <v>376</v>
+        <v>72</v>
       </c>
       <c r="C87" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="1">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B88" t="s" s="1">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="1">
-        <v>144</v>
+        <v>422</v>
       </c>
       <c r="B89" t="s" s="1">
-        <v>60</v>
+        <v>289</v>
       </c>
       <c r="C89" t="s" s="1">
         <v>271</v>
@@ -3214,32 +3295,32 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="1">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s" s="1">
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="1">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="B91" t="s" s="1">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="C91" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="1">
-        <v>51</v>
+        <v>338</v>
       </c>
       <c r="B92" t="s" s="1">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="C92" t="s" s="1">
         <v>271</v>
@@ -3247,10 +3328,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="1">
-        <v>377</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s" s="1">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="C93" t="s" s="1">
         <v>271</v>
@@ -3258,10 +3339,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="1">
-        <v>378</v>
+        <v>193</v>
       </c>
       <c r="B94" t="s" s="1">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="C94" t="s" s="1">
         <v>271</v>
@@ -3269,10 +3350,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="1">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s" s="1">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c r="C95" t="s" s="1">
         <v>270</v>
@@ -3280,10 +3361,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="1">
-        <v>379</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s" s="1">
-        <v>27</v>
+        <v>307</v>
       </c>
       <c r="C96" t="s" s="1">
         <v>5</v>
@@ -3291,10 +3372,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="1">
-        <v>154</v>
+        <v>321</v>
       </c>
       <c r="B97" t="s" s="1">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="C97" t="s" s="1">
         <v>271</v>
@@ -3302,21 +3383,21 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="1">
-        <v>380</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s" s="1">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="C98" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="1">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="B99" t="s" s="1">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s" s="1">
         <v>271</v>
@@ -3324,10 +3405,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="1">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="B100" t="s" s="1">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="C100" t="s" s="1">
         <v>271</v>
@@ -3335,10 +3416,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="1">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="B101" t="s" s="1">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s" s="1">
         <v>271</v>
@@ -3346,21 +3427,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="1">
-        <v>127</v>
+        <v>359</v>
       </c>
       <c r="B102" t="s" s="1">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="C102" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="1">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s" s="1">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="C103" t="s" s="1">
         <v>268</v>
@@ -3368,10 +3449,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="1">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B104" t="s" s="1">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="C104" t="s" s="1">
         <v>271</v>
@@ -3379,21 +3460,21 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="1">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B105" t="s" s="1">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="C105" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="1">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B106" t="s" s="1">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="C106" t="s" s="1">
         <v>271</v>
@@ -3401,21 +3482,21 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="1">
-        <v>386</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s" s="1">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="C107" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="1">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B108" t="s" s="1">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="C108" t="s" s="1">
         <v>271</v>
@@ -3423,32 +3504,32 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="1">
-        <v>110</v>
+        <v>426</v>
       </c>
       <c r="B109" t="s" s="1">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="1">
-        <v>388</v>
+        <v>256</v>
       </c>
       <c r="B110" t="s" s="1">
-        <v>273</v>
+        <v>427</v>
       </c>
       <c r="C110" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="1">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="B111" t="s" s="1">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s" s="1">
         <v>271</v>
@@ -3456,10 +3537,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="1">
-        <v>389</v>
+        <v>197</v>
       </c>
       <c r="B112" t="s" s="1">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="C112" t="s" s="1">
         <v>271</v>
@@ -3467,10 +3548,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="1">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="B113" t="s" s="1">
-        <v>390</v>
+        <v>69</v>
       </c>
       <c r="C113" t="s" s="1">
         <v>271</v>
@@ -3478,32 +3559,32 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="1">
-        <v>391</v>
+        <v>259</v>
       </c>
       <c r="B114" t="s" s="1">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C114" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="1">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="B115" t="s" s="1">
-        <v>392</v>
+        <v>34</v>
       </c>
       <c r="C115" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="1">
-        <v>222</v>
+        <v>428</v>
       </c>
       <c r="B116" t="s" s="1">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C116" t="s" s="1">
         <v>271</v>
@@ -3511,10 +3592,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="1">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="B117" t="s" s="1">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="C117" t="s" s="1">
         <v>271</v>
@@ -3522,188 +3603,12 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="1">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B118" t="s" s="1">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="C118" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="1">
-        <v>188</v>
-      </c>
-      <c r="B119" t="s" s="1">
-        <v>277</v>
-      </c>
-      <c r="C119" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="1">
-        <v>393</v>
-      </c>
-      <c r="B120" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C120" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="1">
-        <v>163</v>
-      </c>
-      <c r="B121" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C121" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="1">
-        <v>394</v>
-      </c>
-      <c r="B122" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C122" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="1">
-        <v>128</v>
-      </c>
-      <c r="B123" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C123" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="1">
-        <v>395</v>
-      </c>
-      <c r="B124" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C124" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="1">
-        <v>82</v>
-      </c>
-      <c r="B125" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C125" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="1">
-        <v>396</v>
-      </c>
-      <c r="B126" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C126" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="1">
-        <v>397</v>
-      </c>
-      <c r="B127" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C127" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="1">
-        <v>139</v>
-      </c>
-      <c r="B128" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C128" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="B129" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="C129" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="1">
-        <v>254</v>
-      </c>
-      <c r="B130" t="s" s="1">
-        <v>398</v>
-      </c>
-      <c r="C130" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="1">
-        <v>399</v>
-      </c>
-      <c r="B131" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C131" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="1">
-        <v>112</v>
-      </c>
-      <c r="B132" t="s" s="1">
-        <v>289</v>
-      </c>
-      <c r="C132" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="1">
-        <v>400</v>
-      </c>
-      <c r="B133" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C133" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="1">
-        <v>401</v>
-      </c>
-      <c r="B134" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C134" t="s" s="1">
         <v>271</v>
       </c>
     </row>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="458">
   <si>
     <t>Firm</t>
   </si>
@@ -1315,6 +1315,93 @@
   </si>
   <si>
     <t>S Horowitz &amp; Co</t>
+  </si>
+  <si>
+    <t>Vaneps</t>
+  </si>
+  <si>
+    <t>BYRO</t>
+  </si>
+  <si>
+    <t>Sidley</t>
+  </si>
+  <si>
+    <t>03min 07s</t>
+  </si>
+  <si>
+    <t>CWA Associates</t>
+  </si>
+  <si>
+    <t>Hügel</t>
+  </si>
+  <si>
+    <t>Mccann Fitz Gerald</t>
+  </si>
+  <si>
+    <t>Ploum</t>
+  </si>
+  <si>
+    <t>01min 47s</t>
+  </si>
+  <si>
+    <t>53s</t>
+  </si>
+  <si>
+    <t>McKercher</t>
+  </si>
+  <si>
+    <t>Delcade</t>
+  </si>
+  <si>
+    <t>03min 44s</t>
+  </si>
+  <si>
+    <t>Cleary Gottlieb</t>
+  </si>
+  <si>
+    <t>52s</t>
+  </si>
+  <si>
+    <t>CBA</t>
+  </si>
+  <si>
+    <t>Clarkslegal</t>
+  </si>
+  <si>
+    <t>Zepos And Yannopoulos</t>
+  </si>
+  <si>
+    <t>EC Legal Rubio</t>
+  </si>
+  <si>
+    <t>L&amp;E Global</t>
+  </si>
+  <si>
+    <t>01min 31s</t>
+  </si>
+  <si>
+    <t>Moalem Weitemeyer</t>
+  </si>
+  <si>
+    <t>01min 20s</t>
+  </si>
+  <si>
+    <t>STBB</t>
+  </si>
+  <si>
+    <t>AraozAndRueda</t>
+  </si>
+  <si>
+    <t>BDO</t>
+  </si>
+  <si>
+    <t>03min 57s</t>
+  </si>
+  <si>
+    <t>03min 01s</t>
+  </si>
+  <si>
+    <t>03min 12s</t>
   </si>
 </sst>
 </file>
@@ -2302,7 +2389,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -2327,10 +2414,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>230</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>25</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s" s="1">
         <v>271</v>
@@ -2338,10 +2425,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s" s="1">
         <v>271</v>
@@ -2349,10 +2436,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>330</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s" s="1">
         <v>271</v>
@@ -2360,54 +2447,54 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>402</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>403</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>54</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>404</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>289</v>
+        <v>432</v>
       </c>
       <c r="C9" t="s" s="1">
         <v>271</v>
@@ -2415,10 +2502,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s" s="1">
         <v>271</v>
@@ -2426,10 +2513,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>305</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="C11" t="s" s="1">
         <v>271</v>
@@ -2437,21 +2524,21 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>239</v>
+        <v>433</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>395</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s" s="1">
         <v>271</v>
@@ -2459,10 +2546,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s" s="1">
         <v>271</v>
@@ -2470,32 +2557,32 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>405</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s" s="1">
         <v>271</v>
@@ -2503,10 +2590,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
-        <v>134</v>
+        <v>435</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s" s="1">
         <v>271</v>
@@ -2514,21 +2601,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
-        <v>188</v>
+        <v>326</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
-        <v>94</v>
+        <v>400</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="C20" t="s" s="1">
         <v>271</v>
@@ -2536,10 +2623,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="C21" t="s" s="1">
         <v>271</v>
@@ -2547,21 +2634,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
-        <v>232</v>
+        <v>357</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C22" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
-        <v>407</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s" s="1">
         <v>271</v>
@@ -2569,21 +2656,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
-        <v>180</v>
+        <v>436</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s" s="1">
         <v>271</v>
@@ -2591,21 +2678,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>307</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s" s="1">
         <v>271</v>
@@ -2613,10 +2700,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
-        <v>236</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s" s="1">
         <v>271</v>
@@ -2624,10 +2711,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s" s="1">
         <v>271</v>
@@ -2635,21 +2722,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>11</v>
+        <v>437</v>
       </c>
       <c r="C30" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C31" t="s" s="1">
         <v>5</v>
@@ -2657,43 +2744,43 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
-        <v>199</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="C32" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="1">
-        <v>408</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="1">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s" s="1">
         <v>271</v>
@@ -2701,21 +2788,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="1">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C36" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="1">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>375</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s" s="1">
         <v>271</v>
@@ -2723,21 +2810,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="1">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="C38" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="1">
-        <v>62</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s" s="1">
         <v>271</v>
@@ -2745,10 +2832,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="1">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>69</v>
+        <v>438</v>
       </c>
       <c r="C40" t="s" s="1">
         <v>271</v>
@@ -2756,10 +2843,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="1">
-        <v>410</v>
+        <v>225</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C41" t="s" s="1">
         <v>271</v>
@@ -2767,21 +2854,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="1">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="1">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s" s="1">
         <v>271</v>
@@ -2789,21 +2876,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="1">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s" s="1">
         <v>271</v>
@@ -2811,21 +2898,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="1">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="C46" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>302</v>
+        <v>439</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s" s="1">
         <v>271</v>
@@ -2833,10 +2920,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="1">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>111</v>
+        <v>274</v>
       </c>
       <c r="C48" t="s" s="1">
         <v>271</v>
@@ -2844,10 +2931,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="1">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C49" t="s" s="1">
         <v>271</v>
@@ -2855,10 +2942,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="1">
-        <v>133</v>
+        <v>389</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s" s="1">
         <v>271</v>
@@ -2866,7 +2953,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="1">
-        <v>344</v>
+        <v>440</v>
       </c>
       <c r="B51" t="s" s="1">
         <v>66</v>
@@ -2877,21 +2964,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
-        <v>412</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C52" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="1">
-        <v>173</v>
+        <v>335</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>301</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s" s="1">
         <v>271</v>
@@ -2899,54 +2986,54 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="1">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>286</v>
+        <v>441</v>
       </c>
       <c r="C55" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
-        <v>413</v>
+        <v>346</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C56" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="C57" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
-        <v>396</v>
+        <v>260</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s" s="1">
         <v>271</v>
@@ -2954,21 +3041,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C59" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>281</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s" s="1">
         <v>271</v>
@@ -2976,10 +3063,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="C61" t="s" s="1">
         <v>271</v>
@@ -2987,10 +3074,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="1">
-        <v>4</v>
+        <v>438</v>
       </c>
       <c r="C62" t="s" s="1">
         <v>271</v>
@@ -2998,21 +3085,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s" s="1">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s" s="1">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="C64" t="s" s="1">
         <v>271</v>
@@ -3020,10 +3107,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s" s="1">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s" s="1">
         <v>271</v>
@@ -3031,7 +3118,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="1">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="B66" t="s" s="1">
         <v>25</v>
@@ -3042,10 +3129,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>317</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s" s="1">
-        <v>25</v>
+        <v>443</v>
       </c>
       <c r="C67" t="s" s="1">
         <v>271</v>
@@ -3053,10 +3140,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c r="B68" t="s" s="1">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s" s="1">
         <v>271</v>
@@ -3064,10 +3151,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
-        <v>102</v>
+        <v>444</v>
       </c>
       <c r="B69" t="s" s="1">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s" s="1">
         <v>271</v>
@@ -3075,10 +3162,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>416</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s" s="1">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s" s="1">
         <v>271</v>
@@ -3086,7 +3173,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>215</v>
+        <v>445</v>
       </c>
       <c r="B71" t="s" s="1">
         <v>281</v>
@@ -3097,21 +3184,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="B72" t="s" s="1">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="C72" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
-        <v>156</v>
+        <v>380</v>
       </c>
       <c r="B73" t="s" s="1">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C73" t="s" s="1">
         <v>271</v>
@@ -3119,10 +3206,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s" s="1">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="C74" t="s" s="1">
         <v>271</v>
@@ -3130,10 +3217,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="B75" t="s" s="1">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s" s="1">
         <v>271</v>
@@ -3141,21 +3228,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="B76" t="s" s="1">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="C76" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="B77" t="s" s="1">
-        <v>276</v>
+        <v>390</v>
       </c>
       <c r="C77" t="s" s="1">
         <v>271</v>
@@ -3163,21 +3250,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
-        <v>228</v>
+        <v>447</v>
       </c>
       <c r="B78" t="s" s="1">
-        <v>283</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s" s="1">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s" s="1">
         <v>271</v>
@@ -3185,10 +3272,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
-        <v>418</v>
+        <v>140</v>
       </c>
       <c r="B80" t="s" s="1">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C80" t="s" s="1">
         <v>271</v>
@@ -3196,43 +3283,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="1">
-        <v>190</v>
+        <v>448</v>
       </c>
       <c r="B81" t="s" s="1">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="1">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="B82" t="s" s="1">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="C82" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="B83" t="s" s="1">
-        <v>287</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c r="B84" t="s" s="1">
-        <v>419</v>
+        <v>116</v>
       </c>
       <c r="C84" t="s" s="1">
         <v>271</v>
@@ -3240,10 +3327,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="B85" t="s" s="1">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C85" t="s" s="1">
         <v>271</v>
@@ -3251,10 +3338,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="1">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s" s="1">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C86" t="s" s="1">
         <v>271</v>
@@ -3262,32 +3349,32 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
-        <v>421</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s" s="1">
-        <v>72</v>
+        <v>449</v>
       </c>
       <c r="C87" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="1">
-        <v>229</v>
+        <v>319</v>
       </c>
       <c r="B88" t="s" s="1">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="C88" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="1">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="B89" t="s" s="1">
-        <v>289</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s" s="1">
         <v>271</v>
@@ -3295,32 +3382,32 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="1">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="B90" t="s" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C90" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="1">
-        <v>343</v>
+        <v>141</v>
       </c>
       <c r="B91" t="s" s="1">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="1">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="B92" t="s" s="1">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s" s="1">
         <v>271</v>
@@ -3328,21 +3415,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="1">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s" s="1">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="1">
-        <v>193</v>
+        <v>450</v>
       </c>
       <c r="B94" t="s" s="1">
-        <v>383</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s" s="1">
         <v>271</v>
@@ -3350,32 +3437,32 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="1">
-        <v>21</v>
+        <v>347</v>
       </c>
       <c r="B95" t="s" s="1">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="C95" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="1">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="B96" t="s" s="1">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="1">
-        <v>321</v>
+        <v>220</v>
       </c>
       <c r="B97" t="s" s="1">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="C97" t="s" s="1">
         <v>271</v>
@@ -3383,43 +3470,43 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="1">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="B98" t="s" s="1">
-        <v>38</v>
+        <v>451</v>
       </c>
       <c r="C98" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="1">
-        <v>423</v>
+        <v>187</v>
       </c>
       <c r="B99" t="s" s="1">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="1">
-        <v>424</v>
+        <v>203</v>
       </c>
       <c r="B100" t="s" s="1">
-        <v>301</v>
+        <v>111</v>
       </c>
       <c r="C100" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="1">
-        <v>342</v>
+        <v>452</v>
       </c>
       <c r="B101" t="s" s="1">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="C101" t="s" s="1">
         <v>271</v>
@@ -3427,21 +3514,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="1">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="B102" t="s" s="1">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C102" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B103" t="s" s="1">
-        <v>425</v>
+        <v>274</v>
       </c>
       <c r="C103" t="s" s="1">
         <v>268</v>
@@ -3449,10 +3536,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="1">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B104" t="s" s="1">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C104" t="s" s="1">
         <v>271</v>
@@ -3460,43 +3547,43 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="1">
-        <v>385</v>
+        <v>204</v>
       </c>
       <c r="B105" t="s" s="1">
-        <v>276</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="1">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="B106" t="s" s="1">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="1">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="B107" t="s" s="1">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C107" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="1">
-        <v>378</v>
+        <v>198</v>
       </c>
       <c r="B108" t="s" s="1">
-        <v>301</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s" s="1">
         <v>271</v>
@@ -3504,10 +3591,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="1">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="B109" t="s" s="1">
-        <v>289</v>
+        <v>57</v>
       </c>
       <c r="C109" t="s" s="1">
         <v>271</v>
@@ -3515,32 +3602,32 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="1">
-        <v>256</v>
+        <v>453</v>
       </c>
       <c r="B110" t="s" s="1">
-        <v>427</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="1">
-        <v>47</v>
+        <v>454</v>
       </c>
       <c r="B111" t="s" s="1">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C111" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="1">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s" s="1">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="C112" t="s" s="1">
         <v>271</v>
@@ -3548,32 +3635,32 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="1">
-        <v>332</v>
+        <v>213</v>
       </c>
       <c r="B113" t="s" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C113" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="1">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="B114" t="s" s="1">
-        <v>267</v>
+        <v>455</v>
       </c>
       <c r="C114" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="1">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="B115" t="s" s="1">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="C115" t="s" s="1">
         <v>271</v>
@@ -3581,35 +3668,68 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="1">
-        <v>428</v>
+        <v>263</v>
       </c>
       <c r="B116" t="s" s="1">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="C116" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="1">
-        <v>336</v>
+        <v>31</v>
       </c>
       <c r="B117" t="s" s="1">
-        <v>301</v>
+        <v>457</v>
       </c>
       <c r="C117" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="1">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="B118" t="s" s="1">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="C118" t="s" s="1">
         <v>271</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="B119" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C119" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="B120" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C120" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="1">
+        <v>176</v>
+      </c>
+      <c r="B121" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C121" t="s" s="1">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="526">
   <si>
     <t>Firm</t>
   </si>
@@ -1402,6 +1402,210 @@
   </si>
   <si>
     <t>03min 12s</t>
+  </si>
+  <si>
+    <t>02min 41s</t>
+  </si>
+  <si>
+    <t>Bancila Diaconu si Asociatii</t>
+  </si>
+  <si>
+    <t>02s</t>
+  </si>
+  <si>
+    <t>03min 20s</t>
+  </si>
+  <si>
+    <t>03min 38s</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Araoz &amp; Rueda</t>
+  </si>
+  <si>
+    <t>Holst</t>
+  </si>
+  <si>
+    <t>Squire Patton Boggs</t>
+  </si>
+  <si>
+    <t>AB &amp; David</t>
+  </si>
+  <si>
+    <t>Van Der Putt</t>
+  </si>
+  <si>
+    <t>Peterka And Partners</t>
+  </si>
+  <si>
+    <t>Filip &amp; Company</t>
+  </si>
+  <si>
+    <t>Šelih And Partnerji</t>
+  </si>
+  <si>
+    <t>Hunton Andrews Kurth</t>
+  </si>
+  <si>
+    <t>PFP Law</t>
+  </si>
+  <si>
+    <t>Goerg</t>
+  </si>
+  <si>
+    <t>Orrick</t>
+  </si>
+  <si>
+    <t>Merilampi Attorneys</t>
+  </si>
+  <si>
+    <t>Haynes And Boone</t>
+  </si>
+  <si>
+    <t>Sullivan &amp; Worcester</t>
+  </si>
+  <si>
+    <t>Ogletree</t>
+  </si>
+  <si>
+    <t>Theart Mey</t>
+  </si>
+  <si>
+    <t>Suárez de Vivero</t>
+  </si>
+  <si>
+    <t>Mitel And Asociaţii</t>
+  </si>
+  <si>
+    <t>Duane Morris</t>
+  </si>
+  <si>
+    <t>Bentsi-Enchill Letsa &amp; Ankomah</t>
+  </si>
+  <si>
+    <t>03min 05s</t>
+  </si>
+  <si>
+    <t>LPA-GGV</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>Pillsbury Winthrop Shaw Pittman</t>
+  </si>
+  <si>
+    <t>01min 39s</t>
+  </si>
+  <si>
+    <t>03min 11s</t>
+  </si>
+  <si>
+    <t>01min 21s</t>
+  </si>
+  <si>
+    <t>FIVERS</t>
+  </si>
+  <si>
+    <t>MAQS</t>
+  </si>
+  <si>
+    <t>01s</t>
+  </si>
+  <si>
+    <t>Elverdam</t>
+  </si>
+  <si>
+    <t>02min 47s</t>
+  </si>
+  <si>
+    <t>Haslinger Nagele</t>
+  </si>
+  <si>
+    <t>02min 01s</t>
+  </si>
+  <si>
+    <t>01min 00s</t>
+  </si>
+  <si>
+    <t>RPC Legal</t>
+  </si>
+  <si>
+    <t>Porwisz and Partners</t>
+  </si>
+  <si>
+    <t>PricaAndPartners</t>
+  </si>
+  <si>
+    <t>Popovici Niţu StoicaAndAsociaţii</t>
+  </si>
+  <si>
+    <t>01min 12s</t>
+  </si>
+  <si>
+    <t>Zaki Hashem &amp; Partners</t>
+  </si>
+  <si>
+    <t>Firon Law</t>
+  </si>
+  <si>
+    <t>02min 12s</t>
+  </si>
+  <si>
+    <t>AVM Advogados</t>
+  </si>
+  <si>
+    <t>PM&amp;P</t>
+  </si>
+  <si>
+    <t>Nysingh advocaten-notarissen N.V.</t>
+  </si>
+  <si>
+    <t>Mayer Brown</t>
+  </si>
+  <si>
+    <t>Zulficar &amp; Partners</t>
+  </si>
+  <si>
+    <t>MLT Aikins</t>
+  </si>
+  <si>
+    <t>Cirio</t>
+  </si>
+  <si>
+    <t>03min 02s</t>
+  </si>
+  <si>
+    <t>BCLP Law</t>
+  </si>
+  <si>
+    <t>01min 46s</t>
+  </si>
+  <si>
+    <t>FLICHY GRANGÉ</t>
+  </si>
+  <si>
+    <t>Broseta</t>
+  </si>
+  <si>
+    <t>02min 36s</t>
+  </si>
+  <si>
+    <t>Shalakany</t>
+  </si>
+  <si>
+    <t>BAHR</t>
+  </si>
+  <si>
+    <t>Rădulescu And Mușoi</t>
+  </si>
+  <si>
+    <t>02min 39s</t>
+  </si>
+  <si>
+    <t>02min 56s</t>
   </si>
 </sst>
 </file>
@@ -2389,7 +2593,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -2414,21 +2618,21 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>429</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>392</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>430</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s" s="1">
         <v>271</v>
@@ -2436,43 +2640,43 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>289</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>171</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s" s="1">
         <v>271</v>
@@ -2480,21 +2684,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>431</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>306</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>432</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s" s="1">
         <v>271</v>
@@ -2502,21 +2706,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>143</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s" s="1">
         <v>271</v>
@@ -2524,43 +2728,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>433</v>
+        <v>511</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s" s="1">
         <v>5</v>
@@ -2568,21 +2772,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>304</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
-        <v>434</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s" s="1">
         <v>271</v>
@@ -2590,10 +2794,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
-        <v>435</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>288</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s" s="1">
         <v>271</v>
@@ -2601,10 +2805,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
-        <v>326</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s" s="1">
         <v>5</v>
@@ -2612,10 +2816,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C20" t="s" s="1">
         <v>271</v>
@@ -2623,21 +2827,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
-        <v>357</v>
+        <v>446</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C22" t="s" s="1">
         <v>271</v>
@@ -2645,10 +2849,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s" s="1">
         <v>271</v>
@@ -2656,21 +2860,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
-        <v>436</v>
+        <v>308</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
-        <v>231</v>
+        <v>512</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="C25" t="s" s="1">
         <v>271</v>
@@ -2678,10 +2882,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="C26" t="s" s="1">
         <v>271</v>
@@ -2689,10 +2893,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
-        <v>68</v>
+        <v>401</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s" s="1">
         <v>271</v>
@@ -2700,10 +2904,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="C28" t="s" s="1">
         <v>271</v>
@@ -2711,10 +2915,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
-        <v>182</v>
+        <v>493</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>72</v>
+        <v>301</v>
       </c>
       <c r="C29" t="s" s="1">
         <v>271</v>
@@ -2722,21 +2926,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>437</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>286</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s" s="1">
         <v>5</v>
@@ -2744,7 +2948,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
-        <v>345</v>
+        <v>513</v>
       </c>
       <c r="B32" t="s" s="1">
         <v>286</v>
@@ -2755,10 +2959,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="C33" t="s" s="1">
         <v>271</v>
@@ -2766,21 +2970,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="1">
-        <v>178</v>
+        <v>345</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>4</v>
+        <v>289</v>
       </c>
       <c r="C34" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="1">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="C35" t="s" s="1">
         <v>271</v>
@@ -2788,21 +2992,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="1">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="1">
-        <v>124</v>
+        <v>424</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="C37" t="s" s="1">
         <v>271</v>
@@ -2810,10 +3014,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="1">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s" s="1">
         <v>271</v>
@@ -2821,10 +3025,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="1">
-        <v>303</v>
+        <v>514</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="C39" t="s" s="1">
         <v>271</v>
@@ -2832,21 +3036,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="1">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>438</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="1">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>281</v>
+        <v>515</v>
       </c>
       <c r="C41" t="s" s="1">
         <v>271</v>
@@ -2854,10 +3058,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="1">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s" s="1">
         <v>271</v>
@@ -2865,21 +3069,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="1">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="C43" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="1">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s" s="1">
         <v>271</v>
@@ -2887,10 +3091,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
-        <v>394</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s" s="1">
         <v>271</v>
@@ -2898,10 +3102,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="1">
-        <v>157</v>
+        <v>516</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>283</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s" s="1">
         <v>268</v>
@@ -2909,10 +3113,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>84</v>
+        <v>517</v>
       </c>
       <c r="C47" t="s" s="1">
         <v>271</v>
@@ -2920,21 +3124,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="1">
-        <v>382</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C48" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="1">
-        <v>185</v>
+        <v>518</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s" s="1">
         <v>271</v>
@@ -2942,10 +3146,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="1">
-        <v>389</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s" s="1">
         <v>271</v>
@@ -2953,65 +3157,65 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="1">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>66</v>
+        <v>279</v>
       </c>
       <c r="C51" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>292</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="1">
-        <v>335</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="1">
-        <v>123</v>
+        <v>336</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="C54" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>441</v>
+        <v>281</v>
       </c>
       <c r="C55" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
-        <v>346</v>
+        <v>454</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s" s="1">
         <v>271</v>
@@ -3019,10 +3223,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s" s="1">
         <v>271</v>
@@ -3030,10 +3234,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s" s="1">
         <v>271</v>
@@ -3041,10 +3245,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s" s="1">
         <v>5</v>
@@ -3052,10 +3256,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>116</v>
+        <v>286</v>
       </c>
       <c r="C60" t="s" s="1">
         <v>271</v>
@@ -3063,10 +3267,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s" s="1">
         <v>271</v>
@@ -3074,32 +3278,32 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
-        <v>442</v>
+        <v>228</v>
       </c>
       <c r="B62" t="s" s="1">
-        <v>438</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
-        <v>154</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="1">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="B64" t="s" s="1">
-        <v>273</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s" s="1">
         <v>271</v>
@@ -3107,10 +3311,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="B65" t="s" s="1">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="C65" t="s" s="1">
         <v>271</v>
@@ -3118,10 +3322,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="1">
-        <v>379</v>
+        <v>252</v>
       </c>
       <c r="B66" t="s" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s" s="1">
         <v>271</v>
@@ -3129,21 +3333,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="B67" t="s" s="1">
-        <v>443</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
-        <v>211</v>
+        <v>366</v>
       </c>
       <c r="B68" t="s" s="1">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="C68" t="s" s="1">
         <v>271</v>
@@ -3151,10 +3355,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
-        <v>444</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s" s="1">
         <v>271</v>
@@ -3162,54 +3366,54 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s" s="1">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="C70" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>445</v>
+        <v>152</v>
       </c>
       <c r="B71" t="s" s="1">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C71" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
-        <v>221</v>
+        <v>519</v>
       </c>
       <c r="B72" t="s" s="1">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
-        <v>380</v>
+        <v>248</v>
       </c>
       <c r="B73" t="s" s="1">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
-        <v>175</v>
+        <v>391</v>
       </c>
       <c r="B74" t="s" s="1">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C74" t="s" s="1">
         <v>271</v>
@@ -3217,10 +3421,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>446</v>
+        <v>387</v>
       </c>
       <c r="B75" t="s" s="1">
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s" s="1">
         <v>271</v>
@@ -3228,21 +3432,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s" s="1">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="C76" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s" s="1">
-        <v>390</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s" s="1">
         <v>271</v>
@@ -3250,65 +3454,65 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
-        <v>447</v>
+        <v>222</v>
       </c>
       <c r="B78" t="s" s="1">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>181</v>
+        <v>433</v>
       </c>
       <c r="B79" t="s" s="1">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="C79" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B80" t="s" s="1">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="1">
-        <v>448</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s" s="1">
-        <v>273</v>
+        <v>520</v>
       </c>
       <c r="C81" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="1">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="B82" t="s" s="1">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="C82" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="B83" t="s" s="1">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="C83" t="s" s="1">
         <v>271</v>
@@ -3316,21 +3520,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="B84" t="s" s="1">
-        <v>116</v>
+        <v>286</v>
       </c>
       <c r="C84" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B85" t="s" s="1">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C85" t="s" s="1">
         <v>271</v>
@@ -3338,32 +3542,32 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="1">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s" s="1">
-        <v>66</v>
+        <v>324</v>
       </c>
       <c r="C86" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
-        <v>86</v>
+        <v>396</v>
       </c>
       <c r="B87" t="s" s="1">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="1">
-        <v>319</v>
+        <v>134</v>
       </c>
       <c r="B88" t="s" s="1">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s" s="1">
         <v>271</v>
@@ -3371,10 +3575,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="1">
-        <v>387</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s" s="1">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="C89" t="s" s="1">
         <v>271</v>
@@ -3382,54 +3586,54 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="1">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="B90" t="s" s="1">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="1">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B91" t="s" s="1">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C91" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="1">
-        <v>368</v>
+        <v>138</v>
       </c>
       <c r="B92" t="s" s="1">
-        <v>23</v>
+        <v>390</v>
       </c>
       <c r="C92" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="1">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s" s="1">
-        <v>4</v>
+        <v>279</v>
       </c>
       <c r="C93" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="1">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B94" t="s" s="1">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="C94" t="s" s="1">
         <v>271</v>
@@ -3437,21 +3641,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="1">
-        <v>347</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s" s="1">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="C95" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="1">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="B96" t="s" s="1">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="C96" t="s" s="1">
         <v>271</v>
@@ -3459,32 +3663,32 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="1">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B97" t="s" s="1">
-        <v>283</v>
+        <v>91</v>
       </c>
       <c r="C97" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="1">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="B98" t="s" s="1">
-        <v>451</v>
+        <v>273</v>
       </c>
       <c r="C98" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="1">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s" s="1">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="C99" t="s" s="1">
         <v>5</v>
@@ -3492,10 +3696,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="1">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s" s="1">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="C100" t="s" s="1">
         <v>5</v>
@@ -3503,10 +3707,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="1">
-        <v>452</v>
+        <v>24</v>
       </c>
       <c r="B101" t="s" s="1">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="C101" t="s" s="1">
         <v>271</v>
@@ -3514,32 +3718,32 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="1">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="B102" t="s" s="1">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C102" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="1">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s" s="1">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C103" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="1">
-        <v>397</v>
+        <v>214</v>
       </c>
       <c r="B104" t="s" s="1">
-        <v>34</v>
+        <v>275</v>
       </c>
       <c r="C104" t="s" s="1">
         <v>271</v>
@@ -3547,65 +3751,65 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="1">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="B105" t="s" s="1">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="C105" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="1">
-        <v>119</v>
+        <v>521</v>
       </c>
       <c r="B106" t="s" s="1">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C106" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="1">
-        <v>138</v>
+        <v>429</v>
       </c>
       <c r="B107" t="s" s="1">
-        <v>280</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="1">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="B108" t="s" s="1">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C108" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="1">
-        <v>399</v>
+        <v>149</v>
       </c>
       <c r="B109" t="s" s="1">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="C109" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="1">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="B110" t="s" s="1">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="C110" t="s" s="1">
         <v>271</v>
@@ -3613,21 +3817,21 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="1">
-        <v>454</v>
+        <v>523</v>
       </c>
       <c r="B111" t="s" s="1">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="C111" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="1">
-        <v>108</v>
+        <v>234</v>
       </c>
       <c r="B112" t="s" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C112" t="s" s="1">
         <v>271</v>
@@ -3635,43 +3839,43 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="1">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c r="B113" t="s" s="1">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="C113" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="1">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s" s="1">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="C114" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="1">
-        <v>350</v>
+        <v>187</v>
       </c>
       <c r="B115" t="s" s="1">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="C115" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="1">
-        <v>263</v>
+        <v>326</v>
       </c>
       <c r="B116" t="s" s="1">
-        <v>456</v>
+        <v>276</v>
       </c>
       <c r="C116" t="s" s="1">
         <v>5</v>
@@ -3682,7 +3886,7 @@
         <v>31</v>
       </c>
       <c r="B117" t="s" s="1">
-        <v>457</v>
+        <v>69</v>
       </c>
       <c r="C117" t="s" s="1">
         <v>268</v>
@@ -3690,32 +3894,32 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="1">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="B118" t="s" s="1">
-        <v>98</v>
+        <v>525</v>
       </c>
       <c r="C118" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="1">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B119" t="s" s="1">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="C119" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="1">
-        <v>199</v>
+        <v>428</v>
       </c>
       <c r="B120" t="s" s="1">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s" s="1">
         <v>5</v>
@@ -3723,13 +3927,46 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="1">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="B121" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C121" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="C122" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="1">
+        <v>262</v>
+      </c>
+      <c r="B123" t="s" s="1">
         <v>267</v>
       </c>
-      <c r="C121" t="s" s="1">
-        <v>270</v>
+      <c r="C123" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4467" uniqueCount="529">
   <si>
     <t>Firm</t>
   </si>
@@ -1606,6 +1606,15 @@
   </si>
   <si>
     <t>02min 56s</t>
+  </si>
+  <si>
+    <t>02min 35s</t>
+  </si>
+  <si>
+    <t>02min 30s</t>
+  </si>
+  <si>
+    <t>02min 06s</t>
   </si>
 </sst>
 </file>
@@ -2593,7 +2602,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C234"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -2618,43 +2627,43 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>358</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s" s="1">
         <v>271</v>
@@ -2662,10 +2671,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s" s="1">
         <v>271</v>
@@ -2673,10 +2682,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>510</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>13</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s" s="1">
         <v>271</v>
@@ -2684,7 +2693,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>201</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s" s="1">
         <v>289</v>
@@ -2695,10 +2704,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>57</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s" s="1">
         <v>271</v>
@@ -2706,10 +2715,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>444</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>267</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s" s="1">
         <v>5</v>
@@ -2717,10 +2726,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>353</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s" s="1">
         <v>271</v>
@@ -2728,54 +2737,54 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>511</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>288</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>229</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>313</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>315</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>283</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>116</v>
+        <v>301</v>
       </c>
       <c r="C16" t="s" s="1">
         <v>271</v>
@@ -2783,21 +2792,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
-        <v>163</v>
+        <v>308</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
-        <v>59</v>
+        <v>429</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s" s="1">
         <v>271</v>
@@ -2805,21 +2814,21 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
-        <v>203</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C20" t="s" s="1">
         <v>271</v>
@@ -2827,10 +2836,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s" s="1">
         <v>270</v>
@@ -2838,7 +2847,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
-        <v>446</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="1">
         <v>276</v>
@@ -2849,10 +2858,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s" s="1">
         <v>271</v>
@@ -2860,10 +2869,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s" s="1">
         <v>271</v>
@@ -2871,10 +2880,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C25" t="s" s="1">
         <v>271</v>
@@ -2882,10 +2891,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s" s="1">
         <v>271</v>
@@ -2893,10 +2902,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
-        <v>401</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s" s="1">
         <v>271</v>
@@ -2904,10 +2913,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
-        <v>65</v>
+        <v>501</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>289</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s" s="1">
         <v>271</v>
@@ -2915,10 +2924,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>301</v>
+        <v>392</v>
       </c>
       <c r="C29" t="s" s="1">
         <v>271</v>
@@ -2926,10 +2935,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
-        <v>300</v>
+        <v>483</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>34</v>
+        <v>337</v>
       </c>
       <c r="C30" t="s" s="1">
         <v>271</v>
@@ -2937,21 +2946,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
-        <v>513</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s" s="1">
         <v>271</v>
@@ -2959,10 +2968,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
-        <v>70</v>
+        <v>519</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s" s="1">
         <v>271</v>
@@ -2970,10 +2979,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="1">
-        <v>345</v>
+        <v>495</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s" s="1">
         <v>271</v>
@@ -2981,32 +2990,32 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="1">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>280</v>
+        <v>494</v>
       </c>
       <c r="C35" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="1">
-        <v>176</v>
+        <v>244</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="C36" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="1">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>301</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s" s="1">
         <v>271</v>
@@ -3014,43 +3023,43 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="1">
-        <v>330</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>72</v>
+        <v>491</v>
       </c>
       <c r="C38" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="1">
-        <v>514</v>
+        <v>444</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="1">
-        <v>318</v>
+        <v>480</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="1">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>515</v>
+        <v>337</v>
       </c>
       <c r="C41" t="s" s="1">
         <v>271</v>
@@ -3058,32 +3067,32 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="1">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="C42" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="1">
-        <v>219</v>
+        <v>395</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="C43" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="1">
-        <v>205</v>
+        <v>522</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="C44" t="s" s="1">
         <v>271</v>
@@ -3091,10 +3100,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
-        <v>173</v>
+        <v>436</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s" s="1">
         <v>271</v>
@@ -3102,21 +3111,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="1">
-        <v>516</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>4</v>
+        <v>526</v>
       </c>
       <c r="C46" t="s" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>351</v>
+        <v>488</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>517</v>
+        <v>337</v>
       </c>
       <c r="C47" t="s" s="1">
         <v>271</v>
@@ -3124,32 +3133,32 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="1">
-        <v>46</v>
+        <v>421</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>289</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="1">
-        <v>518</v>
+        <v>187</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="1">
-        <v>97</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s" s="1">
         <v>271</v>
@@ -3157,43 +3166,43 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="1">
-        <v>371</v>
+        <v>474</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
-        <v>434</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s" s="1">
         <v>25</v>
       </c>
       <c r="C52" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="1">
-        <v>119</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="1">
-        <v>336</v>
+        <v>225</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s" s="1">
         <v>271</v>
@@ -3201,21 +3210,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
-        <v>179</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
-        <v>454</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="C56" t="s" s="1">
         <v>271</v>
@@ -3223,21 +3232,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
-        <v>317</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s" s="1">
         <v>271</v>
@@ -3245,21 +3254,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
-        <v>259</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="C59" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
-        <v>230</v>
+        <v>424</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s" s="1">
         <v>271</v>
@@ -3267,29 +3276,29 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="C61" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
-        <v>228</v>
+        <v>428</v>
       </c>
       <c r="B62" t="s" s="1">
         <v>52</v>
       </c>
       <c r="C62" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
-        <v>423</v>
+        <v>162</v>
       </c>
       <c r="B63" t="s" s="1">
         <v>7</v>
@@ -3300,10 +3309,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>343</v>
+        <v>518</v>
       </c>
       <c r="B64" t="s" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s" s="1">
         <v>271</v>
@@ -3311,10 +3320,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
-        <v>410</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s" s="1">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C65" t="s" s="1">
         <v>271</v>
@@ -3322,10 +3331,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="1">
-        <v>252</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s" s="1">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="C66" t="s" s="1">
         <v>271</v>
@@ -3333,10 +3342,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s" s="1">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="C67" t="s" s="1">
         <v>5</v>
@@ -3344,10 +3353,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
-        <v>366</v>
+        <v>476</v>
       </c>
       <c r="B68" t="s" s="1">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C68" t="s" s="1">
         <v>271</v>
@@ -3355,10 +3364,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
-        <v>74</v>
+        <v>512</v>
       </c>
       <c r="B69" t="s" s="1">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s" s="1">
         <v>271</v>
@@ -3366,32 +3375,32 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>86</v>
+        <v>367</v>
       </c>
       <c r="B70" t="s" s="1">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>152</v>
+        <v>414</v>
       </c>
       <c r="B71" t="s" s="1">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="C71" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
-        <v>519</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s" s="1">
-        <v>286</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s" s="1">
         <v>271</v>
@@ -3399,21 +3408,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
-        <v>248</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s" s="1">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
-        <v>391</v>
+        <v>482</v>
       </c>
       <c r="B74" t="s" s="1">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="C74" t="s" s="1">
         <v>271</v>
@@ -3421,32 +3430,32 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>387</v>
+        <v>204</v>
       </c>
       <c r="B75" t="s" s="1">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s" s="1">
-        <v>280</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>144</v>
+        <v>366</v>
       </c>
       <c r="B77" t="s" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s" s="1">
         <v>271</v>
@@ -3454,21 +3463,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s" s="1">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="C78" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>433</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s" s="1">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s" s="1">
         <v>5</v>
@@ -3476,10 +3485,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="B80" t="s" s="1">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="C80" t="s" s="1">
         <v>270</v>
@@ -3487,32 +3496,32 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="1">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s" s="1">
-        <v>520</v>
+        <v>297</v>
       </c>
       <c r="C81" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="1">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s" s="1">
-        <v>275</v>
+        <v>34</v>
       </c>
       <c r="C82" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="B83" t="s" s="1">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s" s="1">
         <v>271</v>
@@ -3520,21 +3529,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
-        <v>238</v>
+        <v>459</v>
       </c>
       <c r="B84" t="s" s="1">
         <v>286</v>
       </c>
       <c r="C84" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="B85" t="s" s="1">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s" s="1">
         <v>271</v>
@@ -3542,21 +3551,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="1">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s" s="1">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="C86" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
-        <v>396</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s" s="1">
         <v>271</v>
@@ -3564,10 +3573,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="1">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="B88" t="s" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s" s="1">
         <v>271</v>
@@ -3575,10 +3584,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="1">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s" s="1">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C89" t="s" s="1">
         <v>271</v>
@@ -3586,54 +3595,54 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="1">
-        <v>154</v>
+        <v>354</v>
       </c>
       <c r="B90" t="s" s="1">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="C90" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="1">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="B91" t="s" s="1">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C91" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="1">
-        <v>138</v>
+        <v>303</v>
       </c>
       <c r="B92" t="s" s="1">
-        <v>390</v>
+        <v>289</v>
       </c>
       <c r="C92" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="1">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="B93" t="s" s="1">
-        <v>279</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="1">
-        <v>440</v>
+        <v>314</v>
       </c>
       <c r="B94" t="s" s="1">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C94" t="s" s="1">
         <v>271</v>
@@ -3641,10 +3650,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="1">
-        <v>162</v>
+        <v>523</v>
       </c>
       <c r="B95" t="s" s="1">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C95" t="s" s="1">
         <v>5</v>
@@ -3655,7 +3664,7 @@
         <v>237</v>
       </c>
       <c r="B96" t="s" s="1">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s" s="1">
         <v>271</v>
@@ -3663,21 +3672,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="1">
-        <v>195</v>
+        <v>447</v>
       </c>
       <c r="B97" t="s" s="1">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="1">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="B98" t="s" s="1">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C98" t="s" s="1">
         <v>271</v>
@@ -3685,32 +3694,32 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="1">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="B99" t="s" s="1">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="1">
-        <v>99</v>
+        <v>503</v>
       </c>
       <c r="B100" t="s" s="1">
-        <v>27</v>
+        <v>460</v>
       </c>
       <c r="C100" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="1">
-        <v>24</v>
+        <v>442</v>
       </c>
       <c r="B101" t="s" s="1">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="C101" t="s" s="1">
         <v>271</v>
@@ -3718,21 +3727,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="1">
-        <v>409</v>
+        <v>218</v>
       </c>
       <c r="B102" t="s" s="1">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="C102" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="1">
-        <v>142</v>
+        <v>407</v>
       </c>
       <c r="B103" t="s" s="1">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C103" t="s" s="1">
         <v>271</v>
@@ -3740,10 +3749,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="1">
-        <v>214</v>
+        <v>397</v>
       </c>
       <c r="B104" t="s" s="1">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C104" t="s" s="1">
         <v>271</v>
@@ -3751,10 +3760,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="1">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="B105" t="s" s="1">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C105" t="s" s="1">
         <v>271</v>
@@ -3762,10 +3771,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="1">
-        <v>521</v>
+        <v>152</v>
       </c>
       <c r="B106" t="s" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C106" t="s" s="1">
         <v>271</v>
@@ -3773,10 +3782,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="1">
-        <v>429</v>
+        <v>222</v>
       </c>
       <c r="B107" t="s" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s" s="1">
         <v>271</v>
@@ -3784,65 +3793,65 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="1">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="B108" t="s" s="1">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="C108" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="1">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B109" t="s" s="1">
-        <v>281</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="1">
-        <v>522</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s" s="1">
-        <v>284</v>
+        <v>17</v>
       </c>
       <c r="C110" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="1">
-        <v>523</v>
+        <v>194</v>
       </c>
       <c r="B111" t="s" s="1">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="C111" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="1">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="B112" t="s" s="1">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C112" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="1">
-        <v>338</v>
+        <v>450</v>
       </c>
       <c r="B113" t="s" s="1">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c r="C113" t="s" s="1">
         <v>271</v>
@@ -3850,87 +3859,87 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="1">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="B114" t="s" s="1">
-        <v>524</v>
+        <v>273</v>
       </c>
       <c r="C114" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="1">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B115" t="s" s="1">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C115" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="1">
-        <v>326</v>
+        <v>511</v>
       </c>
       <c r="B116" t="s" s="1">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="C116" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="1">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="B117" t="s" s="1">
-        <v>69</v>
+        <v>527</v>
       </c>
       <c r="C117" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="1">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s" s="1">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="C118" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="1">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="B119" t="s" s="1">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="C119" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="1">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="B120" t="s" s="1">
-        <v>15</v>
+        <v>301</v>
       </c>
       <c r="C120" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="1">
-        <v>82</v>
+        <v>468</v>
       </c>
       <c r="B121" t="s" s="1">
-        <v>27</v>
+        <v>337</v>
       </c>
       <c r="C121" t="s" s="1">
         <v>271</v>
@@ -3938,35 +3947,1245 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="1">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B122" t="s" s="1">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="C122" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="1">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s" s="1">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="1">
-        <v>447</v>
+        <v>105</v>
       </c>
       <c r="B124" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C124" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C125" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="1">
+        <v>391</v>
+      </c>
+      <c r="B126" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C126" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C127" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="1">
+        <v>394</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C128" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="1">
+        <v>415</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C129" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="1">
+        <v>180</v>
+      </c>
+      <c r="B130" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C130" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B131" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C131" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="1">
+        <v>487</v>
+      </c>
+      <c r="B132" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="1">
+        <v>471</v>
+      </c>
+      <c r="B133" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C133" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>460</v>
+      </c>
+      <c r="C134" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C135" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="1">
+        <v>452</v>
+      </c>
+      <c r="B136" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C136" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="1">
+        <v>189</v>
+      </c>
+      <c r="B137" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C137" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="1">
+        <v>477</v>
+      </c>
+      <c r="B138" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C138" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="1">
+        <v>418</v>
+      </c>
+      <c r="B139" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C139" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="1">
+        <v>479</v>
+      </c>
+      <c r="B140" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C140" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="B141" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C141" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B142" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C142" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="1">
+        <v>387</v>
+      </c>
+      <c r="B143" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C143" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="1">
+        <v>380</v>
+      </c>
+      <c r="B144" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C144" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B145" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C145" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B146" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C146" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="1">
+        <v>416</v>
+      </c>
+      <c r="B147" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C147" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C148" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="1">
+        <v>312</v>
+      </c>
+      <c r="B149" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C149" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="1">
+        <v>336</v>
+      </c>
+      <c r="B150" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="C150" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C151" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="1">
+        <v>363</v>
+      </c>
+      <c r="B152" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C152" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="1">
+        <v>323</v>
+      </c>
+      <c r="B153" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C153" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="1">
+        <v>368</v>
+      </c>
+      <c r="B154" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C154" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="B155" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C155" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B156" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C156" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B157" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C157" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="B158" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C158" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="B159" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C159" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="B160" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C160" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="1">
+        <v>319</v>
+      </c>
+      <c r="B161" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C161" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="1">
+        <v>264</v>
+      </c>
+      <c r="B162" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C162" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="1">
+        <v>402</v>
+      </c>
+      <c r="B163" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C163" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="1">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="C164" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="B165" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C165" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="1">
+        <v>400</v>
+      </c>
+      <c r="B166" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C166" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="1">
+        <v>439</v>
+      </c>
+      <c r="B167" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="B168" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C168" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="1">
+        <v>506</v>
+      </c>
+      <c r="B169" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C169" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="1">
+        <v>343</v>
+      </c>
+      <c r="B170" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C170" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="1">
+        <v>246</v>
+      </c>
+      <c r="B171" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C171" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B172" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C172" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="B173" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C173" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="B174" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C174" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="B175" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C175" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="B176" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C176" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="1">
+        <v>434</v>
+      </c>
+      <c r="B177" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C177" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="1">
+        <v>470</v>
+      </c>
+      <c r="B178" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C178" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B179" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C179" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="1">
+        <v>212</v>
+      </c>
+      <c r="B180" t="s" s="1">
         <v>23</v>
       </c>
-      <c r="C124" t="s" s="1">
+      <c r="C180" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="1">
+        <v>300</v>
+      </c>
+      <c r="B181" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C181" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="1">
+        <v>342</v>
+      </c>
+      <c r="B182" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C182" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="B183" t="s" s="1">
+        <v>460</v>
+      </c>
+      <c r="C183" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B184" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C184" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="B185" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C185" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="1">
+        <v>486</v>
+      </c>
+      <c r="B186" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C186" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="1">
+        <v>164</v>
+      </c>
+      <c r="B187" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C187" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="1">
+        <v>262</v>
+      </c>
+      <c r="B188" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C188" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="B189" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C189" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="1">
+        <v>514</v>
+      </c>
+      <c r="B190" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C190" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="1">
+        <v>409</v>
+      </c>
+      <c r="B191" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C191" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="1">
+        <v>315</v>
+      </c>
+      <c r="B192" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C192" t="s" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B193" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C193" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="1">
+        <v>508</v>
+      </c>
+      <c r="B194" t="s" s="1">
+        <v>499</v>
+      </c>
+      <c r="C194" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B195" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C195" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="1">
+        <v>185</v>
+      </c>
+      <c r="B196" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C196" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="1">
+        <v>160</v>
+      </c>
+      <c r="B197" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C197" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="1">
+        <v>171</v>
+      </c>
+      <c r="B198" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C198" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="1">
+        <v>320</v>
+      </c>
+      <c r="B199" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C199" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="1">
+        <v>500</v>
+      </c>
+      <c r="B200" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C200" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B201" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C201" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="B202" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C202" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="B203" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C203" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B204" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="B205" t="s" s="1">
+        <v>329</v>
+      </c>
+      <c r="C205" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="1">
+        <v>362</v>
+      </c>
+      <c r="B206" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C206" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="B207" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C207" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="B208" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="1">
+        <v>388</v>
+      </c>
+      <c r="B209" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C209" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="1">
+        <v>345</v>
+      </c>
+      <c r="B210" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C210" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="1">
+        <v>227</v>
+      </c>
+      <c r="B211" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C211" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="1">
+        <v>234</v>
+      </c>
+      <c r="B212" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C212" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="B213" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C213" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="1">
+        <v>250</v>
+      </c>
+      <c r="B214" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C214" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="B215" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C215" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B216" t="s" s="1">
+        <v>528</v>
+      </c>
+      <c r="C216" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="1">
+        <v>302</v>
+      </c>
+      <c r="B217" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C217" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="1">
+        <v>469</v>
+      </c>
+      <c r="B218" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C218" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="1">
+        <v>325</v>
+      </c>
+      <c r="B219" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C219" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="1">
+        <v>493</v>
+      </c>
+      <c r="B220" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C220" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="1">
+        <v>224</v>
+      </c>
+      <c r="B221" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C221" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="B222" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C222" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="B223" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C223" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B224" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C224" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="1">
+        <v>195</v>
+      </c>
+      <c r="B225" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="C225" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="B226" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C226" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="B227" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C227" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="1">
+        <v>412</v>
+      </c>
+      <c r="B228" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C228" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B229" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C229" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="1">
+        <v>231</v>
+      </c>
+      <c r="B230" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C230" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="B231" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C231" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="B232" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C232" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="1">
+        <v>389</v>
+      </c>
+      <c r="B233" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C233" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B234" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C234" t="s" s="1">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4467" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5220" uniqueCount="554">
   <si>
     <t>Firm</t>
   </si>
@@ -1615,6 +1615,81 @@
   </si>
   <si>
     <t>02min 06s</t>
+  </si>
+  <si>
+    <t>01min 32s</t>
+  </si>
+  <si>
+    <t>01min 51s</t>
+  </si>
+  <si>
+    <t>JadekAndPensa</t>
+  </si>
+  <si>
+    <t>02min 46s</t>
+  </si>
+  <si>
+    <t>43s</t>
+  </si>
+  <si>
+    <t>DKGV</t>
+  </si>
+  <si>
+    <t>01min 55s</t>
+  </si>
+  <si>
+    <t>Oppenheim</t>
+  </si>
+  <si>
+    <t>01min 37s</t>
+  </si>
+  <si>
+    <t>Nunziante Magrone</t>
+  </si>
+  <si>
+    <t>WALLESS</t>
+  </si>
+  <si>
+    <t>02min 28s</t>
+  </si>
+  <si>
+    <t>02min 51s</t>
+  </si>
+  <si>
+    <t>57s</t>
+  </si>
+  <si>
+    <t>CERHA HEMPEL</t>
+  </si>
+  <si>
+    <t>01min 26s</t>
+  </si>
+  <si>
+    <t>01min 11s</t>
+  </si>
+  <si>
+    <t>02min 34s</t>
+  </si>
+  <si>
+    <t>Rymarz Zdort Maruta</t>
+  </si>
+  <si>
+    <t>03min 09s</t>
+  </si>
+  <si>
+    <t>01min 44s</t>
+  </si>
+  <si>
+    <t>JB Law</t>
+  </si>
+  <si>
+    <t>Valfor</t>
+  </si>
+  <si>
+    <t>01min 56s</t>
+  </si>
+  <si>
+    <t>02min 25s</t>
   </si>
 </sst>
 </file>
@@ -2602,7 +2677,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -2627,43 +2702,43 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>34</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s" s="1">
         <v>271</v>
@@ -2671,21 +2746,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>464</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>276</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>381</v>
+        <v>503</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>301</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s" s="1">
         <v>271</v>
@@ -2693,10 +2768,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>408</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s" s="1">
         <v>271</v>
@@ -2704,10 +2779,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s" s="1">
         <v>271</v>
@@ -2715,10 +2790,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>261</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s" s="1">
         <v>5</v>
@@ -2726,10 +2801,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s" s="1">
         <v>271</v>
@@ -2737,10 +2812,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>122</v>
+        <v>402</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s" s="1">
         <v>271</v>
@@ -2748,10 +2823,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s" s="1">
         <v>271</v>
@@ -2759,21 +2834,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>208</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>34</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>144</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="C15" t="s" s="1">
         <v>271</v>
@@ -2781,10 +2856,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>183</v>
+        <v>429</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s" s="1">
         <v>271</v>
@@ -2792,21 +2867,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
-        <v>308</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
-        <v>429</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s" s="1">
         <v>271</v>
@@ -2814,10 +2889,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
-        <v>466</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s" s="1">
         <v>271</v>
@@ -2825,10 +2900,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
-        <v>379</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="C20" t="s" s="1">
         <v>271</v>
@@ -2836,10 +2911,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s" s="1">
         <v>270</v>
@@ -2847,10 +2922,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
-        <v>215</v>
+        <v>468</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C22" t="s" s="1">
         <v>271</v>
@@ -2858,10 +2933,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s" s="1">
         <v>271</v>
@@ -2869,10 +2944,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
-        <v>353</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s" s="1">
         <v>271</v>
@@ -2880,21 +2955,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
-        <v>513</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>289</v>
+        <v>530</v>
       </c>
       <c r="C25" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
-        <v>85</v>
+        <v>531</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s" s="1">
         <v>271</v>
@@ -2902,21 +2977,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
-        <v>245</v>
+        <v>358</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
-        <v>501</v>
+        <v>380</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>4</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s" s="1">
         <v>271</v>
@@ -2924,10 +2999,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>392</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s" s="1">
         <v>271</v>
@@ -2935,43 +3010,43 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>337</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>66</v>
+        <v>316</v>
       </c>
       <c r="C32" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s" s="1">
         <v>271</v>
@@ -2979,21 +3054,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="1">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>301</v>
+        <v>392</v>
       </c>
       <c r="C34" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="1">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>494</v>
+        <v>532</v>
       </c>
       <c r="C35" t="s" s="1">
         <v>5</v>
@@ -3001,10 +3076,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="1">
-        <v>244</v>
+        <v>414</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>301</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s" s="1">
         <v>271</v>
@@ -3012,10 +3087,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="1">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s" s="1">
         <v>271</v>
@@ -3023,32 +3098,32 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="1">
-        <v>258</v>
+        <v>509</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>491</v>
+        <v>283</v>
       </c>
       <c r="C38" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="1">
-        <v>444</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="1">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s" s="1">
         <v>271</v>
@@ -3056,10 +3131,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="1">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>337</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s" s="1">
         <v>271</v>
@@ -3067,43 +3142,43 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="1">
-        <v>161</v>
+        <v>418</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>313</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="1">
-        <v>395</v>
+        <v>259</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C43" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="1">
-        <v>522</v>
+        <v>412</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C44" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
-        <v>436</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s" s="1">
         <v>271</v>
@@ -3111,21 +3186,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="1">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>526</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>488</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="C47" t="s" s="1">
         <v>271</v>
@@ -3133,10 +3208,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="1">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="C48" t="s" s="1">
         <v>271</v>
@@ -3144,21 +3219,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="1">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="1">
-        <v>356</v>
+        <v>420</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s" s="1">
         <v>271</v>
@@ -3166,10 +3241,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="1">
-        <v>474</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s" s="1">
         <v>271</v>
@@ -3177,18 +3252,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="1">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s" s="1">
         <v>4</v>
@@ -3199,10 +3274,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="1">
-        <v>225</v>
+        <v>505</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="C54" t="s" s="1">
         <v>271</v>
@@ -3210,10 +3285,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
-        <v>382</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="C55" t="s" s="1">
         <v>271</v>
@@ -3221,10 +3296,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>299</v>
+        <v>533</v>
       </c>
       <c r="C56" t="s" s="1">
         <v>271</v>
@@ -3232,21 +3307,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>259</v>
+        <v>394</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
-        <v>87</v>
+        <v>344</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s" s="1">
         <v>271</v>
@@ -3254,10 +3329,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
-        <v>68</v>
+        <v>314</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>289</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s" s="1">
         <v>271</v>
@@ -3265,10 +3340,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s" s="1">
         <v>271</v>
@@ -3276,10 +3351,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s" s="1">
         <v>270</v>
@@ -3287,21 +3362,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
-        <v>428</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s" s="1">
-        <v>52</v>
+        <v>295</v>
       </c>
       <c r="C62" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s" s="1">
-        <v>7</v>
+        <v>533</v>
       </c>
       <c r="C63" t="s" s="1">
         <v>271</v>
@@ -3309,10 +3384,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>518</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s" s="1">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="C64" t="s" s="1">
         <v>271</v>
@@ -3320,10 +3395,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
-        <v>181</v>
+        <v>382</v>
       </c>
       <c r="B65" t="s" s="1">
-        <v>267</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s" s="1">
         <v>271</v>
@@ -3331,7 +3406,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="1">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="B66" t="s" s="1">
         <v>273</v>
@@ -3342,21 +3417,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="B67" t="s" s="1">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
-        <v>476</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="1">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="C68" t="s" s="1">
         <v>271</v>
@@ -3364,10 +3439,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
-        <v>512</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s" s="1">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="C69" t="s" s="1">
         <v>271</v>
@@ -3375,10 +3450,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>367</v>
+        <v>240</v>
       </c>
       <c r="B70" t="s" s="1">
-        <v>66</v>
+        <v>277</v>
       </c>
       <c r="C70" t="s" s="1">
         <v>271</v>
@@ -3386,10 +3461,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>414</v>
+        <v>303</v>
       </c>
       <c r="B71" t="s" s="1">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="C71" t="s" s="1">
         <v>271</v>
@@ -3397,32 +3472,32 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s" s="1">
-        <v>7</v>
+        <v>280</v>
       </c>
       <c r="C72" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="B73" t="s" s="1">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="B74" t="s" s="1">
-        <v>369</v>
+        <v>283</v>
       </c>
       <c r="C74" t="s" s="1">
         <v>271</v>
@@ -3430,32 +3505,32 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="B75" t="s" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C75" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="B76" t="s" s="1">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>366</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s" s="1">
         <v>271</v>
@@ -3463,21 +3538,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B78" t="s" s="1">
-        <v>274</v>
+        <v>375</v>
       </c>
       <c r="C78" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s" s="1">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s" s="1">
         <v>5</v>
@@ -3485,21 +3560,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
-        <v>223</v>
+        <v>534</v>
       </c>
       <c r="B80" t="s" s="1">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="1">
-        <v>306</v>
+        <v>470</v>
       </c>
       <c r="B81" t="s" s="1">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s" s="1">
         <v>271</v>
@@ -3507,21 +3582,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="1">
-        <v>100</v>
+        <v>404</v>
       </c>
       <c r="B82" t="s" s="1">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="B83" t="s" s="1">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="C83" t="s" s="1">
         <v>271</v>
@@ -3529,21 +3604,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
-        <v>459</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s" s="1">
-        <v>286</v>
+        <v>490</v>
       </c>
       <c r="C84" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="B85" t="s" s="1">
-        <v>4</v>
+        <v>275</v>
       </c>
       <c r="C85" t="s" s="1">
         <v>271</v>
@@ -3551,10 +3626,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="1">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="B86" t="s" s="1">
-        <v>301</v>
+        <v>535</v>
       </c>
       <c r="C86" t="s" s="1">
         <v>271</v>
@@ -3562,10 +3637,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
-        <v>103</v>
+        <v>302</v>
       </c>
       <c r="B87" t="s" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s" s="1">
         <v>271</v>
@@ -3573,10 +3648,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="1">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="B88" t="s" s="1">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="C88" t="s" s="1">
         <v>271</v>
@@ -3584,10 +3659,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="1">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B89" t="s" s="1">
-        <v>286</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s" s="1">
         <v>271</v>
@@ -3595,32 +3670,32 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="1">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s" s="1">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C90" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="1">
-        <v>214</v>
+        <v>536</v>
       </c>
       <c r="B91" t="s" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C91" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="1">
-        <v>303</v>
+        <v>482</v>
       </c>
       <c r="B92" t="s" s="1">
-        <v>289</v>
+        <v>537</v>
       </c>
       <c r="C92" t="s" s="1">
         <v>271</v>
@@ -3628,10 +3703,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="1">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s" s="1">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C93" t="s" s="1">
         <v>271</v>
@@ -3639,10 +3714,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="1">
-        <v>314</v>
+        <v>439</v>
       </c>
       <c r="B94" t="s" s="1">
-        <v>301</v>
+        <v>116</v>
       </c>
       <c r="C94" t="s" s="1">
         <v>271</v>
@@ -3650,43 +3725,43 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="1">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="B95" t="s" s="1">
         <v>276</v>
       </c>
       <c r="C95" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="1">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="B96" t="s" s="1">
-        <v>66</v>
+        <v>274</v>
       </c>
       <c r="C96" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="1">
-        <v>447</v>
+        <v>142</v>
       </c>
       <c r="B97" t="s" s="1">
-        <v>13</v>
+        <v>276</v>
       </c>
       <c r="C97" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="1">
-        <v>332</v>
+        <v>538</v>
       </c>
       <c r="B98" t="s" s="1">
-        <v>279</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s" s="1">
         <v>271</v>
@@ -3694,10 +3769,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="1">
-        <v>54</v>
+        <v>395</v>
       </c>
       <c r="B99" t="s" s="1">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s" s="1">
         <v>271</v>
@@ -3705,21 +3780,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="1">
-        <v>503</v>
+        <v>409</v>
       </c>
       <c r="B100" t="s" s="1">
-        <v>460</v>
+        <v>23</v>
       </c>
       <c r="C100" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="1">
-        <v>442</v>
+        <v>366</v>
       </c>
       <c r="B101" t="s" s="1">
-        <v>287</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s" s="1">
         <v>271</v>
@@ -3727,10 +3802,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="1">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s" s="1">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C102" t="s" s="1">
         <v>271</v>
@@ -3738,10 +3813,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="1">
-        <v>407</v>
+        <v>96</v>
       </c>
       <c r="B103" t="s" s="1">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s" s="1">
         <v>271</v>
@@ -3749,43 +3824,43 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="1">
-        <v>397</v>
+        <v>228</v>
       </c>
       <c r="B104" t="s" s="1">
-        <v>286</v>
+        <v>19</v>
       </c>
       <c r="C104" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="1">
-        <v>20</v>
+        <v>467</v>
       </c>
       <c r="B105" t="s" s="1">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C105" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="1">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B106" t="s" s="1">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="1">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="B107" t="s" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s" s="1">
         <v>271</v>
@@ -3793,21 +3868,21 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="1">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="B108" t="s" s="1">
-        <v>301</v>
+        <v>98</v>
       </c>
       <c r="C108" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="1">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B109" t="s" s="1">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="C109" t="s" s="1">
         <v>271</v>
@@ -3815,43 +3890,43 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="1">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="B110" t="s" s="1">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="C110" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="1">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="B111" t="s" s="1">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="C111" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="1">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="B112" t="s" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C112" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="1">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="B113" t="s" s="1">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C113" t="s" s="1">
         <v>271</v>
@@ -3859,21 +3934,21 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="1">
-        <v>317</v>
+        <v>86</v>
       </c>
       <c r="B114" t="s" s="1">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c r="C114" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="1">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="B115" t="s" s="1">
-        <v>111</v>
+        <v>267</v>
       </c>
       <c r="C115" t="s" s="1">
         <v>271</v>
@@ -3881,32 +3956,32 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="1">
-        <v>511</v>
+        <v>338</v>
       </c>
       <c r="B116" t="s" s="1">
-        <v>316</v>
+        <v>23</v>
       </c>
       <c r="C116" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="1">
-        <v>177</v>
+        <v>330</v>
       </c>
       <c r="B117" t="s" s="1">
-        <v>527</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="1">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B118" t="s" s="1">
-        <v>341</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s" s="1">
         <v>271</v>
@@ -3914,10 +3989,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="1">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="B119" t="s" s="1">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C119" t="s" s="1">
         <v>5</v>
@@ -3925,43 +4000,43 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="1">
-        <v>448</v>
+        <v>210</v>
       </c>
       <c r="B120" t="s" s="1">
-        <v>301</v>
+        <v>443</v>
       </c>
       <c r="C120" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="1">
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="B121" t="s" s="1">
-        <v>337</v>
+        <v>540</v>
       </c>
       <c r="C121" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="1">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="B122" t="s" s="1">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C122" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="1">
-        <v>330</v>
+        <v>501</v>
       </c>
       <c r="B123" t="s" s="1">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C123" t="s" s="1">
         <v>271</v>
@@ -3972,7 +4047,7 @@
         <v>105</v>
       </c>
       <c r="B124" t="s" s="1">
-        <v>289</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s" s="1">
         <v>271</v>
@@ -3980,10 +4055,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="1">
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="B125" t="s" s="1">
-        <v>34</v>
+        <v>275</v>
       </c>
       <c r="C125" t="s" s="1">
         <v>271</v>
@@ -3991,10 +4066,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="1">
-        <v>391</v>
+        <v>483</v>
       </c>
       <c r="B126" t="s" s="1">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C126" t="s" s="1">
         <v>271</v>
@@ -4002,32 +4077,32 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="1">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="B127" t="s" s="1">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C127" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="1">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="B128" t="s" s="1">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="C128" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="1">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="B129" t="s" s="1">
-        <v>286</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s" s="1">
         <v>271</v>
@@ -4035,10 +4110,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="1">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s" s="1">
-        <v>301</v>
+        <v>541</v>
       </c>
       <c r="C130" t="s" s="1">
         <v>271</v>
@@ -4046,10 +4121,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B131" t="s" s="1">
-        <v>273</v>
+        <v>542</v>
       </c>
       <c r="C131" t="s" s="1">
         <v>271</v>
@@ -4057,32 +4132,32 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="1">
-        <v>487</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s" s="1">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C132" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="1">
-        <v>471</v>
+        <v>113</v>
       </c>
       <c r="B133" t="s" s="1">
-        <v>45</v>
+        <v>496</v>
       </c>
       <c r="C133" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="1">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="B134" t="s" s="1">
-        <v>460</v>
+        <v>52</v>
       </c>
       <c r="C134" t="s" s="1">
         <v>271</v>
@@ -4090,10 +4165,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="1">
-        <v>135</v>
+        <v>543</v>
       </c>
       <c r="B135" t="s" s="1">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s" s="1">
         <v>271</v>
@@ -4101,43 +4176,43 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="1">
-        <v>452</v>
+        <v>194</v>
       </c>
       <c r="B136" t="s" s="1">
-        <v>111</v>
+        <v>544</v>
       </c>
       <c r="C136" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="1">
-        <v>189</v>
+        <v>444</v>
       </c>
       <c r="B137" t="s" s="1">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="C137" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="1">
-        <v>477</v>
+        <v>224</v>
       </c>
       <c r="B138" t="s" s="1">
-        <v>289</v>
+        <v>107</v>
       </c>
       <c r="C138" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="1">
-        <v>418</v>
+        <v>164</v>
       </c>
       <c r="B139" t="s" s="1">
-        <v>289</v>
+        <v>406</v>
       </c>
       <c r="C139" t="s" s="1">
         <v>271</v>
@@ -4145,21 +4220,21 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="1">
-        <v>479</v>
+        <v>129</v>
       </c>
       <c r="B140" t="s" s="1">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="C140" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="1">
-        <v>420</v>
+        <v>345</v>
       </c>
       <c r="B141" t="s" s="1">
-        <v>25</v>
+        <v>275</v>
       </c>
       <c r="C141" t="s" s="1">
         <v>271</v>
@@ -4167,10 +4242,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="1">
-        <v>393</v>
+        <v>182</v>
       </c>
       <c r="B142" t="s" s="1">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C142" t="s" s="1">
         <v>271</v>
@@ -4178,10 +4253,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="1">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="B143" t="s" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s" s="1">
         <v>271</v>
@@ -4189,21 +4264,21 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="1">
-        <v>380</v>
+        <v>172</v>
       </c>
       <c r="B144" t="s" s="1">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="C144" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="1">
-        <v>172</v>
+        <v>368</v>
       </c>
       <c r="B145" t="s" s="1">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C145" t="s" s="1">
         <v>271</v>
@@ -4211,10 +4286,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="1">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="B146" t="s" s="1">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c r="C146" t="s" s="1">
         <v>271</v>
@@ -4222,10 +4297,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="1">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="B147" t="s" s="1">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s" s="1">
         <v>271</v>
@@ -4233,21 +4308,21 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="1">
-        <v>221</v>
+        <v>378</v>
       </c>
       <c r="B148" t="s" s="1">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="C148" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="1">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="B149" t="s" s="1">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="C149" t="s" s="1">
         <v>271</v>
@@ -4255,21 +4330,21 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="1">
-        <v>336</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s" s="1">
-        <v>337</v>
+        <v>27</v>
       </c>
       <c r="C150" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="1">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="B151" t="s" s="1">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="C151" t="s" s="1">
         <v>271</v>
@@ -4277,21 +4352,21 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="1">
-        <v>363</v>
+        <v>221</v>
       </c>
       <c r="B152" t="s" s="1">
-        <v>289</v>
+        <v>545</v>
       </c>
       <c r="C152" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="1">
-        <v>323</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s" s="1">
-        <v>289</v>
+        <v>546</v>
       </c>
       <c r="C153" t="s" s="1">
         <v>271</v>
@@ -4299,10 +4374,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="1">
-        <v>368</v>
+        <v>547</v>
       </c>
       <c r="B154" t="s" s="1">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c r="C154" t="s" s="1">
         <v>271</v>
@@ -4310,32 +4385,32 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="1">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="B155" t="s" s="1">
-        <v>111</v>
+        <v>313</v>
       </c>
       <c r="C155" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="1">
-        <v>123</v>
+        <v>446</v>
       </c>
       <c r="B156" t="s" s="1">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C156" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="1">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="B157" t="s" s="1">
-        <v>45</v>
+        <v>548</v>
       </c>
       <c r="C157" t="s" s="1">
         <v>271</v>
@@ -4343,21 +4418,21 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="1">
-        <v>454</v>
+        <v>181</v>
       </c>
       <c r="B158" t="s" s="1">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="C158" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="1">
-        <v>417</v>
+        <v>450</v>
       </c>
       <c r="B159" t="s" s="1">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c r="C159" t="s" s="1">
         <v>271</v>
@@ -4365,21 +4440,21 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="1">
-        <v>117</v>
+        <v>407</v>
       </c>
       <c r="B160" t="s" s="1">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="C160" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="1">
-        <v>319</v>
+        <v>104</v>
       </c>
       <c r="B161" t="s" s="1">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="C161" t="s" s="1">
         <v>271</v>
@@ -4387,10 +4462,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="1">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="B162" t="s" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C162" t="s" s="1">
         <v>271</v>
@@ -4398,32 +4473,32 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="1">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="B163" t="s" s="1">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="C163" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="1">
-        <v>167</v>
+        <v>306</v>
       </c>
       <c r="B164" t="s" s="1">
-        <v>352</v>
+        <v>272</v>
       </c>
       <c r="C164" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="1">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="B165" t="s" s="1">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="C165" t="s" s="1">
         <v>271</v>
@@ -4431,21 +4506,21 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="1">
-        <v>400</v>
+        <v>203</v>
       </c>
       <c r="B166" t="s" s="1">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="C166" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="1">
-        <v>439</v>
+        <v>59</v>
       </c>
       <c r="B167" t="s" s="1">
-        <v>7</v>
+        <v>369</v>
       </c>
       <c r="C167" t="s" s="1">
         <v>271</v>
@@ -4453,21 +4528,21 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="1">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B168" t="s" s="1">
-        <v>15</v>
+        <v>549</v>
       </c>
       <c r="C168" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="1">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="B169" t="s" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C169" t="s" s="1">
         <v>271</v>
@@ -4475,10 +4550,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="1">
-        <v>343</v>
+        <v>189</v>
       </c>
       <c r="B170" t="s" s="1">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C170" t="s" s="1">
         <v>271</v>
@@ -4486,10 +4561,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="1">
-        <v>246</v>
+        <v>476</v>
       </c>
       <c r="B171" t="s" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C171" t="s" s="1">
         <v>271</v>
@@ -4497,21 +4572,21 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="1">
-        <v>361</v>
+        <v>110</v>
       </c>
       <c r="B172" t="s" s="1">
-        <v>289</v>
+        <v>494</v>
       </c>
       <c r="C172" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="1">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="B173" t="s" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C173" t="s" s="1">
         <v>271</v>
@@ -4519,10 +4594,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="1">
-        <v>184</v>
+        <v>408</v>
       </c>
       <c r="B174" t="s" s="1">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="C174" t="s" s="1">
         <v>271</v>
@@ -4530,21 +4605,21 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="1">
-        <v>263</v>
+        <v>471</v>
       </c>
       <c r="B175" t="s" s="1">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="C175" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="1">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="B176" t="s" s="1">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C176" t="s" s="1">
         <v>271</v>
@@ -4552,32 +4627,32 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="1">
-        <v>434</v>
+        <v>308</v>
       </c>
       <c r="B177" t="s" s="1">
-        <v>84</v>
+        <v>449</v>
       </c>
       <c r="C177" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="1">
-        <v>470</v>
+        <v>58</v>
       </c>
       <c r="B178" t="s" s="1">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="C178" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="1">
-        <v>358</v>
+        <v>168</v>
       </c>
       <c r="B179" t="s" s="1">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c r="C179" t="s" s="1">
         <v>271</v>
@@ -4585,10 +4660,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="1">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="B180" t="s" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C180" t="s" s="1">
         <v>271</v>
@@ -4596,21 +4671,21 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="1">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="B181" t="s" s="1">
-        <v>34</v>
+        <v>542</v>
       </c>
       <c r="C181" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="1">
-        <v>342</v>
+        <v>484</v>
       </c>
       <c r="B182" t="s" s="1">
-        <v>289</v>
+        <v>116</v>
       </c>
       <c r="C182" t="s" s="1">
         <v>271</v>
@@ -4618,10 +4693,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="1">
-        <v>430</v>
+        <v>156</v>
       </c>
       <c r="B183" t="s" s="1">
-        <v>460</v>
+        <v>101</v>
       </c>
       <c r="C183" t="s" s="1">
         <v>271</v>
@@ -4629,10 +4704,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="1">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B184" t="s" s="1">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C184" t="s" s="1">
         <v>271</v>
@@ -4640,10 +4715,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="1">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B185" t="s" s="1">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C185" t="s" s="1">
         <v>271</v>
@@ -4651,10 +4726,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="1">
-        <v>486</v>
+        <v>236</v>
       </c>
       <c r="B186" t="s" s="1">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="C186" t="s" s="1">
         <v>271</v>
@@ -4662,10 +4737,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="1">
-        <v>164</v>
+        <v>389</v>
       </c>
       <c r="B187" t="s" s="1">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C187" t="s" s="1">
         <v>271</v>
@@ -4673,87 +4748,87 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="1">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="B188" t="s" s="1">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="C188" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="1">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="B189" t="s" s="1">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="1">
-        <v>514</v>
+        <v>161</v>
       </c>
       <c r="B190" t="s" s="1">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="C190" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="1">
-        <v>409</v>
+        <v>242</v>
       </c>
       <c r="B191" t="s" s="1">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="C191" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="1">
-        <v>315</v>
+        <v>214</v>
       </c>
       <c r="B192" t="s" s="1">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="C192" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="1">
-        <v>509</v>
+        <v>141</v>
       </c>
       <c r="B193" t="s" s="1">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C193" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="1">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="B194" t="s" s="1">
-        <v>499</v>
+        <v>23</v>
       </c>
       <c r="C194" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="1">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B195" t="s" s="1">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C195" t="s" s="1">
         <v>271</v>
@@ -4761,10 +4836,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="1">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="B196" t="s" s="1">
-        <v>273</v>
+        <v>84</v>
       </c>
       <c r="C196" t="s" s="1">
         <v>271</v>
@@ -4772,10 +4847,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="1">
-        <v>160</v>
+        <v>309</v>
       </c>
       <c r="B197" t="s" s="1">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C197" t="s" s="1">
         <v>271</v>
@@ -4783,10 +4858,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="1">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="B198" t="s" s="1">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C198" t="s" s="1">
         <v>271</v>
@@ -4794,10 +4869,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="1">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="B199" t="s" s="1">
-        <v>107</v>
+        <v>349</v>
       </c>
       <c r="C199" t="s" s="1">
         <v>271</v>
@@ -4805,10 +4880,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="1">
-        <v>500</v>
+        <v>246</v>
       </c>
       <c r="B200" t="s" s="1">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C200" t="s" s="1">
         <v>271</v>
@@ -4816,10 +4891,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="1">
-        <v>213</v>
+        <v>343</v>
       </c>
       <c r="B201" t="s" s="1">
-        <v>66</v>
+        <v>283</v>
       </c>
       <c r="C201" t="s" s="1">
         <v>271</v>
@@ -4827,10 +4902,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="1">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="B202" t="s" s="1">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C202" t="s" s="1">
         <v>271</v>
@@ -4838,10 +4913,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="1">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="B203" t="s" s="1">
-        <v>52</v>
+        <v>437</v>
       </c>
       <c r="C203" t="s" s="1">
         <v>271</v>
@@ -4849,10 +4924,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="1">
-        <v>193</v>
+        <v>481</v>
       </c>
       <c r="B204" t="s" s="1">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="C204" t="s" s="1">
         <v>271</v>
@@ -4860,21 +4935,21 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="1">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="B205" t="s" s="1">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="C205" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="1">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="B206" t="s" s="1">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s" s="1">
         <v>271</v>
@@ -4882,10 +4957,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="1">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="B207" t="s" s="1">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C207" t="s" s="1">
         <v>271</v>
@@ -4893,10 +4968,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="1">
-        <v>88</v>
+        <v>379</v>
       </c>
       <c r="B208" t="s" s="1">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="C208" t="s" s="1">
         <v>271</v>
@@ -4904,32 +4979,32 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="1">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="B209" t="s" s="1">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="C209" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="1">
-        <v>345</v>
+        <v>108</v>
       </c>
       <c r="B210" t="s" s="1">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C210" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="1">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B211" t="s" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C211" t="s" s="1">
         <v>271</v>
@@ -4937,10 +5012,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="1">
-        <v>234</v>
+        <v>518</v>
       </c>
       <c r="B212" t="s" s="1">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C212" t="s" s="1">
         <v>271</v>
@@ -4948,10 +5023,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="1">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B213" t="s" s="1">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="C213" t="s" s="1">
         <v>271</v>
@@ -4959,10 +5034,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="1">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="B214" t="s" s="1">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="C214" t="s" s="1">
         <v>271</v>
@@ -4970,7 +5045,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="1">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="B215" t="s" s="1">
         <v>79</v>
@@ -4981,21 +5056,21 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="1">
-        <v>265</v>
+        <v>472</v>
       </c>
       <c r="B216" t="s" s="1">
-        <v>528</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="1">
-        <v>302</v>
+        <v>513</v>
       </c>
       <c r="B217" t="s" s="1">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C217" t="s" s="1">
         <v>271</v>
@@ -5003,10 +5078,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="1">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="B218" t="s" s="1">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="C218" t="s" s="1">
         <v>271</v>
@@ -5014,10 +5089,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="1">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="B219" t="s" s="1">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s" s="1">
         <v>271</v>
@@ -5028,7 +5103,7 @@
         <v>493</v>
       </c>
       <c r="B220" t="s" s="1">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="C220" t="s" s="1">
         <v>271</v>
@@ -5036,32 +5111,32 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="1">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B221" t="s" s="1">
-        <v>276</v>
+        <v>390</v>
       </c>
       <c r="C221" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="1">
-        <v>239</v>
+        <v>469</v>
       </c>
       <c r="B222" t="s" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C222" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="1">
-        <v>145</v>
+        <v>354</v>
       </c>
       <c r="B223" t="s" s="1">
-        <v>276</v>
+        <v>4</v>
       </c>
       <c r="C223" t="s" s="1">
         <v>271</v>
@@ -5069,10 +5144,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="1">
-        <v>119</v>
+        <v>399</v>
       </c>
       <c r="B224" t="s" s="1">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="C224" t="s" s="1">
         <v>271</v>
@@ -5080,21 +5155,21 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="1">
-        <v>195</v>
+        <v>430</v>
       </c>
       <c r="B225" t="s" s="1">
-        <v>63</v>
+        <v>276</v>
       </c>
       <c r="C225" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="1">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B226" t="s" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C226" t="s" s="1">
         <v>271</v>
@@ -5102,32 +5177,32 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="1">
-        <v>378</v>
+        <v>238</v>
       </c>
       <c r="B227" t="s" s="1">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C227" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="1">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="B228" t="s" s="1">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="C228" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="1">
-        <v>433</v>
+        <v>18</v>
       </c>
       <c r="B229" t="s" s="1">
-        <v>289</v>
+        <v>437</v>
       </c>
       <c r="C229" t="s" s="1">
         <v>271</v>
@@ -5135,7 +5210,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="1">
-        <v>231</v>
+        <v>463</v>
       </c>
       <c r="B230" t="s" s="1">
         <v>285</v>
@@ -5146,46 +5221,244 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="1">
-        <v>56</v>
+        <v>479</v>
       </c>
       <c r="B231" t="s" s="1">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="C231" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="1">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="B232" t="s" s="1">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C232" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="1">
-        <v>389</v>
+        <v>252</v>
       </c>
       <c r="B233" t="s" s="1">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C233" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="1">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="B234" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C234" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="1">
+        <v>244</v>
+      </c>
+      <c r="B235" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C235" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="B236" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C236" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="1">
+        <v>551</v>
+      </c>
+      <c r="B237" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C237" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="1">
+        <v>319</v>
+      </c>
+      <c r="B238" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C238" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="1">
+        <v>346</v>
+      </c>
+      <c r="B239" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="1">
+        <v>523</v>
+      </c>
+      <c r="B240" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C240" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="1">
+        <v>410</v>
+      </c>
+      <c r="B241" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C241" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="B242" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C242" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B243" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="C243" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="1">
+        <v>502</v>
+      </c>
+      <c r="B244" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C244" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="1">
+        <v>400</v>
+      </c>
+      <c r="B245" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C245" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="1">
+        <v>188</v>
+      </c>
+      <c r="B246" t="s" s="1">
+        <v>552</v>
+      </c>
+      <c r="C246" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B247" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C247" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="1">
+        <v>237</v>
+      </c>
+      <c r="B248" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C248" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="B249" t="s" s="1">
         <v>286</v>
       </c>
-      <c r="C234" t="s" s="1">
-        <v>271</v>
+      <c r="C249" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="1">
+        <v>362</v>
+      </c>
+      <c r="B250" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C250" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="1">
+        <v>336</v>
+      </c>
+      <c r="B251" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C251" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="1">
+        <v>223</v>
+      </c>
+      <c r="B252" t="s" s="1">
+        <v>553</v>
+      </c>
+      <c r="C252" t="s" s="1">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5220" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7407" uniqueCount="592">
   <si>
     <t>Firm</t>
   </si>
@@ -1690,6 +1690,120 @@
   </si>
   <si>
     <t>02min 25s</t>
+  </si>
+  <si>
+    <t>02min 20s</t>
+  </si>
+  <si>
+    <t>Van Olmen &amp; Wynant</t>
+  </si>
+  <si>
+    <t>Kambourov And Partners</t>
+  </si>
+  <si>
+    <t>KBVL Law</t>
+  </si>
+  <si>
+    <t>Pusch Wahlig</t>
+  </si>
+  <si>
+    <t>bpv Hügel</t>
+  </si>
+  <si>
+    <t>Slaughter &amp; May</t>
+  </si>
+  <si>
+    <t>Maikowski And Ninnemann</t>
+  </si>
+  <si>
+    <t>Berggren</t>
+  </si>
+  <si>
+    <t>Jadek And Pensa</t>
+  </si>
+  <si>
+    <t>Filion Wakely Thorup Angeletti</t>
+  </si>
+  <si>
+    <t>Greene And Greene Solicitors</t>
+  </si>
+  <si>
+    <t>NESTOR</t>
+  </si>
+  <si>
+    <t>Schoups</t>
+  </si>
+  <si>
+    <t>ABG IP</t>
+  </si>
+  <si>
+    <t>HARTE-BAVENDAMM</t>
+  </si>
+  <si>
+    <t>Francis Wilks And Jones</t>
+  </si>
+  <si>
+    <t>SRS Legal</t>
+  </si>
+  <si>
+    <t>SKW Schwarz</t>
+  </si>
+  <si>
+    <t>Vazquez Tercero And Zepeda</t>
+  </si>
+  <si>
+    <t>Eisenfuhr Speiser And Partner</t>
+  </si>
+  <si>
+    <t>BRAUNEIS RECHTSANWÄLTE</t>
+  </si>
+  <si>
+    <t>JPMAndPartners</t>
+  </si>
+  <si>
+    <t>Racine</t>
+  </si>
+  <si>
+    <t>Hoffmann Eitle</t>
+  </si>
+  <si>
+    <t>KLC Law</t>
+  </si>
+  <si>
+    <t>Sampson Coward LLP</t>
+  </si>
+  <si>
+    <t>Vossius And Partner</t>
+  </si>
+  <si>
+    <t>Pinney Talfourd Solicitors</t>
+  </si>
+  <si>
+    <t>Strelia</t>
+  </si>
+  <si>
+    <t>38min 59s</t>
+  </si>
+  <si>
+    <t>01min 54s</t>
+  </si>
+  <si>
+    <t>01min 13s</t>
+  </si>
+  <si>
+    <t>02min 27s</t>
+  </si>
+  <si>
+    <t>02min 19s</t>
+  </si>
+  <si>
+    <t>01min 16s</t>
+  </si>
+  <si>
+    <t>01min 41s</t>
+  </si>
+  <si>
+    <t>01min 59s</t>
   </si>
 </sst>
 </file>
@@ -2677,7 +2791,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C252"/>
+  <dimension ref="A1:C363"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -2702,43 +2816,43 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>287</v>
+        <v>585</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>204</v>
+        <v>568</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>56</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>267</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s" s="1">
         <v>271</v>
@@ -2746,32 +2860,32 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>63</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>503</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>66</v>
+        <v>586</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s" s="1">
         <v>271</v>
@@ -2779,10 +2893,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>160</v>
+        <v>378</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s" s="1">
         <v>271</v>
@@ -2790,21 +2904,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>112</v>
+        <v>493</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s" s="1">
         <v>271</v>
@@ -2812,10 +2926,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s" s="1">
         <v>271</v>
@@ -2823,10 +2937,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>411</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s" s="1">
         <v>271</v>
@@ -2834,21 +2948,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s" s="1">
         <v>271</v>
@@ -2856,10 +2970,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>429</v>
+        <v>576</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s" s="1">
         <v>271</v>
@@ -2867,10 +2981,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
-        <v>397</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>72</v>
+        <v>533</v>
       </c>
       <c r="C17" t="s" s="1">
         <v>271</v>
@@ -2878,10 +2992,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
-        <v>136</v>
+        <v>440</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="C18" t="s" s="1">
         <v>271</v>
@@ -2889,10 +3003,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
-        <v>51</v>
+        <v>320</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>84</v>
+        <v>443</v>
       </c>
       <c r="C19" t="s" s="1">
         <v>271</v>
@@ -2900,10 +3014,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>375</v>
+        <v>267</v>
       </c>
       <c r="C20" t="s" s="1">
         <v>271</v>
@@ -2911,21 +3025,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
-        <v>115</v>
+        <v>536</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
-        <v>468</v>
+        <v>572</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="C22" t="s" s="1">
         <v>271</v>
@@ -2933,10 +3047,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="C23" t="s" s="1">
         <v>271</v>
@@ -2944,32 +3058,32 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
-        <v>230</v>
+        <v>448</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>530</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
-        <v>531</v>
+        <v>471</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s" s="1">
         <v>271</v>
@@ -2977,21 +3091,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
-        <v>358</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C27" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
-        <v>380</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>276</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s" s="1">
         <v>271</v>
@@ -2999,10 +3113,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s" s="1">
         <v>271</v>
@@ -3010,32 +3124,32 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
-        <v>454</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
-        <v>157</v>
+        <v>513</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>118</v>
+        <v>587</v>
       </c>
       <c r="C31" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>316</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s" s="1">
         <v>268</v>
@@ -3043,10 +3157,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
-        <v>464</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s" s="1">
         <v>271</v>
@@ -3054,32 +3168,32 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="1">
-        <v>475</v>
+        <v>377</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="C34" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="1">
-        <v>145</v>
+        <v>492</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>532</v>
+        <v>301</v>
       </c>
       <c r="C35" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="1">
-        <v>414</v>
+        <v>510</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s" s="1">
         <v>271</v>
@@ -3087,10 +3201,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="1">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>23</v>
+        <v>588</v>
       </c>
       <c r="C37" t="s" s="1">
         <v>271</v>
@@ -3098,10 +3212,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="1">
-        <v>509</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>283</v>
+        <v>383</v>
       </c>
       <c r="C38" t="s" s="1">
         <v>271</v>
@@ -3109,10 +3223,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="1">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="C39" t="s" s="1">
         <v>271</v>
@@ -3120,10 +3234,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="1">
-        <v>521</v>
+        <v>559</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s" s="1">
         <v>271</v>
@@ -3131,10 +3245,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="1">
-        <v>384</v>
+        <v>563</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s" s="1">
         <v>271</v>
@@ -3142,10 +3256,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="1">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s" s="1">
         <v>271</v>
@@ -3153,54 +3267,54 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="1">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C43" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="1">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C44" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="C45" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="1">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>62</v>
+        <v>416</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s" s="1">
         <v>271</v>
@@ -3208,10 +3322,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="1">
-        <v>396</v>
+        <v>486</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s" s="1">
         <v>271</v>
@@ -3219,32 +3333,32 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="1">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="C49" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="1">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="1">
-        <v>360</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s" s="1">
         <v>271</v>
@@ -3252,21 +3366,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="1">
-        <v>347</v>
+        <v>502</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s" s="1">
         <v>271</v>
@@ -3274,10 +3388,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="1">
-        <v>505</v>
+        <v>208</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s" s="1">
         <v>271</v>
@@ -3285,10 +3399,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C55" t="s" s="1">
         <v>271</v>
@@ -3296,10 +3410,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>533</v>
+        <v>392</v>
       </c>
       <c r="C56" t="s" s="1">
         <v>271</v>
@@ -3307,32 +3421,32 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>394</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="C57" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
-        <v>344</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="C58" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
-        <v>314</v>
+        <v>185</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s" s="1">
         <v>271</v>
@@ -3340,10 +3454,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
-        <v>497</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s" s="1">
         <v>271</v>
@@ -3351,21 +3465,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s" s="1">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s" s="1">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s" s="1">
         <v>271</v>
@@ -3373,10 +3487,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
-        <v>245</v>
+        <v>393</v>
       </c>
       <c r="B63" t="s" s="1">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s" s="1">
         <v>271</v>
@@ -3384,10 +3498,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="B64" t="s" s="1">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C64" t="s" s="1">
         <v>271</v>
@@ -3395,32 +3509,32 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
-        <v>382</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s" s="1">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="1">
-        <v>440</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s" s="1">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="C66" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>184</v>
+        <v>380</v>
       </c>
       <c r="B67" t="s" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s" s="1">
         <v>271</v>
@@ -3428,10 +3542,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
-        <v>335</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s" s="1">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C68" t="s" s="1">
         <v>271</v>
@@ -3439,10 +3553,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
-        <v>416</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s" s="1">
-        <v>283</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s" s="1">
         <v>271</v>
@@ -3450,10 +3564,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>240</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s" s="1">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C70" t="s" s="1">
         <v>271</v>
@@ -3461,10 +3575,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="B71" t="s" s="1">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="C71" t="s" s="1">
         <v>271</v>
@@ -3472,21 +3586,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="B72" t="s" s="1">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C72" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
-        <v>428</v>
+        <v>203</v>
       </c>
       <c r="B73" t="s" s="1">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s" s="1">
         <v>5</v>
@@ -3494,10 +3608,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
-        <v>519</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s" s="1">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s" s="1">
         <v>271</v>
@@ -3505,10 +3619,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="B75" t="s" s="1">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s" s="1">
         <v>271</v>
@@ -3516,21 +3630,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
-        <v>202</v>
+        <v>431</v>
       </c>
       <c r="B76" t="s" s="1">
-        <v>84</v>
+        <v>275</v>
       </c>
       <c r="C76" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>144</v>
+        <v>401</v>
       </c>
       <c r="B77" t="s" s="1">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="C77" t="s" s="1">
         <v>271</v>
@@ -3538,32 +3652,32 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B78" t="s" s="1">
-        <v>375</v>
+        <v>589</v>
       </c>
       <c r="C78" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s" s="1">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="C79" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
-        <v>534</v>
+        <v>387</v>
       </c>
       <c r="B80" t="s" s="1">
-        <v>25</v>
+        <v>275</v>
       </c>
       <c r="C80" t="s" s="1">
         <v>271</v>
@@ -3571,10 +3685,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="1">
-        <v>470</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s" s="1">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C81" t="s" s="1">
         <v>271</v>
@@ -3582,10 +3696,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="1">
-        <v>404</v>
+        <v>508</v>
       </c>
       <c r="B82" t="s" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C82" t="s" s="1">
         <v>271</v>
@@ -3593,10 +3707,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
-        <v>500</v>
+        <v>197</v>
       </c>
       <c r="B83" t="s" s="1">
-        <v>276</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s" s="1">
         <v>271</v>
@@ -3604,32 +3718,32 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="B84" t="s" s="1">
-        <v>490</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
-        <v>522</v>
+        <v>221</v>
       </c>
       <c r="B85" t="s" s="1">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="1">
-        <v>195</v>
+        <v>439</v>
       </c>
       <c r="B86" t="s" s="1">
-        <v>535</v>
+        <v>267</v>
       </c>
       <c r="C86" t="s" s="1">
         <v>271</v>
@@ -3637,21 +3751,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="1">
-        <v>361</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s" s="1">
-        <v>276</v>
+        <v>392</v>
       </c>
       <c r="C88" t="s" s="1">
         <v>271</v>
@@ -3659,10 +3773,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="1">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B89" t="s" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s" s="1">
         <v>271</v>
@@ -3670,10 +3784,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="1">
-        <v>315</v>
+        <v>133</v>
       </c>
       <c r="B90" t="s" s="1">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s" s="1">
         <v>5</v>
@@ -3681,32 +3795,32 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="1">
-        <v>536</v>
+        <v>305</v>
       </c>
       <c r="B91" t="s" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C91" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="1">
-        <v>482</v>
+        <v>567</v>
       </c>
       <c r="B92" t="s" s="1">
-        <v>537</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="1">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="B93" t="s" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s" s="1">
         <v>271</v>
@@ -3714,21 +3828,21 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="1">
-        <v>439</v>
+        <v>179</v>
       </c>
       <c r="B94" t="s" s="1">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="1">
-        <v>478</v>
+        <v>582</v>
       </c>
       <c r="B95" t="s" s="1">
-        <v>276</v>
+        <v>392</v>
       </c>
       <c r="C95" t="s" s="1">
         <v>271</v>
@@ -3736,21 +3850,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="1">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="B96" t="s" s="1">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C96" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="1">
-        <v>142</v>
+        <v>446</v>
       </c>
       <c r="B97" t="s" s="1">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C97" t="s" s="1">
         <v>271</v>
@@ -3758,10 +3872,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="1">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="B98" t="s" s="1">
-        <v>13</v>
+        <v>280</v>
       </c>
       <c r="C98" t="s" s="1">
         <v>271</v>
@@ -3769,29 +3883,29 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="1">
-        <v>395</v>
+        <v>252</v>
       </c>
       <c r="B99" t="s" s="1">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="C99" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="1">
-        <v>409</v>
+        <v>172</v>
       </c>
       <c r="B100" t="s" s="1">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C100" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="1">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="B101" t="s" s="1">
         <v>38</v>
@@ -3802,10 +3916,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="1">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="B102" t="s" s="1">
-        <v>284</v>
+        <v>590</v>
       </c>
       <c r="C102" t="s" s="1">
         <v>271</v>
@@ -3813,10 +3927,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="1">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s" s="1">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C103" t="s" s="1">
         <v>271</v>
@@ -3824,76 +3938,76 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="1">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s" s="1">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="C104" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="1">
-        <v>467</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s" s="1">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="1">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="B106" t="s" s="1">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="C106" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="1">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s" s="1">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C107" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="1">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B108" t="s" s="1">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="C108" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="1">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="B109" t="s" s="1">
-        <v>274</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="1">
-        <v>190</v>
+        <v>550</v>
       </c>
       <c r="B110" t="s" s="1">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C110" t="s" s="1">
         <v>271</v>
@@ -3901,65 +4015,65 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="1">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="B111" t="s" s="1">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="1">
-        <v>258</v>
+        <v>404</v>
       </c>
       <c r="B112" t="s" s="1">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="C112" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="1">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="B113" t="s" s="1">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="C113" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="1">
-        <v>86</v>
+        <v>481</v>
       </c>
       <c r="B114" t="s" s="1">
-        <v>91</v>
+        <v>286</v>
       </c>
       <c r="C114" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="1">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s" s="1">
-        <v>267</v>
+        <v>587</v>
       </c>
       <c r="C115" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="1">
-        <v>338</v>
+        <v>54</v>
       </c>
       <c r="B116" t="s" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C116" t="s" s="1">
         <v>271</v>
@@ -3967,10 +4081,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="1">
-        <v>330</v>
+        <v>562</v>
       </c>
       <c r="B117" t="s" s="1">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c r="C117" t="s" s="1">
         <v>271</v>
@@ -3978,10 +4092,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="1">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="B118" t="s" s="1">
-        <v>11</v>
+        <v>390</v>
       </c>
       <c r="C118" t="s" s="1">
         <v>271</v>
@@ -3989,21 +4103,21 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="1">
-        <v>42</v>
+        <v>410</v>
       </c>
       <c r="B119" t="s" s="1">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C119" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="1">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="B120" t="s" s="1">
-        <v>443</v>
+        <v>274</v>
       </c>
       <c r="C120" t="s" s="1">
         <v>271</v>
@@ -4011,10 +4125,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="1">
-        <v>539</v>
+        <v>361</v>
       </c>
       <c r="B121" t="s" s="1">
-        <v>540</v>
+        <v>286</v>
       </c>
       <c r="C121" t="s" s="1">
         <v>5</v>
@@ -4022,43 +4136,43 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="1">
-        <v>46</v>
+        <v>463</v>
       </c>
       <c r="B122" t="s" s="1">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="C122" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="1">
-        <v>501</v>
+        <v>242</v>
       </c>
       <c r="B123" t="s" s="1">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C123" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="1">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="B124" t="s" s="1">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C124" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="1">
-        <v>423</v>
+        <v>557</v>
       </c>
       <c r="B125" t="s" s="1">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C125" t="s" s="1">
         <v>271</v>
@@ -4066,10 +4180,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="1">
-        <v>483</v>
+        <v>388</v>
       </c>
       <c r="B126" t="s" s="1">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="C126" t="s" s="1">
         <v>271</v>
@@ -4077,10 +4191,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="1">
-        <v>465</v>
+        <v>260</v>
       </c>
       <c r="B127" t="s" s="1">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C127" t="s" s="1">
         <v>271</v>
@@ -4088,21 +4202,21 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="1">
-        <v>422</v>
+        <v>571</v>
       </c>
       <c r="B128" t="s" s="1">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="C128" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="1">
-        <v>388</v>
+        <v>237</v>
       </c>
       <c r="B129" t="s" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C129" t="s" s="1">
         <v>271</v>
@@ -4110,32 +4224,32 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="1">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="B130" t="s" s="1">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="C130" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="1">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="B131" t="s" s="1">
-        <v>542</v>
+        <v>437</v>
       </c>
       <c r="C131" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="1">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B132" t="s" s="1">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C132" t="s" s="1">
         <v>271</v>
@@ -4143,21 +4257,21 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="1">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B133" t="s" s="1">
-        <v>496</v>
+        <v>296</v>
       </c>
       <c r="C133" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="1">
-        <v>212</v>
+        <v>500</v>
       </c>
       <c r="B134" t="s" s="1">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C134" t="s" s="1">
         <v>271</v>
@@ -4165,54 +4279,54 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="1">
-        <v>543</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s" s="1">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="C135" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="1">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="B136" t="s" s="1">
-        <v>544</v>
+        <v>283</v>
       </c>
       <c r="C136" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="1">
-        <v>444</v>
+        <v>65</v>
       </c>
       <c r="B137" t="s" s="1">
-        <v>111</v>
+        <v>267</v>
       </c>
       <c r="C137" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="1">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="B138" t="s" s="1">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="1">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="B139" t="s" s="1">
-        <v>406</v>
+        <v>276</v>
       </c>
       <c r="C139" t="s" s="1">
         <v>271</v>
@@ -4220,21 +4334,21 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="1">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="B140" t="s" s="1">
-        <v>272</v>
+        <v>111</v>
       </c>
       <c r="C140" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="1">
-        <v>345</v>
+        <v>71</v>
       </c>
       <c r="B141" t="s" s="1">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="C141" t="s" s="1">
         <v>271</v>
@@ -4242,32 +4356,32 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="1">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B142" t="s" s="1">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="C142" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="1">
-        <v>357</v>
+        <v>223</v>
       </c>
       <c r="B143" t="s" s="1">
-        <v>13</v>
+        <v>591</v>
       </c>
       <c r="C143" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="1">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="B144" t="s" s="1">
-        <v>313</v>
+        <v>66</v>
       </c>
       <c r="C144" t="s" s="1">
         <v>5</v>
@@ -4275,10 +4389,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="1">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="B145" t="s" s="1">
-        <v>84</v>
+        <v>392</v>
       </c>
       <c r="C145" t="s" s="1">
         <v>271</v>
@@ -4286,10 +4400,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="1">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="B146" t="s" s="1">
-        <v>295</v>
+        <v>4</v>
       </c>
       <c r="C146" t="s" s="1">
         <v>271</v>
@@ -4297,10 +4411,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="1">
-        <v>208</v>
+        <v>435</v>
       </c>
       <c r="B147" t="s" s="1">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C147" t="s" s="1">
         <v>271</v>
@@ -4308,21 +4422,21 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="1">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="B148" t="s" s="1">
-        <v>4</v>
+        <v>275</v>
       </c>
       <c r="C148" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="1">
-        <v>435</v>
+        <v>85</v>
       </c>
       <c r="B149" t="s" s="1">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="C149" t="s" s="1">
         <v>271</v>
@@ -4330,10 +4444,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="1">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B150" t="s" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s" s="1">
         <v>5</v>
@@ -4341,10 +4455,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="1">
-        <v>351</v>
+        <v>171</v>
       </c>
       <c r="B151" t="s" s="1">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C151" t="s" s="1">
         <v>271</v>
@@ -4352,21 +4466,21 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="1">
-        <v>221</v>
+        <v>480</v>
       </c>
       <c r="B152" t="s" s="1">
-        <v>545</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="1">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="B153" t="s" s="1">
-        <v>546</v>
+        <v>286</v>
       </c>
       <c r="C153" t="s" s="1">
         <v>271</v>
@@ -4374,10 +4488,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="1">
-        <v>547</v>
+        <v>418</v>
       </c>
       <c r="B154" t="s" s="1">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="C154" t="s" s="1">
         <v>271</v>
@@ -4385,10 +4499,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="1">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="B155" t="s" s="1">
-        <v>313</v>
+        <v>66</v>
       </c>
       <c r="C155" t="s" s="1">
         <v>271</v>
@@ -4396,10 +4510,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="1">
-        <v>446</v>
+        <v>345</v>
       </c>
       <c r="B156" t="s" s="1">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C156" t="s" s="1">
         <v>271</v>
@@ -4407,10 +4521,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="1">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="B157" t="s" s="1">
-        <v>548</v>
+        <v>289</v>
       </c>
       <c r="C157" t="s" s="1">
         <v>271</v>
@@ -4418,21 +4532,21 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="1">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B158" t="s" s="1">
-        <v>281</v>
+        <v>4</v>
       </c>
       <c r="C158" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="1">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B159" t="s" s="1">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C159" t="s" s="1">
         <v>271</v>
@@ -4440,10 +4554,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="1">
-        <v>407</v>
+        <v>207</v>
       </c>
       <c r="B160" t="s" s="1">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C160" t="s" s="1">
         <v>271</v>
@@ -4451,10 +4565,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="1">
-        <v>104</v>
+        <v>342</v>
       </c>
       <c r="B161" t="s" s="1">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="C161" t="s" s="1">
         <v>271</v>
@@ -4462,10 +4576,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="1">
-        <v>205</v>
+        <v>353</v>
       </c>
       <c r="B162" t="s" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C162" t="s" s="1">
         <v>271</v>
@@ -4473,21 +4587,21 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="1">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="B163" t="s" s="1">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="C163" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="1">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="B164" t="s" s="1">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="C164" t="s" s="1">
         <v>271</v>
@@ -4495,10 +4609,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="1">
-        <v>149</v>
+        <v>573</v>
       </c>
       <c r="B165" t="s" s="1">
-        <v>322</v>
+        <v>66</v>
       </c>
       <c r="C165" t="s" s="1">
         <v>271</v>
@@ -4506,10 +4620,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="1">
-        <v>203</v>
+        <v>326</v>
       </c>
       <c r="B166" t="s" s="1">
-        <v>111</v>
+        <v>544</v>
       </c>
       <c r="C166" t="s" s="1">
         <v>5</v>
@@ -4517,21 +4631,21 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="1">
-        <v>59</v>
+        <v>479</v>
       </c>
       <c r="B167" t="s" s="1">
-        <v>369</v>
+        <v>69</v>
       </c>
       <c r="C167" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="1">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="B168" t="s" s="1">
-        <v>549</v>
+        <v>15</v>
       </c>
       <c r="C168" t="s" s="1">
         <v>271</v>
@@ -4539,21 +4653,21 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="1">
-        <v>550</v>
+        <v>412</v>
       </c>
       <c r="B169" t="s" s="1">
         <v>45</v>
       </c>
       <c r="C169" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="1">
-        <v>189</v>
+        <v>436</v>
       </c>
       <c r="B170" t="s" s="1">
-        <v>267</v>
+        <v>23</v>
       </c>
       <c r="C170" t="s" s="1">
         <v>271</v>
@@ -4561,10 +4675,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="1">
-        <v>476</v>
+        <v>367</v>
       </c>
       <c r="B171" t="s" s="1">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C171" t="s" s="1">
         <v>271</v>
@@ -4572,21 +4686,21 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="1">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="B172" t="s" s="1">
-        <v>494</v>
+        <v>273</v>
       </c>
       <c r="C172" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="1">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="B173" t="s" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C173" t="s" s="1">
         <v>271</v>
@@ -4594,10 +4708,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="1">
-        <v>408</v>
+        <v>501</v>
       </c>
       <c r="B174" t="s" s="1">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C174" t="s" s="1">
         <v>271</v>
@@ -4605,54 +4719,54 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="1">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="B175" t="s" s="1">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="C175" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="1">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B176" t="s" s="1">
-        <v>72</v>
+        <v>449</v>
       </c>
       <c r="C176" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="1">
-        <v>308</v>
+        <v>469</v>
       </c>
       <c r="B177" t="s" s="1">
-        <v>449</v>
+        <v>25</v>
       </c>
       <c r="C177" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="1">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="B178" t="s" s="1">
-        <v>392</v>
+        <v>281</v>
       </c>
       <c r="C178" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="1">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="B179" t="s" s="1">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C179" t="s" s="1">
         <v>271</v>
@@ -4660,10 +4774,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="1">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="B180" t="s" s="1">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C180" t="s" s="1">
         <v>271</v>
@@ -4671,21 +4785,21 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="1">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="B181" t="s" s="1">
-        <v>542</v>
+        <v>283</v>
       </c>
       <c r="C181" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="1">
-        <v>484</v>
+        <v>343</v>
       </c>
       <c r="B182" t="s" s="1">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="C182" t="s" s="1">
         <v>271</v>
@@ -4693,21 +4807,21 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="1">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="B183" t="s" s="1">
-        <v>101</v>
+        <v>276</v>
       </c>
       <c r="C183" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="1">
-        <v>97</v>
+        <v>423</v>
       </c>
       <c r="B184" t="s" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s" s="1">
         <v>271</v>
@@ -4715,10 +4829,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="1">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="B185" t="s" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C185" t="s" s="1">
         <v>271</v>
@@ -4726,21 +4840,21 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="1">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="B186" t="s" s="1">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="C186" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="1">
-        <v>389</v>
+        <v>212</v>
       </c>
       <c r="B187" t="s" s="1">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="C187" t="s" s="1">
         <v>271</v>
@@ -4748,10 +4862,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="1">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B188" t="s" s="1">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="C188" t="s" s="1">
         <v>5</v>
@@ -4759,43 +4873,43 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B189" t="s" s="1">
-        <v>13</v>
+        <v>281</v>
       </c>
       <c r="C189" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="1">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B190" t="s" s="1">
-        <v>324</v>
+        <v>84</v>
       </c>
       <c r="C190" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="1">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="B191" t="s" s="1">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C191" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="1">
-        <v>214</v>
+        <v>87</v>
       </c>
       <c r="B192" t="s" s="1">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="C192" t="s" s="1">
         <v>271</v>
@@ -4803,43 +4917,43 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="1">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="B193" t="s" s="1">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C193" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="1">
-        <v>480</v>
+        <v>145</v>
       </c>
       <c r="B194" t="s" s="1">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C194" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="1">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="B195" t="s" s="1">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C195" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="1">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="B196" t="s" s="1">
-        <v>84</v>
+        <v>392</v>
       </c>
       <c r="C196" t="s" s="1">
         <v>271</v>
@@ -4847,10 +4961,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="1">
-        <v>309</v>
+        <v>583</v>
       </c>
       <c r="B197" t="s" s="1">
-        <v>286</v>
+        <v>57</v>
       </c>
       <c r="C197" t="s" s="1">
         <v>271</v>
@@ -4858,10 +4972,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="1">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B198" t="s" s="1">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C198" t="s" s="1">
         <v>271</v>
@@ -4869,10 +4983,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="1">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B199" t="s" s="1">
-        <v>349</v>
+        <v>116</v>
       </c>
       <c r="C199" t="s" s="1">
         <v>271</v>
@@ -4880,10 +4994,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="1">
-        <v>246</v>
+        <v>445</v>
       </c>
       <c r="B200" t="s" s="1">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="C200" t="s" s="1">
         <v>271</v>
@@ -4891,10 +5005,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="1">
-        <v>343</v>
+        <v>105</v>
       </c>
       <c r="B201" t="s" s="1">
-        <v>283</v>
+        <v>66</v>
       </c>
       <c r="C201" t="s" s="1">
         <v>271</v>
@@ -4902,10 +5016,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="1">
-        <v>254</v>
+        <v>130</v>
       </c>
       <c r="B202" t="s" s="1">
-        <v>69</v>
+        <v>340</v>
       </c>
       <c r="C202" t="s" s="1">
         <v>271</v>
@@ -4913,10 +5027,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="1">
-        <v>263</v>
+        <v>516</v>
       </c>
       <c r="B203" t="s" s="1">
-        <v>437</v>
+        <v>60</v>
       </c>
       <c r="C203" t="s" s="1">
         <v>271</v>
@@ -4924,10 +5038,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="1">
-        <v>481</v>
+        <v>357</v>
       </c>
       <c r="B204" t="s" s="1">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c r="C204" t="s" s="1">
         <v>271</v>
@@ -4935,10 +5049,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="1">
-        <v>320</v>
+        <v>477</v>
       </c>
       <c r="B205" t="s" s="1">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C205" t="s" s="1">
         <v>271</v>
@@ -4946,10 +5060,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="1">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="B206" t="s" s="1">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="C206" t="s" s="1">
         <v>271</v>
@@ -4957,21 +5071,21 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="1">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="B207" t="s" s="1">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C207" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="1">
-        <v>379</v>
+        <v>112</v>
       </c>
       <c r="B208" t="s" s="1">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C208" t="s" s="1">
         <v>271</v>
@@ -4979,21 +5093,21 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="1">
-        <v>371</v>
+        <v>497</v>
       </c>
       <c r="B209" t="s" s="1">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C209" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="1">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B210" t="s" s="1">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="C210" t="s" s="1">
         <v>5</v>
@@ -5001,120 +5115,120 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="1">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B211" t="s" s="1">
-        <v>274</v>
+        <v>121</v>
       </c>
       <c r="C211" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="1">
-        <v>518</v>
+        <v>405</v>
       </c>
       <c r="B212" t="s" s="1">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="C212" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="1">
-        <v>226</v>
+        <v>518</v>
       </c>
       <c r="B213" t="s" s="1">
-        <v>273</v>
+        <v>121</v>
       </c>
       <c r="C213" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="1">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="B214" t="s" s="1">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C214" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="1">
-        <v>155</v>
+        <v>577</v>
       </c>
       <c r="B215" t="s" s="1">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C215" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="1">
-        <v>472</v>
+        <v>315</v>
       </c>
       <c r="B216" t="s" s="1">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="C216" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="1">
-        <v>513</v>
+        <v>371</v>
       </c>
       <c r="B217" t="s" s="1">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C217" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="1">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="B218" t="s" s="1">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C218" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="1">
-        <v>370</v>
+        <v>262</v>
       </c>
       <c r="B219" t="s" s="1">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C219" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="1">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="B220" t="s" s="1">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C220" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="1">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="B221" t="s" s="1">
-        <v>390</v>
+        <v>121</v>
       </c>
       <c r="C221" t="s" s="1">
         <v>5</v>
@@ -5122,131 +5236,131 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="1">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B222" t="s" s="1">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C222" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="1">
-        <v>354</v>
+        <v>163</v>
       </c>
       <c r="B223" t="s" s="1">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="C223" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="1">
-        <v>399</v>
+        <v>199</v>
       </c>
       <c r="B224" t="s" s="1">
-        <v>275</v>
+        <v>121</v>
       </c>
       <c r="C224" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="1">
-        <v>430</v>
+        <v>168</v>
       </c>
       <c r="B225" t="s" s="1">
-        <v>276</v>
+        <v>121</v>
       </c>
       <c r="C225" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="1">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="B226" t="s" s="1">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C226" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="1">
-        <v>238</v>
+        <v>468</v>
       </c>
       <c r="B227" t="s" s="1">
-        <v>295</v>
+        <v>121</v>
       </c>
       <c r="C227" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="1">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="B228" t="s" s="1">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="C228" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="1">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="B229" t="s" s="1">
-        <v>437</v>
+        <v>121</v>
       </c>
       <c r="C229" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="1">
-        <v>463</v>
+        <v>303</v>
       </c>
       <c r="B230" t="s" s="1">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="C230" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="1">
-        <v>479</v>
+        <v>521</v>
       </c>
       <c r="B231" t="s" s="1">
-        <v>499</v>
+        <v>121</v>
       </c>
       <c r="C231" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="1">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="B232" t="s" s="1">
-        <v>280</v>
+        <v>121</v>
       </c>
       <c r="C232" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="1">
-        <v>252</v>
+        <v>417</v>
       </c>
       <c r="B233" t="s" s="1">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C233" t="s" s="1">
         <v>5</v>
@@ -5254,153 +5368,153 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="1">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="B234" t="s" s="1">
-        <v>283</v>
+        <v>121</v>
       </c>
       <c r="C234" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="1">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="B235" t="s" s="1">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="C235" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="1">
-        <v>239</v>
+        <v>356</v>
       </c>
       <c r="B236" t="s" s="1">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="C236" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="1">
-        <v>551</v>
+        <v>484</v>
       </c>
       <c r="B237" t="s" s="1">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C237" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="1">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="B238" t="s" s="1">
-        <v>283</v>
+        <v>121</v>
       </c>
       <c r="C238" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="1">
-        <v>346</v>
+        <v>424</v>
       </c>
       <c r="B239" t="s" s="1">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C239" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="1">
-        <v>523</v>
+        <v>182</v>
       </c>
       <c r="B240" t="s" s="1">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C240" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="1">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="B241" t="s" s="1">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C241" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="1">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B242" t="s" s="1">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="C242" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="1">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="B243" t="s" s="1">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="C243" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="1">
-        <v>502</v>
+        <v>188</v>
       </c>
       <c r="B244" t="s" s="1">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C244" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="1">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="B245" t="s" s="1">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C245" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="1">
-        <v>188</v>
+        <v>464</v>
       </c>
       <c r="B246" t="s" s="1">
-        <v>552</v>
+        <v>121</v>
       </c>
       <c r="C246" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="1">
-        <v>154</v>
+        <v>581</v>
       </c>
       <c r="B247" t="s" s="1">
-        <v>273</v>
+        <v>121</v>
       </c>
       <c r="C247" t="s" s="1">
         <v>5</v>
@@ -5408,57 +5522,1278 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="1">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B248" t="s" s="1">
-        <v>392</v>
+        <v>121</v>
       </c>
       <c r="C248" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="1">
-        <v>74</v>
+        <v>505</v>
       </c>
       <c r="B249" t="s" s="1">
-        <v>286</v>
+        <v>121</v>
       </c>
       <c r="C249" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="1">
-        <v>362</v>
+        <v>538</v>
       </c>
       <c r="B250" t="s" s="1">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="C250" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="1">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="B251" t="s" s="1">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C251" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="1">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="B252" t="s" s="1">
-        <v>553</v>
+        <v>121</v>
       </c>
       <c r="C252" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="1">
+        <v>245</v>
+      </c>
+      <c r="B253" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C253" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="1">
+        <v>344</v>
+      </c>
+      <c r="B254" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C254" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B255" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C255" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="B256" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C256" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B257" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C257" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="1">
+        <v>429</v>
+      </c>
+      <c r="B258" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C258" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="1">
+        <v>379</v>
+      </c>
+      <c r="B259" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C259" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="B260" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C260" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="B261" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C261" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B262" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C262" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C263" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="B264" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C264" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="B265" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C265" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="1">
+        <v>317</v>
+      </c>
+      <c r="B266" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C266" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B267" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C267" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="B268" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C268" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="B269" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C269" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="1">
+        <v>167</v>
+      </c>
+      <c r="B270" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C270" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="1">
+        <v>511</v>
+      </c>
+      <c r="B271" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C271" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="B272" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C272" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B273" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C273" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="1">
+        <v>246</v>
+      </c>
+      <c r="B274" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C274" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="1">
+        <v>258</v>
+      </c>
+      <c r="B275" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C275" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="1">
+        <v>164</v>
+      </c>
+      <c r="B276" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C276" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B277" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C277" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B278" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C278" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="1">
+        <v>414</v>
+      </c>
+      <c r="B279" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C279" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="1">
+        <v>556</v>
+      </c>
+      <c r="B280" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C280" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="B281" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C281" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="B282" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C282" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="1">
+        <v>395</v>
+      </c>
+      <c r="B283" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C283" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="1">
+        <v>465</v>
+      </c>
+      <c r="B284" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C284" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="1">
+        <v>363</v>
+      </c>
+      <c r="B285" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C285" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="1">
+        <v>411</v>
+      </c>
+      <c r="B286" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C286" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="1">
+        <v>415</v>
+      </c>
+      <c r="B287" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C287" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B288" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C288" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="B289" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C289" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="1">
+        <v>483</v>
+      </c>
+      <c r="B290" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C290" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="B291" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C291" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="B292" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C292" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="B293" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C293" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="1">
+        <v>514</v>
+      </c>
+      <c r="B294" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C294" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="B295" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C295" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="1">
+        <v>487</v>
+      </c>
+      <c r="B296" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C296" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="B297" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C297" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="1">
+        <v>560</v>
+      </c>
+      <c r="B298" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C298" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="1">
+        <v>180</v>
+      </c>
+      <c r="B299" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C299" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="B300" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C300" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="B301" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C301" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="B302" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C302" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="1">
+        <v>470</v>
+      </c>
+      <c r="B303" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C303" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="B304" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C304" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="1">
+        <v>566</v>
+      </c>
+      <c r="B305" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C305" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="1">
+        <v>362</v>
+      </c>
+      <c r="B306" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C306" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B307" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C307" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="1">
+        <v>399</v>
+      </c>
+      <c r="B308" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C308" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="1">
+        <v>558</v>
+      </c>
+      <c r="B309" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C309" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="1">
+        <v>575</v>
+      </c>
+      <c r="B310" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C310" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="B311" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C311" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="1">
+        <v>183</v>
+      </c>
+      <c r="B312" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C312" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="1">
+        <v>86</v>
+      </c>
+      <c r="B313" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C313" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="B314" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C314" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="B315" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C315" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="1">
+        <v>561</v>
+      </c>
+      <c r="B316" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C316" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="1">
+        <v>250</v>
+      </c>
+      <c r="B317" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C317" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="B318" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C318" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="1">
+        <v>173</v>
+      </c>
+      <c r="B319" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C319" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="1">
+        <v>391</v>
+      </c>
+      <c r="B320" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C320" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="1">
+        <v>569</v>
+      </c>
+      <c r="B321" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C321" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B322" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C322" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="1">
+        <v>564</v>
+      </c>
+      <c r="B323" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C323" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="1">
+        <v>578</v>
+      </c>
+      <c r="B324" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C324" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="1">
+        <v>407</v>
+      </c>
+      <c r="B325" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C325" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="B326" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C326" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="1">
+        <v>476</v>
+      </c>
+      <c r="B327" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C327" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="1">
+        <v>474</v>
+      </c>
+      <c r="B328" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C328" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="1">
+        <v>543</v>
+      </c>
+      <c r="B329" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C329" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B330" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C330" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="1">
+        <v>129</v>
+      </c>
+      <c r="B331" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C331" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="1">
+        <v>580</v>
+      </c>
+      <c r="B332" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C332" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="B333" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C333" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="1">
+        <v>565</v>
+      </c>
+      <c r="B334" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C334" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="1">
+        <v>365</v>
+      </c>
+      <c r="B335" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C335" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="1">
+        <v>574</v>
+      </c>
+      <c r="B336" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C336" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="1">
+        <v>522</v>
+      </c>
+      <c r="B337" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C337" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="1">
+        <v>523</v>
+      </c>
+      <c r="B338" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C338" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="1">
+        <v>400</v>
+      </c>
+      <c r="B339" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C339" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="1">
+        <v>467</v>
+      </c>
+      <c r="B340" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C340" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="1">
+        <v>547</v>
+      </c>
+      <c r="B341" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C341" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B342" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C342" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="1">
+        <v>206</v>
+      </c>
+      <c r="B343" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C343" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="B344" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C344" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="B345" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C345" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="1">
+        <v>368</v>
+      </c>
+      <c r="B346" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C346" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="1">
+        <v>534</v>
+      </c>
+      <c r="B347" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C347" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="B348" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C348" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="1">
+        <v>579</v>
+      </c>
+      <c r="B349" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C349" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="B350" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C350" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="B351" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C351" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="1">
+        <v>234</v>
+      </c>
+      <c r="B352" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C352" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="1">
+        <v>243</v>
+      </c>
+      <c r="B353" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C353" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="1">
+        <v>488</v>
+      </c>
+      <c r="B354" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C354" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="B355" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C355" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="1">
+        <v>475</v>
+      </c>
+      <c r="B356" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C356" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="1">
+        <v>142</v>
+      </c>
+      <c r="B357" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C357" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="B358" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C358" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B359" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C359" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="1">
+        <v>231</v>
+      </c>
+      <c r="B360" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C360" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B361" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C361" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="1">
+        <v>570</v>
+      </c>
+      <c r="B362" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C362" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="1">
+        <v>351</v>
+      </c>
+      <c r="B363" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C363" t="s" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7407" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8325" uniqueCount="608">
   <si>
     <t>Firm</t>
   </si>
@@ -1804,6 +1804,54 @@
   </si>
   <si>
     <t>01min 59s</t>
+  </si>
+  <si>
+    <t>18min 49s</t>
+  </si>
+  <si>
+    <t>NOEWE</t>
+  </si>
+  <si>
+    <t>01min 42s</t>
+  </si>
+  <si>
+    <t>Rödl And Partner</t>
+  </si>
+  <si>
+    <t>03min 17s</t>
+  </si>
+  <si>
+    <t>02min 44s</t>
+  </si>
+  <si>
+    <t>03min 32s</t>
+  </si>
+  <si>
+    <t>03min 45s</t>
+  </si>
+  <si>
+    <t>ONV Law</t>
+  </si>
+  <si>
+    <t>02min 57s</t>
+  </si>
+  <si>
+    <t>Proskauer Rose</t>
+  </si>
+  <si>
+    <t>01min 58s</t>
+  </si>
+  <si>
+    <t>02min 26s</t>
+  </si>
+  <si>
+    <t>03min 08s</t>
+  </si>
+  <si>
+    <t>03min 40s</t>
+  </si>
+  <si>
+    <t>02min 03s</t>
   </si>
 </sst>
 </file>
@@ -2791,7 +2839,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C363"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -2816,10 +2864,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>584</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s" s="1">
         <v>5</v>
@@ -2827,10 +2875,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>585</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s" s="1">
         <v>5</v>
@@ -2838,10 +2886,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s" s="1">
         <v>271</v>
@@ -2849,21 +2897,21 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>450</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>302</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>276</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s" s="1">
         <v>271</v>
@@ -2871,10 +2919,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>586</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s" s="1">
         <v>5</v>
@@ -2882,54 +2930,54 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>323</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>378</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>493</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>409</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s" s="1">
         <v>271</v>
@@ -2937,21 +2985,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s" s="1">
         <v>45</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>413</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s" s="1">
         <v>271</v>
@@ -2959,76 +3007,76 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>503</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>45</v>
+        <v>603</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>576</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="1">
         <v>267</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>533</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>267</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
-        <v>320</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>443</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
-        <v>225</v>
+        <v>536</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="C20" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
-        <v>536</v>
+        <v>133</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s" s="1">
         <v>5</v>
@@ -3036,21 +3084,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
-        <v>572</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>375</v>
+        <v>286</v>
       </c>
       <c r="C22" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
-        <v>459</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C23" t="s" s="1">
         <v>271</v>
@@ -3058,62 +3106,62 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
-        <v>448</v>
+        <v>534</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="C25" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
-        <v>471</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="C26" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
-        <v>140</v>
+        <v>361</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
-        <v>233</v>
+        <v>509</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="B29" t="s" s="1">
         <v>45</v>
@@ -3124,10 +3172,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s" s="1">
         <v>271</v>
@@ -3135,10 +3183,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
-        <v>513</v>
+        <v>450</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>587</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s" s="1">
         <v>271</v>
@@ -3146,21 +3194,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s" s="1">
         <v>271</v>
@@ -3168,32 +3216,32 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="1">
-        <v>377</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C34" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="1">
-        <v>492</v>
+        <v>417</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>301</v>
+        <v>604</v>
       </c>
       <c r="C35" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="1">
-        <v>510</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s" s="1">
         <v>271</v>
@@ -3201,32 +3249,32 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="1">
-        <v>332</v>
+        <v>466</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>588</v>
+        <v>285</v>
       </c>
       <c r="C37" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="1">
-        <v>306</v>
+        <v>428</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="1">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s" s="1">
         <v>271</v>
@@ -3234,10 +3282,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="1">
-        <v>559</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>276</v>
+        <v>605</v>
       </c>
       <c r="C40" t="s" s="1">
         <v>271</v>
@@ -3245,21 +3293,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="1">
-        <v>563</v>
+        <v>213</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="1">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>11</v>
+        <v>438</v>
       </c>
       <c r="C42" t="s" s="1">
         <v>271</v>
@@ -3267,43 +3315,43 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="1">
-        <v>335</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C43" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="1">
-        <v>347</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>276</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="1">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>66</v>
+        <v>304</v>
       </c>
       <c r="C46" t="s" s="1">
         <v>271</v>
@@ -3311,21 +3359,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>416</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="1">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s" s="1">
         <v>271</v>
@@ -3333,43 +3381,43 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="1">
-        <v>108</v>
+        <v>411</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>299</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="1">
-        <v>150</v>
+        <v>473</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="C50" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="1">
-        <v>155</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s" s="1">
         <v>5</v>
@@ -3377,21 +3425,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="1">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="1">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>38</v>
+        <v>485</v>
       </c>
       <c r="C54" t="s" s="1">
         <v>271</v>
@@ -3399,10 +3447,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>277</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s" s="1">
         <v>271</v>
@@ -3410,10 +3458,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
-        <v>74</v>
+        <v>539</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>392</v>
+        <v>586</v>
       </c>
       <c r="C56" t="s" s="1">
         <v>271</v>
@@ -3421,21 +3469,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
-        <v>444</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>267</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s" s="1">
         <v>5</v>
@@ -3443,10 +3491,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s" s="1">
         <v>271</v>
@@ -3454,43 +3502,43 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>69</v>
+        <v>276</v>
       </c>
       <c r="C60" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s" s="1">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
-        <v>393</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s" s="1">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s" s="1">
         <v>271</v>
@@ -3498,54 +3546,54 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>506</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s" s="1">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C64" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B65" t="s" s="1">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="C65" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="1">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s" s="1">
-        <v>341</v>
+        <v>606</v>
       </c>
       <c r="C66" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="B67" t="s" s="1">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
-        <v>426</v>
+        <v>555</v>
       </c>
       <c r="B68" t="s" s="1">
-        <v>289</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s" s="1">
         <v>271</v>
@@ -3553,54 +3601,54 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="B69" t="s" s="1">
-        <v>52</v>
+        <v>527</v>
       </c>
       <c r="C69" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>452</v>
+        <v>191</v>
       </c>
       <c r="B70" t="s" s="1">
-        <v>267</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s" s="1">
-        <v>297</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
-        <v>338</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s" s="1">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="B73" t="s" s="1">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="C73" t="s" s="1">
         <v>5</v>
@@ -3608,43 +3656,43 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="B74" t="s" s="1">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="C74" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>422</v>
+        <v>153</v>
       </c>
       <c r="B75" t="s" s="1">
-        <v>38</v>
+        <v>526</v>
       </c>
       <c r="C75" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
-        <v>431</v>
+        <v>511</v>
       </c>
       <c r="B76" t="s" s="1">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C76" t="s" s="1">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>401</v>
+        <v>569</v>
       </c>
       <c r="B77" t="s" s="1">
-        <v>284</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s" s="1">
         <v>271</v>
@@ -3652,10 +3700,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="B78" t="s" s="1">
-        <v>589</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s" s="1">
         <v>271</v>
@@ -3663,54 +3711,54 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>58</v>
+        <v>495</v>
       </c>
       <c r="B79" t="s" s="1">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="C79" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
-        <v>387</v>
+        <v>259</v>
       </c>
       <c r="B80" t="s" s="1">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="1">
-        <v>104</v>
+        <v>480</v>
       </c>
       <c r="B81" t="s" s="1">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="C81" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="1">
-        <v>508</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C82" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
-        <v>197</v>
+        <v>368</v>
       </c>
       <c r="B83" t="s" s="1">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s" s="1">
         <v>271</v>
@@ -3718,43 +3766,43 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
-        <v>227</v>
+        <v>444</v>
       </c>
       <c r="B84" t="s" s="1">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="B85" t="s" s="1">
-        <v>27</v>
+        <v>545</v>
       </c>
       <c r="C85" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="1">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="B86" t="s" s="1">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="C86" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="B87" t="s" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s" s="1">
         <v>5</v>
@@ -3762,10 +3810,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="1">
-        <v>131</v>
+        <v>354</v>
       </c>
       <c r="B88" t="s" s="1">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="C88" t="s" s="1">
         <v>271</v>
@@ -3773,43 +3821,43 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="1">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="B89" t="s" s="1">
-        <v>7</v>
+        <v>607</v>
       </c>
       <c r="C89" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="1">
-        <v>133</v>
+        <v>488</v>
       </c>
       <c r="B90" t="s" s="1">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="1">
-        <v>305</v>
+        <v>193</v>
       </c>
       <c r="B91" t="s" s="1">
-        <v>25</v>
+        <v>504</v>
       </c>
       <c r="C91" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="1">
-        <v>567</v>
+        <v>326</v>
       </c>
       <c r="B92" t="s" s="1">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="C92" t="s" s="1">
         <v>5</v>
@@ -3817,10 +3865,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="1">
-        <v>226</v>
+        <v>564</v>
       </c>
       <c r="B93" t="s" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C93" t="s" s="1">
         <v>271</v>
@@ -3828,2971 +3876,12 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="1">
-        <v>179</v>
+        <v>371</v>
       </c>
       <c r="B94" t="s" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="1">
-        <v>582</v>
-      </c>
-      <c r="B95" t="s" s="1">
-        <v>392</v>
-      </c>
-      <c r="C95" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="1">
-        <v>124</v>
-      </c>
-      <c r="B96" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C96" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="1">
-        <v>446</v>
-      </c>
-      <c r="B97" t="s" s="1">
-        <v>275</v>
-      </c>
-      <c r="C97" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="1">
-        <v>442</v>
-      </c>
-      <c r="B98" t="s" s="1">
-        <v>280</v>
-      </c>
-      <c r="C98" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="1">
-        <v>252</v>
-      </c>
-      <c r="B99" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C99" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="1">
-        <v>172</v>
-      </c>
-      <c r="B100" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="C100" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="1">
-        <v>220</v>
-      </c>
-      <c r="B101" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C101" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="1">
-        <v>512</v>
-      </c>
-      <c r="B102" t="s" s="1">
-        <v>590</v>
-      </c>
-      <c r="C102" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="1">
-        <v>143</v>
-      </c>
-      <c r="B103" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C103" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="1">
-        <v>169</v>
-      </c>
-      <c r="B104" t="s" s="1">
-        <v>313</v>
-      </c>
-      <c r="C104" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="1">
-        <v>144</v>
-      </c>
-      <c r="B105" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C105" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="1">
-        <v>100</v>
-      </c>
-      <c r="B106" t="s" s="1">
-        <v>284</v>
-      </c>
-      <c r="C106" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="1">
-        <v>115</v>
-      </c>
-      <c r="B107" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="C107" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="1">
-        <v>103</v>
-      </c>
-      <c r="B108" t="s" s="1">
-        <v>390</v>
-      </c>
-      <c r="C108" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="1">
-        <v>157</v>
-      </c>
-      <c r="B109" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C109" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="1">
-        <v>550</v>
-      </c>
-      <c r="B110" t="s" s="1">
-        <v>289</v>
-      </c>
-      <c r="C110" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="1">
-        <v>232</v>
-      </c>
-      <c r="B111" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="1">
-        <v>404</v>
-      </c>
-      <c r="B112" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C112" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="1">
-        <v>80</v>
-      </c>
-      <c r="B113" t="s" s="1">
-        <v>294</v>
-      </c>
-      <c r="C113" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="1">
-        <v>481</v>
-      </c>
-      <c r="B114" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C114" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s" s="1">
-        <v>587</v>
-      </c>
-      <c r="C115" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="B116" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C116" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="1">
-        <v>562</v>
-      </c>
-      <c r="B117" t="s" s="1">
-        <v>337</v>
-      </c>
-      <c r="C117" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="B118" t="s" s="1">
-        <v>390</v>
-      </c>
-      <c r="C118" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="1">
-        <v>410</v>
-      </c>
-      <c r="B119" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C119" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="1">
-        <v>254</v>
-      </c>
-      <c r="B120" t="s" s="1">
-        <v>274</v>
-      </c>
-      <c r="C120" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="1">
-        <v>361</v>
-      </c>
-      <c r="B121" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C121" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="1">
-        <v>463</v>
-      </c>
-      <c r="B122" t="s" s="1">
-        <v>313</v>
-      </c>
-      <c r="C122" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="1">
-        <v>242</v>
-      </c>
-      <c r="B123" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C123" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="1">
-        <v>222</v>
-      </c>
-      <c r="B124" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C124" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="1">
-        <v>557</v>
-      </c>
-      <c r="B125" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C125" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="1">
-        <v>388</v>
-      </c>
-      <c r="B126" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C126" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="1">
-        <v>260</v>
-      </c>
-      <c r="B127" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C127" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="1">
-        <v>571</v>
-      </c>
-      <c r="B128" t="s" s="1">
-        <v>337</v>
-      </c>
-      <c r="C128" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="1">
-        <v>237</v>
-      </c>
-      <c r="B129" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C129" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="1">
-        <v>177</v>
-      </c>
-      <c r="B130" t="s" s="1">
-        <v>527</v>
-      </c>
-      <c r="C130" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="B131" t="s" s="1">
-        <v>437</v>
-      </c>
-      <c r="C131" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="1">
-        <v>122</v>
-      </c>
-      <c r="B132" t="s" s="1">
-        <v>101</v>
-      </c>
-      <c r="C132" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="1">
-        <v>78</v>
-      </c>
-      <c r="B133" t="s" s="1">
-        <v>296</v>
-      </c>
-      <c r="C133" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="1">
-        <v>500</v>
-      </c>
-      <c r="B134" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C134" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="1">
-        <v>238</v>
-      </c>
-      <c r="B135" t="s" s="1">
-        <v>284</v>
-      </c>
-      <c r="C135" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="1">
-        <v>88</v>
-      </c>
-      <c r="B136" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C136" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="B137" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C137" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="1">
-        <v>127</v>
-      </c>
-      <c r="B138" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C138" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="1">
-        <v>264</v>
-      </c>
-      <c r="B139" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C139" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="1">
-        <v>204</v>
-      </c>
-      <c r="B140" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C140" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="B141" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C141" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="1">
-        <v>186</v>
-      </c>
-      <c r="B142" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C142" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="1">
-        <v>223</v>
-      </c>
-      <c r="B143" t="s" s="1">
-        <v>591</v>
-      </c>
-      <c r="C143" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="B144" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C144" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="1">
-        <v>190</v>
-      </c>
-      <c r="B145" t="s" s="1">
-        <v>392</v>
-      </c>
-      <c r="C145" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="1">
-        <v>189</v>
-      </c>
-      <c r="B146" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C146" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="1">
-        <v>435</v>
-      </c>
-      <c r="B147" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="C147" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="1">
-        <v>428</v>
-      </c>
-      <c r="B148" t="s" s="1">
-        <v>275</v>
-      </c>
-      <c r="C148" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="1">
-        <v>85</v>
-      </c>
-      <c r="B149" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="C149" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="1">
-        <v>162</v>
-      </c>
-      <c r="B150" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C150" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="1">
-        <v>171</v>
-      </c>
-      <c r="B151" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C151" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="1">
-        <v>480</v>
-      </c>
-      <c r="B152" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C152" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="1">
-        <v>205</v>
-      </c>
-      <c r="B153" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C153" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="1">
-        <v>418</v>
-      </c>
-      <c r="B154" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C154" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="1">
-        <v>312</v>
-      </c>
-      <c r="B155" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C155" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="1">
-        <v>345</v>
-      </c>
-      <c r="B156" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C156" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="1">
-        <v>381</v>
-      </c>
-      <c r="B157" t="s" s="1">
-        <v>289</v>
-      </c>
-      <c r="C157" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="1">
-        <v>152</v>
-      </c>
-      <c r="B158" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C158" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="1">
-        <v>434</v>
-      </c>
-      <c r="B159" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="C159" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="1">
-        <v>207</v>
-      </c>
-      <c r="B160" t="s" s="1">
-        <v>101</v>
-      </c>
-      <c r="C160" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="1">
-        <v>342</v>
-      </c>
-      <c r="B161" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C161" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s" s="1">
-        <v>353</v>
-      </c>
-      <c r="B162" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C162" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="1">
-        <v>482</v>
-      </c>
-      <c r="B163" t="s" s="1">
-        <v>311</v>
-      </c>
-      <c r="C163" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="1">
-        <v>134</v>
-      </c>
-      <c r="B164" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C164" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="1">
-        <v>573</v>
-      </c>
-      <c r="B165" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C165" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="1">
-        <v>326</v>
-      </c>
-      <c r="B166" t="s" s="1">
-        <v>544</v>
-      </c>
-      <c r="C166" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="1">
-        <v>479</v>
-      </c>
-      <c r="B167" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C167" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="1">
-        <v>402</v>
-      </c>
-      <c r="B168" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C168" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="1">
-        <v>412</v>
-      </c>
-      <c r="B169" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C169" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="1">
-        <v>436</v>
-      </c>
-      <c r="B170" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C170" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s" s="1">
-        <v>367</v>
-      </c>
-      <c r="B171" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C171" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s" s="1">
-        <v>360</v>
-      </c>
-      <c r="B172" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C172" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="1">
-        <v>408</v>
-      </c>
-      <c r="B173" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C173" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="1">
-        <v>501</v>
-      </c>
-      <c r="B174" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C174" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="1">
-        <v>421</v>
-      </c>
-      <c r="B175" t="s" s="1">
-        <v>284</v>
-      </c>
-      <c r="C175" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="1">
-        <v>161</v>
-      </c>
-      <c r="B176" t="s" s="1">
-        <v>449</v>
-      </c>
-      <c r="C176" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="1">
-        <v>469</v>
-      </c>
-      <c r="B177" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C177" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="1">
-        <v>214</v>
-      </c>
-      <c r="B178" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C178" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s" s="1">
-        <v>244</v>
-      </c>
-      <c r="B179" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C179" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s" s="1">
-        <v>201</v>
-      </c>
-      <c r="B180" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C180" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="1">
-        <v>330</v>
-      </c>
-      <c r="B181" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C181" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="1">
-        <v>343</v>
-      </c>
-      <c r="B182" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C182" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="1">
-        <v>309</v>
-      </c>
-      <c r="B183" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C183" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="1">
-        <v>423</v>
-      </c>
-      <c r="B184" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C184" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="B185" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C185" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s" s="1">
-        <v>187</v>
-      </c>
-      <c r="B186" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C186" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="1">
-        <v>212</v>
-      </c>
-      <c r="B187" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C187" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="1">
-        <v>99</v>
-      </c>
-      <c r="B188" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C188" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="1">
-        <v>178</v>
-      </c>
-      <c r="B189" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C189" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="B190" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C190" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="1">
-        <v>170</v>
-      </c>
-      <c r="B191" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C191" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="B192" t="s" s="1">
-        <v>279</v>
-      </c>
-      <c r="C192" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="B193" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C193" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s" s="1">
-        <v>145</v>
-      </c>
-      <c r="B194" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="C194" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="1">
-        <v>213</v>
-      </c>
-      <c r="B195" t="s" s="1">
-        <v>275</v>
-      </c>
-      <c r="C195" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s" s="1">
-        <v>146</v>
-      </c>
-      <c r="B196" t="s" s="1">
-        <v>392</v>
-      </c>
-      <c r="C196" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s" s="1">
-        <v>583</v>
-      </c>
-      <c r="B197" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="C197" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s" s="1">
-        <v>314</v>
-      </c>
-      <c r="B198" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C198" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s" s="1">
-        <v>125</v>
-      </c>
-      <c r="B199" t="s" s="1">
-        <v>116</v>
-      </c>
-      <c r="C199" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="1">
-        <v>445</v>
-      </c>
-      <c r="B200" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C200" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="1">
-        <v>105</v>
-      </c>
-      <c r="B201" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C201" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="1">
-        <v>130</v>
-      </c>
-      <c r="B202" t="s" s="1">
-        <v>340</v>
-      </c>
-      <c r="C202" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="1">
-        <v>516</v>
-      </c>
-      <c r="B203" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="C203" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s" s="1">
-        <v>357</v>
-      </c>
-      <c r="B204" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C204" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s" s="1">
-        <v>477</v>
-      </c>
-      <c r="B205" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="C205" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="1">
-        <v>160</v>
-      </c>
-      <c r="B206" t="s" s="1">
-        <v>275</v>
-      </c>
-      <c r="C206" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="B207" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C207" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s" s="1">
-        <v>112</v>
-      </c>
-      <c r="B208" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C208" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s" s="1">
-        <v>497</v>
-      </c>
-      <c r="B209" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C209" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s" s="1">
-        <v>119</v>
-      </c>
-      <c r="B210" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C210" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s" s="1">
-        <v>256</v>
-      </c>
-      <c r="B211" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C211" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s" s="1">
-        <v>405</v>
-      </c>
-      <c r="B212" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C212" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s" s="1">
-        <v>518</v>
-      </c>
-      <c r="B213" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C213" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s" s="1">
-        <v>354</v>
-      </c>
-      <c r="B214" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C214" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s" s="1">
-        <v>577</v>
-      </c>
-      <c r="B215" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C215" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s" s="1">
-        <v>315</v>
-      </c>
-      <c r="B216" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C216" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s" s="1">
-        <v>371</v>
-      </c>
-      <c r="B217" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C217" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s" s="1">
-        <v>394</v>
-      </c>
-      <c r="B218" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C218" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s" s="1">
-        <v>262</v>
-      </c>
-      <c r="B219" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C219" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s" s="1">
-        <v>472</v>
-      </c>
-      <c r="B220" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C220" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s" s="1">
-        <v>257</v>
-      </c>
-      <c r="B221" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C221" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s" s="1">
-        <v>478</v>
-      </c>
-      <c r="B222" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C222" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s" s="1">
-        <v>163</v>
-      </c>
-      <c r="B223" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C223" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s" s="1">
-        <v>199</v>
-      </c>
-      <c r="B224" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C224" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s" s="1">
-        <v>168</v>
-      </c>
-      <c r="B225" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C225" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="B226" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C226" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s" s="1">
-        <v>468</v>
-      </c>
-      <c r="B227" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C227" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s" s="1">
-        <v>539</v>
-      </c>
-      <c r="B228" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C228" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s" s="1">
-        <v>135</v>
-      </c>
-      <c r="B229" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C229" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s" s="1">
-        <v>303</v>
-      </c>
-      <c r="B230" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C230" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s" s="1">
-        <v>521</v>
-      </c>
-      <c r="B231" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C231" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="B232" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C232" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s" s="1">
-        <v>417</v>
-      </c>
-      <c r="B233" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C233" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="B234" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C234" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s" s="1">
-        <v>153</v>
-      </c>
-      <c r="B235" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C235" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s" s="1">
-        <v>356</v>
-      </c>
-      <c r="B236" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C236" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s" s="1">
-        <v>484</v>
-      </c>
-      <c r="B237" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C237" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="B238" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C238" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s" s="1">
-        <v>424</v>
-      </c>
-      <c r="B239" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C239" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s" s="1">
-        <v>182</v>
-      </c>
-      <c r="B240" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C240" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s" s="1">
-        <v>346</v>
-      </c>
-      <c r="B241" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C241" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s" s="1">
-        <v>308</v>
-      </c>
-      <c r="B242" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C242" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s" s="1">
-        <v>300</v>
-      </c>
-      <c r="B243" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C243" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s" s="1">
-        <v>188</v>
-      </c>
-      <c r="B244" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C244" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s" s="1">
-        <v>240</v>
-      </c>
-      <c r="B245" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C245" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s" s="1">
-        <v>464</v>
-      </c>
-      <c r="B246" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C246" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s" s="1">
-        <v>581</v>
-      </c>
-      <c r="B247" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C247" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s" s="1">
-        <v>218</v>
-      </c>
-      <c r="B248" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C248" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s" s="1">
-        <v>505</v>
-      </c>
-      <c r="B249" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C249" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s" s="1">
-        <v>538</v>
-      </c>
-      <c r="B250" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C250" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s" s="1">
-        <v>82</v>
-      </c>
-      <c r="B251" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C251" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s" s="1">
-        <v>336</v>
-      </c>
-      <c r="B252" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C252" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s" s="1">
-        <v>245</v>
-      </c>
-      <c r="B253" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C253" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s" s="1">
-        <v>344</v>
-      </c>
-      <c r="B254" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C254" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s" s="1">
-        <v>123</v>
-      </c>
-      <c r="B255" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C255" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s" s="1">
-        <v>215</v>
-      </c>
-      <c r="B256" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C256" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="B257" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C257" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s" s="1">
-        <v>429</v>
-      </c>
-      <c r="B258" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C258" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s" s="1">
-        <v>379</v>
-      </c>
-      <c r="B259" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C259" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s" s="1">
-        <v>110</v>
-      </c>
-      <c r="B260" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C260" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s" s="1">
-        <v>420</v>
-      </c>
-      <c r="B261" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C261" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="B262" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C262" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s" s="1">
-        <v>261</v>
-      </c>
-      <c r="B263" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C263" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="B264" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C264" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s" s="1">
-        <v>495</v>
-      </c>
-      <c r="B265" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C265" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s" s="1">
-        <v>317</v>
-      </c>
-      <c r="B266" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C266" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s" s="1">
-        <v>447</v>
-      </c>
-      <c r="B267" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C267" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s" s="1">
-        <v>97</v>
-      </c>
-      <c r="B268" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C268" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s" s="1">
-        <v>259</v>
-      </c>
-      <c r="B269" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C269" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s" s="1">
-        <v>167</v>
-      </c>
-      <c r="B270" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C270" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s" s="1">
-        <v>511</v>
-      </c>
-      <c r="B271" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C271" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s" s="1">
-        <v>106</v>
-      </c>
-      <c r="B272" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C272" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s" s="1">
-        <v>138</v>
-      </c>
-      <c r="B273" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C273" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s" s="1">
-        <v>246</v>
-      </c>
-      <c r="B274" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C274" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s" s="1">
-        <v>258</v>
-      </c>
-      <c r="B275" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C275" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s" s="1">
-        <v>164</v>
-      </c>
-      <c r="B276" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C276" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="B277" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C277" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="B278" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C278" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s" s="1">
-        <v>414</v>
-      </c>
-      <c r="B279" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C279" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s" s="1">
-        <v>556</v>
-      </c>
-      <c r="B280" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C280" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s" s="1">
-        <v>310</v>
-      </c>
-      <c r="B281" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C281" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s" s="1">
-        <v>117</v>
-      </c>
-      <c r="B282" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C282" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s" s="1">
-        <v>395</v>
-      </c>
-      <c r="B283" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C283" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s" s="1">
-        <v>465</v>
-      </c>
-      <c r="B284" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C284" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s" s="1">
-        <v>363</v>
-      </c>
-      <c r="B285" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C285" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s" s="1">
-        <v>411</v>
-      </c>
-      <c r="B286" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C286" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s" s="1">
-        <v>415</v>
-      </c>
-      <c r="B287" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C287" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s" s="1">
-        <v>358</v>
-      </c>
-      <c r="B288" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C288" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s" s="1">
-        <v>236</v>
-      </c>
-      <c r="B289" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C289" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s" s="1">
-        <v>483</v>
-      </c>
-      <c r="B290" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C290" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s" s="1">
-        <v>382</v>
-      </c>
-      <c r="B291" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C291" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s" s="1">
-        <v>184</v>
-      </c>
-      <c r="B292" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C292" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s" s="1">
-        <v>191</v>
-      </c>
-      <c r="B293" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C293" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s" s="1">
-        <v>514</v>
-      </c>
-      <c r="B294" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C294" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s" s="1">
-        <v>148</v>
-      </c>
-      <c r="B295" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C295" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s" s="1">
-        <v>487</v>
-      </c>
-      <c r="B296" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C296" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s" s="1">
-        <v>253</v>
-      </c>
-      <c r="B297" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C297" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s" s="1">
-        <v>560</v>
-      </c>
-      <c r="B298" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C298" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s" s="1">
-        <v>180</v>
-      </c>
-      <c r="B299" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C299" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="B300" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C300" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="B301" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C301" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s" s="1">
-        <v>396</v>
-      </c>
-      <c r="B302" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C302" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s" s="1">
-        <v>470</v>
-      </c>
-      <c r="B303" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C303" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s" s="1">
-        <v>263</v>
-      </c>
-      <c r="B304" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C304" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s" s="1">
-        <v>566</v>
-      </c>
-      <c r="B305" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C305" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s" s="1">
-        <v>362</v>
-      </c>
-      <c r="B306" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C306" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s" s="1">
-        <v>141</v>
-      </c>
-      <c r="B307" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C307" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s" s="1">
-        <v>399</v>
-      </c>
-      <c r="B308" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C308" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s" s="1">
-        <v>558</v>
-      </c>
-      <c r="B309" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C309" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s" s="1">
-        <v>575</v>
-      </c>
-      <c r="B310" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C310" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s" s="1">
-        <v>466</v>
-      </c>
-      <c r="B311" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C311" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s" s="1">
-        <v>183</v>
-      </c>
-      <c r="B312" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C312" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s" s="1">
-        <v>86</v>
-      </c>
-      <c r="B313" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C313" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s" s="1">
-        <v>350</v>
-      </c>
-      <c r="B314" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C314" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s" s="1">
-        <v>228</v>
-      </c>
-      <c r="B315" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C315" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s" s="1">
-        <v>561</v>
-      </c>
-      <c r="B316" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C316" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s" s="1">
-        <v>250</v>
-      </c>
-      <c r="B317" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C317" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s" s="1">
-        <v>219</v>
-      </c>
-      <c r="B318" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C318" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s" s="1">
-        <v>173</v>
-      </c>
-      <c r="B319" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C319" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s" s="1">
-        <v>391</v>
-      </c>
-      <c r="B320" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C320" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s" s="1">
-        <v>569</v>
-      </c>
-      <c r="B321" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C321" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s" s="1">
-        <v>154</v>
-      </c>
-      <c r="B322" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C322" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s" s="1">
-        <v>564</v>
-      </c>
-      <c r="B323" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C323" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s" s="1">
-        <v>578</v>
-      </c>
-      <c r="B324" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C324" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s" s="1">
-        <v>407</v>
-      </c>
-      <c r="B325" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C325" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s" s="1">
-        <v>158</v>
-      </c>
-      <c r="B326" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C326" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s" s="1">
-        <v>476</v>
-      </c>
-      <c r="B327" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C327" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s" s="1">
-        <v>474</v>
-      </c>
-      <c r="B328" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C328" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s" s="1">
-        <v>543</v>
-      </c>
-      <c r="B329" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C329" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s" s="1">
-        <v>216</v>
-      </c>
-      <c r="B330" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C330" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s" s="1">
-        <v>129</v>
-      </c>
-      <c r="B331" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C331" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s" s="1">
-        <v>580</v>
-      </c>
-      <c r="B332" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C332" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s" s="1">
-        <v>217</v>
-      </c>
-      <c r="B333" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C333" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="s" s="1">
-        <v>565</v>
-      </c>
-      <c r="B334" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C334" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="s" s="1">
-        <v>365</v>
-      </c>
-      <c r="B335" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C335" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="s" s="1">
-        <v>574</v>
-      </c>
-      <c r="B336" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C336" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="s" s="1">
-        <v>522</v>
-      </c>
-      <c r="B337" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C337" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="s" s="1">
-        <v>523</v>
-      </c>
-      <c r="B338" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C338" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="s" s="1">
-        <v>400</v>
-      </c>
-      <c r="B339" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C339" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="s" s="1">
-        <v>467</v>
-      </c>
-      <c r="B340" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C340" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="s" s="1">
-        <v>547</v>
-      </c>
-      <c r="B341" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C341" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="s" s="1">
-        <v>132</v>
-      </c>
-      <c r="B342" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C342" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="s" s="1">
-        <v>206</v>
-      </c>
-      <c r="B343" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C343" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="s" s="1">
-        <v>149</v>
-      </c>
-      <c r="B344" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C344" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="s" s="1">
-        <v>181</v>
-      </c>
-      <c r="B345" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C345" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="s" s="1">
-        <v>368</v>
-      </c>
-      <c r="B346" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C346" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="s" s="1">
-        <v>534</v>
-      </c>
-      <c r="B347" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C347" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="s" s="1">
-        <v>318</v>
-      </c>
-      <c r="B348" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C348" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s" s="1">
-        <v>579</v>
-      </c>
-      <c r="B349" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C349" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="s" s="1">
-        <v>94</v>
-      </c>
-      <c r="B350" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C350" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="s" s="1">
-        <v>454</v>
-      </c>
-      <c r="B351" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C351" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s" s="1">
-        <v>234</v>
-      </c>
-      <c r="B352" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C352" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s" s="1">
-        <v>243</v>
-      </c>
-      <c r="B353" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C353" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s" s="1">
-        <v>488</v>
-      </c>
-      <c r="B354" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C354" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="s" s="1">
-        <v>96</v>
-      </c>
-      <c r="B355" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C355" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s" s="1">
-        <v>475</v>
-      </c>
-      <c r="B356" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C356" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="s" s="1">
-        <v>142</v>
-      </c>
-      <c r="B357" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C357" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="s" s="1">
-        <v>230</v>
-      </c>
-      <c r="B358" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C358" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="s" s="1">
-        <v>519</v>
-      </c>
-      <c r="B359" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C359" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="s" s="1">
-        <v>231</v>
-      </c>
-      <c r="B360" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C360" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="s" s="1">
-        <v>433</v>
-      </c>
-      <c r="B361" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C361" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="s" s="1">
-        <v>570</v>
-      </c>
-      <c r="B362" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C362" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="s" s="1">
-        <v>351</v>
-      </c>
-      <c r="B363" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="C363" t="s" s="1">
         <v>5</v>
       </c>
     </row>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -2839,7 +2839,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -2860,1029 +2860,6 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="1">
-        <v>308</v>
-      </c>
-      <c r="B2" t="s" s="1">
-        <v>392</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="1">
-        <v>318</v>
-      </c>
-      <c r="B3" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C3" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
-        <v>567</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>148</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="1">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="1">
-        <v>248</v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="1">
-        <v>187</v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1">
-        <v>454</v>
-      </c>
-      <c r="B9" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="1">
-        <v>310</v>
-      </c>
-      <c r="B10" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="1">
-        <v>110</v>
-      </c>
-      <c r="B11" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C12" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="1">
-        <v>252</v>
-      </c>
-      <c r="B13" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="1">
-        <v>182</v>
-      </c>
-      <c r="B14" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="1">
-        <v>265</v>
-      </c>
-      <c r="B15" t="s" s="1">
-        <v>603</v>
-      </c>
-      <c r="C15" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="1">
-        <v>150</v>
-      </c>
-      <c r="B16" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C16" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="1">
-        <v>358</v>
-      </c>
-      <c r="B17" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="1">
-        <v>172</v>
-      </c>
-      <c r="B18" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="1">
-        <v>179</v>
-      </c>
-      <c r="B19" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="1">
-        <v>536</v>
-      </c>
-      <c r="B20" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C20" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="1">
-        <v>133</v>
-      </c>
-      <c r="B21" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="1">
-        <v>154</v>
-      </c>
-      <c r="B22" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C22" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="1">
-        <v>234</v>
-      </c>
-      <c r="B23" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C23" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="1">
-        <v>534</v>
-      </c>
-      <c r="B24" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="1">
-        <v>162</v>
-      </c>
-      <c r="B25" t="s" s="1">
-        <v>284</v>
-      </c>
-      <c r="C25" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s" s="1">
-        <v>289</v>
-      </c>
-      <c r="C26" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="1">
-        <v>361</v>
-      </c>
-      <c r="B27" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C27" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="1">
-        <v>509</v>
-      </c>
-      <c r="B28" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="1">
-        <v>476</v>
-      </c>
-      <c r="B29" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="1">
-        <v>370</v>
-      </c>
-      <c r="B30" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="1">
-        <v>450</v>
-      </c>
-      <c r="B31" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="1">
-        <v>132</v>
-      </c>
-      <c r="B32" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="1">
-        <v>399</v>
-      </c>
-      <c r="B33" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C33" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="1">
-        <v>152</v>
-      </c>
-      <c r="B34" t="s" s="1">
-        <v>284</v>
-      </c>
-      <c r="C34" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="1">
-        <v>417</v>
-      </c>
-      <c r="B35" t="s" s="1">
-        <v>604</v>
-      </c>
-      <c r="C35" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="1">
-        <v>144</v>
-      </c>
-      <c r="B36" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="1">
-        <v>466</v>
-      </c>
-      <c r="B37" t="s" s="1">
-        <v>285</v>
-      </c>
-      <c r="C37" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="1">
-        <v>428</v>
-      </c>
-      <c r="B38" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="C38" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="1">
-        <v>82</v>
-      </c>
-      <c r="B39" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C39" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="1">
-        <v>158</v>
-      </c>
-      <c r="B40" t="s" s="1">
-        <v>605</v>
-      </c>
-      <c r="C40" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="1">
-        <v>213</v>
-      </c>
-      <c r="B41" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="1">
-        <v>320</v>
-      </c>
-      <c r="B42" t="s" s="1">
-        <v>438</v>
-      </c>
-      <c r="C42" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="1">
-        <v>199</v>
-      </c>
-      <c r="B43" t="s" s="1">
-        <v>282</v>
-      </c>
-      <c r="C43" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="1">
-        <v>108</v>
-      </c>
-      <c r="B44" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="C44" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="1">
-        <v>325</v>
-      </c>
-      <c r="B45" t="s" s="1">
-        <v>116</v>
-      </c>
-      <c r="C45" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="1">
-        <v>396</v>
-      </c>
-      <c r="B46" t="s" s="1">
-        <v>304</v>
-      </c>
-      <c r="C46" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="1">
-        <v>119</v>
-      </c>
-      <c r="B47" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C47" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="1">
-        <v>420</v>
-      </c>
-      <c r="B48" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C48" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="1">
-        <v>411</v>
-      </c>
-      <c r="B49" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="1">
-        <v>473</v>
-      </c>
-      <c r="B50" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C50" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="1">
-        <v>378</v>
-      </c>
-      <c r="B51" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="1">
-        <v>257</v>
-      </c>
-      <c r="B52" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C52" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="1">
-        <v>519</v>
-      </c>
-      <c r="B53" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C53" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="1">
-        <v>167</v>
-      </c>
-      <c r="B54" t="s" s="1">
-        <v>485</v>
-      </c>
-      <c r="C54" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="B55" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="C55" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="1">
-        <v>539</v>
-      </c>
-      <c r="B56" t="s" s="1">
-        <v>586</v>
-      </c>
-      <c r="C56" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="1">
-        <v>216</v>
-      </c>
-      <c r="B57" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C57" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="1">
-        <v>217</v>
-      </c>
-      <c r="B58" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="C58" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="1">
-        <v>164</v>
-      </c>
-      <c r="B59" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="C59" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="1">
-        <v>123</v>
-      </c>
-      <c r="B60" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C60" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="B61" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="1">
-        <v>447</v>
-      </c>
-      <c r="B62" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C62" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="1">
-        <v>184</v>
-      </c>
-      <c r="B63" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C63" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="1">
-        <v>138</v>
-      </c>
-      <c r="B64" t="s" s="1">
-        <v>280</v>
-      </c>
-      <c r="C64" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="1">
-        <v>203</v>
-      </c>
-      <c r="B65" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C65" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="B66" t="s" s="1">
-        <v>606</v>
-      </c>
-      <c r="C66" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="1">
-        <v>433</v>
-      </c>
-      <c r="B67" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C67" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="1">
-        <v>555</v>
-      </c>
-      <c r="B68" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C68" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="1">
-        <v>177</v>
-      </c>
-      <c r="B69" t="s" s="1">
-        <v>527</v>
-      </c>
-      <c r="C69" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="1">
-        <v>191</v>
-      </c>
-      <c r="B70" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="C70" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="1">
-        <v>261</v>
-      </c>
-      <c r="B71" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="1">
-        <v>99</v>
-      </c>
-      <c r="B72" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C72" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="1">
-        <v>315</v>
-      </c>
-      <c r="B73" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C73" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="1">
-        <v>222</v>
-      </c>
-      <c r="B74" t="s" s="1">
-        <v>390</v>
-      </c>
-      <c r="C74" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="1">
-        <v>153</v>
-      </c>
-      <c r="B75" t="s" s="1">
-        <v>526</v>
-      </c>
-      <c r="C75" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="1">
-        <v>511</v>
-      </c>
-      <c r="B76" t="s" s="1">
-        <v>288</v>
-      </c>
-      <c r="C76" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="1">
-        <v>569</v>
-      </c>
-      <c r="B77" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="1">
-        <v>180</v>
-      </c>
-      <c r="B78" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C78" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="1">
-        <v>495</v>
-      </c>
-      <c r="B79" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="C79" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="1">
-        <v>259</v>
-      </c>
-      <c r="B80" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C80" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="1">
-        <v>480</v>
-      </c>
-      <c r="B81" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C81" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="1">
-        <v>309</v>
-      </c>
-      <c r="B82" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C82" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="1">
-        <v>368</v>
-      </c>
-      <c r="B83" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C83" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="1">
-        <v>444</v>
-      </c>
-      <c r="B84" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C84" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="1">
-        <v>188</v>
-      </c>
-      <c r="B85" t="s" s="1">
-        <v>545</v>
-      </c>
-      <c r="C85" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="1">
-        <v>505</v>
-      </c>
-      <c r="B86" t="s" s="1">
-        <v>311</v>
-      </c>
-      <c r="C86" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="1">
-        <v>242</v>
-      </c>
-      <c r="B87" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C87" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="1">
-        <v>354</v>
-      </c>
-      <c r="B88" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C88" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="1">
-        <v>113</v>
-      </c>
-      <c r="B89" t="s" s="1">
-        <v>607</v>
-      </c>
-      <c r="C89" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="1">
-        <v>488</v>
-      </c>
-      <c r="B90" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C90" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="1">
-        <v>193</v>
-      </c>
-      <c r="B91" t="s" s="1">
-        <v>504</v>
-      </c>
-      <c r="C91" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="1">
-        <v>326</v>
-      </c>
-      <c r="B92" t="s" s="1">
-        <v>292</v>
-      </c>
-      <c r="C92" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="1">
-        <v>564</v>
-      </c>
-      <c r="B93" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="C93" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="1">
-        <v>371</v>
-      </c>
-      <c r="B94" t="s" s="1">
-        <v>101</v>
-      </c>
-      <c r="C94" t="s" s="1">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8325" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9942" uniqueCount="627">
   <si>
     <t>Firm</t>
   </si>
@@ -1852,6 +1852,63 @@
   </si>
   <si>
     <t>02min 03s</t>
+  </si>
+  <si>
+    <t>JŠK Advokátní</t>
+  </si>
+  <si>
+    <t>KECO Legal</t>
+  </si>
+  <si>
+    <t>Johnson Camacho And Singh</t>
+  </si>
+  <si>
+    <t>02min 42s</t>
+  </si>
+  <si>
+    <t>03min 21s</t>
+  </si>
+  <si>
+    <t>03min 37s</t>
+  </si>
+  <si>
+    <t>02min 31s</t>
+  </si>
+  <si>
+    <t>03min 51s</t>
+  </si>
+  <si>
+    <t>KWKR Law</t>
+  </si>
+  <si>
+    <t>01min 53s</t>
+  </si>
+  <si>
+    <t>01min 34s</t>
+  </si>
+  <si>
+    <t>01min 52s</t>
+  </si>
+  <si>
+    <t>Moore Legal Kovács</t>
+  </si>
+  <si>
+    <t>MVJ Marković Vukotić Jovković</t>
+  </si>
+  <si>
+    <t>03min 29s</t>
+  </si>
+  <si>
+    <t>Kallan</t>
+  </si>
+  <si>
+    <t>02min 48s</t>
+  </si>
+  <si>
+    <t>02min 13s</t>
+  </si>
+  <si>
+    <t>01min 17s</t>
   </si>
 </sst>
 </file>
@@ -2839,7 +2896,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C540"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -2860,6 +2917,5935 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>344</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>436</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>356</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>465</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>556</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>588</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>581</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>414</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>226</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>347</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>384</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>439</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>608</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>212</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>481</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>395</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>609</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>560</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>411</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>343</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>501</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>450</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>237</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>492</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>580</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>244</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>477</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>471</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C47" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>571</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>342</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>543</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>564</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>555</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C52" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C53" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>435</v>
+      </c>
+      <c r="B54" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="C54" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>610</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C55" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>339</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C56" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>312</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C57" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C58" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>302</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C59" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>238</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C60" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>161</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>552</v>
+      </c>
+      <c r="C61" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
+        <v>169</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C63" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C64" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="1">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C65" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="1">
+        <v>351</v>
+      </c>
+      <c r="B66" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C66" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="B67" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="1">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1">
+        <v>206</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="B71" t="s" s="1">
+        <v>425</v>
+      </c>
+      <c r="C71" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B72" t="s" s="1">
+        <v>272</v>
+      </c>
+      <c r="C72" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>522</v>
+      </c>
+      <c r="B73" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="1">
+        <v>572</v>
+      </c>
+      <c r="B74" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C74" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B75" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="1">
+        <v>180</v>
+      </c>
+      <c r="B76" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B77" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="1">
+        <v>472</v>
+      </c>
+      <c r="B78" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="B79" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="1">
+        <v>306</v>
+      </c>
+      <c r="B80" t="s" s="1">
+        <v>383</v>
+      </c>
+      <c r="C80" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="1">
+        <v>334</v>
+      </c>
+      <c r="B81" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C81" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C82" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="1">
+        <v>476</v>
+      </c>
+      <c r="B83" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C83" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="B84" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C84" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="1">
+        <v>583</v>
+      </c>
+      <c r="B85" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C85" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="1">
+        <v>400</v>
+      </c>
+      <c r="B86" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C86" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C88" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="1">
+        <v>325</v>
+      </c>
+      <c r="B89" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C89" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="1">
+        <v>579</v>
+      </c>
+      <c r="B90" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="1">
+        <v>482</v>
+      </c>
+      <c r="B91" t="s" s="1">
+        <v>328</v>
+      </c>
+      <c r="C91" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="B92" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C92" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="1">
+        <v>335</v>
+      </c>
+      <c r="B93" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C93" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="B94" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="1">
+        <v>405</v>
+      </c>
+      <c r="B95" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C95" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="B96" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C96" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C97" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B98" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C98" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B99" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C99" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B100" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C100" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B101" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C101" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="B102" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C102" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="1">
+        <v>452</v>
+      </c>
+      <c r="B103" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C104" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="C105" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
+        <v>370</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C106" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="B107" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C107" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B108" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C108" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="1">
+        <v>264</v>
+      </c>
+      <c r="B109" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="1">
+        <v>547</v>
+      </c>
+      <c r="B110" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C110" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="B111" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C111" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="B112" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C112" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="1">
+        <v>380</v>
+      </c>
+      <c r="B113" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C113" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="1">
+        <v>227</v>
+      </c>
+      <c r="B114" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C114" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="1">
+        <v>459</v>
+      </c>
+      <c r="B115" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C115" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="B116" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="1">
+        <v>416</v>
+      </c>
+      <c r="B117" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="1">
+        <v>336</v>
+      </c>
+      <c r="B118" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C118" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="1">
+        <v>511</v>
+      </c>
+      <c r="B119" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="C119" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="B120" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="1">
+        <v>134</v>
+      </c>
+      <c r="B121" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C121" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="1">
+        <v>440</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C122" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B123" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C123" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="1">
+        <v>493</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C124" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="1">
+        <v>421</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C125" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="1">
+        <v>345</v>
+      </c>
+      <c r="B126" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C126" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>611</v>
+      </c>
+      <c r="C127" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C128" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>443</v>
+      </c>
+      <c r="C129" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="B130" t="s" s="1">
+        <v>304</v>
+      </c>
+      <c r="C130" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="B131" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C131" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="1">
+        <v>404</v>
+      </c>
+      <c r="B132" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C132" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="1">
+        <v>413</v>
+      </c>
+      <c r="B133" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C133" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="1">
+        <v>163</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="1">
+        <v>550</v>
+      </c>
+      <c r="B135" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C135" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="1">
+        <v>223</v>
+      </c>
+      <c r="B136" t="s" s="1">
+        <v>520</v>
+      </c>
+      <c r="C136" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="1">
+        <v>521</v>
+      </c>
+      <c r="B137" t="s" s="1">
+        <v>443</v>
+      </c>
+      <c r="C137" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B138" t="s" s="1">
+        <v>517</v>
+      </c>
+      <c r="C138" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="1">
+        <v>346</v>
+      </c>
+      <c r="B139" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C139" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="1">
+        <v>486</v>
+      </c>
+      <c r="B140" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C140" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B141" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="C141" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="B142" t="s" s="1">
+        <v>612</v>
+      </c>
+      <c r="C142" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="1">
+        <v>573</v>
+      </c>
+      <c r="B143" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C143" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="1">
+        <v>173</v>
+      </c>
+      <c r="B144" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="1">
+        <v>576</v>
+      </c>
+      <c r="B145" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C145" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="1">
+        <v>513</v>
+      </c>
+      <c r="B146" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C146" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="1">
+        <v>100</v>
+      </c>
+      <c r="B147" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C147" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>408</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C148" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="1">
+        <v>574</v>
+      </c>
+      <c r="B149" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C149" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="B150" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C150" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="1">
+        <v>246</v>
+      </c>
+      <c r="B151" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C151" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="1">
+        <v>422</v>
+      </c>
+      <c r="B152" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="B153" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C153" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="B154" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C154" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="1">
+        <v>488</v>
+      </c>
+      <c r="B155" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C155" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="1">
+        <v>512</v>
+      </c>
+      <c r="B156" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C156" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="B157" t="s" s="1">
+        <v>499</v>
+      </c>
+      <c r="C157" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="1">
+        <v>578</v>
+      </c>
+      <c r="B158" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C158" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="B159" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C159" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="1">
+        <v>568</v>
+      </c>
+      <c r="B160" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C160" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="1">
+        <v>565</v>
+      </c>
+      <c r="B161" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B162" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C162" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="1">
+        <v>503</v>
+      </c>
+      <c r="B163" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C163" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="1">
+        <v>186</v>
+      </c>
+      <c r="B164" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C164" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B165" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C165" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="1">
+        <v>429</v>
+      </c>
+      <c r="B166" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C166" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="B167" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C167" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="1">
+        <v>514</v>
+      </c>
+      <c r="B168" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C168" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="1">
+        <v>365</v>
+      </c>
+      <c r="B169" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C169" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="1">
+        <v>112</v>
+      </c>
+      <c r="B170" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C170" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="1">
+        <v>445</v>
+      </c>
+      <c r="B171" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C171" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="1">
+        <v>467</v>
+      </c>
+      <c r="B172" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C172" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="1">
+        <v>258</v>
+      </c>
+      <c r="B173" t="s" s="1">
+        <v>613</v>
+      </c>
+      <c r="C173" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="1">
+        <v>189</v>
+      </c>
+      <c r="B174" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="1">
+        <v>303</v>
+      </c>
+      <c r="B175" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C175" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B176" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="1">
+        <v>250</v>
+      </c>
+      <c r="B177" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C177" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="1">
+        <v>424</v>
+      </c>
+      <c r="B178" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C178" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="B179" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="1">
+        <v>367</v>
+      </c>
+      <c r="B180" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C180" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="1">
+        <v>563</v>
+      </c>
+      <c r="B181" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C181" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="1">
+        <v>426</v>
+      </c>
+      <c r="B182" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C182" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="B183" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C183" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="B184" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C184" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="B185" t="s" s="1">
+        <v>614</v>
+      </c>
+      <c r="C185" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="B186" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C186" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="B187" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C187" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="1">
+        <v>157</v>
+      </c>
+      <c r="B188" t="s" s="1">
+        <v>549</v>
+      </c>
+      <c r="C188" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="1">
+        <v>338</v>
+      </c>
+      <c r="B189" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C189" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="1">
+        <v>487</v>
+      </c>
+      <c r="B190" t="s" s="1">
+        <v>542</v>
+      </c>
+      <c r="C190" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="1">
+        <v>557</v>
+      </c>
+      <c r="B191" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C191" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="1">
+        <v>434</v>
+      </c>
+      <c r="B192" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C192" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="1">
+        <v>582</v>
+      </c>
+      <c r="B193" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C193" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="B194" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C194" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="B195" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C195" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="1">
+        <v>468</v>
+      </c>
+      <c r="B196" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C196" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="1">
+        <v>232</v>
+      </c>
+      <c r="B197" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C197" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B198" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C198" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="1">
+        <v>389</v>
+      </c>
+      <c r="B199" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C199" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="B200" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C200" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="B201" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C201" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="1">
+        <v>323</v>
+      </c>
+      <c r="B202" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C202" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="1">
+        <v>428</v>
+      </c>
+      <c r="B203" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C203" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="B204" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C204" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="1">
+        <v>249</v>
+      </c>
+      <c r="B205" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C205" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="B206" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C206" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="1">
+        <v>510</v>
+      </c>
+      <c r="B207" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C207" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="1">
+        <v>575</v>
+      </c>
+      <c r="B208" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C208" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="1">
+        <v>330</v>
+      </c>
+      <c r="B209" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C209" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="1">
+        <v>176</v>
+      </c>
+      <c r="B210" t="s" s="1">
+        <v>586</v>
+      </c>
+      <c r="C210" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="B211" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="1">
+        <v>326</v>
+      </c>
+      <c r="B212" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C212" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="B213" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C213" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="1">
+        <v>423</v>
+      </c>
+      <c r="B214" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C214" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="1">
+        <v>142</v>
+      </c>
+      <c r="B215" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C215" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="1">
+        <v>474</v>
+      </c>
+      <c r="B216" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C216" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B217" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C217" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B218" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C218" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="B219" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C219" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="B220" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C220" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="1">
+        <v>300</v>
+      </c>
+      <c r="B221" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C221" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B222" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C222" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B223" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C223" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="1">
+        <v>362</v>
+      </c>
+      <c r="B224" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C224" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="B225" t="s" s="1">
+        <v>615</v>
+      </c>
+      <c r="C225" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B226" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C226" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B227" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C227" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="B228" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="C228" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="B229" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C229" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="1">
+        <v>260</v>
+      </c>
+      <c r="B230" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C230" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="1">
+        <v>523</v>
+      </c>
+      <c r="B231" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C231" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="1">
+        <v>388</v>
+      </c>
+      <c r="B232" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C232" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="B233" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C233" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="B234" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C234" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="B235" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C235" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="1">
+        <v>448</v>
+      </c>
+      <c r="B236" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C236" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="1">
+        <v>168</v>
+      </c>
+      <c r="B237" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C237" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="B238" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C238" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B239" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C239" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="1">
+        <v>446</v>
+      </c>
+      <c r="B240" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C240" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="1">
+        <v>478</v>
+      </c>
+      <c r="B241" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C241" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="1">
+        <v>201</v>
+      </c>
+      <c r="B242" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C242" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="1">
+        <v>194</v>
+      </c>
+      <c r="B243" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="C243" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="1">
+        <v>210</v>
+      </c>
+      <c r="B244" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C244" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="1">
+        <v>569</v>
+      </c>
+      <c r="B245" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C245" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="1">
+        <v>220</v>
+      </c>
+      <c r="B246" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C246" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="B247" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C247" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="B248" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C248" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="1">
+        <v>262</v>
+      </c>
+      <c r="B249" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C249" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="1">
+        <v>357</v>
+      </c>
+      <c r="B250" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C250" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="B251" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C251" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="1">
+        <v>167</v>
+      </c>
+      <c r="B252" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C252" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B253" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C253" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="1">
+        <v>470</v>
+      </c>
+      <c r="B254" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C254" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="1">
+        <v>245</v>
+      </c>
+      <c r="B255" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C255" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="1">
+        <v>502</v>
+      </c>
+      <c r="B256" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C256" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="1">
+        <v>387</v>
+      </c>
+      <c r="B257" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C257" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="B258" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C258" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="1">
+        <v>616</v>
+      </c>
+      <c r="B259" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C259" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B260" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C260" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="1">
+        <v>561</v>
+      </c>
+      <c r="B261" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C261" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="1">
+        <v>175</v>
+      </c>
+      <c r="B262" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C262" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="1">
+        <v>353</v>
+      </c>
+      <c r="B263" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C263" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="B264" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C264" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="1">
+        <v>234</v>
+      </c>
+      <c r="B265" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C265" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="B266" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C266" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="1">
+        <v>224</v>
+      </c>
+      <c r="B267" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C267" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="1">
+        <v>319</v>
+      </c>
+      <c r="B268" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C268" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="B269" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C269" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="1">
+        <v>401</v>
+      </c>
+      <c r="B270" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C270" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B271" t="s" s="1">
+        <v>617</v>
+      </c>
+      <c r="C271" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="1">
+        <v>418</v>
+      </c>
+      <c r="B272" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C272" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="1">
+        <v>164</v>
+      </c>
+      <c r="B273" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C273" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="B274" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C274" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="1">
+        <v>182</v>
+      </c>
+      <c r="B275" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C275" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="1">
+        <v>136</v>
+      </c>
+      <c r="B276" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C276" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B277" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C277" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="B278" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="C278" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B279" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="C279" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B280" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C280" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="B281" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C281" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="1">
+        <v>366</v>
+      </c>
+      <c r="B282" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C282" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B283" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="B284" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C284" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="B285" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C285" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="1">
+        <v>155</v>
+      </c>
+      <c r="B286" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C286" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="1">
+        <v>500</v>
+      </c>
+      <c r="B287" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C287" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="B288" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C288" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="B289" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="C289" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="1">
+        <v>391</v>
+      </c>
+      <c r="B290" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C290" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="1">
+        <v>428</v>
+      </c>
+      <c r="B291" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C291" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="B292" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C292" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="1">
+        <v>415</v>
+      </c>
+      <c r="B293" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C293" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="1">
+        <v>225</v>
+      </c>
+      <c r="B294" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C294" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="B295" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C295" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="1">
+        <v>231</v>
+      </c>
+      <c r="B296" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C296" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="B297" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C297" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="1">
+        <v>551</v>
+      </c>
+      <c r="B298" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C298" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="1">
+        <v>407</v>
+      </c>
+      <c r="B299" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C299" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="B300" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C300" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="1">
+        <v>534</v>
+      </c>
+      <c r="B301" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C301" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="1">
+        <v>160</v>
+      </c>
+      <c r="B302" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C302" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B303" t="s" s="1">
+        <v>272</v>
+      </c>
+      <c r="C303" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="B304" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C304" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="B305" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="C305" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="B306" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C306" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="B307" t="s" s="1">
+        <v>540</v>
+      </c>
+      <c r="C307" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="B308" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="C308" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B309" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C309" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="1">
+        <v>360</v>
+      </c>
+      <c r="B310" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C310" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B311" t="s" s="1">
+        <v>618</v>
+      </c>
+      <c r="C311" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="B312" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C312" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="B313" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C313" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="1">
+        <v>593</v>
+      </c>
+      <c r="B314" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C314" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B315" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C315" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="1">
+        <v>198</v>
+      </c>
+      <c r="B316" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C316" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="1">
+        <v>363</v>
+      </c>
+      <c r="B317" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C317" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="1">
+        <v>463</v>
+      </c>
+      <c r="B318" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C318" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="B319" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C319" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="B320" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C320" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="1">
+        <v>208</v>
+      </c>
+      <c r="B321" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C321" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="B322" t="s" s="1">
+        <v>449</v>
+      </c>
+      <c r="C322" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B323" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C323" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B324" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C324" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="B325" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C325" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="B326" t="s" s="1">
+        <v>619</v>
+      </c>
+      <c r="C326" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B327" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C327" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="B328" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C328" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="B329" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C329" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B330" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="C330" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B331" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C331" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="1">
+        <v>413</v>
+      </c>
+      <c r="B332" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C332" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="B333" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C333" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="B334" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C334" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B335" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C335" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="B336" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C336" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="1">
+        <v>377</v>
+      </c>
+      <c r="B337" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C337" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="1">
+        <v>469</v>
+      </c>
+      <c r="B338" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C338" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="1">
+        <v>523</v>
+      </c>
+      <c r="B339" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C339" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B340" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C340" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="B341" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C341" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="1">
+        <v>125</v>
+      </c>
+      <c r="B342" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C342" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B343" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C343" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="1">
+        <v>399</v>
+      </c>
+      <c r="B344" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C344" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="B345" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C345" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B346" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C346" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="B347" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="C347" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="1">
+        <v>402</v>
+      </c>
+      <c r="B348" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C348" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="1">
+        <v>481</v>
+      </c>
+      <c r="B349" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C349" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B350" t="s" s="1">
+        <v>601</v>
+      </c>
+      <c r="C350" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="B351" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C351" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B352" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C352" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="1">
+        <v>317</v>
+      </c>
+      <c r="B353" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C353" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="B354" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C354" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B355" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C355" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B356" t="s" s="1">
+        <v>585</v>
+      </c>
+      <c r="C356" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="1">
+        <v>197</v>
+      </c>
+      <c r="B357" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C357" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="1">
+        <v>195</v>
+      </c>
+      <c r="B358" t="s" s="1">
+        <v>529</v>
+      </c>
+      <c r="C358" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="1">
+        <v>127</v>
+      </c>
+      <c r="B359" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C359" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="B360" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C360" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="1">
+        <v>518</v>
+      </c>
+      <c r="B361" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C361" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="1">
+        <v>595</v>
+      </c>
+      <c r="B362" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C362" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="1">
+        <v>368</v>
+      </c>
+      <c r="B363" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C363" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="1">
+        <v>229</v>
+      </c>
+      <c r="B364" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C364" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="B365" t="s" s="1">
+        <v>622</v>
+      </c>
+      <c r="C365" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="B366" t="s" s="1">
+        <v>498</v>
+      </c>
+      <c r="C366" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="B367" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C367" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B368" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C368" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="1">
+        <v>320</v>
+      </c>
+      <c r="B369" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C369" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="1">
+        <v>153</v>
+      </c>
+      <c r="B370" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C370" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="1">
+        <v>243</v>
+      </c>
+      <c r="B371" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C371" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="1">
+        <v>409</v>
+      </c>
+      <c r="B372" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C372" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="1">
+        <v>555</v>
+      </c>
+      <c r="B373" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C373" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="B374" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C374" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="1">
+        <v>204</v>
+      </c>
+      <c r="B375" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C375" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="B376" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C376" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="1">
+        <v>623</v>
+      </c>
+      <c r="B377" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C377" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="B378" t="s" s="1">
+        <v>624</v>
+      </c>
+      <c r="C378" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="B379" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C379" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="1">
+        <v>484</v>
+      </c>
+      <c r="B380" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C380" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="B381" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C381" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="B382" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="C382" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="B383" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B384" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C384" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="1">
+        <v>566</v>
+      </c>
+      <c r="B385" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C385" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="B386" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C386" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="B387" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C387" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B388" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C388" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="1">
+        <v>203</v>
+      </c>
+      <c r="B389" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C389" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="B390" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C390" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="B391" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C391" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B392" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C392" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="1">
+        <v>326</v>
+      </c>
+      <c r="B393" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C393" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="1">
+        <v>379</v>
+      </c>
+      <c r="B394" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C394" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="1">
+        <v>577</v>
+      </c>
+      <c r="B395" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C395" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B396" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C396" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="B397" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C397" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="B398" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C398" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="B399" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C399" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="B400" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C400" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="1">
+        <v>602</v>
+      </c>
+      <c r="B401" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C401" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="B402" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C402" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="B403" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="C403" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="1">
+        <v>315</v>
+      </c>
+      <c r="B404" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C404" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="B405" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C405" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="1">
+        <v>479</v>
+      </c>
+      <c r="B406" t="s" s="1">
+        <v>406</v>
+      </c>
+      <c r="C406" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="1">
+        <v>129</v>
+      </c>
+      <c r="B407" t="s" s="1">
+        <v>625</v>
+      </c>
+      <c r="C407" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B408" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C408" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B409" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C409" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="B410" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C410" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="B411" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="C411" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="1">
+        <v>188</v>
+      </c>
+      <c r="B412" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C412" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="1">
+        <v>397</v>
+      </c>
+      <c r="B413" t="s" s="1">
+        <v>504</v>
+      </c>
+      <c r="C413" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="1">
+        <v>410</v>
+      </c>
+      <c r="B414" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C414" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B415" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C415" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="B416" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C416" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="B417" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C417" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="1">
+        <v>539</v>
+      </c>
+      <c r="B418" t="s" s="1">
+        <v>298</v>
+      </c>
+      <c r="C418" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="B419" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C419" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="1">
+        <v>567</v>
+      </c>
+      <c r="B420" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C420" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="B421" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C421" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="B422" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C422" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="B423" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C423" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="B424" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C424" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B425" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C425" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="B426" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C426" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B427" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C427" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B428" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C428" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="1">
+        <v>481</v>
+      </c>
+      <c r="B429" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C429" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="B430" t="s" s="1">
+        <v>383</v>
+      </c>
+      <c r="C430" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="B431" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C431" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="B432" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C432" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B433" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C433" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B434" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C434" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B435" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C435" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B436" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C436" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B437" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C437" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="B438" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C438" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B439" t="s" s="1">
+        <v>617</v>
+      </c>
+      <c r="C439" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B440" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C440" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="B441" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C441" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="1">
+        <v>428</v>
+      </c>
+      <c r="B442" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C442" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="B443" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C443" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B444" t="s" s="1">
+        <v>529</v>
+      </c>
+      <c r="C444" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B445" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C445" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="B446" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C446" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B447" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C447" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B448" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="C448" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="B449" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C449" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B450" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C450" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="B451" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C451" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="1">
+        <v>555</v>
+      </c>
+      <c r="B452" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C452" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="B453" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="C453" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="B454" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C454" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="B455" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="C455" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="B456" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C456" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="B457" t="s" s="1">
+        <v>443</v>
+      </c>
+      <c r="C457" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="B458" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C458" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="1">
+        <v>203</v>
+      </c>
+      <c r="B459" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C459" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B460" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C460" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="B461" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C461" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B462" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C462" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="B463" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C463" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="B464" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C464" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="B465" t="s" s="1">
+        <v>585</v>
+      </c>
+      <c r="C465" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="B466" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C466" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B467" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C467" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B468" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C468" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="B469" t="s" s="1">
+        <v>545</v>
+      </c>
+      <c r="C469" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B470" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C470" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="1">
+        <v>523</v>
+      </c>
+      <c r="B471" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C471" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B472" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="C472" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="B473" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C473" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="B474" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C474" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="B475" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C475" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="1">
+        <v>326</v>
+      </c>
+      <c r="B476" t="s" s="1">
+        <v>311</v>
+      </c>
+      <c r="C476" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="B477" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C477" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B478" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C478" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="B479" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C479" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="1">
+        <v>153</v>
+      </c>
+      <c r="B480" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C480" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="B481" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C481" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B482" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C482" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="B483" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C483" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="B484" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C484" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="B485" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C485" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="B486" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C486" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="B487" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="C487" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="1">
+        <v>315</v>
+      </c>
+      <c r="B488" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C488" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B489" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C489" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="1">
+        <v>188</v>
+      </c>
+      <c r="B490" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="C490" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="1">
+        <v>402</v>
+      </c>
+      <c r="B491" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C491" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="B492" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C492" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="B493" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C493" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B494" t="s" s="1">
+        <v>304</v>
+      </c>
+      <c r="C494" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B495" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C495" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="1">
+        <v>413</v>
+      </c>
+      <c r="B496" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C496" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="B497" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C497" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="B498" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C498" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="B499" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C499" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="B500" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="C500" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="B501" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C501" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="1">
+        <v>113</v>
+      </c>
+      <c r="B502" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C502" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="B503" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C503" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="B504" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C504" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="1">
+        <v>326</v>
+      </c>
+      <c r="B505" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C505" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B506" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C506" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="B507" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C507" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B508" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C508" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B509" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C509" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="B510" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C510" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B511" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C511" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B512" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C512" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="B513" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C513" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="B514" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C514" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B515" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="C515" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B516" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C516" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B517" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C517" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="B518" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C518" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="B519" t="s" s="1">
+        <v>524</v>
+      </c>
+      <c r="C519" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="B520" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C520" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B521" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C521" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="B522" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C522" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B523" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C523" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="B524" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C524" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B525" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="C525" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="1">
+        <v>413</v>
+      </c>
+      <c r="B526" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C526" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="B527" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C527" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="B528" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C528" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="B529" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C529" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="B530" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C530" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="B531" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C531" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="B532" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C532" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="B533" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C533" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B534" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C534" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B535" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C535" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="1">
+        <v>153</v>
+      </c>
+      <c r="B536" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C536" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B537" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C537" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="B538" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C538" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B539" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C539" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="B540" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C540" t="s" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9942" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11679" uniqueCount="636">
   <si>
     <t>Firm</t>
   </si>
@@ -1909,6 +1909,33 @@
   </si>
   <si>
     <t>01min 17s</t>
+  </si>
+  <si>
+    <t>01min 07s</t>
+  </si>
+  <si>
+    <t>03min 24s</t>
+  </si>
+  <si>
+    <t>02min 55s</t>
+  </si>
+  <si>
+    <t>02min 45s</t>
+  </si>
+  <si>
+    <t>01min 38s</t>
+  </si>
+  <si>
+    <t>02min 40s</t>
+  </si>
+  <si>
+    <t>02min 08s</t>
+  </si>
+  <si>
+    <t>02min 23s</t>
+  </si>
+  <si>
+    <t>03min 52s</t>
   </si>
 </sst>
 </file>
@@ -2896,7 +2923,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C540"/>
+  <dimension ref="A1:C580"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -2921,32 +2948,32 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>111</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>358</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>116</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>344</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>4</v>
+        <v>533</v>
       </c>
       <c r="C4" t="s" s="1">
         <v>271</v>
@@ -2954,21 +2981,21 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>116</v>
+        <v>603</v>
       </c>
       <c r="C6" t="s" s="1">
         <v>271</v>
@@ -2976,10 +3003,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>214</v>
+        <v>468</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s" s="1">
         <v>271</v>
@@ -2987,21 +3014,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s" s="1">
         <v>271</v>
@@ -3009,10 +3036,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>82</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>27</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s" s="1">
         <v>271</v>
@@ -3020,21 +3047,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>556</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>588</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>581</v>
+        <v>336</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s" s="1">
         <v>271</v>
@@ -3042,43 +3069,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>217</v>
+        <v>575</v>
       </c>
       <c r="B13" t="s" s="1">
         <v>277</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>86</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>226</v>
+        <v>471</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="C16" t="s" s="1">
         <v>271</v>
@@ -3086,10 +3113,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
-        <v>105</v>
+        <v>522</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s" s="1">
         <v>271</v>
@@ -3097,10 +3124,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
-        <v>347</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="C18" t="s" s="1">
         <v>271</v>
@@ -3108,32 +3135,32 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
-        <v>384</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>286</v>
+        <v>499</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="C20" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
-        <v>94</v>
+        <v>397</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s" s="1">
         <v>271</v>
@@ -3141,10 +3168,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
-        <v>608</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>283</v>
+        <v>438</v>
       </c>
       <c r="C22" t="s" s="1">
         <v>271</v>
@@ -3152,10 +3179,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s" s="1">
         <v>271</v>
@@ -3163,10 +3190,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
-        <v>481</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s" s="1">
         <v>5</v>
@@ -3174,10 +3201,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>273</v>
+        <v>533</v>
       </c>
       <c r="C25" t="s" s="1">
         <v>271</v>
@@ -3185,32 +3212,32 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="B26" t="s" s="1">
         <v>13</v>
       </c>
       <c r="C26" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
-        <v>24</v>
+        <v>309</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
-        <v>609</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C28" t="s" s="1">
         <v>271</v>
@@ -3218,10 +3245,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s" s="1">
         <v>271</v>
@@ -3229,10 +3256,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
-        <v>305</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>111</v>
+        <v>373</v>
       </c>
       <c r="C30" t="s" s="1">
         <v>271</v>
@@ -3240,10 +3267,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
-        <v>411</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s" s="1">
         <v>271</v>
@@ -3251,10 +3278,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
-        <v>343</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>273</v>
+        <v>375</v>
       </c>
       <c r="C32" t="s" s="1">
         <v>271</v>
@@ -3262,10 +3289,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s" s="1">
         <v>271</v>
@@ -3273,21 +3300,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="1">
-        <v>536</v>
+        <v>382</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="1">
-        <v>156</v>
+        <v>608</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s" s="1">
         <v>271</v>
@@ -3295,10 +3322,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="1">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>276</v>
+        <v>627</v>
       </c>
       <c r="C36" t="s" s="1">
         <v>5</v>
@@ -3306,10 +3333,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="1">
-        <v>501</v>
+        <v>446</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s" s="1">
         <v>271</v>
@@ -3317,43 +3344,43 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="1">
-        <v>450</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>84</v>
+        <v>275</v>
       </c>
       <c r="C38" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="1">
-        <v>237</v>
+        <v>476</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="1">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="C40" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="1">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>13</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s" s="1">
         <v>271</v>
@@ -3361,10 +3388,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="1">
-        <v>580</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C42" t="s" s="1">
         <v>271</v>
@@ -3372,10 +3399,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="1">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s" s="1">
         <v>271</v>
@@ -3383,43 +3410,43 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="1">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>273</v>
+        <v>443</v>
       </c>
       <c r="C44" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="1">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C46" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s" s="1">
         <v>271</v>
@@ -3427,21 +3454,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="1">
-        <v>571</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="1">
-        <v>342</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>38</v>
+        <v>390</v>
       </c>
       <c r="C49" t="s" s="1">
         <v>271</v>
@@ -3449,21 +3476,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="1">
-        <v>543</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="1">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>45</v>
+        <v>542</v>
       </c>
       <c r="C51" t="s" s="1">
         <v>271</v>
@@ -3471,10 +3498,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
-        <v>555</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>276</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s" s="1">
         <v>5</v>
@@ -3482,32 +3509,32 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="1">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="1">
-        <v>435</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>279</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
-        <v>610</v>
+        <v>452</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>84</v>
+        <v>275</v>
       </c>
       <c r="C55" t="s" s="1">
         <v>271</v>
@@ -3515,10 +3542,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
-        <v>339</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C56" t="s" s="1">
         <v>271</v>
@@ -3526,10 +3553,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="C57" t="s" s="1">
         <v>271</v>
@@ -3537,21 +3564,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
-        <v>302</v>
+        <v>220</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s" s="1">
         <v>271</v>
@@ -3559,32 +3586,32 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s" s="1">
         <v>274</v>
       </c>
       <c r="C60" t="s" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>552</v>
+        <v>287</v>
       </c>
       <c r="C61" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
-        <v>417</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s" s="1">
-        <v>48</v>
+        <v>597</v>
       </c>
       <c r="C62" t="s" s="1">
         <v>5</v>
@@ -3592,10 +3619,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
-        <v>169</v>
+        <v>501</v>
       </c>
       <c r="B63" t="s" s="1">
-        <v>274</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s" s="1">
         <v>271</v>
@@ -3603,21 +3630,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>378</v>
+        <v>521</v>
       </c>
       <c r="B64" t="s" s="1">
-        <v>45</v>
+        <v>542</v>
       </c>
       <c r="C64" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
-        <v>171</v>
+        <v>379</v>
       </c>
       <c r="B65" t="s" s="1">
-        <v>375</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s" s="1">
         <v>271</v>
@@ -3625,21 +3652,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="1">
-        <v>351</v>
+        <v>600</v>
       </c>
       <c r="B66" t="s" s="1">
-        <v>283</v>
+        <v>549</v>
       </c>
       <c r="C66" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>430</v>
+        <v>261</v>
       </c>
       <c r="B67" t="s" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s" s="1">
         <v>5</v>
@@ -3647,10 +3674,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
-        <v>183</v>
+        <v>578</v>
       </c>
       <c r="B68" t="s" s="1">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s" s="1">
         <v>271</v>
@@ -3658,54 +3685,54 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s" s="1">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s" s="1">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="B71" t="s" s="1">
-        <v>425</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s" s="1">
-        <v>272</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="B73" t="s" s="1">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s" s="1">
         <v>271</v>
@@ -3713,10 +3740,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
-        <v>572</v>
+        <v>323</v>
       </c>
       <c r="B74" t="s" s="1">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s" s="1">
         <v>271</v>
@@ -3724,21 +3751,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="B75" t="s" s="1">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="C75" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="B76" t="s" s="1">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="C76" t="s" s="1">
         <v>271</v>
@@ -3746,21 +3773,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="B77" t="s" s="1">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="C77" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
-        <v>472</v>
+        <v>418</v>
       </c>
       <c r="B78" t="s" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s" s="1">
         <v>271</v>
@@ -3768,10 +3795,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>464</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s" s="1">
         <v>5</v>
@@ -3779,21 +3806,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s" s="1">
-        <v>383</v>
+        <v>286</v>
       </c>
       <c r="C80" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="1">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s" s="1">
-        <v>286</v>
+        <v>535</v>
       </c>
       <c r="C81" t="s" s="1">
         <v>271</v>
@@ -3801,32 +3828,32 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="1">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="B82" t="s" s="1">
-        <v>373</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="B83" t="s" s="1">
         <v>25</v>
       </c>
       <c r="C83" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
-        <v>179</v>
+        <v>444</v>
       </c>
       <c r="B84" t="s" s="1">
-        <v>111</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s" s="1">
         <v>5</v>
@@ -3834,10 +3861,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
-        <v>583</v>
+        <v>256</v>
       </c>
       <c r="B85" t="s" s="1">
-        <v>101</v>
+        <v>628</v>
       </c>
       <c r="C85" t="s" s="1">
         <v>271</v>
@@ -3845,10 +3872,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="1">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B86" t="s" s="1">
-        <v>286</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s" s="1">
         <v>271</v>
@@ -3856,32 +3883,32 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="B87" t="s" s="1">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="1">
-        <v>172</v>
+        <v>377</v>
       </c>
       <c r="B88" t="s" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="1">
-        <v>325</v>
+        <v>561</v>
       </c>
       <c r="B89" t="s" s="1">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="C89" t="s" s="1">
         <v>271</v>
@@ -3889,10 +3916,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="1">
-        <v>579</v>
+        <v>436</v>
       </c>
       <c r="B90" t="s" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s" s="1">
         <v>271</v>
@@ -3900,10 +3927,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="1">
-        <v>482</v>
+        <v>391</v>
       </c>
       <c r="B91" t="s" s="1">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="C91" t="s" s="1">
         <v>271</v>
@@ -3911,10 +3938,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="1">
-        <v>205</v>
+        <v>465</v>
       </c>
       <c r="B92" t="s" s="1">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="C92" t="s" s="1">
         <v>271</v>
@@ -3922,10 +3949,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="1">
-        <v>335</v>
+        <v>429</v>
       </c>
       <c r="B93" t="s" s="1">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s" s="1">
         <v>271</v>
@@ -3933,21 +3960,21 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="1">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="B94" t="s" s="1">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="C94" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="1">
-        <v>405</v>
+        <v>472</v>
       </c>
       <c r="B95" t="s" s="1">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C95" t="s" s="1">
         <v>271</v>
@@ -3955,10 +3982,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="1">
-        <v>140</v>
+        <v>365</v>
       </c>
       <c r="B96" t="s" s="1">
-        <v>69</v>
+        <v>375</v>
       </c>
       <c r="C96" t="s" s="1">
         <v>271</v>
@@ -3966,10 +3993,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="1">
-        <v>106</v>
+        <v>560</v>
       </c>
       <c r="B97" t="s" s="1">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s" s="1">
         <v>271</v>
@@ -3977,10 +4004,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="1">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s" s="1">
-        <v>25</v>
+        <v>520</v>
       </c>
       <c r="C98" t="s" s="1">
         <v>5</v>
@@ -3988,10 +4015,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="1">
-        <v>122</v>
+        <v>368</v>
       </c>
       <c r="B99" t="s" s="1">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C99" t="s" s="1">
         <v>271</v>
@@ -3999,32 +4026,32 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="1">
-        <v>141</v>
+        <v>478</v>
       </c>
       <c r="B100" t="s" s="1">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="C100" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="1">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s" s="1">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C101" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="1">
-        <v>85</v>
+        <v>513</v>
       </c>
       <c r="B102" t="s" s="1">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="C102" t="s" s="1">
         <v>271</v>
@@ -4032,43 +4059,43 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="1">
-        <v>452</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s" s="1">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C103" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="1">
-        <v>103</v>
+        <v>610</v>
       </c>
       <c r="B104" t="s" s="1">
-        <v>533</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="1">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="B105" t="s" s="1">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="C105" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="1">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="B106" t="s" s="1">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s" s="1">
         <v>271</v>
@@ -4076,10 +4103,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="1">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="B107" t="s" s="1">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="C107" t="s" s="1">
         <v>5</v>
@@ -4087,32 +4114,32 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="1">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="B108" t="s" s="1">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="1">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="B109" t="s" s="1">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C109" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="1">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="B110" t="s" s="1">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s" s="1">
         <v>271</v>
@@ -4120,54 +4147,54 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="1">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="B111" t="s" s="1">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="C111" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="1">
-        <v>58</v>
+        <v>568</v>
       </c>
       <c r="B112" t="s" s="1">
         <v>281</v>
       </c>
       <c r="C112" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="1">
-        <v>380</v>
+        <v>473</v>
       </c>
       <c r="B113" t="s" s="1">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="C113" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="1">
-        <v>227</v>
+        <v>466</v>
       </c>
       <c r="B114" t="s" s="1">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C114" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="1">
-        <v>459</v>
+        <v>51</v>
       </c>
       <c r="B115" t="s" s="1">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s" s="1">
         <v>271</v>
@@ -4175,21 +4202,21 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="1">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="B116" t="s" s="1">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C116" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="1">
-        <v>416</v>
+        <v>581</v>
       </c>
       <c r="B117" t="s" s="1">
-        <v>7</v>
+        <v>392</v>
       </c>
       <c r="C117" t="s" s="1">
         <v>271</v>
@@ -4197,32 +4224,32 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="1">
-        <v>336</v>
+        <v>110</v>
       </c>
       <c r="B118" t="s" s="1">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="1">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="B119" t="s" s="1">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="C119" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="1">
-        <v>497</v>
+        <v>143</v>
       </c>
       <c r="B120" t="s" s="1">
-        <v>7</v>
+        <v>284</v>
       </c>
       <c r="C120" t="s" s="1">
         <v>271</v>
@@ -4230,10 +4257,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="1">
-        <v>134</v>
+        <v>411</v>
       </c>
       <c r="B121" t="s" s="1">
-        <v>275</v>
+        <v>52</v>
       </c>
       <c r="C121" t="s" s="1">
         <v>271</v>
@@ -4241,32 +4268,32 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="1">
-        <v>440</v>
+        <v>31</v>
       </c>
       <c r="B122" t="s" s="1">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="C122" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="1">
-        <v>138</v>
+        <v>370</v>
       </c>
       <c r="B123" t="s" s="1">
-        <v>280</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="1">
-        <v>493</v>
+        <v>353</v>
       </c>
       <c r="B124" t="s" s="1">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s" s="1">
         <v>271</v>
@@ -4274,21 +4301,21 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="1">
-        <v>421</v>
+        <v>198</v>
       </c>
       <c r="B125" t="s" s="1">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="C125" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="1">
-        <v>345</v>
+        <v>493</v>
       </c>
       <c r="B126" t="s" s="1">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="C126" t="s" s="1">
         <v>271</v>
@@ -4296,10 +4323,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="1">
-        <v>235</v>
+        <v>514</v>
       </c>
       <c r="B127" t="s" s="1">
-        <v>611</v>
+        <v>66</v>
       </c>
       <c r="C127" t="s" s="1">
         <v>271</v>
@@ -4307,10 +4334,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="1">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="B128" t="s" s="1">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s" s="1">
         <v>5</v>
@@ -4318,21 +4345,21 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="1">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s" s="1">
-        <v>443</v>
+        <v>84</v>
       </c>
       <c r="C129" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="1">
-        <v>221</v>
+        <v>576</v>
       </c>
       <c r="B130" t="s" s="1">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="C130" t="s" s="1">
         <v>271</v>
@@ -4340,21 +4367,21 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="1">
-        <v>51</v>
+        <v>361</v>
       </c>
       <c r="B131" t="s" s="1">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="C131" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="1">
-        <v>404</v>
+        <v>616</v>
       </c>
       <c r="B132" t="s" s="1">
-        <v>276</v>
+        <v>111</v>
       </c>
       <c r="C132" t="s" s="1">
         <v>271</v>
@@ -4362,21 +4389,21 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="1">
-        <v>413</v>
+        <v>70</v>
       </c>
       <c r="B133" t="s" s="1">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="C133" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="1">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B134" t="s" s="1">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="C134" t="s" s="1">
         <v>271</v>
@@ -4384,10 +4411,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="1">
-        <v>550</v>
+        <v>421</v>
       </c>
       <c r="B135" t="s" s="1">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="C135" t="s" s="1">
         <v>271</v>
@@ -4395,21 +4422,21 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="1">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="B136" t="s" s="1">
-        <v>520</v>
+        <v>272</v>
       </c>
       <c r="C136" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="1">
-        <v>521</v>
+        <v>54</v>
       </c>
       <c r="B137" t="s" s="1">
-        <v>443</v>
+        <v>276</v>
       </c>
       <c r="C137" t="s" s="1">
         <v>271</v>
@@ -4417,54 +4444,54 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="1">
-        <v>600</v>
+        <v>237</v>
       </c>
       <c r="B138" t="s" s="1">
-        <v>517</v>
+        <v>15</v>
       </c>
       <c r="C138" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="1">
-        <v>346</v>
+        <v>621</v>
       </c>
       <c r="B139" t="s" s="1">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="C139" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="1">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="B140" t="s" s="1">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C140" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="1">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="B141" t="s" s="1">
-        <v>438</v>
+        <v>84</v>
       </c>
       <c r="C141" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="1">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="B142" t="s" s="1">
-        <v>612</v>
+        <v>295</v>
       </c>
       <c r="C142" t="s" s="1">
         <v>271</v>
@@ -4472,21 +4499,21 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="1">
-        <v>573</v>
+        <v>157</v>
       </c>
       <c r="B143" t="s" s="1">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C143" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="1">
-        <v>173</v>
+        <v>409</v>
       </c>
       <c r="B144" t="s" s="1">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="C144" t="s" s="1">
         <v>271</v>
@@ -4494,21 +4521,21 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="1">
-        <v>576</v>
+        <v>176</v>
       </c>
       <c r="B145" t="s" s="1">
-        <v>375</v>
+        <v>281</v>
       </c>
       <c r="C145" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="1">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B146" t="s" s="1">
-        <v>52</v>
+        <v>313</v>
       </c>
       <c r="C146" t="s" s="1">
         <v>271</v>
@@ -4516,65 +4543,65 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="1">
-        <v>100</v>
+        <v>439</v>
       </c>
       <c r="B147" t="s" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C147" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="1">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B148" t="s" s="1">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="C148" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="1">
-        <v>574</v>
+        <v>310</v>
       </c>
       <c r="B149" t="s" s="1">
-        <v>313</v>
+        <v>60</v>
       </c>
       <c r="C149" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="1">
-        <v>178</v>
+        <v>388</v>
       </c>
       <c r="B150" t="s" s="1">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="1">
-        <v>246</v>
+        <v>577</v>
       </c>
       <c r="B151" t="s" s="1">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C151" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="1">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="B152" t="s" s="1">
-        <v>4</v>
+        <v>285</v>
       </c>
       <c r="C152" t="s" s="1">
         <v>271</v>
@@ -4582,10 +4609,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="1">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="B153" t="s" s="1">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C153" t="s" s="1">
         <v>271</v>
@@ -4593,10 +4620,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="1">
-        <v>253</v>
+        <v>492</v>
       </c>
       <c r="B154" t="s" s="1">
-        <v>52</v>
+        <v>286</v>
       </c>
       <c r="C154" t="s" s="1">
         <v>271</v>
@@ -4604,10 +4631,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="1">
-        <v>488</v>
+        <v>55</v>
       </c>
       <c r="B155" t="s" s="1">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C155" t="s" s="1">
         <v>271</v>
@@ -4615,10 +4642,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="1">
-        <v>512</v>
+        <v>254</v>
       </c>
       <c r="B156" t="s" s="1">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C156" t="s" s="1">
         <v>271</v>
@@ -4626,54 +4653,54 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="1">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B157" t="s" s="1">
-        <v>499</v>
+        <v>376</v>
       </c>
       <c r="C157" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="1">
-        <v>578</v>
+        <v>191</v>
       </c>
       <c r="B158" t="s" s="1">
-        <v>38</v>
+        <v>373</v>
       </c>
       <c r="C158" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="1">
-        <v>115</v>
+        <v>434</v>
       </c>
       <c r="B159" t="s" s="1">
-        <v>313</v>
+        <v>38</v>
       </c>
       <c r="C159" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="1">
-        <v>568</v>
+        <v>519</v>
       </c>
       <c r="B160" t="s" s="1">
-        <v>392</v>
+        <v>84</v>
       </c>
       <c r="C160" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="1">
-        <v>565</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C161" t="s" s="1">
         <v>271</v>
@@ -4681,10 +4708,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="1">
-        <v>37</v>
+        <v>573</v>
       </c>
       <c r="B162" t="s" s="1">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C162" t="s" s="1">
         <v>271</v>
@@ -4692,10 +4719,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="1">
-        <v>503</v>
+        <v>363</v>
       </c>
       <c r="B163" t="s" s="1">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="C163" t="s" s="1">
         <v>271</v>
@@ -4703,21 +4730,21 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="1">
-        <v>186</v>
+        <v>620</v>
       </c>
       <c r="B164" t="s" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C164" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="1">
-        <v>144</v>
+        <v>563</v>
       </c>
       <c r="B165" t="s" s="1">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="C165" t="s" s="1">
         <v>271</v>
@@ -4725,43 +4752,43 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="1">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="B166" t="s" s="1">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C166" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="1">
-        <v>184</v>
+        <v>454</v>
       </c>
       <c r="B167" t="s" s="1">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C167" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="1">
-        <v>514</v>
+        <v>321</v>
       </c>
       <c r="B168" t="s" s="1">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C168" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="1">
-        <v>365</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s" s="1">
-        <v>101</v>
+        <v>629</v>
       </c>
       <c r="C169" t="s" s="1">
         <v>271</v>
@@ -4769,7 +4796,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="1">
-        <v>112</v>
+        <v>422</v>
       </c>
       <c r="B170" t="s" s="1">
         <v>84</v>
@@ -4780,10 +4807,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="1">
-        <v>445</v>
+        <v>225</v>
       </c>
       <c r="B171" t="s" s="1">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="C171" t="s" s="1">
         <v>271</v>
@@ -4791,21 +4818,21 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="1">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="B172" t="s" s="1">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="C172" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="1">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="B173" t="s" s="1">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="C173" t="s" s="1">
         <v>271</v>
@@ -4813,10 +4840,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="1">
-        <v>189</v>
+        <v>332</v>
       </c>
       <c r="B174" t="s" s="1">
-        <v>4</v>
+        <v>630</v>
       </c>
       <c r="C174" t="s" s="1">
         <v>271</v>
@@ -4824,10 +4851,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="1">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="B175" t="s" s="1">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="C175" t="s" s="1">
         <v>271</v>
@@ -4835,21 +4862,21 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="1">
-        <v>393</v>
+        <v>536</v>
       </c>
       <c r="B176" t="s" s="1">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C176" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="1">
-        <v>250</v>
+        <v>142</v>
       </c>
       <c r="B177" t="s" s="1">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C177" t="s" s="1">
         <v>271</v>
@@ -4857,21 +4884,21 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="1">
-        <v>424</v>
+        <v>228</v>
       </c>
       <c r="B178" t="s" s="1">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C178" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="1">
-        <v>181</v>
+        <v>305</v>
       </c>
       <c r="B179" t="s" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C179" t="s" s="1">
         <v>271</v>
@@ -4879,10 +4906,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="1">
-        <v>367</v>
+        <v>260</v>
       </c>
       <c r="B180" t="s" s="1">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="C180" t="s" s="1">
         <v>271</v>
@@ -4890,32 +4917,32 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="1">
-        <v>563</v>
+        <v>73</v>
       </c>
       <c r="B181" t="s" s="1">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C181" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="1">
-        <v>426</v>
+        <v>194</v>
       </c>
       <c r="B182" t="s" s="1">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="C182" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="1">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B183" t="s" s="1">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="C183" t="s" s="1">
         <v>271</v>
@@ -4923,32 +4950,32 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="1">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="B184" t="s" s="1">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="C184" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="1">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B185" t="s" s="1">
-        <v>614</v>
+        <v>79</v>
       </c>
       <c r="C185" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="1">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="B186" t="s" s="1">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C186" t="s" s="1">
         <v>5</v>
@@ -4956,32 +4983,32 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="1">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="B187" t="s" s="1">
-        <v>527</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="1">
-        <v>157</v>
+        <v>567</v>
       </c>
       <c r="B188" t="s" s="1">
-        <v>549</v>
+        <v>281</v>
       </c>
       <c r="C188" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="1">
-        <v>338</v>
+        <v>144</v>
       </c>
       <c r="B189" t="s" s="1">
-        <v>273</v>
+        <v>60</v>
       </c>
       <c r="C189" t="s" s="1">
         <v>271</v>
@@ -4989,10 +5016,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="1">
-        <v>487</v>
+        <v>229</v>
       </c>
       <c r="B190" t="s" s="1">
-        <v>542</v>
+        <v>287</v>
       </c>
       <c r="C190" t="s" s="1">
         <v>268</v>
@@ -5000,10 +5027,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="1">
-        <v>557</v>
+        <v>423</v>
       </c>
       <c r="B191" t="s" s="1">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C191" t="s" s="1">
         <v>271</v>
@@ -5011,21 +5038,21 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="1">
-        <v>434</v>
+        <v>219</v>
       </c>
       <c r="B192" t="s" s="1">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C192" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="1">
-        <v>582</v>
+        <v>623</v>
       </c>
       <c r="B193" t="s" s="1">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="C193" t="s" s="1">
         <v>271</v>
@@ -5033,10 +5060,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="1">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B194" t="s" s="1">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="C194" t="s" s="1">
         <v>271</v>
@@ -5044,21 +5071,21 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="1">
-        <v>454</v>
+        <v>46</v>
       </c>
       <c r="B195" t="s" s="1">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C195" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="1">
-        <v>468</v>
+        <v>155</v>
       </c>
       <c r="B196" t="s" s="1">
-        <v>301</v>
+        <v>69</v>
       </c>
       <c r="C196" t="s" s="1">
         <v>271</v>
@@ -5066,10 +5093,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="1">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="B197" t="s" s="1">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C197" t="s" s="1">
         <v>271</v>
@@ -5077,21 +5104,21 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="1">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="B198" t="s" s="1">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="C198" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="1">
-        <v>389</v>
+        <v>595</v>
       </c>
       <c r="B199" t="s" s="1">
-        <v>283</v>
+        <v>84</v>
       </c>
       <c r="C199" t="s" s="1">
         <v>271</v>
@@ -5099,10 +5126,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="1">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="B200" t="s" s="1">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c r="C200" t="s" s="1">
         <v>271</v>
@@ -5110,10 +5137,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="1">
-        <v>65</v>
+        <v>459</v>
       </c>
       <c r="B201" t="s" s="1">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="C201" t="s" s="1">
         <v>271</v>
@@ -5121,10 +5148,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="1">
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="B202" t="s" s="1">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s" s="1">
         <v>271</v>
@@ -5132,7 +5159,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="1">
-        <v>428</v>
+        <v>259</v>
       </c>
       <c r="B203" t="s" s="1">
         <v>52</v>
@@ -5143,10 +5170,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="1">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="B204" t="s" s="1">
-        <v>111</v>
+        <v>392</v>
       </c>
       <c r="C204" t="s" s="1">
         <v>5</v>
@@ -5154,21 +5181,21 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="1">
-        <v>249</v>
+        <v>571</v>
       </c>
       <c r="B205" t="s" s="1">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="C205" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="1">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="B206" t="s" s="1">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="C206" t="s" s="1">
         <v>271</v>
@@ -5176,10 +5203,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="1">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="B207" t="s" s="1">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C207" t="s" s="1">
         <v>271</v>
@@ -5187,10 +5214,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="1">
-        <v>575</v>
+        <v>360</v>
       </c>
       <c r="B208" t="s" s="1">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="C208" t="s" s="1">
         <v>271</v>
@@ -5198,10 +5225,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="1">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="B209" t="s" s="1">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="C209" t="s" s="1">
         <v>271</v>
@@ -5209,21 +5236,21 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="1">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="B210" t="s" s="1">
-        <v>586</v>
+        <v>11</v>
       </c>
       <c r="C210" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="1">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="B211" t="s" s="1">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="C211" t="s" s="1">
         <v>5</v>
@@ -5231,21 +5258,21 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="1">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="B212" t="s" s="1">
-        <v>273</v>
+        <v>66</v>
       </c>
       <c r="C212" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B213" t="s" s="1">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C213" t="s" s="1">
         <v>271</v>
@@ -5253,10 +5280,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="1">
-        <v>423</v>
+        <v>201</v>
       </c>
       <c r="B214" t="s" s="1">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C214" t="s" s="1">
         <v>271</v>
@@ -5264,21 +5291,21 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="1">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="B215" t="s" s="1">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C215" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="1">
-        <v>474</v>
+        <v>380</v>
       </c>
       <c r="B216" t="s" s="1">
-        <v>283</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s" s="1">
         <v>271</v>
@@ -5286,10 +5313,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="1">
-        <v>71</v>
+        <v>450</v>
       </c>
       <c r="B217" t="s" s="1">
-        <v>285</v>
+        <v>72</v>
       </c>
       <c r="C217" t="s" s="1">
         <v>271</v>
@@ -5297,32 +5324,32 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="1">
-        <v>433</v>
+        <v>557</v>
       </c>
       <c r="B218" t="s" s="1">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="C218" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="1">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="B219" t="s" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C219" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="1">
-        <v>371</v>
+        <v>222</v>
       </c>
       <c r="B220" t="s" s="1">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c r="C220" t="s" s="1">
         <v>5</v>
@@ -5330,10 +5357,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="1">
-        <v>300</v>
+        <v>149</v>
       </c>
       <c r="B221" t="s" s="1">
-        <v>66</v>
+        <v>524</v>
       </c>
       <c r="C221" t="s" s="1">
         <v>271</v>
@@ -5341,43 +5368,43 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="1">
-        <v>509</v>
+        <v>338</v>
       </c>
       <c r="B222" t="s" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C222" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="1">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="B223" t="s" s="1">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="C223" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="1">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="B224" t="s" s="1">
-        <v>52</v>
+        <v>277</v>
       </c>
       <c r="C224" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="1">
-        <v>158</v>
+        <v>440</v>
       </c>
       <c r="B225" t="s" s="1">
-        <v>615</v>
+        <v>25</v>
       </c>
       <c r="C225" t="s" s="1">
         <v>271</v>
@@ -5385,21 +5412,21 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="1">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B226" t="s" s="1">
-        <v>403</v>
+        <v>118</v>
       </c>
       <c r="C226" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="1">
-        <v>361</v>
+        <v>242</v>
       </c>
       <c r="B227" t="s" s="1">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C227" t="s" s="1">
         <v>5</v>
@@ -5407,54 +5434,54 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="1">
-        <v>505</v>
+        <v>416</v>
       </c>
       <c r="B228" t="s" s="1">
-        <v>292</v>
+        <v>23</v>
       </c>
       <c r="C228" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="1">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="B229" t="s" s="1">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="C229" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="1">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="B230" t="s" s="1">
-        <v>25</v>
+        <v>529</v>
       </c>
       <c r="C230" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="1">
-        <v>523</v>
+        <v>21</v>
       </c>
       <c r="B231" t="s" s="1">
-        <v>276</v>
+        <v>23</v>
       </c>
       <c r="C231" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="1">
-        <v>388</v>
+        <v>486</v>
       </c>
       <c r="B232" t="s" s="1">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="C232" t="s" s="1">
         <v>271</v>
@@ -5462,10 +5489,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="1">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="B233" t="s" s="1">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C233" t="s" s="1">
         <v>271</v>
@@ -5473,21 +5500,21 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="1">
-        <v>495</v>
+        <v>258</v>
       </c>
       <c r="B234" t="s" s="1">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="C234" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="1">
-        <v>55</v>
+        <v>566</v>
       </c>
       <c r="B235" t="s" s="1">
-        <v>13</v>
+        <v>533</v>
       </c>
       <c r="C235" t="s" s="1">
         <v>271</v>
@@ -5495,43 +5522,43 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="1">
-        <v>448</v>
+        <v>319</v>
       </c>
       <c r="B236" t="s" s="1">
-        <v>267</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="1">
-        <v>168</v>
+        <v>487</v>
       </c>
       <c r="B237" t="s" s="1">
-        <v>111</v>
+        <v>491</v>
       </c>
       <c r="C237" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="1">
-        <v>480</v>
+        <v>579</v>
       </c>
       <c r="B238" t="s" s="1">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C238" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="1">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="B239" t="s" s="1">
-        <v>283</v>
+        <v>52</v>
       </c>
       <c r="C239" t="s" s="1">
         <v>271</v>
@@ -5539,21 +5566,21 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="1">
-        <v>446</v>
+        <v>249</v>
       </c>
       <c r="B240" t="s" s="1">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="C240" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="1">
-        <v>478</v>
+        <v>356</v>
       </c>
       <c r="B241" t="s" s="1">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="C241" t="s" s="1">
         <v>271</v>
@@ -5561,10 +5588,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="1">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="B242" t="s" s="1">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="C242" t="s" s="1">
         <v>271</v>
@@ -5572,21 +5599,21 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="1">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="B243" t="s" s="1">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="C243" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="1">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="B244" t="s" s="1">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C244" t="s" s="1">
         <v>271</v>
@@ -5594,10 +5621,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="1">
-        <v>569</v>
+        <v>105</v>
       </c>
       <c r="B245" t="s" s="1">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C245" t="s" s="1">
         <v>271</v>
@@ -5605,65 +5632,65 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="1">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="B246" t="s" s="1">
-        <v>4</v>
+        <v>406</v>
       </c>
       <c r="C246" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="1">
-        <v>70</v>
+        <v>511</v>
       </c>
       <c r="B247" t="s" s="1">
-        <v>45</v>
+        <v>627</v>
       </c>
       <c r="C247" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="1">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B248" t="s" s="1">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C248" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="1">
-        <v>262</v>
+        <v>470</v>
       </c>
       <c r="B249" t="s" s="1">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C249" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="1">
-        <v>357</v>
+        <v>218</v>
       </c>
       <c r="B250" t="s" s="1">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="C250" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="1">
-        <v>117</v>
+        <v>405</v>
       </c>
       <c r="B251" t="s" s="1">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="C251" t="s" s="1">
         <v>271</v>
@@ -5671,10 +5698,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="1">
-        <v>167</v>
+        <v>335</v>
       </c>
       <c r="B252" t="s" s="1">
-        <v>403</v>
+        <v>274</v>
       </c>
       <c r="C252" t="s" s="1">
         <v>271</v>
@@ -5682,21 +5709,21 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="1">
-        <v>193</v>
+        <v>343</v>
       </c>
       <c r="B253" t="s" s="1">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="C253" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="1">
-        <v>470</v>
+        <v>320</v>
       </c>
       <c r="B254" t="s" s="1">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C254" t="s" s="1">
         <v>271</v>
@@ -5704,10 +5731,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="1">
-        <v>245</v>
+        <v>56</v>
       </c>
       <c r="B255" t="s" s="1">
-        <v>533</v>
+        <v>57</v>
       </c>
       <c r="C255" t="s" s="1">
         <v>271</v>
@@ -5715,10 +5742,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="1">
-        <v>502</v>
+        <v>205</v>
       </c>
       <c r="B256" t="s" s="1">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C256" t="s" s="1">
         <v>271</v>
@@ -5726,10 +5753,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="1">
-        <v>387</v>
+        <v>512</v>
       </c>
       <c r="B257" t="s" s="1">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C257" t="s" s="1">
         <v>271</v>
@@ -5737,76 +5764,76 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="1">
-        <v>145</v>
+        <v>447</v>
       </c>
       <c r="B258" t="s" s="1">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C258" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="1">
-        <v>616</v>
+        <v>430</v>
       </c>
       <c r="B259" t="s" s="1">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C259" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="1">
-        <v>519</v>
+        <v>106</v>
       </c>
       <c r="B260" t="s" s="1">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="C260" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="1">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="B261" t="s" s="1">
-        <v>84</v>
+        <v>392</v>
       </c>
       <c r="C261" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="1">
-        <v>175</v>
+        <v>448</v>
       </c>
       <c r="B262" t="s" s="1">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C262" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="1">
-        <v>353</v>
+        <v>481</v>
       </c>
       <c r="B263" t="s" s="1">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C263" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="1">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="B264" t="s" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C264" t="s" s="1">
         <v>271</v>
@@ -5814,21 +5841,21 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="1">
-        <v>234</v>
+        <v>402</v>
       </c>
       <c r="B265" t="s" s="1">
         <v>13</v>
       </c>
       <c r="C265" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="1">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="B266" t="s" s="1">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="C266" t="s" s="1">
         <v>271</v>
@@ -5836,21 +5863,21 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="1">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="B267" t="s" s="1">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C267" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="1">
-        <v>319</v>
+        <v>169</v>
       </c>
       <c r="B268" t="s" s="1">
-        <v>7</v>
+        <v>279</v>
       </c>
       <c r="C268" t="s" s="1">
         <v>271</v>
@@ -5858,21 +5885,21 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="1">
-        <v>321</v>
+        <v>505</v>
       </c>
       <c r="B269" t="s" s="1">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="C269" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="1">
-        <v>401</v>
+        <v>564</v>
       </c>
       <c r="B270" t="s" s="1">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C270" t="s" s="1">
         <v>271</v>
@@ -5880,32 +5907,32 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="1">
-        <v>265</v>
+        <v>582</v>
       </c>
       <c r="B271" t="s" s="1">
-        <v>617</v>
+        <v>280</v>
       </c>
       <c r="C271" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="1">
-        <v>418</v>
+        <v>555</v>
       </c>
       <c r="B272" t="s" s="1">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="C272" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="1">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B273" t="s" s="1">
-        <v>30</v>
+        <v>631</v>
       </c>
       <c r="C273" t="s" s="1">
         <v>271</v>
@@ -5913,10 +5940,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="1">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="B274" t="s" s="1">
-        <v>111</v>
+        <v>267</v>
       </c>
       <c r="C274" t="s" s="1">
         <v>271</v>
@@ -5924,10 +5951,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="1">
-        <v>182</v>
+        <v>484</v>
       </c>
       <c r="B275" t="s" s="1">
-        <v>295</v>
+        <v>23</v>
       </c>
       <c r="C275" t="s" s="1">
         <v>271</v>
@@ -5935,10 +5962,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="1">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="B276" t="s" s="1">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="C276" t="s" s="1">
         <v>271</v>
@@ -5946,10 +5973,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="1">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="B277" t="s" s="1">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="C277" t="s" s="1">
         <v>271</v>
@@ -5957,32 +5984,32 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="1">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="B278" t="s" s="1">
-        <v>118</v>
+        <v>324</v>
       </c>
       <c r="C278" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="1">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="B279" t="s" s="1">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="C279" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="1">
-        <v>119</v>
+        <v>495</v>
       </c>
       <c r="B280" t="s" s="1">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="C280" t="s" s="1">
         <v>5</v>
@@ -5990,10 +6017,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="1">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="B281" t="s" s="1">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C281" t="s" s="1">
         <v>271</v>
@@ -6001,10 +6028,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="1">
-        <v>366</v>
+        <v>117</v>
       </c>
       <c r="B282" t="s" s="1">
-        <v>267</v>
+        <v>107</v>
       </c>
       <c r="C282" t="s" s="1">
         <v>271</v>
@@ -6012,32 +6039,32 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="1">
-        <v>216</v>
+        <v>426</v>
       </c>
       <c r="B283" t="s" s="1">
-        <v>4</v>
+        <v>289</v>
       </c>
       <c r="C283" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="1">
-        <v>261</v>
+        <v>551</v>
       </c>
       <c r="B284" t="s" s="1">
         <v>84</v>
       </c>
       <c r="C284" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="1">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="B285" t="s" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C285" t="s" s="1">
         <v>271</v>
@@ -6045,10 +6072,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="1">
-        <v>155</v>
+        <v>424</v>
       </c>
       <c r="B286" t="s" s="1">
-        <v>116</v>
+        <v>283</v>
       </c>
       <c r="C286" t="s" s="1">
         <v>271</v>
@@ -6056,10 +6083,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="1">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="B287" t="s" s="1">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="C287" t="s" s="1">
         <v>271</v>
@@ -6067,21 +6094,21 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="1">
-        <v>191</v>
+        <v>407</v>
       </c>
       <c r="B288" t="s" s="1">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="C288" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="1">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="B289" t="s" s="1">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="C289" t="s" s="1">
         <v>271</v>
@@ -6089,21 +6116,21 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="1">
-        <v>391</v>
+        <v>213</v>
       </c>
       <c r="B290" t="s" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C290" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="1">
-        <v>428</v>
+        <v>179</v>
       </c>
       <c r="B291" t="s" s="1">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="C291" t="s" s="1">
         <v>5</v>
@@ -6111,21 +6138,21 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="1">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B292" t="s" s="1">
         <v>267</v>
       </c>
       <c r="C292" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="1">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="B293" t="s" s="1">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C293" t="s" s="1">
         <v>271</v>
@@ -6133,21 +6160,21 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="1">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="B294" t="s" s="1">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="C294" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="1">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="B295" t="s" s="1">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C295" t="s" s="1">
         <v>270</v>
@@ -6155,10 +6182,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="1">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B296" t="s" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C296" t="s" s="1">
         <v>271</v>
@@ -6166,32 +6193,32 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="1">
-        <v>371</v>
+        <v>94</v>
       </c>
       <c r="B297" t="s" s="1">
-        <v>101</v>
+        <v>443</v>
       </c>
       <c r="C297" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="1">
-        <v>551</v>
+        <v>141</v>
       </c>
       <c r="B298" t="s" s="1">
-        <v>84</v>
+        <v>632</v>
       </c>
       <c r="C298" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="1">
-        <v>407</v>
+        <v>497</v>
       </c>
       <c r="B299" t="s" s="1">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="C299" t="s" s="1">
         <v>271</v>
@@ -6199,10 +6226,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="1">
-        <v>259</v>
+        <v>358</v>
       </c>
       <c r="B300" t="s" s="1">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C300" t="s" s="1">
         <v>5</v>
@@ -6210,32 +6237,32 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="1">
-        <v>534</v>
+        <v>252</v>
       </c>
       <c r="B301" t="s" s="1">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C301" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="1">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="B302" t="s" s="1">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="C302" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="1">
-        <v>308</v>
+        <v>477</v>
       </c>
       <c r="B303" t="s" s="1">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C303" t="s" s="1">
         <v>5</v>
@@ -6243,21 +6270,21 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="1">
-        <v>382</v>
+        <v>600</v>
       </c>
       <c r="B304" t="s" s="1">
-        <v>286</v>
+        <v>549</v>
       </c>
       <c r="C304" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="1">
-        <v>219</v>
+        <v>417</v>
       </c>
       <c r="B305" t="s" s="1">
-        <v>63</v>
+        <v>633</v>
       </c>
       <c r="C305" t="s" s="1">
         <v>5</v>
@@ -6265,43 +6292,43 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="1">
-        <v>218</v>
+        <v>469</v>
       </c>
       <c r="B306" t="s" s="1">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="C306" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="1">
-        <v>332</v>
+        <v>433</v>
       </c>
       <c r="B307" t="s" s="1">
-        <v>540</v>
+        <v>4</v>
       </c>
       <c r="C307" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="1">
-        <v>215</v>
+        <v>444</v>
       </c>
       <c r="B308" t="s" s="1">
-        <v>438</v>
+        <v>267</v>
       </c>
       <c r="C308" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="1">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B309" t="s" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C309" t="s" s="1">
         <v>5</v>
@@ -6309,32 +6336,32 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="1">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="B310" t="s" s="1">
-        <v>276</v>
+        <v>494</v>
       </c>
       <c r="C310" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="1">
-        <v>600</v>
+        <v>344</v>
       </c>
       <c r="B311" t="s" s="1">
-        <v>618</v>
+        <v>4</v>
       </c>
       <c r="C311" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="1">
-        <v>480</v>
+        <v>261</v>
       </c>
       <c r="B312" t="s" s="1">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="C312" t="s" s="1">
         <v>5</v>
@@ -6342,32 +6369,32 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="1">
-        <v>217</v>
+        <v>321</v>
       </c>
       <c r="B313" t="s" s="1">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C313" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="1">
-        <v>593</v>
+        <v>454</v>
       </c>
       <c r="B314" t="s" s="1">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="C314" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="1">
-        <v>146</v>
+        <v>509</v>
       </c>
       <c r="B315" t="s" s="1">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="C315" t="s" s="1">
         <v>5</v>
@@ -6375,10 +6402,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="1">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="B316" t="s" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C316" t="s" s="1">
         <v>271</v>
@@ -6386,65 +6413,65 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="1">
-        <v>363</v>
+        <v>87</v>
       </c>
       <c r="B317" t="s" s="1">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="C317" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="1">
-        <v>463</v>
+        <v>86</v>
       </c>
       <c r="B318" t="s" s="1">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="C318" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="1">
-        <v>230</v>
+        <v>371</v>
       </c>
       <c r="B319" t="s" s="1">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="C319" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="1">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="B320" t="s" s="1">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C320" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="1">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="B321" t="s" s="1">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="C321" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="1">
-        <v>505</v>
+        <v>119</v>
       </c>
       <c r="B322" t="s" s="1">
-        <v>449</v>
+        <v>60</v>
       </c>
       <c r="C322" t="s" s="1">
         <v>5</v>
@@ -6452,54 +6479,54 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="1">
-        <v>433</v>
+        <v>188</v>
       </c>
       <c r="B323" t="s" s="1">
-        <v>25</v>
+        <v>451</v>
       </c>
       <c r="C323" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="1">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="B324" t="s" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C324" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="1">
-        <v>177</v>
+        <v>593</v>
       </c>
       <c r="B325" t="s" s="1">
-        <v>527</v>
+        <v>273</v>
       </c>
       <c r="C325" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="1">
-        <v>466</v>
+        <v>197</v>
       </c>
       <c r="B326" t="s" s="1">
-        <v>619</v>
+        <v>277</v>
       </c>
       <c r="C326" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="1">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="B327" t="s" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C327" t="s" s="1">
         <v>271</v>
@@ -6507,43 +6534,43 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="1">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B328" t="s" s="1">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C328" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="1">
-        <v>620</v>
+        <v>152</v>
       </c>
       <c r="B329" t="s" s="1">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="C329" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="1">
-        <v>31</v>
+        <v>555</v>
       </c>
       <c r="B330" t="s" s="1">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C330" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="1">
-        <v>509</v>
+        <v>138</v>
       </c>
       <c r="B331" t="s" s="1">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="C331" t="s" s="1">
         <v>5</v>
@@ -6551,21 +6578,21 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="1">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="B332" t="s" s="1">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C332" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="1">
-        <v>621</v>
+        <v>193</v>
       </c>
       <c r="B333" t="s" s="1">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C333" t="s" s="1">
         <v>5</v>
@@ -6573,10 +6600,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="1">
-        <v>240</v>
+        <v>474</v>
       </c>
       <c r="B334" t="s" s="1">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="C334" t="s" s="1">
         <v>271</v>
@@ -6584,21 +6611,21 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="1">
-        <v>138</v>
+        <v>479</v>
       </c>
       <c r="B335" t="s" s="1">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C335" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="1">
-        <v>236</v>
+        <v>414</v>
       </c>
       <c r="B336" t="s" s="1">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C336" t="s" s="1">
         <v>271</v>
@@ -6606,10 +6633,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="1">
-        <v>377</v>
+        <v>574</v>
       </c>
       <c r="B337" t="s" s="1">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="C337" t="s" s="1">
         <v>271</v>
@@ -6617,32 +6644,32 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="1">
-        <v>469</v>
+        <v>621</v>
       </c>
       <c r="B338" t="s" s="1">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="C338" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="1">
-        <v>523</v>
+        <v>577</v>
       </c>
       <c r="B339" t="s" s="1">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C339" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="1">
-        <v>519</v>
+        <v>184</v>
       </c>
       <c r="B340" t="s" s="1">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C340" t="s" s="1">
         <v>5</v>
@@ -6650,21 +6677,21 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="1">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="B341" t="s" s="1">
-        <v>4</v>
+        <v>542</v>
       </c>
       <c r="C341" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="1">
-        <v>125</v>
+        <v>609</v>
       </c>
       <c r="B342" t="s" s="1">
-        <v>52</v>
+        <v>337</v>
       </c>
       <c r="C342" t="s" s="1">
         <v>271</v>
@@ -6672,21 +6699,21 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="1">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="B343" t="s" s="1">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C343" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="1">
-        <v>399</v>
+        <v>186</v>
       </c>
       <c r="B344" t="s" s="1">
-        <v>57</v>
+        <v>283</v>
       </c>
       <c r="C344" t="s" s="1">
         <v>271</v>
@@ -6694,10 +6721,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="1">
-        <v>162</v>
+        <v>495</v>
       </c>
       <c r="B345" t="s" s="1">
-        <v>69</v>
+        <v>460</v>
       </c>
       <c r="C345" t="s" s="1">
         <v>5</v>
@@ -6705,10 +6732,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="1">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="B346" t="s" s="1">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="C346" t="s" s="1">
         <v>5</v>
@@ -6716,21 +6743,21 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="1">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="B347" t="s" s="1">
-        <v>438</v>
+        <v>69</v>
       </c>
       <c r="C347" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="1">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B348" t="s" s="1">
-        <v>284</v>
+        <v>111</v>
       </c>
       <c r="C348" t="s" s="1">
         <v>5</v>
@@ -6738,43 +6765,43 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="1">
-        <v>481</v>
+        <v>250</v>
       </c>
       <c r="B349" t="s" s="1">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C349" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="1">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B350" t="s" s="1">
-        <v>601</v>
+        <v>91</v>
       </c>
       <c r="C350" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="1">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="B351" t="s" s="1">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C351" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="1">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B352" t="s" s="1">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="C352" t="s" s="1">
         <v>5</v>
@@ -6782,10 +6809,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="1">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="B353" t="s" s="1">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C353" t="s" s="1">
         <v>271</v>
@@ -6793,21 +6820,21 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="1">
-        <v>187</v>
+        <v>435</v>
       </c>
       <c r="B354" t="s" s="1">
-        <v>72</v>
+        <v>279</v>
       </c>
       <c r="C354" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="1">
-        <v>14</v>
+        <v>430</v>
       </c>
       <c r="B355" t="s" s="1">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C355" t="s" s="1">
         <v>5</v>
@@ -6815,54 +6842,54 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="1">
-        <v>265</v>
+        <v>402</v>
       </c>
       <c r="B356" t="s" s="1">
-        <v>585</v>
+        <v>299</v>
       </c>
       <c r="C356" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="1">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="B357" t="s" s="1">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="C357" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="1">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="B358" t="s" s="1">
-        <v>529</v>
+        <v>98</v>
       </c>
       <c r="C358" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="1">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B359" t="s" s="1">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C359" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="1">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="B360" t="s" s="1">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="C360" t="s" s="1">
         <v>271</v>
@@ -6870,10 +6897,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="1">
-        <v>518</v>
+        <v>112</v>
       </c>
       <c r="B361" t="s" s="1">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="C361" t="s" s="1">
         <v>271</v>
@@ -6881,10 +6908,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="1">
-        <v>595</v>
+        <v>171</v>
       </c>
       <c r="B362" t="s" s="1">
-        <v>72</v>
+        <v>296</v>
       </c>
       <c r="C362" t="s" s="1">
         <v>271</v>
@@ -6892,32 +6919,32 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="1">
-        <v>368</v>
+        <v>214</v>
       </c>
       <c r="B363" t="s" s="1">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="C363" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="1">
-        <v>229</v>
+        <v>445</v>
       </c>
       <c r="B364" t="s" s="1">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="C364" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="1">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B365" t="s" s="1">
-        <v>622</v>
+        <v>286</v>
       </c>
       <c r="C365" t="s" s="1">
         <v>5</v>
@@ -6925,21 +6952,21 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="1">
-        <v>417</v>
+        <v>534</v>
       </c>
       <c r="B366" t="s" s="1">
-        <v>498</v>
+        <v>4</v>
       </c>
       <c r="C366" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="1">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="B367" t="s" s="1">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="C367" t="s" s="1">
         <v>5</v>
@@ -6947,10 +6974,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="1">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="B368" t="s" s="1">
-        <v>13</v>
+        <v>585</v>
       </c>
       <c r="C368" t="s" s="1">
         <v>5</v>
@@ -6958,10 +6985,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="1">
-        <v>320</v>
+        <v>144</v>
       </c>
       <c r="B369" t="s" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C369" t="s" s="1">
         <v>271</v>
@@ -6969,10 +6996,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="1">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B370" t="s" s="1">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C370" t="s" s="1">
         <v>5</v>
@@ -6980,10 +7007,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="1">
-        <v>243</v>
+        <v>345</v>
       </c>
       <c r="B371" t="s" s="1">
-        <v>392</v>
+        <v>283</v>
       </c>
       <c r="C371" t="s" s="1">
         <v>271</v>
@@ -6991,10 +7018,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="1">
-        <v>409</v>
+        <v>550</v>
       </c>
       <c r="B372" t="s" s="1">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="C372" t="s" s="1">
         <v>271</v>
@@ -7002,10 +7029,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="1">
-        <v>555</v>
+        <v>318</v>
       </c>
       <c r="B373" t="s" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C373" t="s" s="1">
         <v>5</v>
@@ -7013,10 +7040,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="1">
-        <v>464</v>
+        <v>361</v>
       </c>
       <c r="B374" t="s" s="1">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C374" t="s" s="1">
         <v>5</v>
@@ -7024,32 +7051,32 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="1">
-        <v>204</v>
+        <v>401</v>
       </c>
       <c r="B375" t="s" s="1">
-        <v>274</v>
+        <v>4</v>
       </c>
       <c r="C375" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="1">
-        <v>354</v>
+        <v>164</v>
       </c>
       <c r="B376" t="s" s="1">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C376" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s" s="1">
-        <v>623</v>
+        <v>183</v>
       </c>
       <c r="B377" t="s" s="1">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="C377" t="s" s="1">
         <v>271</v>
@@ -7057,21 +7084,21 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="1">
-        <v>113</v>
+        <v>325</v>
       </c>
       <c r="B378" t="s" s="1">
-        <v>624</v>
+        <v>11</v>
       </c>
       <c r="C378" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s" s="1">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="B379" t="s" s="1">
-        <v>84</v>
+        <v>267</v>
       </c>
       <c r="C379" t="s" s="1">
         <v>5</v>
@@ -7079,21 +7106,21 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="1">
-        <v>484</v>
+        <v>191</v>
       </c>
       <c r="B380" t="s" s="1">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="C380" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B381" t="s" s="1">
-        <v>4</v>
+        <v>390</v>
       </c>
       <c r="C381" t="s" s="1">
         <v>5</v>
@@ -7101,10 +7128,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="1">
-        <v>495</v>
+        <v>203</v>
       </c>
       <c r="B382" t="s" s="1">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="C382" t="s" s="1">
         <v>5</v>
@@ -7112,21 +7139,21 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="1">
-        <v>257</v>
+        <v>539</v>
       </c>
       <c r="B383" t="s" s="1">
-        <v>7</v>
+        <v>507</v>
       </c>
       <c r="C383" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s" s="1">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="B384" t="s" s="1">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="C384" t="s" s="1">
         <v>5</v>
@@ -7134,10 +7161,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="1">
-        <v>566</v>
+        <v>502</v>
       </c>
       <c r="B385" t="s" s="1">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C385" t="s" s="1">
         <v>271</v>
@@ -7145,32 +7172,32 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="1">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B386" t="s" s="1">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C386" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s" s="1">
-        <v>396</v>
+        <v>177</v>
       </c>
       <c r="B387" t="s" s="1">
-        <v>40</v>
+        <v>527</v>
       </c>
       <c r="C387" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s" s="1">
-        <v>46</v>
+        <v>481</v>
       </c>
       <c r="B388" t="s" s="1">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="C388" t="s" s="1">
         <v>5</v>
@@ -7178,43 +7205,43 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="1">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="B389" t="s" s="1">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="C389" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s" s="1">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="B390" t="s" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C390" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s" s="1">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B391" t="s" s="1">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="C391" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s" s="1">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="B392" t="s" s="1">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C392" t="s" s="1">
         <v>5</v>
@@ -7222,10 +7249,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="1">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="B393" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C393" t="s" s="1">
         <v>5</v>
@@ -7233,32 +7260,32 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="1">
-        <v>379</v>
+        <v>473</v>
       </c>
       <c r="B394" t="s" s="1">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C394" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s" s="1">
-        <v>577</v>
+        <v>222</v>
       </c>
       <c r="B395" t="s" s="1">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="C395" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s" s="1">
-        <v>447</v>
+        <v>97</v>
       </c>
       <c r="B396" t="s" s="1">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="C396" t="s" s="1">
         <v>5</v>
@@ -7266,21 +7293,21 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="1">
-        <v>430</v>
+        <v>113</v>
       </c>
       <c r="B397" t="s" s="1">
-        <v>72</v>
+        <v>369</v>
       </c>
       <c r="C397" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s" s="1">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="B398" t="s" s="1">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="C398" t="s" s="1">
         <v>271</v>
@@ -7288,21 +7315,21 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="1">
-        <v>350</v>
+        <v>219</v>
       </c>
       <c r="B399" t="s" s="1">
-        <v>313</v>
+        <v>504</v>
       </c>
       <c r="C399" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s" s="1">
-        <v>310</v>
+        <v>156</v>
       </c>
       <c r="B400" t="s" s="1">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="C400" t="s" s="1">
         <v>5</v>
@@ -7321,21 +7348,21 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="1">
-        <v>228</v>
+        <v>480</v>
       </c>
       <c r="B402" t="s" s="1">
-        <v>533</v>
+        <v>25</v>
       </c>
       <c r="C402" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s" s="1">
-        <v>199</v>
+        <v>536</v>
       </c>
       <c r="B403" t="s" s="1">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="C403" t="s" s="1">
         <v>5</v>
@@ -7343,10 +7370,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="1">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B404" t="s" s="1">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C404" t="s" s="1">
         <v>5</v>
@@ -7354,10 +7381,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="1">
-        <v>536</v>
+        <v>310</v>
       </c>
       <c r="B405" t="s" s="1">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="C405" t="s" s="1">
         <v>5</v>
@@ -7365,32 +7392,32 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="1">
-        <v>479</v>
+        <v>132</v>
       </c>
       <c r="B406" t="s" s="1">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="C406" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s" s="1">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B407" t="s" s="1">
-        <v>625</v>
+        <v>72</v>
       </c>
       <c r="C407" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s" s="1">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="B408" t="s" s="1">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="C408" t="s" s="1">
         <v>5</v>
@@ -7398,10 +7425,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="1">
-        <v>252</v>
+        <v>428</v>
       </c>
       <c r="B409" t="s" s="1">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="C409" t="s" s="1">
         <v>5</v>
@@ -7409,21 +7436,21 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="1">
-        <v>242</v>
+        <v>362</v>
       </c>
       <c r="B410" t="s" s="1">
-        <v>295</v>
+        <v>116</v>
       </c>
       <c r="C410" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="1">
-        <v>222</v>
+        <v>519</v>
       </c>
       <c r="B411" t="s" s="1">
-        <v>349</v>
+        <v>84</v>
       </c>
       <c r="C411" t="s" s="1">
         <v>5</v>
@@ -7431,10 +7458,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="1">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B412" t="s" s="1">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C412" t="s" s="1">
         <v>5</v>
@@ -7442,10 +7469,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="1">
-        <v>397</v>
+        <v>547</v>
       </c>
       <c r="B413" t="s" s="1">
-        <v>504</v>
+        <v>23</v>
       </c>
       <c r="C413" t="s" s="1">
         <v>271</v>
@@ -7453,10 +7480,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="1">
-        <v>410</v>
+        <v>175</v>
       </c>
       <c r="B414" t="s" s="1">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C414" t="s" s="1">
         <v>271</v>
@@ -7464,21 +7491,21 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="1">
-        <v>108</v>
+        <v>556</v>
       </c>
       <c r="B415" t="s" s="1">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="C415" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s" s="1">
-        <v>309</v>
+        <v>213</v>
       </c>
       <c r="B416" t="s" s="1">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C416" t="s" s="1">
         <v>5</v>
@@ -7486,32 +7513,32 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="1">
-        <v>444</v>
+        <v>246</v>
       </c>
       <c r="B417" t="s" s="1">
-        <v>267</v>
+        <v>7</v>
       </c>
       <c r="C417" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s" s="1">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="B418" t="s" s="1">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="C418" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s" s="1">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="B419" t="s" s="1">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C419" t="s" s="1">
         <v>5</v>
@@ -7519,43 +7546,43 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="1">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="B420" t="s" s="1">
-        <v>52</v>
+        <v>587</v>
       </c>
       <c r="C420" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s" s="1">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="B421" t="s" s="1">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C421" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s" s="1">
-        <v>454</v>
+        <v>216</v>
       </c>
       <c r="B422" t="s" s="1">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C422" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s" s="1">
-        <v>217</v>
+        <v>464</v>
       </c>
       <c r="B423" t="s" s="1">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="C423" t="s" s="1">
         <v>5</v>
@@ -7563,21 +7590,21 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="1">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="B424" t="s" s="1">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="C424" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s" s="1">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="B425" t="s" s="1">
-        <v>626</v>
+        <v>15</v>
       </c>
       <c r="C425" t="s" s="1">
         <v>5</v>
@@ -7585,21 +7612,21 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="1">
-        <v>464</v>
+        <v>366</v>
       </c>
       <c r="B426" t="s" s="1">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="C426" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s" s="1">
-        <v>361</v>
+        <v>580</v>
       </c>
       <c r="B427" t="s" s="1">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="C427" t="s" s="1">
         <v>5</v>
@@ -7607,10 +7634,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="1">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="B428" t="s" s="1">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="C428" t="s" s="1">
         <v>5</v>
@@ -7618,10 +7645,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="1">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="B429" t="s" s="1">
-        <v>289</v>
+        <v>72</v>
       </c>
       <c r="C429" t="s" s="1">
         <v>5</v>
@@ -7629,10 +7656,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="1">
-        <v>505</v>
+        <v>154</v>
       </c>
       <c r="B430" t="s" s="1">
-        <v>383</v>
+        <v>66</v>
       </c>
       <c r="C430" t="s" s="1">
         <v>5</v>
@@ -7640,10 +7667,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="1">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="B431" t="s" s="1">
-        <v>38</v>
+        <v>329</v>
       </c>
       <c r="C431" t="s" s="1">
         <v>5</v>
@@ -7651,21 +7678,21 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="1">
-        <v>371</v>
+        <v>572</v>
       </c>
       <c r="B432" t="s" s="1">
-        <v>101</v>
+        <v>634</v>
       </c>
       <c r="C432" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s" s="1">
-        <v>519</v>
+        <v>44</v>
       </c>
       <c r="B433" t="s" s="1">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="C433" t="s" s="1">
         <v>5</v>
@@ -7673,10 +7700,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="1">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="B434" t="s" s="1">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="C434" t="s" s="1">
         <v>5</v>
@@ -7684,10 +7711,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="1">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="B435" t="s" s="1">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C435" t="s" s="1">
         <v>5</v>
@@ -7695,10 +7722,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="1">
-        <v>123</v>
+        <v>466</v>
       </c>
       <c r="B436" t="s" s="1">
-        <v>276</v>
+        <v>57</v>
       </c>
       <c r="C436" t="s" s="1">
         <v>5</v>
@@ -7706,10 +7733,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="1">
-        <v>509</v>
+        <v>179</v>
       </c>
       <c r="B437" t="s" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C437" t="s" s="1">
         <v>5</v>
@@ -7717,10 +7744,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="1">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="B438" t="s" s="1">
-        <v>313</v>
+        <v>34</v>
       </c>
       <c r="C438" t="s" s="1">
         <v>5</v>
@@ -7728,10 +7755,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="1">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="B439" t="s" s="1">
-        <v>617</v>
+        <v>267</v>
       </c>
       <c r="C439" t="s" s="1">
         <v>5</v>
@@ -7739,7 +7766,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="1">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="B440" t="s" s="1">
         <v>27</v>
@@ -7750,21 +7777,21 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="1">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="B441" t="s" s="1">
-        <v>111</v>
+        <v>355</v>
       </c>
       <c r="C441" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s" s="1">
-        <v>428</v>
+        <v>217</v>
       </c>
       <c r="B442" t="s" s="1">
-        <v>281</v>
+        <v>533</v>
       </c>
       <c r="C442" t="s" s="1">
         <v>5</v>
@@ -7772,10 +7799,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="1">
-        <v>621</v>
+        <v>334</v>
       </c>
       <c r="B443" t="s" s="1">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="C443" t="s" s="1">
         <v>271</v>
@@ -7783,10 +7810,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="1">
-        <v>308</v>
+        <v>413</v>
       </c>
       <c r="B444" t="s" s="1">
-        <v>529</v>
+        <v>13</v>
       </c>
       <c r="C444" t="s" s="1">
         <v>5</v>
@@ -7794,10 +7821,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="1">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="B445" t="s" s="1">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C445" t="s" s="1">
         <v>5</v>
@@ -7805,10 +7832,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="1">
-        <v>318</v>
+        <v>154</v>
       </c>
       <c r="B446" t="s" s="1">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C446" t="s" s="1">
         <v>5</v>
@@ -7816,10 +7843,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="1">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="B447" t="s" s="1">
-        <v>289</v>
+        <v>390</v>
       </c>
       <c r="C447" t="s" s="1">
         <v>5</v>
@@ -7827,10 +7854,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="1">
-        <v>600</v>
+        <v>371</v>
       </c>
       <c r="B448" t="s" s="1">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C448" t="s" s="1">
         <v>5</v>
@@ -7838,10 +7865,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="1">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="B449" t="s" s="1">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="C449" t="s" s="1">
         <v>5</v>
@@ -7849,10 +7876,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="1">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="B450" t="s" s="1">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="C450" t="s" s="1">
         <v>5</v>
@@ -7860,10 +7887,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="1">
-        <v>309</v>
+        <v>447</v>
       </c>
       <c r="B451" t="s" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C451" t="s" s="1">
         <v>5</v>
@@ -7871,10 +7898,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="1">
-        <v>555</v>
+        <v>222</v>
       </c>
       <c r="B452" t="s" s="1">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="C452" t="s" s="1">
         <v>5</v>
@@ -7882,10 +7909,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="1">
-        <v>417</v>
+        <v>318</v>
       </c>
       <c r="B453" t="s" s="1">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C453" t="s" s="1">
         <v>5</v>
@@ -7893,10 +7920,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="1">
-        <v>248</v>
+        <v>358</v>
       </c>
       <c r="B454" t="s" s="1">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C454" t="s" s="1">
         <v>5</v>
@@ -7904,10 +7931,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="1">
-        <v>113</v>
+        <v>477</v>
       </c>
       <c r="B455" t="s" s="1">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C455" t="s" s="1">
         <v>5</v>
@@ -7915,10 +7942,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="1">
-        <v>150</v>
+        <v>610</v>
       </c>
       <c r="B456" t="s" s="1">
-        <v>281</v>
+        <v>589</v>
       </c>
       <c r="C456" t="s" s="1">
         <v>5</v>
@@ -7926,10 +7953,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="1">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B457" t="s" s="1">
-        <v>443</v>
+        <v>301</v>
       </c>
       <c r="C457" t="s" s="1">
         <v>5</v>
@@ -7937,10 +7964,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="1">
-        <v>259</v>
+        <v>505</v>
       </c>
       <c r="B458" t="s" s="1">
-        <v>267</v>
+        <v>529</v>
       </c>
       <c r="C458" t="s" s="1">
         <v>5</v>
@@ -7948,10 +7975,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="1">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="B459" t="s" s="1">
-        <v>267</v>
+        <v>535</v>
       </c>
       <c r="C459" t="s" s="1">
         <v>5</v>
@@ -7959,10 +7986,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="1">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B460" t="s" s="1">
-        <v>390</v>
+        <v>69</v>
       </c>
       <c r="C460" t="s" s="1">
         <v>5</v>
@@ -7970,10 +7997,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="1">
-        <v>97</v>
+        <v>413</v>
       </c>
       <c r="B461" t="s" s="1">
-        <v>69</v>
+        <v>286</v>
       </c>
       <c r="C461" t="s" s="1">
         <v>5</v>
@@ -7981,10 +8008,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="1">
-        <v>172</v>
+        <v>428</v>
       </c>
       <c r="B462" t="s" s="1">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="C462" t="s" s="1">
         <v>5</v>
@@ -7992,10 +8019,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="1">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B463" t="s" s="1">
-        <v>27</v>
+        <v>632</v>
       </c>
       <c r="C463" t="s" s="1">
         <v>5</v>
@@ -8003,43 +8030,43 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="1">
-        <v>466</v>
+        <v>132</v>
       </c>
       <c r="B464" t="s" s="1">
-        <v>274</v>
+        <v>69</v>
       </c>
       <c r="C464" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s" s="1">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="B465" t="s" s="1">
-        <v>585</v>
+        <v>84</v>
       </c>
       <c r="C465" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s" s="1">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="B466" t="s" s="1">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C466" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s" s="1">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="B467" t="s" s="1">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="C467" t="s" s="1">
         <v>5</v>
@@ -8047,10 +8074,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="1">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="B468" t="s" s="1">
-        <v>390</v>
+        <v>38</v>
       </c>
       <c r="C468" t="s" s="1">
         <v>5</v>
@@ -8058,10 +8085,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="1">
-        <v>87</v>
+        <v>444</v>
       </c>
       <c r="B469" t="s" s="1">
-        <v>545</v>
+        <v>267</v>
       </c>
       <c r="C469" t="s" s="1">
         <v>5</v>
@@ -8069,21 +8096,21 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="1">
-        <v>144</v>
+        <v>454</v>
       </c>
       <c r="B470" t="s" s="1">
         <v>27</v>
       </c>
       <c r="C470" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s" s="1">
-        <v>523</v>
+        <v>119</v>
       </c>
       <c r="B471" t="s" s="1">
-        <v>273</v>
+        <v>60</v>
       </c>
       <c r="C471" t="s" s="1">
         <v>5</v>
@@ -8091,10 +8118,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="1">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="B472" t="s" s="1">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="C472" t="s" s="1">
         <v>5</v>
@@ -8102,10 +8129,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="1">
-        <v>218</v>
+        <v>310</v>
       </c>
       <c r="B473" t="s" s="1">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C473" t="s" s="1">
         <v>5</v>
@@ -8113,10 +8140,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="1">
-        <v>261</v>
+        <v>430</v>
       </c>
       <c r="B474" t="s" s="1">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="C474" t="s" s="1">
         <v>5</v>
@@ -8124,10 +8151,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="1">
-        <v>536</v>
+        <v>184</v>
       </c>
       <c r="B475" t="s" s="1">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c r="C475" t="s" s="1">
         <v>5</v>
@@ -8135,10 +8162,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="1">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="B476" t="s" s="1">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="C476" t="s" s="1">
         <v>5</v>
@@ -8146,10 +8173,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="1">
-        <v>162</v>
+        <v>495</v>
       </c>
       <c r="B477" t="s" s="1">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="C477" t="s" s="1">
         <v>5</v>
@@ -8157,10 +8184,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="1">
-        <v>213</v>
+        <v>466</v>
       </c>
       <c r="B478" t="s" s="1">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="C478" t="s" s="1">
         <v>5</v>
@@ -8168,10 +8195,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="1">
-        <v>444</v>
+        <v>218</v>
       </c>
       <c r="B479" t="s" s="1">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="C479" t="s" s="1">
         <v>5</v>
@@ -8179,10 +8206,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="1">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B480" t="s" s="1">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C480" t="s" s="1">
         <v>5</v>
@@ -8190,10 +8217,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="1">
-        <v>191</v>
+        <v>308</v>
       </c>
       <c r="B481" t="s" s="1">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="C481" t="s" s="1">
         <v>5</v>
@@ -8201,10 +8228,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="1">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="B482" t="s" s="1">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C482" t="s" s="1">
         <v>5</v>
@@ -8212,10 +8239,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="1">
-        <v>480</v>
+        <v>153</v>
       </c>
       <c r="B483" t="s" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C483" t="s" s="1">
         <v>5</v>
@@ -8223,10 +8250,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="1">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="B484" t="s" s="1">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="C484" t="s" s="1">
         <v>5</v>
@@ -8234,10 +8261,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="1">
-        <v>257</v>
+        <v>150</v>
       </c>
       <c r="B485" t="s" s="1">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="C485" t="s" s="1">
         <v>5</v>
@@ -8245,10 +8272,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="1">
-        <v>148</v>
+        <v>378</v>
       </c>
       <c r="B486" t="s" s="1">
-        <v>60</v>
+        <v>289</v>
       </c>
       <c r="C486" t="s" s="1">
         <v>5</v>
@@ -8256,10 +8283,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="1">
-        <v>495</v>
+        <v>315</v>
       </c>
       <c r="B487" t="s" s="1">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="C487" t="s" s="1">
         <v>5</v>
@@ -8267,7 +8294,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="1">
-        <v>315</v>
+        <v>97</v>
       </c>
       <c r="B488" t="s" s="1">
         <v>283</v>
@@ -8278,10 +8305,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="1">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B489" t="s" s="1">
-        <v>45</v>
+        <v>527</v>
       </c>
       <c r="C489" t="s" s="1">
         <v>5</v>
@@ -8289,32 +8316,32 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="1">
-        <v>188</v>
+        <v>420</v>
       </c>
       <c r="B490" t="s" s="1">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C490" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s" s="1">
-        <v>402</v>
+        <v>146</v>
       </c>
       <c r="B491" t="s" s="1">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="C491" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s" s="1">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B492" t="s" s="1">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C492" t="s" s="1">
         <v>5</v>
@@ -8322,10 +8349,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="1">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="B493" t="s" s="1">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="C493" t="s" s="1">
         <v>5</v>
@@ -8333,10 +8360,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="1">
-        <v>433</v>
+        <v>361</v>
       </c>
       <c r="B494" t="s" s="1">
-        <v>304</v>
+        <v>66</v>
       </c>
       <c r="C494" t="s" s="1">
         <v>5</v>
@@ -8344,10 +8371,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="1">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="B495" t="s" s="1">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C495" t="s" s="1">
         <v>5</v>
@@ -8355,10 +8382,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="1">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="B496" t="s" s="1">
-        <v>25</v>
+        <v>286</v>
       </c>
       <c r="C496" t="s" s="1">
         <v>5</v>
@@ -8366,10 +8393,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s" s="1">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="B497" t="s" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C497" t="s" s="1">
         <v>5</v>
@@ -8377,10 +8404,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="1">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="B498" t="s" s="1">
-        <v>373</v>
+        <v>72</v>
       </c>
       <c r="C498" t="s" s="1">
         <v>5</v>
@@ -8388,10 +8415,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="1">
-        <v>354</v>
+        <v>14</v>
       </c>
       <c r="B499" t="s" s="1">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C499" t="s" s="1">
         <v>5</v>
@@ -8399,21 +8426,21 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="1">
-        <v>222</v>
+        <v>342</v>
       </c>
       <c r="B500" t="s" s="1">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="C500" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s" s="1">
-        <v>466</v>
+        <v>621</v>
       </c>
       <c r="B501" t="s" s="1">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="C501" t="s" s="1">
         <v>5</v>
@@ -8421,10 +8448,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="1">
-        <v>113</v>
+        <v>433</v>
       </c>
       <c r="B502" t="s" s="1">
-        <v>626</v>
+        <v>276</v>
       </c>
       <c r="C502" t="s" s="1">
         <v>5</v>
@@ -8432,10 +8459,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="1">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="B503" t="s" s="1">
-        <v>72</v>
+        <v>355</v>
       </c>
       <c r="C503" t="s" s="1">
         <v>5</v>
@@ -8443,10 +8470,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s" s="1">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="B504" t="s" s="1">
-        <v>284</v>
+        <v>517</v>
       </c>
       <c r="C504" t="s" s="1">
         <v>5</v>
@@ -8457,7 +8484,7 @@
         <v>326</v>
       </c>
       <c r="B505" t="s" s="1">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="C505" t="s" s="1">
         <v>5</v>
@@ -8465,10 +8492,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="1">
-        <v>146</v>
+        <v>509</v>
       </c>
       <c r="B506" t="s" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C506" t="s" s="1">
         <v>5</v>
@@ -8476,21 +8503,21 @@
     </row>
     <row r="507">
       <c r="A507" t="s" s="1">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="B507" t="s" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C507" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s" s="1">
-        <v>123</v>
+        <v>580</v>
       </c>
       <c r="B508" t="s" s="1">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="C508" t="s" s="1">
         <v>5</v>
@@ -8498,21 +8525,21 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="1">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="B509" t="s" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C509" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s" s="1">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="B510" t="s" s="1">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C510" t="s" s="1">
         <v>5</v>
@@ -8520,10 +8547,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="1">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="B511" t="s" s="1">
-        <v>390</v>
+        <v>281</v>
       </c>
       <c r="C511" t="s" s="1">
         <v>5</v>
@@ -8531,10 +8558,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="1">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="B512" t="s" s="1">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="C512" t="s" s="1">
         <v>5</v>
@@ -8542,10 +8569,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s" s="1">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="B513" t="s" s="1">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="C513" t="s" s="1">
         <v>5</v>
@@ -8553,10 +8580,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="1">
-        <v>444</v>
+        <v>217</v>
       </c>
       <c r="B514" t="s" s="1">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C514" t="s" s="1">
         <v>5</v>
@@ -8564,10 +8591,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="1">
-        <v>600</v>
+        <v>536</v>
       </c>
       <c r="B515" t="s" s="1">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C515" t="s" s="1">
         <v>5</v>
@@ -8575,10 +8602,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="1">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B516" t="s" s="1">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="C516" t="s" s="1">
         <v>5</v>
@@ -8586,10 +8613,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="1">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="B517" t="s" s="1">
-        <v>13</v>
+        <v>544</v>
       </c>
       <c r="C517" t="s" s="1">
         <v>5</v>
@@ -8597,7 +8624,7 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="1">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="B518" t="s" s="1">
         <v>27</v>
@@ -8608,10 +8635,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="1">
-        <v>318</v>
+        <v>473</v>
       </c>
       <c r="B519" t="s" s="1">
-        <v>524</v>
+        <v>11</v>
       </c>
       <c r="C519" t="s" s="1">
         <v>5</v>
@@ -8619,21 +8646,21 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="1">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B520" t="s" s="1">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="C520" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="s" s="1">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="B521" t="s" s="1">
-        <v>34</v>
+        <v>267</v>
       </c>
       <c r="C521" t="s" s="1">
         <v>5</v>
@@ -8641,10 +8668,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="1">
-        <v>480</v>
+        <v>417</v>
       </c>
       <c r="B522" t="s" s="1">
-        <v>38</v>
+        <v>535</v>
       </c>
       <c r="C522" t="s" s="1">
         <v>5</v>
@@ -8652,10 +8679,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="1">
-        <v>447</v>
+        <v>138</v>
       </c>
       <c r="B523" t="s" s="1">
-        <v>7</v>
+        <v>390</v>
       </c>
       <c r="C523" t="s" s="1">
         <v>5</v>
@@ -8663,10 +8690,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="1">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B524" t="s" s="1">
-        <v>527</v>
+        <v>267</v>
       </c>
       <c r="C524" t="s" s="1">
         <v>5</v>
@@ -8674,10 +8701,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="1">
-        <v>252</v>
+        <v>87</v>
       </c>
       <c r="B525" t="s" s="1">
-        <v>282</v>
+        <v>15</v>
       </c>
       <c r="C525" t="s" s="1">
         <v>5</v>
@@ -8685,10 +8712,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s" s="1">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B526" t="s" s="1">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="C526" t="s" s="1">
         <v>5</v>
@@ -8696,10 +8723,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="1">
-        <v>371</v>
+        <v>481</v>
       </c>
       <c r="B527" t="s" s="1">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C527" t="s" s="1">
         <v>5</v>
@@ -8707,7 +8734,7 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="1">
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="B528" t="s" s="1">
         <v>111</v>
@@ -8718,10 +8745,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="1">
-        <v>536</v>
+        <v>162</v>
       </c>
       <c r="B529" t="s" s="1">
-        <v>66</v>
+        <v>285</v>
       </c>
       <c r="C529" t="s" s="1">
         <v>5</v>
@@ -8729,10 +8756,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="1">
-        <v>309</v>
+        <v>555</v>
       </c>
       <c r="B530" t="s" s="1">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="C530" t="s" s="1">
         <v>5</v>
@@ -8740,10 +8767,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="1">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B531" t="s" s="1">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C531" t="s" s="1">
         <v>5</v>
@@ -8751,10 +8778,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="1">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B532" t="s" s="1">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C532" t="s" s="1">
         <v>5</v>
@@ -8762,10 +8789,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="1">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B533" t="s" s="1">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="C533" t="s" s="1">
         <v>5</v>
@@ -8773,10 +8800,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="1">
-        <v>358</v>
+        <v>476</v>
       </c>
       <c r="B534" t="s" s="1">
-        <v>34</v>
+        <v>494</v>
       </c>
       <c r="C534" t="s" s="1">
         <v>5</v>
@@ -8784,10 +8811,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="1">
-        <v>519</v>
+        <v>211</v>
       </c>
       <c r="B535" t="s" s="1">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C535" t="s" s="1">
         <v>5</v>
@@ -8795,10 +8822,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="1">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="B536" t="s" s="1">
-        <v>4</v>
+        <v>340</v>
       </c>
       <c r="C536" t="s" s="1">
         <v>5</v>
@@ -8806,10 +8833,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="1">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="B537" t="s" s="1">
-        <v>284</v>
+        <v>111</v>
       </c>
       <c r="C537" t="s" s="1">
         <v>5</v>
@@ -8817,10 +8844,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="1">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B538" t="s" s="1">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C538" t="s" s="1">
         <v>5</v>
@@ -8828,10 +8855,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="1">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="B539" t="s" s="1">
-        <v>27</v>
+        <v>286</v>
       </c>
       <c r="C539" t="s" s="1">
         <v>5</v>
@@ -8839,12 +8866,452 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="1">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="B540" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C540" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B541" t="s" s="1">
+        <v>617</v>
+      </c>
+      <c r="C541" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="B542" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C542" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B543" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C543" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B544" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C544" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="B545" t="s" s="1">
+        <v>460</v>
+      </c>
+      <c r="C545" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="B546" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C546" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="1">
+        <v>151</v>
+      </c>
+      <c r="B547" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C547" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B548" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="C540" t="s" s="1">
+      <c r="C548" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B549" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C549" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B550" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C550" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="B551" t="s" s="1">
+        <v>635</v>
+      </c>
+      <c r="C551" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="B552" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C552" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B553" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C553" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B554" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C554" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B555" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C555" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="B556" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C556" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="1">
+        <v>153</v>
+      </c>
+      <c r="B557" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C557" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s" s="1">
+        <v>476</v>
+      </c>
+      <c r="B558" t="s" s="1">
+        <v>494</v>
+      </c>
+      <c r="C558" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="B559" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C559" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B560" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C560" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B561" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C561" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B562" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C562" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="B563" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C563" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s" s="1">
+        <v>555</v>
+      </c>
+      <c r="B564" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C564" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="B565" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C565" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="B566" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C566" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="B567" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C567" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="B568" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C568" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B569" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C569" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="B570" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C570" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B571" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C571" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B572" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C572" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s" s="1">
+        <v>481</v>
+      </c>
+      <c r="B573" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C573" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B574" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="C574" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="B575" t="s" s="1">
+        <v>369</v>
+      </c>
+      <c r="C575" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s" s="1">
+        <v>610</v>
+      </c>
+      <c r="B576" t="s" s="1">
+        <v>311</v>
+      </c>
+      <c r="C576" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="B577" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C577" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="B578" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C578" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B579" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C579" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B580" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C580" t="s" s="1">
         <v>5</v>
       </c>
     </row>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11679" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12849" uniqueCount="667">
   <si>
     <t>Firm</t>
   </si>
@@ -1936,6 +1936,99 @@
   </si>
   <si>
     <t>03min 52s</t>
+  </si>
+  <si>
+    <t>Fangda Partners</t>
+  </si>
+  <si>
+    <t>Paul Hastings</t>
+  </si>
+  <si>
+    <t>Payet Rey Cauvi Pérez</t>
+  </si>
+  <si>
+    <t>Covington And Burling LLP</t>
+  </si>
+  <si>
+    <t>McDermott Will And Emery</t>
+  </si>
+  <si>
+    <t>Poulschmith</t>
+  </si>
+  <si>
+    <t>Simmons And Simmons</t>
+  </si>
+  <si>
+    <t>02min 22s</t>
+  </si>
+  <si>
+    <t>Spruson And Ferguson</t>
+  </si>
+  <si>
+    <t>Davis Polk And Wardwell</t>
+  </si>
+  <si>
+    <t>03min 10s</t>
+  </si>
+  <si>
+    <t>Deeth Williams Wall</t>
+  </si>
+  <si>
+    <t>Knijff</t>
+  </si>
+  <si>
+    <t>Goodwin</t>
+  </si>
+  <si>
+    <t>Debevoise And Plimpton</t>
+  </si>
+  <si>
+    <t>Jalsovszky</t>
+  </si>
+  <si>
+    <t>DCC Law</t>
+  </si>
+  <si>
+    <t>02min 54s</t>
+  </si>
+  <si>
+    <t>Franklin Law</t>
+  </si>
+  <si>
+    <t>Stibbe</t>
+  </si>
+  <si>
+    <t>Hellström</t>
+  </si>
+  <si>
+    <t>02min 43s</t>
+  </si>
+  <si>
+    <t>Clifford Chance</t>
+  </si>
+  <si>
+    <t>03min 56s</t>
+  </si>
+  <si>
+    <t>Melling Voitishkin And Partners</t>
+  </si>
+  <si>
+    <t>Al Tamimi</t>
+  </si>
+  <si>
+    <t>03min 19s</t>
+  </si>
+  <si>
+    <t>02min 02s</t>
+  </si>
+  <si>
+    <t>Allens</t>
+  </si>
+  <si>
+    <t>01min 50s</t>
+  </si>
+  <si>
+    <t>Szecskay</t>
   </si>
 </sst>
 </file>
@@ -2923,7 +3016,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C580"/>
+  <dimension ref="A1:C391"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -2948,10 +3041,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s" s="1">
         <v>271</v>
@@ -2959,10 +3052,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>235</v>
+        <v>568</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s" s="1">
         <v>271</v>
@@ -2970,10 +3063,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>227</v>
+        <v>388</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>533</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s" s="1">
         <v>271</v>
@@ -2981,10 +3074,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s" s="1">
         <v>271</v>
@@ -2992,10 +3085,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>396</v>
+        <v>556</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>603</v>
+        <v>542</v>
       </c>
       <c r="C6" t="s" s="1">
         <v>271</v>
@@ -3003,10 +3096,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>468</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s" s="1">
         <v>271</v>
@@ -3014,65 +3107,65 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>518</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>84</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>575</v>
+        <v>450</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s" s="1">
         <v>271</v>
@@ -3080,10 +3173,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>283</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s" s="1">
         <v>271</v>
@@ -3091,10 +3184,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>378</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="C15" t="s" s="1">
         <v>5</v>
@@ -3102,32 +3195,32 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>471</v>
+        <v>636</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
-        <v>522</v>
+        <v>637</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
-        <v>215</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>373</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s" s="1">
         <v>271</v>
@@ -3135,32 +3228,32 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
-        <v>87</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>499</v>
+        <v>285</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
-        <v>464</v>
+        <v>638</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C20" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s" s="1">
         <v>271</v>
@@ -3168,21 +3261,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
-        <v>207</v>
+        <v>393</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>438</v>
+        <v>276</v>
       </c>
       <c r="C22" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
-        <v>33</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s" s="1">
         <v>271</v>
@@ -3190,10 +3283,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
-        <v>97</v>
+        <v>358</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s" s="1">
         <v>5</v>
@@ -3201,10 +3294,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>533</v>
+        <v>275</v>
       </c>
       <c r="C25" t="s" s="1">
         <v>271</v>
@@ -3212,10 +3305,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s" s="1">
         <v>5</v>
@@ -3223,10 +3316,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
-        <v>309</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>38</v>
+        <v>601</v>
       </c>
       <c r="C27" t="s" s="1">
         <v>5</v>
@@ -3234,21 +3327,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
-        <v>306</v>
+        <v>580</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="C28" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
-        <v>583</v>
+        <v>234</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>57</v>
+        <v>284</v>
       </c>
       <c r="C29" t="s" s="1">
         <v>271</v>
@@ -3256,7 +3349,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s" s="1">
         <v>373</v>
@@ -3267,10 +3360,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s" s="1">
         <v>271</v>
@@ -3278,43 +3371,43 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
-        <v>190</v>
+        <v>621</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>375</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="1">
-        <v>382</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="1">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s" s="1">
         <v>271</v>
@@ -3322,10 +3415,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="1">
-        <v>122</v>
+        <v>639</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>627</v>
+        <v>451</v>
       </c>
       <c r="C36" t="s" s="1">
         <v>5</v>
@@ -3333,10 +3426,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="1">
-        <v>446</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="C37" t="s" s="1">
         <v>271</v>
@@ -3344,109 +3437,109 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="1">
-        <v>14</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>275</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="1">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="1">
-        <v>477</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="1">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="1">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="1">
-        <v>140</v>
+        <v>480</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="1">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>443</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
-        <v>193</v>
+        <v>572</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>19</v>
+        <v>586</v>
       </c>
       <c r="C45" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="1">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C46" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>503</v>
+        <v>640</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>66</v>
+        <v>406</v>
       </c>
       <c r="C47" t="s" s="1">
         <v>271</v>
@@ -3454,21 +3547,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="1">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>107</v>
+        <v>489</v>
       </c>
       <c r="C48" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="1">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s" s="1">
         <v>271</v>
@@ -3476,10 +3569,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="1">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s" s="1">
         <v>5</v>
@@ -3487,10 +3580,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="1">
-        <v>543</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>542</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s" s="1">
         <v>271</v>
@@ -3498,21 +3591,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>98</v>
+        <v>438</v>
       </c>
       <c r="C52" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="1">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s" s="1">
         <v>271</v>
@@ -3520,21 +3613,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="1">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="C54" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
-        <v>452</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>275</v>
+        <v>451</v>
       </c>
       <c r="C55" t="s" s="1">
         <v>271</v>
@@ -3542,10 +3635,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
-        <v>88</v>
+        <v>346</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>283</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s" s="1">
         <v>271</v>
@@ -3553,10 +3646,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>287</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s" s="1">
         <v>271</v>
@@ -3564,21 +3657,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
-        <v>220</v>
+        <v>518</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="C59" t="s" s="1">
         <v>271</v>
@@ -3586,32 +3679,32 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
-        <v>115</v>
+        <v>503</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C60" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>287</v>
+        <v>527</v>
       </c>
       <c r="C61" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s" s="1">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="C62" t="s" s="1">
         <v>5</v>
@@ -3619,10 +3712,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="B63" t="s" s="1">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s" s="1">
         <v>271</v>
@@ -3630,10 +3723,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>521</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s" s="1">
-        <v>542</v>
+        <v>313</v>
       </c>
       <c r="C64" t="s" s="1">
         <v>271</v>
@@ -3641,32 +3734,32 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
-        <v>379</v>
+        <v>242</v>
       </c>
       <c r="B65" t="s" s="1">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="1">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s" s="1">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="C66" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B67" t="s" s="1">
-        <v>4</v>
+        <v>276</v>
       </c>
       <c r="C67" t="s" s="1">
         <v>5</v>
@@ -3674,10 +3767,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
-        <v>578</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s" s="1">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s" s="1">
         <v>271</v>
@@ -3685,21 +3778,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s" s="1">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="B70" t="s" s="1">
-        <v>13</v>
+        <v>280</v>
       </c>
       <c r="C70" t="s" s="1">
         <v>5</v>
@@ -3707,43 +3800,43 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>314</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s" s="1">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="C71" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s" s="1">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c r="C72" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
-        <v>565</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s" s="1">
-        <v>69</v>
+        <v>597</v>
       </c>
       <c r="C73" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="B74" t="s" s="1">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="C74" t="s" s="1">
         <v>271</v>
@@ -3751,10 +3844,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>239</v>
+        <v>620</v>
       </c>
       <c r="B75" t="s" s="1">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C75" t="s" s="1">
         <v>271</v>
@@ -3762,43 +3855,43 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
-        <v>354</v>
+        <v>641</v>
       </c>
       <c r="B76" t="s" s="1">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="C76" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="B77" t="s" s="1">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C77" t="s" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="B78" t="s" s="1">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>158</v>
+        <v>642</v>
       </c>
       <c r="B79" t="s" s="1">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C79" t="s" s="1">
         <v>5</v>
@@ -3806,21 +3899,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
-        <v>154</v>
+        <v>400</v>
       </c>
       <c r="B80" t="s" s="1">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="1">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s" s="1">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C81" t="s" s="1">
         <v>271</v>
@@ -3828,43 +3921,43 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="1">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B82" t="s" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
-        <v>420</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s" s="1">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="C83" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="B84" t="s" s="1">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
-        <v>256</v>
+        <v>394</v>
       </c>
       <c r="B85" t="s" s="1">
-        <v>628</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s" s="1">
         <v>271</v>
@@ -3872,10 +3965,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="1">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="B86" t="s" s="1">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="C86" t="s" s="1">
         <v>271</v>
@@ -3883,10 +3976,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="B87" t="s" s="1">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s" s="1">
         <v>271</v>
@@ -3894,10 +3987,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="1">
-        <v>377</v>
+        <v>233</v>
       </c>
       <c r="B88" t="s" s="1">
-        <v>4</v>
+        <v>275</v>
       </c>
       <c r="C88" t="s" s="1">
         <v>271</v>
@@ -3905,10 +3998,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="1">
-        <v>561</v>
+        <v>256</v>
       </c>
       <c r="B89" t="s" s="1">
-        <v>23</v>
+        <v>398</v>
       </c>
       <c r="C89" t="s" s="1">
         <v>271</v>
@@ -3916,21 +4009,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="1">
-        <v>436</v>
+        <v>219</v>
       </c>
       <c r="B90" t="s" s="1">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="C90" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="1">
-        <v>391</v>
+        <v>310</v>
       </c>
       <c r="B91" t="s" s="1">
-        <v>284</v>
+        <v>443</v>
       </c>
       <c r="C91" t="s" s="1">
         <v>271</v>
@@ -3938,21 +4031,21 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="1">
-        <v>465</v>
+        <v>536</v>
       </c>
       <c r="B92" t="s" s="1">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="1">
-        <v>429</v>
+        <v>578</v>
       </c>
       <c r="B93" t="s" s="1">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s" s="1">
         <v>271</v>
@@ -3960,7 +4053,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="1">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="B94" t="s" s="1">
         <v>284</v>
@@ -3971,10 +4064,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="1">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="B95" t="s" s="1">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c r="C95" t="s" s="1">
         <v>271</v>
@@ -3982,10 +4075,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="1">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B96" t="s" s="1">
-        <v>375</v>
+        <v>284</v>
       </c>
       <c r="C96" t="s" s="1">
         <v>271</v>
@@ -3993,21 +4086,21 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="1">
-        <v>560</v>
+        <v>218</v>
       </c>
       <c r="B97" t="s" s="1">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="1">
-        <v>113</v>
+        <v>519</v>
       </c>
       <c r="B98" t="s" s="1">
-        <v>520</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s" s="1">
         <v>5</v>
@@ -4015,10 +4108,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="1">
-        <v>368</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s" s="1">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C99" t="s" s="1">
         <v>271</v>
@@ -4026,10 +4119,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="1">
-        <v>478</v>
+        <v>577</v>
       </c>
       <c r="B100" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C100" t="s" s="1">
         <v>271</v>
@@ -4037,10 +4130,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="1">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="B101" t="s" s="1">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s" s="1">
         <v>271</v>
@@ -4048,43 +4141,43 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="1">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B102" t="s" s="1">
-        <v>72</v>
+        <v>275</v>
       </c>
       <c r="C102" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="1">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103" t="s" s="1">
-        <v>76</v>
+        <v>643</v>
       </c>
       <c r="C103" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="1">
-        <v>610</v>
+        <v>59</v>
       </c>
       <c r="B104" t="s" s="1">
-        <v>109</v>
+        <v>443</v>
       </c>
       <c r="C104" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="1">
-        <v>303</v>
+        <v>401</v>
       </c>
       <c r="B105" t="s" s="1">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C105" t="s" s="1">
         <v>271</v>
@@ -4092,10 +4185,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="1">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="B106" t="s" s="1">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C106" t="s" s="1">
         <v>271</v>
@@ -4103,98 +4196,98 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="1">
-        <v>152</v>
+        <v>557</v>
       </c>
       <c r="B107" t="s" s="1">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="C107" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="1">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="B108" t="s" s="1">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="C108" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="1">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="B109" t="s" s="1">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="1">
-        <v>569</v>
+        <v>495</v>
       </c>
       <c r="B110" t="s" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C110" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="1">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B111" t="s" s="1">
-        <v>34</v>
+        <v>278</v>
       </c>
       <c r="C111" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="1">
-        <v>568</v>
+        <v>39</v>
       </c>
       <c r="B112" t="s" s="1">
-        <v>281</v>
+        <v>545</v>
       </c>
       <c r="C112" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="1">
-        <v>473</v>
+        <v>74</v>
       </c>
       <c r="B113" t="s" s="1">
-        <v>38</v>
+        <v>406</v>
       </c>
       <c r="C113" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="1">
-        <v>466</v>
+        <v>199</v>
       </c>
       <c r="B114" t="s" s="1">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="C114" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="1">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="B115" t="s" s="1">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="C115" t="s" s="1">
         <v>271</v>
@@ -4202,10 +4295,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="1">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="B116" t="s" s="1">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C116" t="s" s="1">
         <v>271</v>
@@ -4213,43 +4306,43 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="1">
-        <v>581</v>
+        <v>26</v>
       </c>
       <c r="B117" t="s" s="1">
-        <v>392</v>
+        <v>27</v>
       </c>
       <c r="C117" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="1">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="B118" t="s" s="1">
-        <v>38</v>
+        <v>617</v>
       </c>
       <c r="C118" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="1">
-        <v>488</v>
+        <v>644</v>
       </c>
       <c r="B119" t="s" s="1">
-        <v>276</v>
+        <v>375</v>
       </c>
       <c r="C119" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="1">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="B120" t="s" s="1">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="C120" t="s" s="1">
         <v>271</v>
@@ -4257,10 +4350,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="1">
-        <v>411</v>
+        <v>547</v>
       </c>
       <c r="B121" t="s" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C121" t="s" s="1">
         <v>271</v>
@@ -4268,21 +4361,21 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="1">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="B122" t="s" s="1">
-        <v>392</v>
+        <v>116</v>
       </c>
       <c r="C122" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="1">
-        <v>370</v>
+        <v>33</v>
       </c>
       <c r="B123" t="s" s="1">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="C123" t="s" s="1">
         <v>271</v>
@@ -4290,32 +4383,32 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="1">
-        <v>353</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C124" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="1">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s" s="1">
-        <v>494</v>
+        <v>91</v>
       </c>
       <c r="C125" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="1">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="B126" t="s" s="1">
-        <v>289</v>
+        <v>23</v>
       </c>
       <c r="C126" t="s" s="1">
         <v>271</v>
@@ -4323,10 +4416,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="1">
-        <v>514</v>
+        <v>237</v>
       </c>
       <c r="B127" t="s" s="1">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C127" t="s" s="1">
         <v>271</v>
@@ -4334,32 +4427,32 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="1">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="B128" t="s" s="1">
-        <v>13</v>
+        <v>390</v>
       </c>
       <c r="C128" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="1">
-        <v>127</v>
+        <v>645</v>
       </c>
       <c r="B129" t="s" s="1">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C129" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="1">
-        <v>576</v>
+        <v>306</v>
       </c>
       <c r="B130" t="s" s="1">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="C130" t="s" s="1">
         <v>271</v>
@@ -4367,54 +4460,54 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="1">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="B131" t="s" s="1">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="1">
-        <v>616</v>
+        <v>209</v>
       </c>
       <c r="B132" t="s" s="1">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C132" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B133" t="s" s="1">
-        <v>286</v>
+        <v>485</v>
       </c>
       <c r="C133" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="1">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="B134" t="s" s="1">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C134" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="1">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="B135" t="s" s="1">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C135" t="s" s="1">
         <v>271</v>
@@ -4422,10 +4515,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="1">
-        <v>18</v>
+        <v>354</v>
       </c>
       <c r="B136" t="s" s="1">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C136" t="s" s="1">
         <v>271</v>
@@ -4433,7 +4526,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="1">
-        <v>54</v>
+        <v>500</v>
       </c>
       <c r="B137" t="s" s="1">
         <v>276</v>
@@ -4444,10 +4537,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="1">
-        <v>237</v>
+        <v>411</v>
       </c>
       <c r="B138" t="s" s="1">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c r="C138" t="s" s="1">
         <v>271</v>
@@ -4455,43 +4548,43 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="1">
-        <v>621</v>
+        <v>258</v>
       </c>
       <c r="B139" t="s" s="1">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="C139" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="1">
-        <v>467</v>
+        <v>220</v>
       </c>
       <c r="B140" t="s" s="1">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="1">
-        <v>317</v>
+        <v>433</v>
       </c>
       <c r="B141" t="s" s="1">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C141" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="1">
-        <v>170</v>
+        <v>345</v>
       </c>
       <c r="B142" t="s" s="1">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s" s="1">
         <v>271</v>
@@ -4499,54 +4592,54 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="1">
-        <v>157</v>
+        <v>395</v>
       </c>
       <c r="B143" t="s" s="1">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C143" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="1">
-        <v>409</v>
+        <v>158</v>
       </c>
       <c r="B144" t="s" s="1">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="C144" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="1">
-        <v>176</v>
+        <v>391</v>
       </c>
       <c r="B145" t="s" s="1">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="C145" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="1">
-        <v>510</v>
+        <v>133</v>
       </c>
       <c r="B146" t="s" s="1">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="C146" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="1">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="B147" t="s" s="1">
-        <v>72</v>
+        <v>451</v>
       </c>
       <c r="C147" t="s" s="1">
         <v>271</v>
@@ -4554,10 +4647,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="1">
-        <v>417</v>
+        <v>164</v>
       </c>
       <c r="B148" t="s" s="1">
-        <v>64</v>
+        <v>646</v>
       </c>
       <c r="C148" t="s" s="1">
         <v>5</v>
@@ -4565,10 +4658,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="1">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B149" t="s" s="1">
-        <v>60</v>
+        <v>403</v>
       </c>
       <c r="C149" t="s" s="1">
         <v>5</v>
@@ -4576,21 +4669,21 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="1">
-        <v>388</v>
+        <v>115</v>
       </c>
       <c r="B150" t="s" s="1">
-        <v>38</v>
+        <v>403</v>
       </c>
       <c r="C150" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="1">
-        <v>577</v>
+        <v>211</v>
       </c>
       <c r="B151" t="s" s="1">
-        <v>60</v>
+        <v>403</v>
       </c>
       <c r="C151" t="s" s="1">
         <v>5</v>
@@ -4598,76 +4691,76 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="1">
-        <v>399</v>
+        <v>142</v>
       </c>
       <c r="B152" t="s" s="1">
-        <v>285</v>
+        <v>27</v>
       </c>
       <c r="C152" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="1">
-        <v>330</v>
+        <v>187</v>
       </c>
       <c r="B153" t="s" s="1">
-        <v>284</v>
+        <v>403</v>
       </c>
       <c r="C153" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="1">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="B154" t="s" s="1">
-        <v>286</v>
+        <v>403</v>
       </c>
       <c r="C154" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="1">
-        <v>55</v>
+        <v>522</v>
       </c>
       <c r="B155" t="s" s="1">
-        <v>284</v>
+        <v>403</v>
       </c>
       <c r="C155" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="1">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="B156" t="s" s="1">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C156" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="1">
-        <v>223</v>
+        <v>434</v>
       </c>
       <c r="B157" t="s" s="1">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="C157" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="1">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s" s="1">
-        <v>373</v>
+        <v>27</v>
       </c>
       <c r="C158" t="s" s="1">
         <v>5</v>
@@ -4675,21 +4768,21 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="1">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="B159" t="s" s="1">
-        <v>38</v>
+        <v>403</v>
       </c>
       <c r="C159" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="1">
-        <v>519</v>
+        <v>110</v>
       </c>
       <c r="B160" t="s" s="1">
-        <v>84</v>
+        <v>403</v>
       </c>
       <c r="C160" t="s" s="1">
         <v>5</v>
@@ -4697,120 +4790,120 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="1">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="B161" t="s" s="1">
-        <v>15</v>
+        <v>403</v>
       </c>
       <c r="C161" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="1">
-        <v>573</v>
+        <v>168</v>
       </c>
       <c r="B162" t="s" s="1">
-        <v>72</v>
+        <v>403</v>
       </c>
       <c r="C162" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="1">
-        <v>363</v>
+        <v>153</v>
       </c>
       <c r="B163" t="s" s="1">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="C163" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="1">
-        <v>620</v>
+        <v>92</v>
       </c>
       <c r="B164" t="s" s="1">
-        <v>25</v>
+        <v>403</v>
       </c>
       <c r="C164" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="1">
-        <v>563</v>
+        <v>647</v>
       </c>
       <c r="B165" t="s" s="1">
-        <v>284</v>
+        <v>403</v>
       </c>
       <c r="C165" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="1">
-        <v>393</v>
+        <v>595</v>
       </c>
       <c r="B166" t="s" s="1">
-        <v>38</v>
+        <v>605</v>
       </c>
       <c r="C166" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="1">
-        <v>454</v>
+        <v>330</v>
       </c>
       <c r="B167" t="s" s="1">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="C167" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="1">
-        <v>321</v>
+        <v>484</v>
       </c>
       <c r="B168" t="s" s="1">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="1">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="B169" t="s" s="1">
-        <v>629</v>
+        <v>590</v>
       </c>
       <c r="C169" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="1">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B170" t="s" s="1">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C170" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="1">
-        <v>225</v>
+        <v>581</v>
       </c>
       <c r="B171" t="s" s="1">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="C171" t="s" s="1">
         <v>271</v>
@@ -4818,10 +4911,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="1">
-        <v>482</v>
+        <v>648</v>
       </c>
       <c r="B172" t="s" s="1">
-        <v>328</v>
+        <v>34</v>
       </c>
       <c r="C172" t="s" s="1">
         <v>271</v>
@@ -4829,10 +4922,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="1">
-        <v>302</v>
+        <v>543</v>
       </c>
       <c r="B173" t="s" s="1">
-        <v>4</v>
+        <v>627</v>
       </c>
       <c r="C173" t="s" s="1">
         <v>271</v>
@@ -4840,21 +4933,21 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="1">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B174" t="s" s="1">
-        <v>630</v>
+        <v>283</v>
       </c>
       <c r="C174" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="1">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="B175" t="s" s="1">
-        <v>352</v>
+        <v>84</v>
       </c>
       <c r="C175" t="s" s="1">
         <v>271</v>
@@ -4862,43 +4955,43 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="1">
-        <v>536</v>
+        <v>387</v>
       </c>
       <c r="B176" t="s" s="1">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="C176" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="1">
-        <v>142</v>
+        <v>476</v>
       </c>
       <c r="B177" t="s" s="1">
-        <v>107</v>
+        <v>460</v>
       </c>
       <c r="C177" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="1">
-        <v>228</v>
+        <v>506</v>
       </c>
       <c r="B178" t="s" s="1">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="C178" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="1">
-        <v>305</v>
+        <v>649</v>
       </c>
       <c r="B179" t="s" s="1">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C179" t="s" s="1">
         <v>271</v>
@@ -4906,10 +4999,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="1">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B180" t="s" s="1">
-        <v>286</v>
+        <v>84</v>
       </c>
       <c r="C180" t="s" s="1">
         <v>271</v>
@@ -4917,13 +5010,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="1">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="B181" t="s" s="1">
-        <v>307</v>
+        <v>23</v>
       </c>
       <c r="C181" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182">
@@ -4939,10 +5032,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="1">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="B183" t="s" s="1">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="C183" t="s" s="1">
         <v>271</v>
@@ -4950,10 +5043,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="1">
-        <v>221</v>
+        <v>382</v>
       </c>
       <c r="B184" t="s" s="1">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="C184" t="s" s="1">
         <v>271</v>
@@ -4961,43 +5054,43 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="1">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="B185" t="s" s="1">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C185" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="1">
-        <v>404</v>
+        <v>650</v>
       </c>
       <c r="B186" t="s" s="1">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="1">
-        <v>351</v>
+        <v>71</v>
       </c>
       <c r="B187" t="s" s="1">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="C187" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="1">
-        <v>567</v>
+        <v>332</v>
       </c>
       <c r="B188" t="s" s="1">
-        <v>281</v>
+        <v>456</v>
       </c>
       <c r="C188" t="s" s="1">
         <v>271</v>
@@ -5005,10 +5098,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="1">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="B189" t="s" s="1">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="C189" t="s" s="1">
         <v>271</v>
@@ -5016,32 +5109,32 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="1">
-        <v>229</v>
+        <v>651</v>
       </c>
       <c r="B190" t="s" s="1">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C190" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="1">
-        <v>423</v>
+        <v>215</v>
       </c>
       <c r="B191" t="s" s="1">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="C191" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="1">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="B192" t="s" s="1">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="C192" t="s" s="1">
         <v>5</v>
@@ -5049,21 +5142,21 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="1">
-        <v>623</v>
+        <v>165</v>
       </c>
       <c r="B193" t="s" s="1">
-        <v>45</v>
+        <v>403</v>
       </c>
       <c r="C193" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="1">
-        <v>208</v>
+        <v>389</v>
       </c>
       <c r="B194" t="s" s="1">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C194" t="s" s="1">
         <v>271</v>
@@ -5071,54 +5164,54 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="1">
-        <v>46</v>
+        <v>497</v>
       </c>
       <c r="B195" t="s" s="1">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C195" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="1">
-        <v>155</v>
+        <v>652</v>
       </c>
       <c r="B196" t="s" s="1">
-        <v>69</v>
+        <v>279</v>
       </c>
       <c r="C196" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="1">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="B197" t="s" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C197" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="1">
-        <v>162</v>
+        <v>377</v>
       </c>
       <c r="B198" t="s" s="1">
-        <v>267</v>
+        <v>23</v>
       </c>
       <c r="C198" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="1">
-        <v>595</v>
+        <v>396</v>
       </c>
       <c r="B199" t="s" s="1">
-        <v>84</v>
+        <v>653</v>
       </c>
       <c r="C199" t="s" s="1">
         <v>271</v>
@@ -5126,10 +5219,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="1">
-        <v>357</v>
+        <v>243</v>
       </c>
       <c r="B200" t="s" s="1">
-        <v>91</v>
+        <v>295</v>
       </c>
       <c r="C200" t="s" s="1">
         <v>271</v>
@@ -5137,10 +5230,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="1">
-        <v>459</v>
+        <v>654</v>
       </c>
       <c r="B201" t="s" s="1">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s" s="1">
         <v>271</v>
@@ -5148,43 +5241,43 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="1">
-        <v>415</v>
+        <v>99</v>
       </c>
       <c r="B202" t="s" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C202" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="1">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="B203" t="s" s="1">
-        <v>52</v>
+        <v>285</v>
       </c>
       <c r="C203" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="1">
-        <v>156</v>
+        <v>563</v>
       </c>
       <c r="B204" t="s" s="1">
-        <v>392</v>
+        <v>533</v>
       </c>
       <c r="C204" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="1">
-        <v>571</v>
+        <v>37</v>
       </c>
       <c r="B205" t="s" s="1">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C205" t="s" s="1">
         <v>271</v>
@@ -5192,32 +5285,32 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="1">
-        <v>195</v>
+        <v>655</v>
       </c>
       <c r="B206" t="s" s="1">
-        <v>383</v>
+        <v>499</v>
       </c>
       <c r="C206" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="1">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="B207" t="s" s="1">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="C207" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="1">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="B208" t="s" s="1">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C208" t="s" s="1">
         <v>271</v>
@@ -5225,10 +5318,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="1">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="B209" t="s" s="1">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="C209" t="s" s="1">
         <v>271</v>
@@ -5236,21 +5329,21 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="1">
-        <v>252</v>
+        <v>399</v>
       </c>
       <c r="B210" t="s" s="1">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="C210" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="1">
-        <v>104</v>
+        <v>361</v>
       </c>
       <c r="B211" t="s" s="1">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="C211" t="s" s="1">
         <v>5</v>
@@ -5258,21 +5351,21 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="1">
-        <v>381</v>
+        <v>229</v>
       </c>
       <c r="B212" t="s" s="1">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="C212" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="1">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="B213" t="s" s="1">
-        <v>279</v>
+        <v>84</v>
       </c>
       <c r="C213" t="s" s="1">
         <v>271</v>
@@ -5280,10 +5373,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="1">
-        <v>201</v>
+        <v>368</v>
       </c>
       <c r="B214" t="s" s="1">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s" s="1">
         <v>271</v>
@@ -5291,21 +5384,21 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="1">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B215" t="s" s="1">
-        <v>84</v>
+        <v>585</v>
       </c>
       <c r="C215" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="1">
-        <v>380</v>
+        <v>67</v>
       </c>
       <c r="B216" t="s" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C216" t="s" s="1">
         <v>271</v>
@@ -5313,10 +5406,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="1">
-        <v>450</v>
+        <v>366</v>
       </c>
       <c r="B217" t="s" s="1">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C217" t="s" s="1">
         <v>271</v>
@@ -5324,10 +5417,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="1">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="B218" t="s" s="1">
-        <v>313</v>
+        <v>30</v>
       </c>
       <c r="C218" t="s" s="1">
         <v>271</v>
@@ -5335,32 +5428,32 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="1">
-        <v>184</v>
+        <v>339</v>
       </c>
       <c r="B219" t="s" s="1">
-        <v>4</v>
+        <v>279</v>
       </c>
       <c r="C219" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="1">
-        <v>222</v>
+        <v>573</v>
       </c>
       <c r="B220" t="s" s="1">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C220" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="1">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="B221" t="s" s="1">
-        <v>524</v>
+        <v>299</v>
       </c>
       <c r="C221" t="s" s="1">
         <v>271</v>
@@ -5368,10 +5461,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="1">
-        <v>338</v>
+        <v>512</v>
       </c>
       <c r="B222" t="s" s="1">
-        <v>4</v>
+        <v>542</v>
       </c>
       <c r="C222" t="s" s="1">
         <v>271</v>
@@ -5379,32 +5472,32 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="1">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="B223" t="s" s="1">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="C223" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="1">
-        <v>262</v>
+        <v>656</v>
       </c>
       <c r="B224" t="s" s="1">
-        <v>277</v>
+        <v>69</v>
       </c>
       <c r="C224" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="1">
-        <v>440</v>
+        <v>305</v>
       </c>
       <c r="B225" t="s" s="1">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C225" t="s" s="1">
         <v>271</v>
@@ -5412,10 +5505,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="1">
-        <v>136</v>
+        <v>539</v>
       </c>
       <c r="B226" t="s" s="1">
-        <v>118</v>
+        <v>657</v>
       </c>
       <c r="C226" t="s" s="1">
         <v>271</v>
@@ -5423,21 +5516,21 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="1">
-        <v>242</v>
+        <v>405</v>
       </c>
       <c r="B227" t="s" s="1">
         <v>273</v>
       </c>
       <c r="C227" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="1">
-        <v>416</v>
+        <v>55</v>
       </c>
       <c r="B228" t="s" s="1">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C228" t="s" s="1">
         <v>271</v>
@@ -5445,32 +5538,32 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="1">
-        <v>203</v>
+        <v>380</v>
       </c>
       <c r="B229" t="s" s="1">
-        <v>267</v>
+        <v>84</v>
       </c>
       <c r="C229" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="1">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B230" t="s" s="1">
-        <v>529</v>
+        <v>275</v>
       </c>
       <c r="C230" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="1">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="B231" t="s" s="1">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C231" t="s" s="1">
         <v>271</v>
@@ -5478,43 +5571,43 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="1">
-        <v>486</v>
+        <v>100</v>
       </c>
       <c r="B232" t="s" s="1">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C232" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="1">
-        <v>408</v>
+        <v>119</v>
       </c>
       <c r="B233" t="s" s="1">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="C233" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="1">
-        <v>258</v>
+        <v>359</v>
       </c>
       <c r="B234" t="s" s="1">
-        <v>376</v>
+        <v>52</v>
       </c>
       <c r="C234" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="1">
-        <v>566</v>
+        <v>445</v>
       </c>
       <c r="B235" t="s" s="1">
-        <v>533</v>
+        <v>13</v>
       </c>
       <c r="C235" t="s" s="1">
         <v>271</v>
@@ -5522,10 +5615,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="1">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="B236" t="s" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C236" t="s" s="1">
         <v>271</v>
@@ -5533,54 +5626,54 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="1">
-        <v>487</v>
+        <v>317</v>
       </c>
       <c r="B237" t="s" s="1">
-        <v>491</v>
+        <v>101</v>
       </c>
       <c r="C237" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="1">
-        <v>579</v>
+        <v>658</v>
       </c>
       <c r="B238" t="s" s="1">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="C238" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="1">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="B239" t="s" s="1">
-        <v>52</v>
+        <v>287</v>
       </c>
       <c r="C239" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="1">
-        <v>249</v>
+        <v>372</v>
       </c>
       <c r="B240" t="s" s="1">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="C240" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="1">
-        <v>356</v>
+        <v>583</v>
       </c>
       <c r="B241" t="s" s="1">
-        <v>25</v>
+        <v>533</v>
       </c>
       <c r="C241" t="s" s="1">
         <v>271</v>
@@ -5588,21 +5681,21 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="1">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="B242" t="s" s="1">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="C242" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="1">
-        <v>145</v>
+        <v>344</v>
       </c>
       <c r="B243" t="s" s="1">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="C243" t="s" s="1">
         <v>271</v>
@@ -5610,10 +5703,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="1">
-        <v>400</v>
+        <v>576</v>
       </c>
       <c r="B244" t="s" s="1">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C244" t="s" s="1">
         <v>271</v>
@@ -5621,10 +5714,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="1">
-        <v>105</v>
+        <v>558</v>
       </c>
       <c r="B245" t="s" s="1">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="C245" t="s" s="1">
         <v>271</v>
@@ -5632,10 +5725,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="1">
-        <v>146</v>
+        <v>417</v>
       </c>
       <c r="B246" t="s" s="1">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="C246" t="s" s="1">
         <v>5</v>
@@ -5643,32 +5736,32 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="1">
-        <v>511</v>
+        <v>409</v>
       </c>
       <c r="B247" t="s" s="1">
-        <v>627</v>
+        <v>116</v>
       </c>
       <c r="C247" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="1">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="B248" t="s" s="1">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="C248" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="1">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B249" t="s" s="1">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C249" t="s" s="1">
         <v>271</v>
@@ -5676,21 +5769,21 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="1">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="B250" t="s" s="1">
-        <v>286</v>
+        <v>84</v>
       </c>
       <c r="C250" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="1">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="B251" t="s" s="1">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C251" t="s" s="1">
         <v>271</v>
@@ -5698,32 +5791,32 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="1">
-        <v>335</v>
+        <v>223</v>
       </c>
       <c r="B252" t="s" s="1">
-        <v>274</v>
+        <v>659</v>
       </c>
       <c r="C252" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="1">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="B253" t="s" s="1">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C253" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="1">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="B254" t="s" s="1">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="C254" t="s" s="1">
         <v>271</v>
@@ -5731,10 +5824,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="1">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="B255" t="s" s="1">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="C255" t="s" s="1">
         <v>271</v>
@@ -5742,10 +5835,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="1">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="B256" t="s" s="1">
-        <v>286</v>
+        <v>438</v>
       </c>
       <c r="C256" t="s" s="1">
         <v>271</v>
@@ -5753,32 +5846,32 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="1">
-        <v>512</v>
+        <v>610</v>
       </c>
       <c r="B257" t="s" s="1">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="C257" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="1">
-        <v>447</v>
+        <v>331</v>
       </c>
       <c r="B258" t="s" s="1">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C258" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="1">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="B259" t="s" s="1">
-        <v>289</v>
+        <v>617</v>
       </c>
       <c r="C259" t="s" s="1">
         <v>5</v>
@@ -5786,21 +5879,21 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="1">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="B260" t="s" s="1">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="C260" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="1">
-        <v>580</v>
+        <v>505</v>
       </c>
       <c r="B261" t="s" s="1">
-        <v>392</v>
+        <v>528</v>
       </c>
       <c r="C261" t="s" s="1">
         <v>5</v>
@@ -5808,32 +5901,32 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="1">
-        <v>448</v>
+        <v>602</v>
       </c>
       <c r="B262" t="s" s="1">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="C262" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="1">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="B263" t="s" s="1">
-        <v>66</v>
+        <v>295</v>
       </c>
       <c r="C263" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="1">
-        <v>135</v>
+        <v>422</v>
       </c>
       <c r="B264" t="s" s="1">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c r="C264" t="s" s="1">
         <v>271</v>
@@ -5841,32 +5934,32 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="1">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="B265" t="s" s="1">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C265" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="1">
-        <v>182</v>
+        <v>448</v>
       </c>
       <c r="B266" t="s" s="1">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="C266" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="1">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="B267" t="s" s="1">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C267" t="s" s="1">
         <v>271</v>
@@ -5874,10 +5967,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="1">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="B268" t="s" s="1">
-        <v>279</v>
+        <v>52</v>
       </c>
       <c r="C268" t="s" s="1">
         <v>271</v>
@@ -5885,10 +5978,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="1">
-        <v>505</v>
+        <v>230</v>
       </c>
       <c r="B269" t="s" s="1">
-        <v>328</v>
+        <v>7</v>
       </c>
       <c r="C269" t="s" s="1">
         <v>5</v>
@@ -5896,10 +5989,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="1">
-        <v>564</v>
+        <v>439</v>
       </c>
       <c r="B270" t="s" s="1">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="C270" t="s" s="1">
         <v>271</v>
@@ -5907,43 +6000,43 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="1">
-        <v>582</v>
+        <v>487</v>
       </c>
       <c r="B271" t="s" s="1">
-        <v>280</v>
+        <v>540</v>
       </c>
       <c r="C271" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="1">
-        <v>555</v>
+        <v>266</v>
       </c>
       <c r="B272" t="s" s="1">
-        <v>273</v>
+        <v>4</v>
       </c>
       <c r="C272" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="1">
-        <v>130</v>
+        <v>660</v>
       </c>
       <c r="B273" t="s" s="1">
-        <v>631</v>
+        <v>25</v>
       </c>
       <c r="C273" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="1">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="B274" t="s" s="1">
-        <v>267</v>
+        <v>340</v>
       </c>
       <c r="C274" t="s" s="1">
         <v>271</v>
@@ -5951,10 +6044,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="1">
-        <v>484</v>
+        <v>326</v>
       </c>
       <c r="B275" t="s" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C275" t="s" s="1">
         <v>271</v>
@@ -5962,21 +6055,21 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="1">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="B276" t="s" s="1">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="C276" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="1">
-        <v>24</v>
+        <v>446</v>
       </c>
       <c r="B277" t="s" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C277" t="s" s="1">
         <v>271</v>
@@ -5984,10 +6077,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="1">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="B278" t="s" s="1">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="C278" t="s" s="1">
         <v>271</v>
@@ -5995,10 +6088,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="1">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="B279" t="s" s="1">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C279" t="s" s="1">
         <v>271</v>
@@ -6006,21 +6099,21 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="1">
-        <v>495</v>
+        <v>112</v>
       </c>
       <c r="B280" t="s" s="1">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C280" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="1">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="B281" t="s" s="1">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="C281" t="s" s="1">
         <v>271</v>
@@ -6028,10 +6121,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="1">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B282" t="s" s="1">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C282" t="s" s="1">
         <v>271</v>
@@ -6039,21 +6132,21 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="1">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="B283" t="s" s="1">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C283" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="1">
-        <v>551</v>
+        <v>254</v>
       </c>
       <c r="B284" t="s" s="1">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="C284" t="s" s="1">
         <v>271</v>
@@ -6061,21 +6154,21 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="1">
-        <v>20</v>
+        <v>567</v>
       </c>
       <c r="B285" t="s" s="1">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C285" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="1">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="B286" t="s" s="1">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="C286" t="s" s="1">
         <v>271</v>
@@ -6083,10 +6176,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="1">
-        <v>523</v>
+        <v>661</v>
       </c>
       <c r="B287" t="s" s="1">
-        <v>276</v>
+        <v>662</v>
       </c>
       <c r="C287" t="s" s="1">
         <v>271</v>
@@ -6094,10 +6187,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="1">
-        <v>407</v>
+        <v>314</v>
       </c>
       <c r="B288" t="s" s="1">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="C288" t="s" s="1">
         <v>271</v>
@@ -6105,10 +6198,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="1">
-        <v>347</v>
+        <v>513</v>
       </c>
       <c r="B289" t="s" s="1">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="C289" t="s" s="1">
         <v>271</v>
@@ -6116,21 +6209,21 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="1">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B290" t="s" s="1">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C290" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="1">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B291" t="s" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C291" t="s" s="1">
         <v>5</v>
@@ -6138,54 +6231,54 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="1">
-        <v>224</v>
+        <v>521</v>
       </c>
       <c r="B292" t="s" s="1">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="C292" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="1">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="B293" t="s" s="1">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="C293" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="1">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="B294" t="s" s="1">
-        <v>283</v>
+        <v>4</v>
       </c>
       <c r="C294" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="1">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="B295" t="s" s="1">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C295" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="1">
-        <v>226</v>
+        <v>514</v>
       </c>
       <c r="B296" t="s" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C296" t="s" s="1">
         <v>271</v>
@@ -6193,32 +6286,32 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="1">
-        <v>94</v>
+        <v>664</v>
       </c>
       <c r="B297" t="s" s="1">
-        <v>443</v>
+        <v>553</v>
       </c>
       <c r="C297" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="1">
-        <v>141</v>
+        <v>342</v>
       </c>
       <c r="B298" t="s" s="1">
-        <v>632</v>
+        <v>57</v>
       </c>
       <c r="C298" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="1">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="B299" t="s" s="1">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="C299" t="s" s="1">
         <v>271</v>
@@ -6226,21 +6319,21 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="1">
-        <v>358</v>
+        <v>475</v>
       </c>
       <c r="B300" t="s" s="1">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="C300" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="1">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="B301" t="s" s="1">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C301" t="s" s="1">
         <v>5</v>
@@ -6248,76 +6341,76 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="1">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="B302" t="s" s="1">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C302" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="1">
-        <v>477</v>
+        <v>67</v>
       </c>
       <c r="B303" t="s" s="1">
-        <v>273</v>
+        <v>60</v>
       </c>
       <c r="C303" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="1">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="B304" t="s" s="1">
-        <v>549</v>
+        <v>38</v>
       </c>
       <c r="C304" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="1">
-        <v>417</v>
+        <v>168</v>
       </c>
       <c r="B305" t="s" s="1">
-        <v>633</v>
+        <v>7</v>
       </c>
       <c r="C305" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="1">
-        <v>469</v>
+        <v>641</v>
       </c>
       <c r="B306" t="s" s="1">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="C306" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="1">
-        <v>433</v>
+        <v>16</v>
       </c>
       <c r="B307" t="s" s="1">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="C307" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="1">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="B308" t="s" s="1">
-        <v>267</v>
+        <v>590</v>
       </c>
       <c r="C308" t="s" s="1">
         <v>5</v>
@@ -6325,21 +6418,21 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="1">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B309" t="s" s="1">
-        <v>4</v>
+        <v>392</v>
       </c>
       <c r="C309" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="1">
-        <v>476</v>
+        <v>642</v>
       </c>
       <c r="B310" t="s" s="1">
-        <v>494</v>
+        <v>273</v>
       </c>
       <c r="C310" t="s" s="1">
         <v>5</v>
@@ -6347,10 +6440,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="1">
-        <v>344</v>
+        <v>436</v>
       </c>
       <c r="B311" t="s" s="1">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="C311" t="s" s="1">
         <v>271</v>
@@ -6358,10 +6451,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="1">
-        <v>261</v>
+        <v>119</v>
       </c>
       <c r="B312" t="s" s="1">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="C312" t="s" s="1">
         <v>5</v>
@@ -6369,10 +6462,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="1">
-        <v>321</v>
+        <v>454</v>
       </c>
       <c r="B313" t="s" s="1">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="C313" t="s" s="1">
         <v>271</v>
@@ -6380,21 +6473,21 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="1">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="B314" t="s" s="1">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C314" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="1">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="B315" t="s" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C315" t="s" s="1">
         <v>5</v>
@@ -6402,76 +6495,76 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="1">
-        <v>264</v>
+        <v>660</v>
       </c>
       <c r="B316" t="s" s="1">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C316" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="1">
-        <v>87</v>
+        <v>538</v>
       </c>
       <c r="B317" t="s" s="1">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="C317" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="1">
-        <v>86</v>
+        <v>447</v>
       </c>
       <c r="B318" t="s" s="1">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C318" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="1">
-        <v>371</v>
+        <v>623</v>
       </c>
       <c r="B319" t="s" s="1">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="C319" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="1">
-        <v>96</v>
+        <v>468</v>
       </c>
       <c r="B320" t="s" s="1">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="C320" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="1">
-        <v>309</v>
+        <v>21</v>
       </c>
       <c r="B321" t="s" s="1">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="C321" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="1">
-        <v>119</v>
+        <v>610</v>
       </c>
       <c r="B322" t="s" s="1">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="C322" t="s" s="1">
         <v>5</v>
@@ -6479,43 +6572,43 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="1">
-        <v>188</v>
+        <v>645</v>
       </c>
       <c r="B323" t="s" s="1">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="C323" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="1">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="B324" t="s" s="1">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C324" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="1">
-        <v>593</v>
+        <v>196</v>
       </c>
       <c r="B325" t="s" s="1">
-        <v>273</v>
+        <v>84</v>
       </c>
       <c r="C325" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="1">
-        <v>197</v>
+        <v>616</v>
       </c>
       <c r="B326" t="s" s="1">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="C326" t="s" s="1">
         <v>271</v>
@@ -6523,32 +6616,32 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="1">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="B327" t="s" s="1">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c r="C327" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="1">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="B328" t="s" s="1">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="C328" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="1">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B329" t="s" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C329" t="s" s="1">
         <v>5</v>
@@ -6556,10 +6649,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="1">
-        <v>555</v>
+        <v>477</v>
       </c>
       <c r="B330" t="s" s="1">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="C330" t="s" s="1">
         <v>5</v>
@@ -6567,10 +6660,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="1">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="B331" t="s" s="1">
-        <v>375</v>
+        <v>277</v>
       </c>
       <c r="C331" t="s" s="1">
         <v>5</v>
@@ -6578,21 +6671,21 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="1">
-        <v>134</v>
+        <v>600</v>
       </c>
       <c r="B332" t="s" s="1">
-        <v>281</v>
+        <v>665</v>
       </c>
       <c r="C332" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="1">
-        <v>193</v>
+        <v>644</v>
       </c>
       <c r="B333" t="s" s="1">
-        <v>81</v>
+        <v>542</v>
       </c>
       <c r="C333" t="s" s="1">
         <v>5</v>
@@ -6600,10 +6693,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="1">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="B334" t="s" s="1">
-        <v>392</v>
+        <v>23</v>
       </c>
       <c r="C334" t="s" s="1">
         <v>271</v>
@@ -6611,32 +6704,32 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="1">
-        <v>479</v>
+        <v>333</v>
       </c>
       <c r="B335" t="s" s="1">
-        <v>373</v>
+        <v>84</v>
       </c>
       <c r="C335" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="1">
-        <v>414</v>
+        <v>92</v>
       </c>
       <c r="B336" t="s" s="1">
-        <v>283</v>
+        <v>373</v>
       </c>
       <c r="C336" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="1">
-        <v>574</v>
+        <v>142</v>
       </c>
       <c r="B337" t="s" s="1">
-        <v>281</v>
+        <v>451</v>
       </c>
       <c r="C337" t="s" s="1">
         <v>271</v>
@@ -6644,54 +6737,54 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="1">
-        <v>621</v>
+        <v>423</v>
       </c>
       <c r="B338" t="s" s="1">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="C338" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="1">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B339" t="s" s="1">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="C339" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="1">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="B340" t="s" s="1">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C340" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="1">
-        <v>122</v>
+        <v>565</v>
       </c>
       <c r="B341" t="s" s="1">
-        <v>542</v>
+        <v>11</v>
       </c>
       <c r="C341" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="1">
-        <v>609</v>
+        <v>426</v>
       </c>
       <c r="B342" t="s" s="1">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="C342" t="s" s="1">
         <v>271</v>
@@ -6699,43 +6792,43 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="1">
-        <v>163</v>
+        <v>519</v>
       </c>
       <c r="B343" t="s" s="1">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C343" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="1">
-        <v>186</v>
+        <v>361</v>
       </c>
       <c r="B344" t="s" s="1">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="C344" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="1">
-        <v>495</v>
+        <v>397</v>
       </c>
       <c r="B345" t="s" s="1">
-        <v>460</v>
+        <v>72</v>
       </c>
       <c r="C345" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s" s="1">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="B346" t="s" s="1">
-        <v>69</v>
+        <v>541</v>
       </c>
       <c r="C346" t="s" s="1">
         <v>5</v>
@@ -6743,10 +6836,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="1">
-        <v>198</v>
+        <v>522</v>
       </c>
       <c r="B347" t="s" s="1">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C347" t="s" s="1">
         <v>271</v>
@@ -6754,21 +6847,21 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="1">
-        <v>420</v>
+        <v>124</v>
       </c>
       <c r="B348" t="s" s="1">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="C348" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="1">
-        <v>250</v>
+        <v>608</v>
       </c>
       <c r="B349" t="s" s="1">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C349" t="s" s="1">
         <v>271</v>
@@ -6776,76 +6869,76 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="1">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="B350" t="s" s="1">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C350" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="1">
-        <v>158</v>
+        <v>434</v>
       </c>
       <c r="B351" t="s" s="1">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C351" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="1">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B352" t="s" s="1">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="C352" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="1">
-        <v>350</v>
+        <v>255</v>
       </c>
       <c r="B353" t="s" s="1">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C353" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="1">
-        <v>435</v>
+        <v>156</v>
       </c>
       <c r="B354" t="s" s="1">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="C354" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="1">
-        <v>430</v>
+        <v>564</v>
       </c>
       <c r="B355" t="s" s="1">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="C355" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="1">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="B356" t="s" s="1">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="C356" t="s" s="1">
         <v>271</v>
@@ -6853,10 +6946,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="1">
-        <v>148</v>
+        <v>666</v>
       </c>
       <c r="B357" t="s" s="1">
-        <v>27</v>
+        <v>527</v>
       </c>
       <c r="C357" t="s" s="1">
         <v>5</v>
@@ -6864,10 +6957,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="1">
-        <v>146</v>
+        <v>371</v>
       </c>
       <c r="B358" t="s" s="1">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C358" t="s" s="1">
         <v>5</v>
@@ -6875,10 +6968,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="1">
-        <v>123</v>
+        <v>378</v>
       </c>
       <c r="B359" t="s" s="1">
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="C359" t="s" s="1">
         <v>5</v>
@@ -6886,21 +6979,21 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="1">
-        <v>387</v>
+        <v>238</v>
       </c>
       <c r="B360" t="s" s="1">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="C360" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="1">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="B361" t="s" s="1">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="C361" t="s" s="1">
         <v>271</v>
@@ -6908,10 +7001,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="1">
-        <v>171</v>
+        <v>488</v>
       </c>
       <c r="B362" t="s" s="1">
-        <v>296</v>
+        <v>84</v>
       </c>
       <c r="C362" t="s" s="1">
         <v>271</v>
@@ -6919,21 +7012,21 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="1">
-        <v>214</v>
+        <v>571</v>
       </c>
       <c r="B363" t="s" s="1">
-        <v>299</v>
+        <v>101</v>
       </c>
       <c r="C363" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s" s="1">
-        <v>445</v>
+        <v>365</v>
       </c>
       <c r="B364" t="s" s="1">
-        <v>286</v>
+        <v>665</v>
       </c>
       <c r="C364" t="s" s="1">
         <v>271</v>
@@ -6941,10 +7034,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="1">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="B365" t="s" s="1">
-        <v>286</v>
+        <v>52</v>
       </c>
       <c r="C365" t="s" s="1">
         <v>5</v>
@@ -6952,10 +7045,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="1">
-        <v>534</v>
+        <v>579</v>
       </c>
       <c r="B366" t="s" s="1">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C366" t="s" s="1">
         <v>271</v>
@@ -6963,10 +7056,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="1">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="B367" t="s" s="1">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C367" t="s" s="1">
         <v>5</v>
@@ -6974,54 +7067,54 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="1">
-        <v>265</v>
+        <v>523</v>
       </c>
       <c r="B368" t="s" s="1">
-        <v>585</v>
+        <v>69</v>
       </c>
       <c r="C368" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="1">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B369" t="s" s="1">
-        <v>27</v>
+        <v>392</v>
       </c>
       <c r="C369" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s" s="1">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="B370" t="s" s="1">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C370" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="1">
-        <v>345</v>
+        <v>430</v>
       </c>
       <c r="B371" t="s" s="1">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C371" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="1">
-        <v>550</v>
+        <v>94</v>
       </c>
       <c r="B372" t="s" s="1">
-        <v>273</v>
+        <v>373</v>
       </c>
       <c r="C372" t="s" s="1">
         <v>271</v>
@@ -7029,10 +7122,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="1">
-        <v>318</v>
+        <v>133</v>
       </c>
       <c r="B373" t="s" s="1">
-        <v>7</v>
+        <v>313</v>
       </c>
       <c r="C373" t="s" s="1">
         <v>5</v>
@@ -7040,54 +7133,54 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="1">
-        <v>361</v>
+        <v>574</v>
       </c>
       <c r="B374" t="s" s="1">
-        <v>66</v>
+        <v>274</v>
       </c>
       <c r="C374" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="1">
-        <v>401</v>
+        <v>162</v>
       </c>
       <c r="B375" t="s" s="1">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C375" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="1">
-        <v>164</v>
+        <v>402</v>
       </c>
       <c r="B376" t="s" s="1">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="C376" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s" s="1">
-        <v>183</v>
+        <v>308</v>
       </c>
       <c r="B377" t="s" s="1">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="C377" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s" s="1">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="B378" t="s" s="1">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C378" t="s" s="1">
         <v>271</v>
@@ -7095,32 +7188,32 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="1">
-        <v>257</v>
+        <v>463</v>
       </c>
       <c r="B379" t="s" s="1">
-        <v>267</v>
+        <v>57</v>
       </c>
       <c r="C379" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s" s="1">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B380" t="s" s="1">
-        <v>13</v>
+        <v>327</v>
       </c>
       <c r="C380" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s" s="1">
-        <v>108</v>
+        <v>582</v>
       </c>
       <c r="B381" t="s" s="1">
-        <v>390</v>
+        <v>27</v>
       </c>
       <c r="C381" t="s" s="1">
         <v>5</v>
@@ -7128,10 +7221,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="1">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="B382" t="s" s="1">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="C382" t="s" s="1">
         <v>5</v>
@@ -7139,10 +7232,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="1">
-        <v>539</v>
+        <v>143</v>
       </c>
       <c r="B383" t="s" s="1">
-        <v>507</v>
+        <v>275</v>
       </c>
       <c r="C383" t="s" s="1">
         <v>271</v>
@@ -7150,21 +7243,21 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="1">
-        <v>378</v>
+        <v>228</v>
       </c>
       <c r="B384" t="s" s="1">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="C384" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s" s="1">
-        <v>502</v>
+        <v>185</v>
       </c>
       <c r="B385" t="s" s="1">
-        <v>25</v>
+        <v>533</v>
       </c>
       <c r="C385" t="s" s="1">
         <v>271</v>
@@ -7172,21 +7265,21 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="1">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="B386" t="s" s="1">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="C386" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s" s="1">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="B387" t="s" s="1">
-        <v>527</v>
+        <v>27</v>
       </c>
       <c r="C387" t="s" s="1">
         <v>5</v>
@@ -7194,10 +7287,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="1">
-        <v>481</v>
+        <v>154</v>
       </c>
       <c r="B388" t="s" s="1">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="C388" t="s" s="1">
         <v>5</v>
@@ -7205,2113 +7298,34 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="1">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B389" t="s" s="1">
         <v>27</v>
       </c>
       <c r="C389" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s" s="1">
-        <v>263</v>
+        <v>482</v>
       </c>
       <c r="B390" t="s" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C390" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s" s="1">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="B391" t="s" s="1">
-        <v>267</v>
+        <v>60</v>
       </c>
       <c r="C391" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="s" s="1">
-        <v>308</v>
-      </c>
-      <c r="B392" t="s" s="1">
-        <v>295</v>
-      </c>
-      <c r="C392" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="s" s="1">
-        <v>133</v>
-      </c>
-      <c r="B393" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C393" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s" s="1">
-        <v>473</v>
-      </c>
-      <c r="B394" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C394" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s" s="1">
-        <v>222</v>
-      </c>
-      <c r="B395" t="s" s="1">
-        <v>392</v>
-      </c>
-      <c r="C395" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s" s="1">
-        <v>97</v>
-      </c>
-      <c r="B396" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C396" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s" s="1">
-        <v>113</v>
-      </c>
-      <c r="B397" t="s" s="1">
-        <v>369</v>
-      </c>
-      <c r="C397" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s" s="1">
-        <v>236</v>
-      </c>
-      <c r="B398" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C398" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s" s="1">
-        <v>219</v>
-      </c>
-      <c r="B399" t="s" s="1">
-        <v>504</v>
-      </c>
-      <c r="C399" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s" s="1">
-        <v>156</v>
-      </c>
-      <c r="B400" t="s" s="1">
-        <v>275</v>
-      </c>
-      <c r="C400" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s" s="1">
-        <v>602</v>
-      </c>
-      <c r="B401" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C401" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s" s="1">
-        <v>480</v>
-      </c>
-      <c r="B402" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C402" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="s" s="1">
-        <v>536</v>
-      </c>
-      <c r="B403" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C403" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="s" s="1">
-        <v>326</v>
-      </c>
-      <c r="B404" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C404" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s" s="1">
-        <v>310</v>
-      </c>
-      <c r="B405" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C405" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s" s="1">
-        <v>132</v>
-      </c>
-      <c r="B406" t="s" s="1">
-        <v>375</v>
-      </c>
-      <c r="C406" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s" s="1">
-        <v>153</v>
-      </c>
-      <c r="B407" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C407" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s" s="1">
-        <v>393</v>
-      </c>
-      <c r="B408" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C408" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s" s="1">
-        <v>428</v>
-      </c>
-      <c r="B409" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C409" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s" s="1">
-        <v>362</v>
-      </c>
-      <c r="B410" t="s" s="1">
-        <v>116</v>
-      </c>
-      <c r="C410" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="s" s="1">
-        <v>519</v>
-      </c>
-      <c r="B411" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C411" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="s" s="1">
-        <v>150</v>
-      </c>
-      <c r="B412" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C412" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="s" s="1">
-        <v>547</v>
-      </c>
-      <c r="B413" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C413" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="s" s="1">
-        <v>175</v>
-      </c>
-      <c r="B414" t="s" s="1">
-        <v>274</v>
-      </c>
-      <c r="C414" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="s" s="1">
-        <v>556</v>
-      </c>
-      <c r="B415" t="s" s="1">
-        <v>280</v>
-      </c>
-      <c r="C415" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="s" s="1">
-        <v>213</v>
-      </c>
-      <c r="B416" t="s" s="1">
-        <v>284</v>
-      </c>
-      <c r="C416" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="s" s="1">
-        <v>246</v>
-      </c>
-      <c r="B417" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C417" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="s" s="1">
-        <v>505</v>
-      </c>
-      <c r="B418" t="s" s="1">
-        <v>324</v>
-      </c>
-      <c r="C418" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="s" s="1">
-        <v>187</v>
-      </c>
-      <c r="B419" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C419" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="s" s="1">
-        <v>610</v>
-      </c>
-      <c r="B420" t="s" s="1">
-        <v>587</v>
-      </c>
-      <c r="C420" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="s" s="1">
-        <v>243</v>
-      </c>
-      <c r="B421" t="s" s="1">
-        <v>280</v>
-      </c>
-      <c r="C421" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="s" s="1">
-        <v>216</v>
-      </c>
-      <c r="B422" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C422" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="s" s="1">
-        <v>464</v>
-      </c>
-      <c r="B423" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C423" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="s" s="1">
-        <v>339</v>
-      </c>
-      <c r="B424" t="s" s="1">
-        <v>274</v>
-      </c>
-      <c r="C424" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="B425" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C425" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="s" s="1">
-        <v>366</v>
-      </c>
-      <c r="B426" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C426" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="s" s="1">
-        <v>580</v>
-      </c>
-      <c r="B427" t="s" s="1">
-        <v>392</v>
-      </c>
-      <c r="C427" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="s" s="1">
-        <v>259</v>
-      </c>
-      <c r="B428" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C428" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="s" s="1">
-        <v>447</v>
-      </c>
-      <c r="B429" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C429" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="s" s="1">
-        <v>154</v>
-      </c>
-      <c r="B430" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C430" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="s" s="1">
-        <v>199</v>
-      </c>
-      <c r="B431" t="s" s="1">
-        <v>329</v>
-      </c>
-      <c r="C431" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="s" s="1">
-        <v>572</v>
-      </c>
-      <c r="B432" t="s" s="1">
-        <v>634</v>
-      </c>
-      <c r="C432" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="B433" t="s" s="1">
-        <v>291</v>
-      </c>
-      <c r="C433" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="s" s="1">
-        <v>218</v>
-      </c>
-      <c r="B434" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C434" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="s" s="1">
-        <v>404</v>
-      </c>
-      <c r="B435" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C435" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="s" s="1">
-        <v>466</v>
-      </c>
-      <c r="B436" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="C436" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="s" s="1">
-        <v>179</v>
-      </c>
-      <c r="B437" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C437" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="B438" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="C438" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="s" s="1">
-        <v>315</v>
-      </c>
-      <c r="B439" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C439" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="s" s="1">
-        <v>151</v>
-      </c>
-      <c r="B440" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C440" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="B441" t="s" s="1">
-        <v>355</v>
-      </c>
-      <c r="C441" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="s" s="1">
-        <v>217</v>
-      </c>
-      <c r="B442" t="s" s="1">
-        <v>533</v>
-      </c>
-      <c r="C442" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="s" s="1">
-        <v>334</v>
-      </c>
-      <c r="B443" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C443" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="s" s="1">
-        <v>413</v>
-      </c>
-      <c r="B444" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C444" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="s" s="1">
-        <v>242</v>
-      </c>
-      <c r="B445" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C445" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="s" s="1">
-        <v>154</v>
-      </c>
-      <c r="B446" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C446" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="s" s="1">
-        <v>108</v>
-      </c>
-      <c r="B447" t="s" s="1">
-        <v>390</v>
-      </c>
-      <c r="C447" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="s" s="1">
-        <v>371</v>
-      </c>
-      <c r="B448" t="s" s="1">
-        <v>285</v>
-      </c>
-      <c r="C448" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="s" s="1">
-        <v>252</v>
-      </c>
-      <c r="B449" t="s" s="1">
-        <v>289</v>
-      </c>
-      <c r="C449" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="s" s="1">
-        <v>110</v>
-      </c>
-      <c r="B450" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C450" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="s" s="1">
-        <v>447</v>
-      </c>
-      <c r="B451" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C451" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="s" s="1">
-        <v>222</v>
-      </c>
-      <c r="B452" t="s" s="1">
-        <v>279</v>
-      </c>
-      <c r="C452" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="s" s="1">
-        <v>318</v>
-      </c>
-      <c r="B453" t="s" s="1">
-        <v>116</v>
-      </c>
-      <c r="C453" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="s" s="1">
-        <v>358</v>
-      </c>
-      <c r="B454" t="s" s="1">
-        <v>289</v>
-      </c>
-      <c r="C454" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="s" s="1">
-        <v>477</v>
-      </c>
-      <c r="B455" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C455" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="s" s="1">
-        <v>610</v>
-      </c>
-      <c r="B456" t="s" s="1">
-        <v>589</v>
-      </c>
-      <c r="C456" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="B457" t="s" s="1">
-        <v>301</v>
-      </c>
-      <c r="C457" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="s" s="1">
-        <v>505</v>
-      </c>
-      <c r="B458" t="s" s="1">
-        <v>529</v>
-      </c>
-      <c r="C458" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="s" s="1">
-        <v>265</v>
-      </c>
-      <c r="B459" t="s" s="1">
-        <v>535</v>
-      </c>
-      <c r="C459" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="s" s="1">
-        <v>133</v>
-      </c>
-      <c r="B460" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C460" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="s" s="1">
-        <v>413</v>
-      </c>
-      <c r="B461" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C461" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="s" s="1">
-        <v>428</v>
-      </c>
-      <c r="B462" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C462" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="s" s="1">
-        <v>141</v>
-      </c>
-      <c r="B463" t="s" s="1">
-        <v>632</v>
-      </c>
-      <c r="C463" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="s" s="1">
-        <v>132</v>
-      </c>
-      <c r="B464" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C464" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="s" s="1">
-        <v>216</v>
-      </c>
-      <c r="B465" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C465" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="s" s="1">
-        <v>519</v>
-      </c>
-      <c r="B466" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C466" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="s" s="1">
-        <v>158</v>
-      </c>
-      <c r="B467" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C467" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="s" s="1">
-        <v>213</v>
-      </c>
-      <c r="B468" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C468" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="s" s="1">
-        <v>444</v>
-      </c>
-      <c r="B469" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C469" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="s" s="1">
-        <v>454</v>
-      </c>
-      <c r="B470" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C470" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="s" s="1">
-        <v>119</v>
-      </c>
-      <c r="B471" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="C471" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="s" s="1">
-        <v>123</v>
-      </c>
-      <c r="B472" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C472" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="s" s="1">
-        <v>310</v>
-      </c>
-      <c r="B473" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C473" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="s" s="1">
-        <v>430</v>
-      </c>
-      <c r="B474" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C474" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="s" s="1">
-        <v>184</v>
-      </c>
-      <c r="B475" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C475" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="s" s="1">
-        <v>257</v>
-      </c>
-      <c r="B476" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C476" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="s" s="1">
-        <v>495</v>
-      </c>
-      <c r="B477" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="C477" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="s" s="1">
-        <v>466</v>
-      </c>
-      <c r="B478" t="s" s="1">
-        <v>274</v>
-      </c>
-      <c r="C478" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="s" s="1">
-        <v>218</v>
-      </c>
-      <c r="B479" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C479" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="s" s="1">
-        <v>191</v>
-      </c>
-      <c r="B480" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C480" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="s" s="1">
-        <v>308</v>
-      </c>
-      <c r="B481" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="C481" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="s" s="1">
-        <v>148</v>
-      </c>
-      <c r="B482" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C482" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="s" s="1">
-        <v>153</v>
-      </c>
-      <c r="B483" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C483" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="s" s="1">
-        <v>199</v>
-      </c>
-      <c r="B484" t="s" s="1">
-        <v>101</v>
-      </c>
-      <c r="C484" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="s" s="1">
-        <v>150</v>
-      </c>
-      <c r="B485" t="s" s="1">
-        <v>284</v>
-      </c>
-      <c r="C485" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="s" s="1">
-        <v>378</v>
-      </c>
-      <c r="B486" t="s" s="1">
-        <v>289</v>
-      </c>
-      <c r="C486" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="s" s="1">
-        <v>315</v>
-      </c>
-      <c r="B487" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C487" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="s" s="1">
-        <v>97</v>
-      </c>
-      <c r="B488" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C488" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="s" s="1">
-        <v>177</v>
-      </c>
-      <c r="B489" t="s" s="1">
-        <v>527</v>
-      </c>
-      <c r="C489" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="s" s="1">
-        <v>420</v>
-      </c>
-      <c r="B490" t="s" s="1">
-        <v>282</v>
-      </c>
-      <c r="C490" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="s" s="1">
-        <v>146</v>
-      </c>
-      <c r="B491" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="C491" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="s" s="1">
-        <v>187</v>
-      </c>
-      <c r="B492" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C492" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="B493" t="s" s="1">
-        <v>81</v>
-      </c>
-      <c r="C493" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="s" s="1">
-        <v>361</v>
-      </c>
-      <c r="B494" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C494" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="s" s="1">
-        <v>242</v>
-      </c>
-      <c r="B495" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C495" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="s" s="1">
-        <v>393</v>
-      </c>
-      <c r="B496" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C496" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="s" s="1">
-        <v>480</v>
-      </c>
-      <c r="B497" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C497" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="s" s="1">
-        <v>309</v>
-      </c>
-      <c r="B498" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C498" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="B499" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C499" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="s" s="1">
-        <v>342</v>
-      </c>
-      <c r="B500" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C500" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="s" s="1">
-        <v>621</v>
-      </c>
-      <c r="B501" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C501" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="s" s="1">
-        <v>433</v>
-      </c>
-      <c r="B502" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C502" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="s" s="1">
-        <v>193</v>
-      </c>
-      <c r="B503" t="s" s="1">
-        <v>355</v>
-      </c>
-      <c r="C503" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="s" s="1">
-        <v>600</v>
-      </c>
-      <c r="B504" t="s" s="1">
-        <v>517</v>
-      </c>
-      <c r="C504" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="s" s="1">
-        <v>326</v>
-      </c>
-      <c r="B505" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C505" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="s" s="1">
-        <v>509</v>
-      </c>
-      <c r="B506" t="s" s="1">
-        <v>275</v>
-      </c>
-      <c r="C506" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="s" s="1">
-        <v>82</v>
-      </c>
-      <c r="B507" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C507" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="s" s="1">
-        <v>580</v>
-      </c>
-      <c r="B508" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C508" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="s" s="1">
-        <v>144</v>
-      </c>
-      <c r="B509" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C509" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="s" s="1">
-        <v>156</v>
-      </c>
-      <c r="B510" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="C510" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="s" s="1">
-        <v>172</v>
-      </c>
-      <c r="B511" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C511" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="s" s="1">
-        <v>214</v>
-      </c>
-      <c r="B512" t="s" s="1">
-        <v>299</v>
-      </c>
-      <c r="C512" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="s" s="1">
-        <v>104</v>
-      </c>
-      <c r="B513" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C513" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="s" s="1">
-        <v>217</v>
-      </c>
-      <c r="B514" t="s" s="1">
-        <v>277</v>
-      </c>
-      <c r="C514" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="s" s="1">
-        <v>536</v>
-      </c>
-      <c r="B515" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C515" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="s" s="1">
-        <v>113</v>
-      </c>
-      <c r="B516" t="s" s="1">
-        <v>352</v>
-      </c>
-      <c r="C516" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="s" s="1">
-        <v>219</v>
-      </c>
-      <c r="B517" t="s" s="1">
-        <v>544</v>
-      </c>
-      <c r="C517" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="s" s="1">
-        <v>99</v>
-      </c>
-      <c r="B518" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C518" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="s" s="1">
-        <v>473</v>
-      </c>
-      <c r="B519" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C519" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="s" s="1">
-        <v>464</v>
-      </c>
-      <c r="B520" t="s" s="1">
-        <v>116</v>
-      </c>
-      <c r="C520" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="s" s="1">
-        <v>261</v>
-      </c>
-      <c r="B521" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C521" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="s" s="1">
-        <v>417</v>
-      </c>
-      <c r="B522" t="s" s="1">
-        <v>535</v>
-      </c>
-      <c r="C522" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="s" s="1">
-        <v>138</v>
-      </c>
-      <c r="B523" t="s" s="1">
-        <v>390</v>
-      </c>
-      <c r="C523" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="s" s="1">
-        <v>203</v>
-      </c>
-      <c r="B524" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C524" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="B525" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C525" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="s" s="1">
-        <v>404</v>
-      </c>
-      <c r="B526" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C526" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="s" s="1">
-        <v>481</v>
-      </c>
-      <c r="B527" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C527" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="s" s="1">
-        <v>179</v>
-      </c>
-      <c r="B528" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C528" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="s" s="1">
-        <v>162</v>
-      </c>
-      <c r="B529" t="s" s="1">
-        <v>285</v>
-      </c>
-      <c r="C529" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="s" s="1">
-        <v>555</v>
-      </c>
-      <c r="B530" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C530" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="s" s="1">
-        <v>248</v>
-      </c>
-      <c r="B531" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C531" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="s" s="1">
-        <v>151</v>
-      </c>
-      <c r="B532" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="C532" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="s" s="1">
-        <v>259</v>
-      </c>
-      <c r="B533" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C533" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="s" s="1">
-        <v>476</v>
-      </c>
-      <c r="B534" t="s" s="1">
-        <v>494</v>
-      </c>
-      <c r="C534" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="s" s="1">
-        <v>211</v>
-      </c>
-      <c r="B535" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C535" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="s" s="1">
-        <v>122</v>
-      </c>
-      <c r="B536" t="s" s="1">
-        <v>340</v>
-      </c>
-      <c r="C536" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="s" s="1">
-        <v>152</v>
-      </c>
-      <c r="B537" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C537" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="s" s="1">
-        <v>152</v>
-      </c>
-      <c r="B538" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C538" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="s" s="1">
-        <v>184</v>
-      </c>
-      <c r="B539" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C539" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="s" s="1">
-        <v>191</v>
-      </c>
-      <c r="B540" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C540" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="s" s="1">
-        <v>265</v>
-      </c>
-      <c r="B541" t="s" s="1">
-        <v>617</v>
-      </c>
-      <c r="C541" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="s" s="1">
-        <v>214</v>
-      </c>
-      <c r="B542" t="s" s="1">
-        <v>392</v>
-      </c>
-      <c r="C542" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="B543" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="C543" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="s" s="1">
-        <v>358</v>
-      </c>
-      <c r="B544" t="s" s="1">
-        <v>289</v>
-      </c>
-      <c r="C544" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="s" s="1">
-        <v>495</v>
-      </c>
-      <c r="B545" t="s" s="1">
-        <v>460</v>
-      </c>
-      <c r="C545" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="s" s="1">
-        <v>242</v>
-      </c>
-      <c r="B546" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C546" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="s" s="1">
-        <v>151</v>
-      </c>
-      <c r="B547" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="C547" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="s" s="1">
-        <v>119</v>
-      </c>
-      <c r="B548" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C548" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="s" s="1">
-        <v>433</v>
-      </c>
-      <c r="B549" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C549" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="s" s="1">
-        <v>361</v>
-      </c>
-      <c r="B550" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="C550" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="s" s="1">
-        <v>158</v>
-      </c>
-      <c r="B551" t="s" s="1">
-        <v>635</v>
-      </c>
-      <c r="C551" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="s" s="1">
-        <v>378</v>
-      </c>
-      <c r="B552" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C552" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="s" s="1">
-        <v>252</v>
-      </c>
-      <c r="B553" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C553" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="s" s="1">
-        <v>213</v>
-      </c>
-      <c r="B554" t="s" s="1">
-        <v>284</v>
-      </c>
-      <c r="C554" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="s" s="1">
-        <v>99</v>
-      </c>
-      <c r="B555" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C555" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="s" s="1">
-        <v>621</v>
-      </c>
-      <c r="B556" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C556" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="s" s="1">
-        <v>153</v>
-      </c>
-      <c r="B557" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C557" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="s" s="1">
-        <v>476</v>
-      </c>
-      <c r="B558" t="s" s="1">
-        <v>494</v>
-      </c>
-      <c r="C558" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="s" s="1">
-        <v>187</v>
-      </c>
-      <c r="B559" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C559" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="s" s="1">
-        <v>133</v>
-      </c>
-      <c r="B560" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C560" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="s" s="1">
-        <v>216</v>
-      </c>
-      <c r="B561" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C561" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="s" s="1">
-        <v>447</v>
-      </c>
-      <c r="B562" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C562" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="s" s="1">
-        <v>199</v>
-      </c>
-      <c r="B563" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="C563" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="s" s="1">
-        <v>555</v>
-      </c>
-      <c r="B564" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C564" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="s" s="1">
-        <v>444</v>
-      </c>
-      <c r="B565" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C565" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="s" s="1">
-        <v>257</v>
-      </c>
-      <c r="B566" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C566" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="s" s="1">
-        <v>162</v>
-      </c>
-      <c r="B567" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C567" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="s" s="1">
-        <v>371</v>
-      </c>
-      <c r="B568" t="s" s="1">
-        <v>101</v>
-      </c>
-      <c r="C568" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="s" s="1">
-        <v>600</v>
-      </c>
-      <c r="B569" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="C569" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="s" s="1">
-        <v>218</v>
-      </c>
-      <c r="B570" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C570" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="s" s="1">
-        <v>123</v>
-      </c>
-      <c r="B571" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C571" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="s" s="1">
-        <v>393</v>
-      </c>
-      <c r="B572" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C572" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="s" s="1">
-        <v>481</v>
-      </c>
-      <c r="B573" t="s" s="1">
-        <v>301</v>
-      </c>
-      <c r="C573" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="s" s="1">
-        <v>193</v>
-      </c>
-      <c r="B574" t="s" s="1">
-        <v>537</v>
-      </c>
-      <c r="C574" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="s" s="1">
-        <v>505</v>
-      </c>
-      <c r="B575" t="s" s="1">
-        <v>369</v>
-      </c>
-      <c r="C575" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="s" s="1">
-        <v>610</v>
-      </c>
-      <c r="B576" t="s" s="1">
-        <v>311</v>
-      </c>
-      <c r="C576" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="s" s="1">
-        <v>536</v>
-      </c>
-      <c r="B577" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C577" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="s" s="1">
-        <v>110</v>
-      </c>
-      <c r="B578" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C578" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="s" s="1">
-        <v>104</v>
-      </c>
-      <c r="B579" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C579" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="s" s="1">
-        <v>509</v>
-      </c>
-      <c r="B580" t="s" s="1">
-        <v>313</v>
-      </c>
-      <c r="C580" t="s" s="1">
         <v>5</v>
       </c>
     </row>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12849" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13506" uniqueCount="675">
   <si>
     <t>Firm</t>
   </si>
@@ -2029,6 +2029,30 @@
   </si>
   <si>
     <t>Szecskay</t>
+  </si>
+  <si>
+    <t>01min 45s</t>
+  </si>
+  <si>
+    <t>03min 54s</t>
+  </si>
+  <si>
+    <t>03min 13s</t>
+  </si>
+  <si>
+    <t>Cariola Diez Perez-Cotapos</t>
+  </si>
+  <si>
+    <t>Eubelius</t>
+  </si>
+  <si>
+    <t>Tiruchelvam Associates</t>
+  </si>
+  <si>
+    <t>Green Horse Legal</t>
+  </si>
+  <si>
+    <t>03min 23s</t>
   </si>
 </sst>
 </file>
@@ -3016,7 +3040,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -3037,6 +3061,2415 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>355</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>475</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>667</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>397</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>367</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>642</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>405</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>586</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>468</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>512</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>406</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>490</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>370</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>406</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>407</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>581</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>641</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>351</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>640</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>258</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>668</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>616</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>362</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>510</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>347</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>401</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>409</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>638</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>472</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C48" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>508</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>142</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="C50" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>336</v>
+      </c>
+      <c r="B54" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>483</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>493</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>356</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>446</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C58" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>492</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>665</v>
+      </c>
+      <c r="C60" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="C61" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>572</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="C62" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
+        <v>439</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C64" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="1">
+        <v>157</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C65" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C66" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="1">
+        <v>487</v>
+      </c>
+      <c r="B67" t="s" s="1">
+        <v>669</v>
+      </c>
+      <c r="C67" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="B68" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="1">
+        <v>608</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C69" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1">
+        <v>471</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="1">
+        <v>338</v>
+      </c>
+      <c r="B71" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C71" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="B72" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C72" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="B73" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C73" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="C74" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="B75" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C75" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="1">
+        <v>560</v>
+      </c>
+      <c r="B76" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C76" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="B77" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="B78" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="C78" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="1">
+        <v>551</v>
+      </c>
+      <c r="B79" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="1">
+        <v>469</v>
+      </c>
+      <c r="B80" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C80" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="1">
+        <v>670</v>
+      </c>
+      <c r="B81" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C81" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
+        <v>602</v>
+      </c>
+      <c r="B82" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="1">
+        <v>523</v>
+      </c>
+      <c r="B83" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="1">
+        <v>484</v>
+      </c>
+      <c r="B84" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C84" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="1">
+        <v>346</v>
+      </c>
+      <c r="B85" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C85" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="B86" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C86" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="1">
+        <v>459</v>
+      </c>
+      <c r="B87" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C87" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B88" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C88" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="1">
+        <v>243</v>
+      </c>
+      <c r="B89" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="C89" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="1">
+        <v>638</v>
+      </c>
+      <c r="B90" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="C90" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B91" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C91" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="1">
+        <v>671</v>
+      </c>
+      <c r="B92" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="1">
+        <v>359</v>
+      </c>
+      <c r="B93" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C93" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="1">
+        <v>266</v>
+      </c>
+      <c r="B94" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C94" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="1">
+        <v>365</v>
+      </c>
+      <c r="B95" t="s" s="1">
+        <v>618</v>
+      </c>
+      <c r="C95" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="B96" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C96" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="B97" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C97" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="B98" t="s" s="1">
+        <v>665</v>
+      </c>
+      <c r="C98" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B99" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C99" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="B100" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C100" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="1">
+        <v>421</v>
+      </c>
+      <c r="B101" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B102" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="B103" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C103" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="B104" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="1">
+        <v>448</v>
+      </c>
+      <c r="B105" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C105" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C106" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="1">
+        <v>416</v>
+      </c>
+      <c r="B107" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C107" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="1">
+        <v>198</v>
+      </c>
+      <c r="B108" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C108" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="1">
+        <v>647</v>
+      </c>
+      <c r="B109" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C109" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="1">
+        <v>573</v>
+      </c>
+      <c r="B110" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C110" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="B111" t="s" s="1">
+        <v>443</v>
+      </c>
+      <c r="C111" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="B112" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="1">
+        <v>372</v>
+      </c>
+      <c r="B113" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C113" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="1">
+        <v>561</v>
+      </c>
+      <c r="B114" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C114" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="1">
+        <v>672</v>
+      </c>
+      <c r="B115" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C115" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="B116" t="s" s="1">
+        <v>427</v>
+      </c>
+      <c r="C116" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="B117" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C117" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="1">
+        <v>402</v>
+      </c>
+      <c r="B118" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C118" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="1">
+        <v>408</v>
+      </c>
+      <c r="B119" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C119" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="B121" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C121" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="1">
+        <v>640</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="C122" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="1">
+        <v>312</v>
+      </c>
+      <c r="B123" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="1">
+        <v>364</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="1">
+        <v>175</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C125" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B126" t="s" s="1">
+        <v>667</v>
+      </c>
+      <c r="C126" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>317</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="1">
+        <v>100</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C128" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="B130" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C130" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="1">
+        <v>593</v>
+      </c>
+      <c r="B131" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C131" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="1">
+        <v>521</v>
+      </c>
+      <c r="B132" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="C132" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="B133" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="1">
+        <v>360</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C134" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="1">
+        <v>379</v>
+      </c>
+      <c r="B135" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C135" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="1">
+        <v>436</v>
+      </c>
+      <c r="B136" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C136" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="1">
+        <v>522</v>
+      </c>
+      <c r="B137" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C137" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="1">
+        <v>326</v>
+      </c>
+      <c r="B138" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C138" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="1">
+        <v>539</v>
+      </c>
+      <c r="B139" t="s" s="1">
+        <v>490</v>
+      </c>
+      <c r="C139" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="B140" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C140" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="1">
+        <v>470</v>
+      </c>
+      <c r="B141" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C141" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="B142" t="s" s="1">
+        <v>542</v>
+      </c>
+      <c r="C142" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="1">
+        <v>391</v>
+      </c>
+      <c r="B143" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C143" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="1">
+        <v>167</v>
+      </c>
+      <c r="B144" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="C144" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="B145" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C145" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="1">
+        <v>377</v>
+      </c>
+      <c r="B146" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C146" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="1">
+        <v>478</v>
+      </c>
+      <c r="B147" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C147" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C148" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="1">
+        <v>467</v>
+      </c>
+      <c r="B149" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C149" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="1">
+        <v>579</v>
+      </c>
+      <c r="B150" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="1">
+        <v>638</v>
+      </c>
+      <c r="B151" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C151" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="1">
+        <v>673</v>
+      </c>
+      <c r="B152" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="1">
+        <v>395</v>
+      </c>
+      <c r="B153" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C153" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="B154" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C154" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="1">
+        <v>331</v>
+      </c>
+      <c r="B155" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C155" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="1">
+        <v>435</v>
+      </c>
+      <c r="B156" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C156" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="1">
+        <v>422</v>
+      </c>
+      <c r="B157" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C157" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="1">
+        <v>333</v>
+      </c>
+      <c r="B158" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C158" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B159" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="1">
+        <v>660</v>
+      </c>
+      <c r="B160" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C160" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="B161" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="C161" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="1">
+        <v>339</v>
+      </c>
+      <c r="B162" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="1">
+        <v>445</v>
+      </c>
+      <c r="B163" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C163" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="1">
+        <v>415</v>
+      </c>
+      <c r="B164" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B165" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C165" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="1">
+        <v>232</v>
+      </c>
+      <c r="B166" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C166" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="B167" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="1">
+        <v>414</v>
+      </c>
+      <c r="B168" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C168" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="1">
+        <v>563</v>
+      </c>
+      <c r="B169" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C169" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="1">
+        <v>651</v>
+      </c>
+      <c r="B170" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C170" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="B171" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C171" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B172" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C172" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B173" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C173" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="1">
+        <v>330</v>
+      </c>
+      <c r="B174" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C174" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="B175" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C175" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="B176" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C176" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="B177" t="s" s="1">
+        <v>89</v>
+      </c>
+      <c r="C177" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="1">
+        <v>431</v>
+      </c>
+      <c r="B178" t="s" s="1">
+        <v>449</v>
+      </c>
+      <c r="C178" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="1">
+        <v>197</v>
+      </c>
+      <c r="B179" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C179" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="B180" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="C180" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="B181" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C181" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="1">
+        <v>189</v>
+      </c>
+      <c r="B182" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C182" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="1">
+        <v>226</v>
+      </c>
+      <c r="B183" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C183" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="B184" t="s" s="1">
+        <v>674</v>
+      </c>
+      <c r="C184" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="B185" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C185" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="1">
+        <v>450</v>
+      </c>
+      <c r="B186" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="1">
+        <v>644</v>
+      </c>
+      <c r="B187" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="B188" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C188" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="B189" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="C189" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B190" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C190" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="1">
+        <v>303</v>
+      </c>
+      <c r="B191" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="1">
+        <v>550</v>
+      </c>
+      <c r="B192" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C192" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="B193" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C193" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="1">
+        <v>188</v>
+      </c>
+      <c r="B194" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C194" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="1">
+        <v>387</v>
+      </c>
+      <c r="B195" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C195" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B196" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C196" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="1">
+        <v>185</v>
+      </c>
+      <c r="B197" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C197" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="1">
+        <v>147</v>
+      </c>
+      <c r="B198" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C198" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="1">
+        <v>434</v>
+      </c>
+      <c r="B199" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C199" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="1">
+        <v>163</v>
+      </c>
+      <c r="B200" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C200" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="B201" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C201" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="B202" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C202" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B203" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C203" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="B204" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C204" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="1">
+        <v>547</v>
+      </c>
+      <c r="B205" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C205" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="1">
+        <v>574</v>
+      </c>
+      <c r="B206" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="1">
+        <v>204</v>
+      </c>
+      <c r="B207" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C207" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="B208" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="1">
+        <v>176</v>
+      </c>
+      <c r="B209" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C209" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="1">
+        <v>247</v>
+      </c>
+      <c r="B210" t="s" s="1">
+        <v>618</v>
+      </c>
+      <c r="C210" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="B211" t="s" s="1">
+        <v>329</v>
+      </c>
+      <c r="C211" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="1">
+        <v>609</v>
+      </c>
+      <c r="B212" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C212" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="1">
+        <v>194</v>
+      </c>
+      <c r="B213" t="s" s="1">
+        <v>491</v>
+      </c>
+      <c r="C213" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="B214" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C214" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B215" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C215" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="B216" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C216" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="1">
+        <v>583</v>
+      </c>
+      <c r="B217" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C217" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B218" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="1">
+        <v>229</v>
+      </c>
+      <c r="B219" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="C219" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="1">
+        <v>385</v>
+      </c>
+      <c r="B220" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C220" t="s" s="1">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -3040,7 +3040,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -3061,2415 +3061,6 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="1">
-        <v>207</v>
-      </c>
-      <c r="B2" t="s" s="1">
-        <v>355</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="1">
-        <v>170</v>
-      </c>
-      <c r="B3" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C3" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
-        <v>160</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>299</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>279</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="1">
-        <v>475</v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>667</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="1">
-        <v>397</v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>279</v>
-      </c>
-      <c r="C8" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1">
-        <v>367</v>
-      </c>
-      <c r="B9" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="1">
-        <v>261</v>
-      </c>
-      <c r="B10" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="1">
-        <v>642</v>
-      </c>
-      <c r="B11" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C11" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1">
-        <v>190</v>
-      </c>
-      <c r="B12" t="s" s="1">
-        <v>373</v>
-      </c>
-      <c r="C12" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="1">
-        <v>196</v>
-      </c>
-      <c r="B13" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="1">
-        <v>405</v>
-      </c>
-      <c r="B14" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="1">
-        <v>193</v>
-      </c>
-      <c r="B15" t="s" s="1">
-        <v>586</v>
-      </c>
-      <c r="C15" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="1">
-        <v>468</v>
-      </c>
-      <c r="B16" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C16" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="1">
-        <v>512</v>
-      </c>
-      <c r="B17" t="s" s="1">
-        <v>406</v>
-      </c>
-      <c r="C17" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="1">
-        <v>238</v>
-      </c>
-      <c r="B18" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="1">
-        <v>233</v>
-      </c>
-      <c r="B19" t="s" s="1">
-        <v>533</v>
-      </c>
-      <c r="C19" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="1">
-        <v>332</v>
-      </c>
-      <c r="B20" t="s" s="1">
-        <v>490</v>
-      </c>
-      <c r="C20" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="1">
-        <v>235</v>
-      </c>
-      <c r="B22" t="s" s="1">
-        <v>299</v>
-      </c>
-      <c r="C22" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="1">
-        <v>370</v>
-      </c>
-      <c r="B23" t="s" s="1">
-        <v>406</v>
-      </c>
-      <c r="C23" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="1">
-        <v>187</v>
-      </c>
-      <c r="B24" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="1">
-        <v>407</v>
-      </c>
-      <c r="B25" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="1">
-        <v>581</v>
-      </c>
-      <c r="B26" t="s" s="1">
-        <v>280</v>
-      </c>
-      <c r="C26" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="1">
-        <v>641</v>
-      </c>
-      <c r="B27" t="s" s="1">
-        <v>337</v>
-      </c>
-      <c r="C27" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="1">
-        <v>351</v>
-      </c>
-      <c r="B28" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C28" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="1">
-        <v>640</v>
-      </c>
-      <c r="B29" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="1">
-        <v>464</v>
-      </c>
-      <c r="B30" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="1">
-        <v>258</v>
-      </c>
-      <c r="B31" t="s" s="1">
-        <v>668</v>
-      </c>
-      <c r="C31" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="1">
-        <v>120</v>
-      </c>
-      <c r="B32" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C32" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="1">
-        <v>146</v>
-      </c>
-      <c r="B33" t="s" s="1">
-        <v>285</v>
-      </c>
-      <c r="C33" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="1">
-        <v>600</v>
-      </c>
-      <c r="B34" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="1">
-        <v>254</v>
-      </c>
-      <c r="B35" t="s" s="1">
-        <v>294</v>
-      </c>
-      <c r="C35" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="1">
-        <v>158</v>
-      </c>
-      <c r="B36" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="1">
-        <v>616</v>
-      </c>
-      <c r="B37" t="s" s="1">
-        <v>537</v>
-      </c>
-      <c r="C37" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="1">
-        <v>362</v>
-      </c>
-      <c r="B38" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="C38" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="1">
-        <v>172</v>
-      </c>
-      <c r="B39" t="s" s="1">
-        <v>275</v>
-      </c>
-      <c r="C39" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="B40" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="1">
-        <v>510</v>
-      </c>
-      <c r="B41" t="s" s="1">
-        <v>285</v>
-      </c>
-      <c r="C41" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="1">
-        <v>347</v>
-      </c>
-      <c r="B42" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="1">
-        <v>401</v>
-      </c>
-      <c r="B43" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="1">
-        <v>199</v>
-      </c>
-      <c r="B44" t="s" s="1">
-        <v>287</v>
-      </c>
-      <c r="C44" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="1">
-        <v>409</v>
-      </c>
-      <c r="B45" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C45" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="1">
-        <v>638</v>
-      </c>
-      <c r="B46" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="1">
-        <v>472</v>
-      </c>
-      <c r="B47" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="B48" t="s" s="1">
-        <v>373</v>
-      </c>
-      <c r="C48" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="1">
-        <v>508</v>
-      </c>
-      <c r="B49" t="s" s="1">
-        <v>91</v>
-      </c>
-      <c r="C49" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="1">
-        <v>142</v>
-      </c>
-      <c r="B50" t="s" s="1">
-        <v>537</v>
-      </c>
-      <c r="C50" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B51" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="C51" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="1">
-        <v>241</v>
-      </c>
-      <c r="B52" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="1">
-        <v>178</v>
-      </c>
-      <c r="B53" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C53" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="1">
-        <v>336</v>
-      </c>
-      <c r="B54" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="1">
-        <v>483</v>
-      </c>
-      <c r="B55" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C55" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="1">
-        <v>493</v>
-      </c>
-      <c r="B56" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C56" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="1">
-        <v>356</v>
-      </c>
-      <c r="B57" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C57" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="1">
-        <v>446</v>
-      </c>
-      <c r="B58" t="s" s="1">
-        <v>287</v>
-      </c>
-      <c r="C58" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="1">
-        <v>492</v>
-      </c>
-      <c r="B59" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C59" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="1">
-        <v>126</v>
-      </c>
-      <c r="B60" t="s" s="1">
-        <v>665</v>
-      </c>
-      <c r="C60" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="1">
-        <v>371</v>
-      </c>
-      <c r="B61" t="s" s="1">
-        <v>279</v>
-      </c>
-      <c r="C61" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="1">
-        <v>572</v>
-      </c>
-      <c r="B62" t="s" s="1">
-        <v>349</v>
-      </c>
-      <c r="C62" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="1">
-        <v>439</v>
-      </c>
-      <c r="B63" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C63" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="B64" t="s" s="1">
-        <v>98</v>
-      </c>
-      <c r="C64" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="1">
-        <v>157</v>
-      </c>
-      <c r="B65" t="s" s="1">
-        <v>287</v>
-      </c>
-      <c r="C65" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="1">
-        <v>138</v>
-      </c>
-      <c r="B66" t="s" s="1">
-        <v>390</v>
-      </c>
-      <c r="C66" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="1">
-        <v>487</v>
-      </c>
-      <c r="B67" t="s" s="1">
-        <v>669</v>
-      </c>
-      <c r="C67" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="1">
-        <v>140</v>
-      </c>
-      <c r="B68" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="C68" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="1">
-        <v>608</v>
-      </c>
-      <c r="B69" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C69" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="1">
-        <v>471</v>
-      </c>
-      <c r="B70" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="1">
-        <v>338</v>
-      </c>
-      <c r="B71" t="s" s="1">
-        <v>390</v>
-      </c>
-      <c r="C71" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="1">
-        <v>242</v>
-      </c>
-      <c r="B72" t="s" s="1">
-        <v>296</v>
-      </c>
-      <c r="C72" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="1">
-        <v>466</v>
-      </c>
-      <c r="B73" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C73" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="B74" t="s" s="1">
-        <v>297</v>
-      </c>
-      <c r="C74" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="B75" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C75" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="1">
-        <v>560</v>
-      </c>
-      <c r="B76" t="s" s="1">
-        <v>340</v>
-      </c>
-      <c r="C76" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="B77" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="C77" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="1">
-        <v>222</v>
-      </c>
-      <c r="B78" t="s" s="1">
-        <v>537</v>
-      </c>
-      <c r="C78" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="1">
-        <v>551</v>
-      </c>
-      <c r="B79" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C79" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="1">
-        <v>469</v>
-      </c>
-      <c r="B80" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C80" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="1">
-        <v>670</v>
-      </c>
-      <c r="B81" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="C81" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="1">
-        <v>602</v>
-      </c>
-      <c r="B82" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C82" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="1">
-        <v>523</v>
-      </c>
-      <c r="B83" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="1">
-        <v>484</v>
-      </c>
-      <c r="B84" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C84" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="1">
-        <v>346</v>
-      </c>
-      <c r="B85" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C85" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="1">
-        <v>230</v>
-      </c>
-      <c r="B86" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C86" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="1">
-        <v>459</v>
-      </c>
-      <c r="B87" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C87" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="1">
-        <v>133</v>
-      </c>
-      <c r="B88" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C88" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="1">
-        <v>243</v>
-      </c>
-      <c r="B89" t="s" s="1">
-        <v>438</v>
-      </c>
-      <c r="C89" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="1">
-        <v>638</v>
-      </c>
-      <c r="B90" t="s" s="1">
-        <v>294</v>
-      </c>
-      <c r="C90" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="1">
-        <v>361</v>
-      </c>
-      <c r="B91" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C91" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="1">
-        <v>671</v>
-      </c>
-      <c r="B92" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="1">
-        <v>359</v>
-      </c>
-      <c r="B93" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C93" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="1">
-        <v>266</v>
-      </c>
-      <c r="B94" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C94" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="1">
-        <v>365</v>
-      </c>
-      <c r="B95" t="s" s="1">
-        <v>618</v>
-      </c>
-      <c r="C95" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="1">
-        <v>131</v>
-      </c>
-      <c r="B96" t="s" s="1">
-        <v>274</v>
-      </c>
-      <c r="C96" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="1">
-        <v>248</v>
-      </c>
-      <c r="B97" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C97" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="1">
-        <v>228</v>
-      </c>
-      <c r="B98" t="s" s="1">
-        <v>665</v>
-      </c>
-      <c r="C98" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="1">
-        <v>252</v>
-      </c>
-      <c r="B99" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C99" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="1">
-        <v>473</v>
-      </c>
-      <c r="B100" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C100" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="1">
-        <v>421</v>
-      </c>
-      <c r="B101" t="s" s="1">
-        <v>101</v>
-      </c>
-      <c r="C101" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="1">
-        <v>393</v>
-      </c>
-      <c r="B102" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C102" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="1">
-        <v>621</v>
-      </c>
-      <c r="B103" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C103" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="1">
-        <v>181</v>
-      </c>
-      <c r="B104" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C104" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="1">
-        <v>448</v>
-      </c>
-      <c r="B105" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="C105" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="1">
-        <v>96</v>
-      </c>
-      <c r="B106" t="s" s="1">
-        <v>285</v>
-      </c>
-      <c r="C106" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="1">
-        <v>416</v>
-      </c>
-      <c r="B107" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C107" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="1">
-        <v>198</v>
-      </c>
-      <c r="B108" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C108" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="1">
-        <v>647</v>
-      </c>
-      <c r="B109" t="s" s="1">
-        <v>301</v>
-      </c>
-      <c r="C109" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="1">
-        <v>573</v>
-      </c>
-      <c r="B110" t="s" s="1">
-        <v>299</v>
-      </c>
-      <c r="C110" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="1">
-        <v>103</v>
-      </c>
-      <c r="B111" t="s" s="1">
-        <v>443</v>
-      </c>
-      <c r="C111" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="B112" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C112" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="1">
-        <v>372</v>
-      </c>
-      <c r="B113" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="C113" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="1">
-        <v>561</v>
-      </c>
-      <c r="B114" t="s" s="1">
-        <v>286</v>
-      </c>
-      <c r="C114" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="1">
-        <v>672</v>
-      </c>
-      <c r="B115" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="C115" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="1">
-        <v>200</v>
-      </c>
-      <c r="B116" t="s" s="1">
-        <v>427</v>
-      </c>
-      <c r="C116" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="1">
-        <v>88</v>
-      </c>
-      <c r="B117" t="s" s="1">
-        <v>284</v>
-      </c>
-      <c r="C117" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="1">
-        <v>402</v>
-      </c>
-      <c r="B118" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="C118" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="1">
-        <v>408</v>
-      </c>
-      <c r="B119" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C119" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="B120" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C120" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="1">
-        <v>257</v>
-      </c>
-      <c r="B121" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C121" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="1">
-        <v>640</v>
-      </c>
-      <c r="B122" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="C122" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="1">
-        <v>312</v>
-      </c>
-      <c r="B123" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C123" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="1">
-        <v>364</v>
-      </c>
-      <c r="B124" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C124" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="1">
-        <v>175</v>
-      </c>
-      <c r="B125" t="s" s="1">
-        <v>274</v>
-      </c>
-      <c r="C125" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="1">
-        <v>265</v>
-      </c>
-      <c r="B126" t="s" s="1">
-        <v>667</v>
-      </c>
-      <c r="C126" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="1">
-        <v>317</v>
-      </c>
-      <c r="B127" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C127" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="1">
-        <v>100</v>
-      </c>
-      <c r="B128" t="s" s="1">
-        <v>275</v>
-      </c>
-      <c r="C128" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="B129" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C129" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="1">
-        <v>656</v>
-      </c>
-      <c r="B130" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C130" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="1">
-        <v>593</v>
-      </c>
-      <c r="B131" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C131" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="1">
-        <v>521</v>
-      </c>
-      <c r="B132" t="s" s="1">
-        <v>438</v>
-      </c>
-      <c r="C132" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="1">
-        <v>205</v>
-      </c>
-      <c r="B133" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C133" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="1">
-        <v>360</v>
-      </c>
-      <c r="B134" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C134" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="1">
-        <v>379</v>
-      </c>
-      <c r="B135" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C135" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="1">
-        <v>436</v>
-      </c>
-      <c r="B136" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="C136" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="1">
-        <v>522</v>
-      </c>
-      <c r="B137" t="s" s="1">
-        <v>274</v>
-      </c>
-      <c r="C137" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="1">
-        <v>326</v>
-      </c>
-      <c r="B138" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C138" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="1">
-        <v>539</v>
-      </c>
-      <c r="B139" t="s" s="1">
-        <v>490</v>
-      </c>
-      <c r="C139" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="B140" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C140" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="1">
-        <v>470</v>
-      </c>
-      <c r="B141" t="s" s="1">
-        <v>289</v>
-      </c>
-      <c r="C141" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="1">
-        <v>94</v>
-      </c>
-      <c r="B142" t="s" s="1">
-        <v>542</v>
-      </c>
-      <c r="C142" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="1">
-        <v>391</v>
-      </c>
-      <c r="B143" t="s" s="1">
-        <v>277</v>
-      </c>
-      <c r="C143" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="1">
-        <v>167</v>
-      </c>
-      <c r="B144" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="C144" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="1">
-        <v>318</v>
-      </c>
-      <c r="B145" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C145" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="1">
-        <v>377</v>
-      </c>
-      <c r="B146" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C146" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="1">
-        <v>478</v>
-      </c>
-      <c r="B147" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="C147" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="1">
-        <v>148</v>
-      </c>
-      <c r="B148" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C148" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="1">
-        <v>467</v>
-      </c>
-      <c r="B149" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C149" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="1">
-        <v>579</v>
-      </c>
-      <c r="B150" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C150" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="1">
-        <v>638</v>
-      </c>
-      <c r="B151" t="s" s="1">
-        <v>375</v>
-      </c>
-      <c r="C151" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="1">
-        <v>673</v>
-      </c>
-      <c r="B152" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C152" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="1">
-        <v>395</v>
-      </c>
-      <c r="B153" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C153" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="1">
-        <v>211</v>
-      </c>
-      <c r="B154" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C154" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="1">
-        <v>331</v>
-      </c>
-      <c r="B155" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C155" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="1">
-        <v>435</v>
-      </c>
-      <c r="B156" t="s" s="1">
-        <v>287</v>
-      </c>
-      <c r="C156" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="1">
-        <v>422</v>
-      </c>
-      <c r="B157" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C157" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="1">
-        <v>333</v>
-      </c>
-      <c r="B158" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C158" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="1">
-        <v>216</v>
-      </c>
-      <c r="B159" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C159" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="1">
-        <v>660</v>
-      </c>
-      <c r="B160" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C160" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="1">
-        <v>124</v>
-      </c>
-      <c r="B161" t="s" s="1">
-        <v>297</v>
-      </c>
-      <c r="C161" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s" s="1">
-        <v>339</v>
-      </c>
-      <c r="B162" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C162" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="1">
-        <v>445</v>
-      </c>
-      <c r="B163" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C163" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="1">
-        <v>415</v>
-      </c>
-      <c r="B164" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C164" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="1">
-        <v>509</v>
-      </c>
-      <c r="B165" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C165" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="1">
-        <v>232</v>
-      </c>
-      <c r="B166" t="s" s="1">
-        <v>283</v>
-      </c>
-      <c r="C166" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="1">
-        <v>218</v>
-      </c>
-      <c r="B167" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C167" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="1">
-        <v>414</v>
-      </c>
-      <c r="B168" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C168" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="1">
-        <v>563</v>
-      </c>
-      <c r="B169" t="s" s="1">
-        <v>277</v>
-      </c>
-      <c r="C169" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="1">
-        <v>651</v>
-      </c>
-      <c r="B170" t="s" s="1">
-        <v>289</v>
-      </c>
-      <c r="C170" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s" s="1">
-        <v>110</v>
-      </c>
-      <c r="B171" t="s" s="1">
-        <v>274</v>
-      </c>
-      <c r="C171" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s" s="1">
-        <v>123</v>
-      </c>
-      <c r="B172" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C172" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="1">
-        <v>122</v>
-      </c>
-      <c r="B173" t="s" s="1">
-        <v>533</v>
-      </c>
-      <c r="C173" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="1">
-        <v>330</v>
-      </c>
-      <c r="B174" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="C174" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="1">
-        <v>105</v>
-      </c>
-      <c r="B175" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C175" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="1">
-        <v>239</v>
-      </c>
-      <c r="B176" t="s" s="1">
-        <v>313</v>
-      </c>
-      <c r="C176" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="1">
-        <v>417</v>
-      </c>
-      <c r="B177" t="s" s="1">
-        <v>89</v>
-      </c>
-      <c r="C177" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="1">
-        <v>431</v>
-      </c>
-      <c r="B178" t="s" s="1">
-        <v>449</v>
-      </c>
-      <c r="C178" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s" s="1">
-        <v>197</v>
-      </c>
-      <c r="B179" t="s" s="1">
-        <v>533</v>
-      </c>
-      <c r="C179" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s" s="1">
-        <v>253</v>
-      </c>
-      <c r="B180" t="s" s="1">
-        <v>279</v>
-      </c>
-      <c r="C180" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="B181" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="C181" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="1">
-        <v>189</v>
-      </c>
-      <c r="B182" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="C182" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="1">
-        <v>226</v>
-      </c>
-      <c r="B183" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C183" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="1">
-        <v>396</v>
-      </c>
-      <c r="B184" t="s" s="1">
-        <v>674</v>
-      </c>
-      <c r="C184" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s" s="1">
-        <v>381</v>
-      </c>
-      <c r="B185" t="s" s="1">
-        <v>276</v>
-      </c>
-      <c r="C185" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s" s="1">
-        <v>450</v>
-      </c>
-      <c r="B186" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C186" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="1">
-        <v>644</v>
-      </c>
-      <c r="B187" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="C187" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="1">
-        <v>350</v>
-      </c>
-      <c r="B188" t="s" s="1">
-        <v>274</v>
-      </c>
-      <c r="C188" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="1">
-        <v>191</v>
-      </c>
-      <c r="B189" t="s" s="1">
-        <v>288</v>
-      </c>
-      <c r="C189" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="1">
-        <v>308</v>
-      </c>
-      <c r="B190" t="s" s="1">
-        <v>285</v>
-      </c>
-      <c r="C190" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="1">
-        <v>303</v>
-      </c>
-      <c r="B191" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C191" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="1">
-        <v>550</v>
-      </c>
-      <c r="B192" t="s" s="1">
-        <v>273</v>
-      </c>
-      <c r="C192" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="1">
-        <v>152</v>
-      </c>
-      <c r="B193" t="s" s="1">
-        <v>284</v>
-      </c>
-      <c r="C193" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s" s="1">
-        <v>188</v>
-      </c>
-      <c r="B194" t="s" s="1">
-        <v>626</v>
-      </c>
-      <c r="C194" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="1">
-        <v>387</v>
-      </c>
-      <c r="B195" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C195" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="B196" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C196" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s" s="1">
-        <v>185</v>
-      </c>
-      <c r="B197" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="C197" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s" s="1">
-        <v>147</v>
-      </c>
-      <c r="B198" t="s" s="1">
-        <v>295</v>
-      </c>
-      <c r="C198" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s" s="1">
-        <v>434</v>
-      </c>
-      <c r="B199" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="C199" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="1">
-        <v>163</v>
-      </c>
-      <c r="B200" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="C200" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="B201" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="C201" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="1">
-        <v>430</v>
-      </c>
-      <c r="B202" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="C202" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="1">
-        <v>80</v>
-      </c>
-      <c r="B203" t="s" s="1">
-        <v>280</v>
-      </c>
-      <c r="C203" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s" s="1">
-        <v>139</v>
-      </c>
-      <c r="B204" t="s" s="1">
-        <v>284</v>
-      </c>
-      <c r="C204" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s" s="1">
-        <v>547</v>
-      </c>
-      <c r="B205" t="s" s="1">
-        <v>284</v>
-      </c>
-      <c r="C205" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="1">
-        <v>574</v>
-      </c>
-      <c r="B206" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C206" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="1">
-        <v>204</v>
-      </c>
-      <c r="B207" t="s" s="1">
-        <v>375</v>
-      </c>
-      <c r="C207" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s" s="1">
-        <v>263</v>
-      </c>
-      <c r="B208" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="C208" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s" s="1">
-        <v>176</v>
-      </c>
-      <c r="B209" t="s" s="1">
-        <v>340</v>
-      </c>
-      <c r="C209" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s" s="1">
-        <v>247</v>
-      </c>
-      <c r="B210" t="s" s="1">
-        <v>618</v>
-      </c>
-      <c r="C210" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s" s="1">
-        <v>348</v>
-      </c>
-      <c r="B211" t="s" s="1">
-        <v>329</v>
-      </c>
-      <c r="C211" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s" s="1">
-        <v>609</v>
-      </c>
-      <c r="B212" t="s" s="1">
-        <v>375</v>
-      </c>
-      <c r="C212" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s" s="1">
-        <v>194</v>
-      </c>
-      <c r="B213" t="s" s="1">
-        <v>491</v>
-      </c>
-      <c r="C213" t="s" s="1">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s" s="1">
-        <v>128</v>
-      </c>
-      <c r="B214" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="C214" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="B215" t="s" s="1">
-        <v>281</v>
-      </c>
-      <c r="C215" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s" s="1">
-        <v>658</v>
-      </c>
-      <c r="B216" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="C216" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s" s="1">
-        <v>583</v>
-      </c>
-      <c r="B217" t="s" s="1">
-        <v>392</v>
-      </c>
-      <c r="C217" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="B218" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s" s="1">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s" s="1">
-        <v>229</v>
-      </c>
-      <c r="B219" t="s" s="1">
-        <v>294</v>
-      </c>
-      <c r="C219" t="s" s="1">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s" s="1">
-        <v>385</v>
-      </c>
-      <c r="B220" t="s" s="1">
-        <v>313</v>
-      </c>
-      <c r="C220" t="s" s="1">
-        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13506" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14511" uniqueCount="692">
   <si>
     <t>Firm</t>
   </si>
@@ -2053,6 +2053,57 @@
   </si>
   <si>
     <t>03min 23s</t>
+  </si>
+  <si>
+    <t>GPK</t>
+  </si>
+  <si>
+    <t>GRATA International</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>HCR Legal</t>
+  </si>
+  <si>
+    <t>Boyanov</t>
+  </si>
+  <si>
+    <t>Kallio Law</t>
+  </si>
+  <si>
+    <t>02min 50s</t>
+  </si>
+  <si>
+    <t>JPM And Partners</t>
+  </si>
+  <si>
+    <t>DMS Legal</t>
+  </si>
+  <si>
+    <t>Eldib Advocates</t>
+  </si>
+  <si>
+    <t>Bureau Plattner</t>
+  </si>
+  <si>
+    <t>03min 27s</t>
+  </si>
+  <si>
+    <t>MVVP advocaten</t>
+  </si>
+  <si>
+    <t>03min 26s</t>
+  </si>
+  <si>
+    <t>Avance</t>
+  </si>
+  <si>
+    <t>BSJP</t>
+  </si>
+  <si>
+    <t>02min 04s</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14511" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16044" uniqueCount="709">
   <si>
     <t>Firm</t>
   </si>
@@ -2104,6 +2104,57 @@
   </si>
   <si>
     <t>02min 04s</t>
+  </si>
+  <si>
+    <t>CEPD Abogados</t>
+  </si>
+  <si>
+    <t>03min 58s</t>
+  </si>
+  <si>
+    <t>ASC hukuk</t>
+  </si>
+  <si>
+    <t>ALSTONAndBIRD LLP</t>
+  </si>
+  <si>
+    <t>ALP NGAndCo</t>
+  </si>
+  <si>
+    <t>Harper James Solicitors</t>
+  </si>
+  <si>
+    <t>Aman And Partners</t>
+  </si>
+  <si>
+    <t>Chevez Ruiz Zamarripa</t>
+  </si>
+  <si>
+    <t>02min 07s</t>
+  </si>
+  <si>
+    <t>Badri and Salim El Meouchi Law</t>
+  </si>
+  <si>
+    <t>Stone King</t>
+  </si>
+  <si>
+    <t>Adsero</t>
+  </si>
+  <si>
+    <t>Farroco Abreu Guarnieri Zotelli</t>
+  </si>
+  <si>
+    <t>03min 39s</t>
+  </si>
+  <si>
+    <t>02min 53s</t>
+  </si>
+  <si>
+    <t>02min 33s</t>
+  </si>
+  <si>
+    <t>04min 18s</t>
   </si>
 </sst>
 </file>
@@ -3091,7 +3142,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C512"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -3112,6 +3163,5627 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>618</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>336</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>331</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>623</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>692</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>672</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>550</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>636</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>581</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>542</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>364</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>406</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>407</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>377</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>351</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>395</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>339</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>478</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>639</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>470</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>693</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>477</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>450</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>448</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>359</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>652</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>421</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>379</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>521</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>459</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>694</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>347</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>624</v>
+      </c>
+      <c r="C49" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>666</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C50" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>304</v>
+      </c>
+      <c r="C51" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>644</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C53" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B54" t="s" s="1">
+        <v>535</v>
+      </c>
+      <c r="C54" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>586</v>
+      </c>
+      <c r="C55" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C56" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>369</v>
+      </c>
+      <c r="C58" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>196</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C59" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>317</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>608</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C61" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>315</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>544</v>
+      </c>
+      <c r="C63" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C65" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="1">
+        <v>428</v>
+      </c>
+      <c r="B66" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C66" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="B67" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="1">
+        <v>436</v>
+      </c>
+      <c r="B68" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C69" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="B72" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="B73" t="s" s="1">
+        <v>542</v>
+      </c>
+      <c r="C73" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="B74" t="s" s="1">
+        <v>542</v>
+      </c>
+      <c r="C74" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="B75" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C75" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B76" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C76" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C77" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C78" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="1">
+        <v>431</v>
+      </c>
+      <c r="B80" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="C80" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="B81" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C81" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
+        <v>484</v>
+      </c>
+      <c r="B82" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C82" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="1">
+        <v>573</v>
+      </c>
+      <c r="B83" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C83" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="1">
+        <v>695</v>
+      </c>
+      <c r="B84" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C84" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="B85" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C85" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="B86" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="B87" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C87" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="1">
+        <v>696</v>
+      </c>
+      <c r="B88" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C88" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="1">
+        <v>493</v>
+      </c>
+      <c r="B89" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="C89" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="B90" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C90" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="1">
+        <v>397</v>
+      </c>
+      <c r="B91" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C91" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="1">
+        <v>638</v>
+      </c>
+      <c r="B92" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C92" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="B93" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C93" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="B94" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="1">
+        <v>131</v>
+      </c>
+      <c r="B95" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="C95" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="C96" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B97" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="1">
+        <v>178</v>
+      </c>
+      <c r="B98" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="C98" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="1">
+        <v>356</v>
+      </c>
+      <c r="B99" t="s" s="1">
+        <v>406</v>
+      </c>
+      <c r="C99" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="B100" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C100" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="1">
+        <v>638</v>
+      </c>
+      <c r="B101" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C101" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="1">
+        <v>176</v>
+      </c>
+      <c r="B102" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C102" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C103" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="1">
+        <v>512</v>
+      </c>
+      <c r="B104" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C104" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="1">
+        <v>194</v>
+      </c>
+      <c r="B105" t="s" s="1">
+        <v>590</v>
+      </c>
+      <c r="C105" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C106" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="B107" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C107" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="B108" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C108" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="1">
+        <v>664</v>
+      </c>
+      <c r="B109" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="C109" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="1">
+        <v>583</v>
+      </c>
+      <c r="B110" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C110" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="B111" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C111" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="1">
+        <v>508</v>
+      </c>
+      <c r="B112" t="s" s="1">
+        <v>529</v>
+      </c>
+      <c r="C112" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="1">
+        <v>697</v>
+      </c>
+      <c r="B113" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C113" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="B114" t="s" s="1">
+        <v>614</v>
+      </c>
+      <c r="C114" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="1">
+        <v>147</v>
+      </c>
+      <c r="B115" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C115" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="1">
+        <v>640</v>
+      </c>
+      <c r="B116" t="s" s="1">
+        <v>504</v>
+      </c>
+      <c r="C116" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="1">
+        <v>487</v>
+      </c>
+      <c r="B117" t="s" s="1">
+        <v>456</v>
+      </c>
+      <c r="C117" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="1">
+        <v>362</v>
+      </c>
+      <c r="B118" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C118" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="1">
+        <v>142</v>
+      </c>
+      <c r="B119" t="s" s="1">
+        <v>528</v>
+      </c>
+      <c r="C119" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="B120" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C120" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="B121" t="s" s="1">
+        <v>544</v>
+      </c>
+      <c r="C121" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="1">
+        <v>404</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C122" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="1">
+        <v>673</v>
+      </c>
+      <c r="B123" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C123" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>612</v>
+      </c>
+      <c r="C124" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="1">
+        <v>326</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C125" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="B126" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C126" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>476</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>443</v>
+      </c>
+      <c r="C127" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="C128" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="1">
+        <v>370</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="C129" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="1">
+        <v>405</v>
+      </c>
+      <c r="B130" t="s" s="1">
+        <v>627</v>
+      </c>
+      <c r="C130" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="B131" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C131" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="1">
+        <v>616</v>
+      </c>
+      <c r="B132" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C132" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="1">
+        <v>561</v>
+      </c>
+      <c r="B133" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C133" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="B135" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C135" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="1">
+        <v>229</v>
+      </c>
+      <c r="B136" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="C136" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="1">
+        <v>651</v>
+      </c>
+      <c r="B137" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C137" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="1">
+        <v>434</v>
+      </c>
+      <c r="B138" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C138" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="1">
+        <v>360</v>
+      </c>
+      <c r="B139" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="1">
+        <v>266</v>
+      </c>
+      <c r="B140" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C140" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="1">
+        <v>593</v>
+      </c>
+      <c r="B141" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="B142" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C142" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B143" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C143" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="1">
+        <v>414</v>
+      </c>
+      <c r="B144" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C144" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="B145" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C145" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="1">
+        <v>408</v>
+      </c>
+      <c r="B146" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C146" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="1">
+        <v>243</v>
+      </c>
+      <c r="B147" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="C147" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C148" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="1">
+        <v>698</v>
+      </c>
+      <c r="B149" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C149" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="1">
+        <v>640</v>
+      </c>
+      <c r="B150" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="C150" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="B151" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C151" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="1">
+        <v>175</v>
+      </c>
+      <c r="B152" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C152" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="1">
+        <v>342</v>
+      </c>
+      <c r="B153" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C153" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="B154" t="s" s="1">
+        <v>585</v>
+      </c>
+      <c r="C154" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="1">
+        <v>312</v>
+      </c>
+      <c r="B155" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C155" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="1">
+        <v>572</v>
+      </c>
+      <c r="B156" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="C156" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="B157" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="B158" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C158" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="1">
+        <v>492</v>
+      </c>
+      <c r="B159" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="C159" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="1">
+        <v>415</v>
+      </c>
+      <c r="B160" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C160" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B161" t="s" s="1">
+        <v>494</v>
+      </c>
+      <c r="C161" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="1">
+        <v>642</v>
+      </c>
+      <c r="B162" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C162" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="1">
+        <v>318</v>
+      </c>
+      <c r="B163" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C163" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="1">
+        <v>671</v>
+      </c>
+      <c r="B164" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="B165" t="s" s="1">
+        <v>297</v>
+      </c>
+      <c r="C165" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="B166" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C166" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="1">
+        <v>365</v>
+      </c>
+      <c r="B167" t="s" s="1">
+        <v>535</v>
+      </c>
+      <c r="C167" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="B168" t="s" s="1">
+        <v>594</v>
+      </c>
+      <c r="C168" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="B169" t="s" s="1">
+        <v>627</v>
+      </c>
+      <c r="C169" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="1">
+        <v>467</v>
+      </c>
+      <c r="B170" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C170" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="1">
+        <v>651</v>
+      </c>
+      <c r="B171" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C171" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="1">
+        <v>563</v>
+      </c>
+      <c r="B172" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C172" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B173" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C173" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="1">
+        <v>445</v>
+      </c>
+      <c r="B174" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C174" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="1">
+        <v>475</v>
+      </c>
+      <c r="B175" t="s" s="1">
+        <v>449</v>
+      </c>
+      <c r="C175" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="B176" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C176" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="1">
+        <v>469</v>
+      </c>
+      <c r="B177" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C177" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="1">
+        <v>516</v>
+      </c>
+      <c r="B178" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C178" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="1">
+        <v>660</v>
+      </c>
+      <c r="B179" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C179" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="1">
+        <v>579</v>
+      </c>
+      <c r="B180" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C180" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B181" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B182" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C182" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="1">
+        <v>385</v>
+      </c>
+      <c r="B183" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C183" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B184" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C184" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="1">
+        <v>330</v>
+      </c>
+      <c r="B185" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C185" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="1">
+        <v>197</v>
+      </c>
+      <c r="B186" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C186" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="1">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s" s="1">
+        <v>355</v>
+      </c>
+      <c r="C187" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="1">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C188" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="B189" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C189" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="B190" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="C190" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="B191" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="C191" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="B192" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C192" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="B193" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C193" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="1">
+        <v>483</v>
+      </c>
+      <c r="B194" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C194" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="B195" t="s" s="1">
+        <v>625</v>
+      </c>
+      <c r="C195" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="1">
+        <v>136</v>
+      </c>
+      <c r="B196" t="s" s="1">
+        <v>545</v>
+      </c>
+      <c r="C196" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="1">
+        <v>699</v>
+      </c>
+      <c r="B197" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C197" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="1">
+        <v>258</v>
+      </c>
+      <c r="B198" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="C198" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B199" t="s" s="1">
+        <v>532</v>
+      </c>
+      <c r="C199" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="B200" t="s" s="1">
+        <v>589</v>
+      </c>
+      <c r="C200" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="1">
+        <v>638</v>
+      </c>
+      <c r="B201" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C201" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="B202" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C202" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B203" t="s" s="1">
+        <v>700</v>
+      </c>
+      <c r="C203" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="1">
+        <v>560</v>
+      </c>
+      <c r="B204" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C204" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="B205" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C205" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="B206" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="C206" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="1">
+        <v>157</v>
+      </c>
+      <c r="B207" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C207" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="1">
+        <v>641</v>
+      </c>
+      <c r="B208" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="C208" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="1">
+        <v>338</v>
+      </c>
+      <c r="B209" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C209" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="1">
+        <v>510</v>
+      </c>
+      <c r="B210" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C210" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="1">
+        <v>391</v>
+      </c>
+      <c r="B211" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C211" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="1">
+        <v>167</v>
+      </c>
+      <c r="B212" t="s" s="1">
+        <v>613</v>
+      </c>
+      <c r="C212" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="1">
+        <v>160</v>
+      </c>
+      <c r="B213" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C213" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="1">
+        <v>416</v>
+      </c>
+      <c r="B214" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C214" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="B215" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C215" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="1">
+        <v>100</v>
+      </c>
+      <c r="B216" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C216" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="B217" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="B218" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C218" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="B219" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C219" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="B220" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C220" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="B221" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C221" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="1">
+        <v>471</v>
+      </c>
+      <c r="B222" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C222" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="B223" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C223" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B224" t="s" s="1">
+        <v>544</v>
+      </c>
+      <c r="C224" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="1">
+        <v>701</v>
+      </c>
+      <c r="B225" t="s" s="1">
+        <v>665</v>
+      </c>
+      <c r="C225" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="B226" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C226" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="1">
+        <v>367</v>
+      </c>
+      <c r="B227" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C227" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B228" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C228" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B229" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C229" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B230" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C230" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="1">
+        <v>238</v>
+      </c>
+      <c r="B231" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="C231" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="1">
+        <v>551</v>
+      </c>
+      <c r="B232" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C232" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B233" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="C233" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="B234" t="s" s="1">
+        <v>406</v>
+      </c>
+      <c r="C234" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="B235" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C235" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="1">
+        <v>226</v>
+      </c>
+      <c r="B236" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C236" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B237" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C237" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="1">
+        <v>472</v>
+      </c>
+      <c r="B238" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C238" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="1">
+        <v>409</v>
+      </c>
+      <c r="B239" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C239" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="1">
+        <v>468</v>
+      </c>
+      <c r="B240" t="s" s="1">
+        <v>279</v>
+      </c>
+      <c r="C240" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="B241" t="s" s="1">
+        <v>586</v>
+      </c>
+      <c r="C241" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="B242" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C242" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="1">
+        <v>522</v>
+      </c>
+      <c r="B243" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C243" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B244" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C244" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="1">
+        <v>670</v>
+      </c>
+      <c r="B245" t="s" s="1">
+        <v>667</v>
+      </c>
+      <c r="C245" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="B246" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C246" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="1">
+        <v>422</v>
+      </c>
+      <c r="B247" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C247" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="B248" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C248" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="1">
+        <v>303</v>
+      </c>
+      <c r="B249" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C249" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="1">
+        <v>401</v>
+      </c>
+      <c r="B250" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C250" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B251" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C251" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="1">
+        <v>439</v>
+      </c>
+      <c r="B252" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C252" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="1">
+        <v>204</v>
+      </c>
+      <c r="B253" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C253" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="B254" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C254" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="B255" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C255" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B256" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C256" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="1">
+        <v>333</v>
+      </c>
+      <c r="B257" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C257" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="1">
+        <v>523</v>
+      </c>
+      <c r="B258" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C258" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="1">
+        <v>163</v>
+      </c>
+      <c r="B259" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C259" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="1">
+        <v>346</v>
+      </c>
+      <c r="B260" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C260" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="1">
+        <v>446</v>
+      </c>
+      <c r="B261" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C261" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="1">
+        <v>232</v>
+      </c>
+      <c r="B262" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C262" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="B263" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C263" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="B264" t="s" s="1">
+        <v>328</v>
+      </c>
+      <c r="C264" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="1">
+        <v>602</v>
+      </c>
+      <c r="B265" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C265" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="B266" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C266" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="B267" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C267" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="1">
+        <v>198</v>
+      </c>
+      <c r="B268" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C268" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="1">
+        <v>702</v>
+      </c>
+      <c r="B269" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C269" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="1">
+        <v>647</v>
+      </c>
+      <c r="B270" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C270" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="1">
+        <v>435</v>
+      </c>
+      <c r="B271" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C271" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B272" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C272" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B273" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="C273" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="1">
+        <v>703</v>
+      </c>
+      <c r="B274" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C274" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B275" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C275" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="B276" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C276" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="B277" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C277" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="1">
+        <v>704</v>
+      </c>
+      <c r="B278" t="s" s="1">
+        <v>627</v>
+      </c>
+      <c r="C278" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="1">
+        <v>539</v>
+      </c>
+      <c r="B279" t="s" s="1">
+        <v>705</v>
+      </c>
+      <c r="C279" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B280" t="s" s="1">
+        <v>498</v>
+      </c>
+      <c r="C280" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="1">
+        <v>342</v>
+      </c>
+      <c r="B281" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C281" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="1">
+        <v>333</v>
+      </c>
+      <c r="B282" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C282" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="B283" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="C283" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="B284" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C284" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="B285" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C285" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="B286" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C286" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="1">
+        <v>666</v>
+      </c>
+      <c r="B287" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C287" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B288" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="C288" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="1">
+        <v>476</v>
+      </c>
+      <c r="B289" t="s" s="1">
+        <v>494</v>
+      </c>
+      <c r="C289" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B290" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C290" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="1">
+        <v>247</v>
+      </c>
+      <c r="B291" t="s" s="1">
+        <v>328</v>
+      </c>
+      <c r="C291" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B292" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C292" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B293" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C293" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B294" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C294" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="1">
+        <v>701</v>
+      </c>
+      <c r="B295" t="s" s="1">
+        <v>590</v>
+      </c>
+      <c r="C295" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="1">
+        <v>409</v>
+      </c>
+      <c r="B296" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C296" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="1">
+        <v>652</v>
+      </c>
+      <c r="B297" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C297" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B298" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C298" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="B299" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="C299" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B300" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C300" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="1">
+        <v>508</v>
+      </c>
+      <c r="B301" t="s" s="1">
+        <v>324</v>
+      </c>
+      <c r="C301" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="B302" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C302" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="B303" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C303" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B304" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C304" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="B305" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C305" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="1">
+        <v>641</v>
+      </c>
+      <c r="B306" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C306" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="1">
+        <v>642</v>
+      </c>
+      <c r="B307" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C307" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B308" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C308" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="B309" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C309" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B310" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C310" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B311" t="s" s="1">
+        <v>607</v>
+      </c>
+      <c r="C311" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B312" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C312" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="B313" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C313" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="B314" t="s" s="1">
+        <v>700</v>
+      </c>
+      <c r="C314" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B315" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C315" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="B316" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C316" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="1">
+        <v>472</v>
+      </c>
+      <c r="B317" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C317" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B318" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C318" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="1">
+        <v>672</v>
+      </c>
+      <c r="B319" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C319" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="B320" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="C320" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="B321" t="s" s="1">
+        <v>443</v>
+      </c>
+      <c r="C321" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="1">
+        <v>639</v>
+      </c>
+      <c r="B322" t="s" s="1">
+        <v>544</v>
+      </c>
+      <c r="C322" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B323" t="s" s="1">
+        <v>324</v>
+      </c>
+      <c r="C323" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="B324" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C324" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B325" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="C325" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="B326" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C326" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="B327" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C327" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="B328" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C328" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B329" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C329" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B330" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C330" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="B331" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C331" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B332" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C332" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="B333" t="s" s="1">
+        <v>499</v>
+      </c>
+      <c r="C333" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="B334" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C334" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="B335" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C335" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="B336" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C336" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="1">
+        <v>471</v>
+      </c>
+      <c r="B337" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C337" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B338" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C338" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B339" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C339" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="B340" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C340" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B341" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="C341" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="B342" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C342" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="1">
+        <v>636</v>
+      </c>
+      <c r="B343" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="C343" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="B344" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C344" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="B345" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C345" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="B346" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C346" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="B347" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C347" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="B348" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C348" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B349" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C349" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="B350" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C350" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="B351" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C351" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="1">
+        <v>704</v>
+      </c>
+      <c r="B352" t="s" s="1">
+        <v>449</v>
+      </c>
+      <c r="C352" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="B353" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C353" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="B354" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C354" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="B355" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C355" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B356" t="s" s="1">
+        <v>591</v>
+      </c>
+      <c r="C356" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B357" t="s" s="1">
+        <v>657</v>
+      </c>
+      <c r="C357" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B358" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C358" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="1">
+        <v>468</v>
+      </c>
+      <c r="B359" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C359" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="1">
+        <v>431</v>
+      </c>
+      <c r="B360" t="s" s="1">
+        <v>272</v>
+      </c>
+      <c r="C360" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="B361" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C361" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="B362" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C362" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="1">
+        <v>644</v>
+      </c>
+      <c r="B363" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C363" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="B364" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="C364" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="B365" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C365" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="B366" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C366" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="1">
+        <v>664</v>
+      </c>
+      <c r="B367" t="s" s="1">
+        <v>437</v>
+      </c>
+      <c r="C367" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="1">
+        <v>660</v>
+      </c>
+      <c r="B368" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C368" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="B369" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C369" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B370" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C370" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="B371" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C371" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="B372" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C372" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B373" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C373" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="B374" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C374" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="1">
+        <v>579</v>
+      </c>
+      <c r="B375" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C375" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="1">
+        <v>516</v>
+      </c>
+      <c r="B376" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C376" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B377" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C377" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="B378" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C378" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="1">
+        <v>404</v>
+      </c>
+      <c r="B379" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C379" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B380" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C380" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="B381" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C381" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B382" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C382" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="B383" t="s" s="1">
+        <v>657</v>
+      </c>
+      <c r="C383" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="1">
+        <v>338</v>
+      </c>
+      <c r="B384" t="s" s="1">
+        <v>272</v>
+      </c>
+      <c r="C384" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="B385" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C385" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="B386" t="s" s="1">
+        <v>316</v>
+      </c>
+      <c r="C386" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B387" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C387" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="1">
+        <v>623</v>
+      </c>
+      <c r="B388" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C388" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B389" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C389" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="B390" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C390" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="B391" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C391" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="B392" t="s" s="1">
+        <v>545</v>
+      </c>
+      <c r="C392" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="B393" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C393" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B394" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C394" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="1">
+        <v>477</v>
+      </c>
+      <c r="B395" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C395" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="1">
+        <v>428</v>
+      </c>
+      <c r="B396" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C396" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="B397" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C397" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="B398" t="s" s="1">
+        <v>614</v>
+      </c>
+      <c r="C398" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="1">
+        <v>351</v>
+      </c>
+      <c r="B399" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C399" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B400" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="C400" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="B401" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C401" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B402" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C402" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="B403" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C403" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="1">
+        <v>477</v>
+      </c>
+      <c r="B404" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C404" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="B405" t="s" s="1">
+        <v>93</v>
+      </c>
+      <c r="C405" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="B406" t="s" s="1">
+        <v>706</v>
+      </c>
+      <c r="C406" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B407" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C407" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="B408" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C408" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="1">
+        <v>666</v>
+      </c>
+      <c r="B409" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C409" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B410" t="s" s="1">
+        <v>485</v>
+      </c>
+      <c r="C410" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="B411" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C411" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="1">
+        <v>636</v>
+      </c>
+      <c r="B412" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C412" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="B413" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C413" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B414" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C414" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B415" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C415" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="B416" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C416" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="B417" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="C417" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B418" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C418" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B419" t="s" s="1">
+        <v>540</v>
+      </c>
+      <c r="C419" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B420" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C420" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="B421" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C421" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="1">
+        <v>338</v>
+      </c>
+      <c r="B422" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C422" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B423" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C423" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="B424" t="s" s="1">
+        <v>544</v>
+      </c>
+      <c r="C424" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="B425" t="s" s="1">
+        <v>451</v>
+      </c>
+      <c r="C425" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="1">
+        <v>579</v>
+      </c>
+      <c r="B426" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C426" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B427" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C427" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="B428" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C428" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="B429" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C429" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B430" t="s" s="1">
+        <v>657</v>
+      </c>
+      <c r="C430" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="B431" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C431" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="1">
+        <v>471</v>
+      </c>
+      <c r="B432" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C432" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="B433" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C433" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="B434" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C434" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="B435" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C435" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B436" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C436" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="B437" t="s" s="1">
+        <v>425</v>
+      </c>
+      <c r="C437" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="B438" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C438" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="1">
+        <v>333</v>
+      </c>
+      <c r="B439" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C439" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B440" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C440" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="B441" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C441" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B442" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C442" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="B443" t="s" s="1">
+        <v>707</v>
+      </c>
+      <c r="C443" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="1">
+        <v>664</v>
+      </c>
+      <c r="B444" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="C444" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B445" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C445" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="1">
+        <v>404</v>
+      </c>
+      <c r="B446" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C446" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="B447" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C447" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="B448" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C448" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="B449" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C449" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="B450" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C450" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B451" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="C451" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="B452" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C452" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B453" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C453" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B454" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C454" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="B455" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C455" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B456" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="C456" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="B457" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C457" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="1">
+        <v>476</v>
+      </c>
+      <c r="B458" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C458" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="B459" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C459" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="1">
+        <v>623</v>
+      </c>
+      <c r="B460" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="C460" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="B461" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="C461" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="B462" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C462" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="1">
+        <v>508</v>
+      </c>
+      <c r="B463" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C463" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="B464" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="C464" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="B465" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C465" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="B466" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C466" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="1">
+        <v>247</v>
+      </c>
+      <c r="B467" t="s" s="1">
+        <v>328</v>
+      </c>
+      <c r="C467" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B468" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C468" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="B469" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C469" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="1">
+        <v>431</v>
+      </c>
+      <c r="B470" t="s" s="1">
+        <v>355</v>
+      </c>
+      <c r="C470" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="1">
+        <v>642</v>
+      </c>
+      <c r="B471" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C471" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="1">
+        <v>652</v>
+      </c>
+      <c r="B472" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C472" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="B473" t="s" s="1">
+        <v>589</v>
+      </c>
+      <c r="C473" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="1">
+        <v>701</v>
+      </c>
+      <c r="B474" t="s" s="1">
+        <v>328</v>
+      </c>
+      <c r="C474" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="B475" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C475" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="B476" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C476" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="B477" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C477" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B478" t="s" s="1">
+        <v>589</v>
+      </c>
+      <c r="C478" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B479" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C479" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="B480" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C480" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B481" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C481" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="B482" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C482" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B483" t="s" s="1">
+        <v>494</v>
+      </c>
+      <c r="C483" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B484" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C484" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="1">
+        <v>351</v>
+      </c>
+      <c r="B485" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C485" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="1">
+        <v>516</v>
+      </c>
+      <c r="B486" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C486" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B487" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C487" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="B488" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C488" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="B489" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C489" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B490" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C490" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B491" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C491" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B492" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C492" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="B493" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C493" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="1">
+        <v>641</v>
+      </c>
+      <c r="B494" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C494" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B495" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C495" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="B496" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C496" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="1">
+        <v>644</v>
+      </c>
+      <c r="B497" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C497" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B498" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C498" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B499" t="s" s="1">
+        <v>524</v>
+      </c>
+      <c r="C499" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="B500" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C500" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="B501" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C501" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="B502" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C502" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="B503" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C503" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="1">
+        <v>428</v>
+      </c>
+      <c r="B504" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C504" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B505" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C505" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="B506" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C506" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="1">
+        <v>660</v>
+      </c>
+      <c r="B507" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C507" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B508" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C508" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="B509" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C509" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="B510" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C510" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B511" t="s" s="1">
+        <v>667</v>
+      </c>
+      <c r="C511" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B512" t="s" s="1">
+        <v>708</v>
+      </c>
+      <c r="C512" t="s" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16044" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18297" uniqueCount="731">
   <si>
     <t>Firm</t>
   </si>
@@ -2155,6 +2155,72 @@
   </si>
   <si>
     <t>04min 18s</t>
+  </si>
+  <si>
+    <t>01min 48s</t>
+  </si>
+  <si>
+    <t>03min 43s</t>
+  </si>
+  <si>
+    <t>Alston and Bird LLP</t>
+  </si>
+  <si>
+    <t>CAR Advogados</t>
+  </si>
+  <si>
+    <t>03min 47s</t>
+  </si>
+  <si>
+    <t>Pels Rijcken</t>
+  </si>
+  <si>
+    <t>ArnoldAndSiedsma</t>
+  </si>
+  <si>
+    <t>03min 50s</t>
+  </si>
+  <si>
+    <t>02min 58s</t>
+  </si>
+  <si>
+    <t>Hernández And Cía</t>
+  </si>
+  <si>
+    <t>BUREN</t>
+  </si>
+  <si>
+    <t>02min 00s</t>
+  </si>
+  <si>
+    <t>De Clercq</t>
+  </si>
+  <si>
+    <t>Barrios And Fuentes</t>
+  </si>
+  <si>
+    <t>03min 53s</t>
+  </si>
+  <si>
+    <t>MUC</t>
+  </si>
+  <si>
+    <t>GVZH</t>
+  </si>
+  <si>
+    <t>03min 46s</t>
+  </si>
+  <si>
+    <t>Dinova RusevAndPartners</t>
+  </si>
+  <si>
+    <t>02min 11s</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>02min 38s</t>
   </si>
 </sst>
 </file>
@@ -3142,7 +3208,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C512"/>
+  <dimension ref="A1:C752"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -3167,43 +3233,43 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>430</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>72</v>
+        <v>525</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>138</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>280</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>247</v>
+        <v>479</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>618</v>
+        <v>549</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>336</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s" s="1">
         <v>271</v>
@@ -3211,10 +3277,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>184</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>15</v>
+        <v>373</v>
       </c>
       <c r="C6" t="s" s="1">
         <v>5</v>
@@ -3222,32 +3288,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>25</v>
+        <v>375</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>623</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>692</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>273</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s" s="1">
         <v>271</v>
@@ -3255,21 +3321,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>672</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
-        <v>550</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>38</v>
+        <v>590</v>
       </c>
       <c r="C11" t="s" s="1">
         <v>271</v>
@@ -3277,10 +3343,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
-        <v>636</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>375</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s" s="1">
         <v>5</v>
@@ -3288,21 +3354,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
-        <v>361</v>
+        <v>655</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
-        <v>581</v>
+        <v>640</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>542</v>
+        <v>352</v>
       </c>
       <c r="C14" t="s" s="1">
         <v>271</v>
@@ -3310,10 +3376,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s" s="1">
         <v>271</v>
@@ -3321,98 +3387,98 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
-        <v>230</v>
+        <v>366</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
-        <v>207</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>292</v>
+        <v>709</v>
       </c>
       <c r="C18" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
-        <v>26</v>
+        <v>654</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
-        <v>92</v>
+        <v>570</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
-        <v>407</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>45</v>
+        <v>624</v>
       </c>
       <c r="C21" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
-        <v>377</v>
+        <v>689</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>403</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
-        <v>395</v>
+        <v>638</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s" s="1">
         <v>271</v>
@@ -3420,32 +3486,32 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
-        <v>339</v>
+        <v>511</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>275</v>
+        <v>549</v>
       </c>
       <c r="C25" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
-        <v>478</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="C26" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
-        <v>639</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>341</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s" s="1">
         <v>5</v>
@@ -3453,10 +3519,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
-        <v>470</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s" s="1">
         <v>271</v>
@@ -3464,32 +3530,32 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
-        <v>62</v>
+        <v>639</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>693</v>
+        <v>607</v>
       </c>
       <c r="C29" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="C31" t="s" s="1">
         <v>271</v>
@@ -3497,43 +3563,43 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
-        <v>473</v>
+        <v>377</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>349</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
-        <v>448</v>
+        <v>680</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>375</v>
+        <v>284</v>
       </c>
       <c r="C33" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="1">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="1">
-        <v>75</v>
+        <v>578</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s" s="1">
         <v>271</v>
@@ -3541,21 +3607,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="1">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="1">
-        <v>433</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="C37" t="s" s="1">
         <v>5</v>
@@ -3563,54 +3629,54 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="1">
-        <v>359</v>
+        <v>452</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="1">
-        <v>652</v>
+        <v>436</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="1">
-        <v>421</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>52</v>
+        <v>406</v>
       </c>
       <c r="C40" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="1">
-        <v>505</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>626</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="1">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c r="C42" t="s" s="1">
         <v>271</v>
@@ -3618,10 +3684,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="1">
-        <v>259</v>
+        <v>555</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s" s="1">
         <v>5</v>
@@ -3629,10 +3695,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="1">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>19</v>
+        <v>289</v>
       </c>
       <c r="C44" t="s" s="1">
         <v>271</v>
@@ -3640,32 +3706,32 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C45" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="1">
-        <v>459</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
-        <v>694</v>
+        <v>506</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>7</v>
+        <v>597</v>
       </c>
       <c r="C47" t="s" s="1">
         <v>271</v>
@@ -3673,21 +3739,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="1">
-        <v>347</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="1">
-        <v>44</v>
+        <v>580</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>624</v>
+        <v>295</v>
       </c>
       <c r="C49" t="s" s="1">
         <v>5</v>
@@ -3695,21 +3761,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="1">
-        <v>666</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="C50" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="1">
-        <v>314</v>
+        <v>471</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>304</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s" s="1">
         <v>5</v>
@@ -3717,21 +3783,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>81</v>
+        <v>617</v>
       </c>
       <c r="C52" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="1">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>283</v>
+        <v>705</v>
       </c>
       <c r="C53" t="s" s="1">
         <v>5</v>
@@ -3739,10 +3805,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="1">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>535</v>
+        <v>276</v>
       </c>
       <c r="C54" t="s" s="1">
         <v>5</v>
@@ -3750,21 +3816,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
-        <v>190</v>
+        <v>473</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>586</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s" s="1">
         <v>271</v>
@@ -3772,10 +3838,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
-        <v>123</v>
+        <v>652</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s" s="1">
         <v>5</v>
@@ -3783,32 +3849,32 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="C58" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
-        <v>196</v>
+        <v>343</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
-        <v>317</v>
+        <v>671</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s" s="1">
         <v>271</v>
@@ -3816,54 +3882,54 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
-        <v>608</v>
+        <v>221</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>296</v>
+        <v>489</v>
       </c>
       <c r="C61" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
-        <v>315</v>
+        <v>495</v>
       </c>
       <c r="B62" t="s" s="1">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="C62" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
-        <v>18</v>
+        <v>502</v>
       </c>
       <c r="B63" t="s" s="1">
-        <v>544</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
-        <v>519</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s" s="1">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="1">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s" s="1">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C65" t="s" s="1">
         <v>5</v>
@@ -3871,21 +3937,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="1">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="B66" t="s" s="1">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C66" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
-        <v>219</v>
+        <v>321</v>
       </c>
       <c r="B67" t="s" s="1">
-        <v>30</v>
+        <v>499</v>
       </c>
       <c r="C67" t="s" s="1">
         <v>5</v>
@@ -3893,10 +3959,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
-        <v>436</v>
+        <v>560</v>
       </c>
       <c r="B68" t="s" s="1">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="C68" t="s" s="1">
         <v>271</v>
@@ -3904,65 +3970,65 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
-        <v>110</v>
+        <v>351</v>
       </c>
       <c r="B69" t="s" s="1">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s" s="1">
-        <v>38</v>
+        <v>710</v>
       </c>
       <c r="C70" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
-        <v>21</v>
+        <v>334</v>
       </c>
       <c r="B71" t="s" s="1">
-        <v>66</v>
+        <v>288</v>
       </c>
       <c r="C71" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s" s="1">
-        <v>38</v>
+        <v>352</v>
       </c>
       <c r="C72" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s" s="1">
-        <v>542</v>
+        <v>626</v>
       </c>
       <c r="C73" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
-        <v>656</v>
+        <v>410</v>
       </c>
       <c r="B74" t="s" s="1">
-        <v>542</v>
+        <v>111</v>
       </c>
       <c r="C74" t="s" s="1">
         <v>271</v>
@@ -3970,43 +4036,43 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
-        <v>480</v>
+        <v>651</v>
       </c>
       <c r="B75" t="s" s="1">
-        <v>84</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s" s="1">
-        <v>38</v>
+        <v>406</v>
       </c>
       <c r="C76" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
-        <v>87</v>
+        <v>538</v>
       </c>
       <c r="B77" t="s" s="1">
-        <v>626</v>
+        <v>313</v>
       </c>
       <c r="C77" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
-        <v>14</v>
+        <v>333</v>
       </c>
       <c r="B78" t="s" s="1">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s" s="1">
         <v>5</v>
@@ -4014,10 +4080,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s" s="1">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="C79" t="s" s="1">
         <v>5</v>
@@ -4025,10 +4091,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
-        <v>431</v>
+        <v>701</v>
       </c>
       <c r="B80" t="s" s="1">
-        <v>537</v>
+        <v>625</v>
       </c>
       <c r="C80" t="s" s="1">
         <v>5</v>
@@ -4036,10 +4102,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="1">
-        <v>253</v>
+        <v>439</v>
       </c>
       <c r="B81" t="s" s="1">
-        <v>107</v>
+        <v>275</v>
       </c>
       <c r="C81" t="s" s="1">
         <v>271</v>
@@ -4047,10 +4113,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="1">
-        <v>484</v>
+        <v>197</v>
       </c>
       <c r="B82" t="s" s="1">
-        <v>267</v>
+        <v>545</v>
       </c>
       <c r="C82" t="s" s="1">
         <v>271</v>
@@ -4058,65 +4124,65 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
-        <v>573</v>
+        <v>477</v>
       </c>
       <c r="B83" t="s" s="1">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C83" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
-        <v>695</v>
+        <v>476</v>
       </c>
       <c r="B84" t="s" s="1">
-        <v>289</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="B85" t="s" s="1">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="C85" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="1">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s" s="1">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="B87" t="s" s="1">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="C87" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="1">
-        <v>696</v>
+        <v>413</v>
       </c>
       <c r="B88" t="s" s="1">
-        <v>25</v>
+        <v>273</v>
       </c>
       <c r="C88" t="s" s="1">
         <v>271</v>
@@ -4124,10 +4190,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="1">
-        <v>493</v>
+        <v>711</v>
       </c>
       <c r="B89" t="s" s="1">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="C89" t="s" s="1">
         <v>271</v>
@@ -4135,10 +4201,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="1">
-        <v>55</v>
+        <v>365</v>
       </c>
       <c r="B90" t="s" s="1">
-        <v>275</v>
+        <v>587</v>
       </c>
       <c r="C90" t="s" s="1">
         <v>271</v>
@@ -4146,10 +4212,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="1">
-        <v>397</v>
+        <v>656</v>
       </c>
       <c r="B91" t="s" s="1">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C91" t="s" s="1">
         <v>271</v>
@@ -4157,21 +4223,21 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="1">
-        <v>638</v>
+        <v>509</v>
       </c>
       <c r="B92" t="s" s="1">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="C92" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="1">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s" s="1">
-        <v>38</v>
+        <v>533</v>
       </c>
       <c r="C93" t="s" s="1">
         <v>271</v>
@@ -4179,10 +4245,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="1">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="B94" t="s" s="1">
-        <v>84</v>
+        <v>286</v>
       </c>
       <c r="C94" t="s" s="1">
         <v>5</v>
@@ -4190,10 +4256,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="1">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s" s="1">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="C95" t="s" s="1">
         <v>271</v>
@@ -4201,10 +4267,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="1">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="B96" t="s" s="1">
-        <v>352</v>
+        <v>279</v>
       </c>
       <c r="C96" t="s" s="1">
         <v>271</v>
@@ -4212,32 +4278,32 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="1">
-        <v>144</v>
+        <v>359</v>
       </c>
       <c r="B97" t="s" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="1">
-        <v>178</v>
+        <v>677</v>
       </c>
       <c r="B98" t="s" s="1">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C98" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="1">
-        <v>356</v>
+        <v>661</v>
       </c>
       <c r="B99" t="s" s="1">
-        <v>406</v>
+        <v>269</v>
       </c>
       <c r="C99" t="s" s="1">
         <v>271</v>
@@ -4245,21 +4311,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="1">
-        <v>257</v>
+        <v>616</v>
       </c>
       <c r="B100" t="s" s="1">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C100" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="1">
-        <v>638</v>
+        <v>480</v>
       </c>
       <c r="B101" t="s" s="1">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C101" t="s" s="1">
         <v>5</v>
@@ -4267,21 +4333,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="1">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="B102" t="s" s="1">
-        <v>390</v>
+        <v>116</v>
       </c>
       <c r="C102" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="1">
-        <v>108</v>
+        <v>404</v>
       </c>
       <c r="B103" t="s" s="1">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="C103" t="s" s="1">
         <v>5</v>
@@ -4289,10 +4355,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="1">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="B104" t="s" s="1">
-        <v>626</v>
+        <v>349</v>
       </c>
       <c r="C104" t="s" s="1">
         <v>271</v>
@@ -4300,10 +4366,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="1">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="B105" t="s" s="1">
-        <v>590</v>
+        <v>299</v>
       </c>
       <c r="C105" t="s" s="1">
         <v>270</v>
@@ -4311,10 +4377,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="1">
-        <v>645</v>
+        <v>191</v>
       </c>
       <c r="B106" t="s" s="1">
-        <v>284</v>
+        <v>626</v>
       </c>
       <c r="C106" t="s" s="1">
         <v>5</v>
@@ -4322,10 +4388,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="1">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="B107" t="s" s="1">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="C107" t="s" s="1">
         <v>5</v>
@@ -4333,43 +4399,43 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="1">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="B108" t="s" s="1">
-        <v>30</v>
+        <v>526</v>
       </c>
       <c r="C108" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="1">
-        <v>664</v>
+        <v>387</v>
       </c>
       <c r="B109" t="s" s="1">
-        <v>48</v>
+        <v>313</v>
       </c>
       <c r="C109" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="1">
-        <v>583</v>
+        <v>466</v>
       </c>
       <c r="B110" t="s" s="1">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="C110" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="1">
-        <v>350</v>
+        <v>712</v>
       </c>
       <c r="B111" t="s" s="1">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="C111" t="s" s="1">
         <v>5</v>
@@ -4377,21 +4443,21 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="1">
-        <v>508</v>
+        <v>74</v>
       </c>
       <c r="B112" t="s" s="1">
-        <v>529</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="1">
-        <v>697</v>
+        <v>372</v>
       </c>
       <c r="B113" t="s" s="1">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C113" t="s" s="1">
         <v>271</v>
@@ -4399,54 +4465,54 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="1">
-        <v>217</v>
+        <v>699</v>
       </c>
       <c r="B114" t="s" s="1">
-        <v>614</v>
+        <v>66</v>
       </c>
       <c r="C114" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="1">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s" s="1">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="C115" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="1">
-        <v>640</v>
+        <v>187</v>
       </c>
       <c r="B116" t="s" s="1">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="C116" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="1">
-        <v>487</v>
+        <v>303</v>
       </c>
       <c r="B117" t="s" s="1">
-        <v>456</v>
+        <v>84</v>
       </c>
       <c r="C117" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="1">
-        <v>362</v>
+        <v>539</v>
       </c>
       <c r="B118" t="s" s="1">
-        <v>533</v>
+        <v>713</v>
       </c>
       <c r="C118" t="s" s="1">
         <v>271</v>
@@ -4454,43 +4520,43 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="1">
-        <v>142</v>
+        <v>649</v>
       </c>
       <c r="B119" t="s" s="1">
-        <v>528</v>
+        <v>284</v>
       </c>
       <c r="C119" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="1">
-        <v>50</v>
+        <v>556</v>
       </c>
       <c r="B120" t="s" s="1">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C120" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="1">
-        <v>348</v>
+        <v>442</v>
       </c>
       <c r="B121" t="s" s="1">
-        <v>544</v>
+        <v>107</v>
       </c>
       <c r="C121" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="1">
-        <v>404</v>
+        <v>132</v>
       </c>
       <c r="B122" t="s" s="1">
-        <v>390</v>
+        <v>494</v>
       </c>
       <c r="C122" t="s" s="1">
         <v>5</v>
@@ -4498,10 +4564,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="1">
-        <v>673</v>
+        <v>513</v>
       </c>
       <c r="B123" t="s" s="1">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C123" t="s" s="1">
         <v>271</v>
@@ -4509,10 +4575,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="1">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="B124" t="s" s="1">
-        <v>612</v>
+        <v>284</v>
       </c>
       <c r="C124" t="s" s="1">
         <v>271</v>
@@ -4520,10 +4586,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="1">
-        <v>326</v>
+        <v>503</v>
       </c>
       <c r="B125" t="s" s="1">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C125" t="s" s="1">
         <v>271</v>
@@ -4531,43 +4597,43 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="1">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="B126" t="s" s="1">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C126" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="1">
-        <v>476</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s" s="1">
-        <v>443</v>
+        <v>279</v>
       </c>
       <c r="C127" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="1">
-        <v>58</v>
+        <v>574</v>
       </c>
       <c r="B128" t="s" s="1">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C128" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="1">
-        <v>370</v>
+        <v>696</v>
       </c>
       <c r="B129" t="s" s="1">
-        <v>279</v>
+        <v>38</v>
       </c>
       <c r="C129" t="s" s="1">
         <v>271</v>
@@ -4575,10 +4641,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="1">
-        <v>405</v>
+        <v>263</v>
       </c>
       <c r="B130" t="s" s="1">
-        <v>627</v>
+        <v>274</v>
       </c>
       <c r="C130" t="s" s="1">
         <v>271</v>
@@ -4586,21 +4652,21 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="1">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="B131" t="s" s="1">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="C131" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="1">
-        <v>616</v>
+        <v>237</v>
       </c>
       <c r="B132" t="s" s="1">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C132" t="s" s="1">
         <v>271</v>
@@ -4608,54 +4674,54 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="1">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B133" t="s" s="1">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="1">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="B134" t="s" s="1">
-        <v>15</v>
+        <v>419</v>
       </c>
       <c r="C134" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="1">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="B135" t="s" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C135" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="1">
-        <v>229</v>
+        <v>424</v>
       </c>
       <c r="B136" t="s" s="1">
-        <v>118</v>
+        <v>273</v>
       </c>
       <c r="C136" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="1">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B137" t="s" s="1">
-        <v>30</v>
+        <v>273</v>
       </c>
       <c r="C137" t="s" s="1">
         <v>271</v>
@@ -4663,18 +4729,18 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="1">
-        <v>434</v>
+        <v>26</v>
       </c>
       <c r="B138" t="s" s="1">
-        <v>69</v>
+        <v>541</v>
       </c>
       <c r="C138" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="1">
-        <v>360</v>
+        <v>173</v>
       </c>
       <c r="B139" t="s" s="1">
         <v>4</v>
@@ -4685,21 +4751,21 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="1">
-        <v>266</v>
+        <v>561</v>
       </c>
       <c r="B140" t="s" s="1">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="C140" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="1">
-        <v>593</v>
+        <v>155</v>
       </c>
       <c r="B141" t="s" s="1">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C141" t="s" s="1">
         <v>271</v>
@@ -4707,32 +4773,32 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="1">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="B142" t="s" s="1">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C142" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="1">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="B143" t="s" s="1">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C143" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="1">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="B144" t="s" s="1">
-        <v>38</v>
+        <v>443</v>
       </c>
       <c r="C144" t="s" s="1">
         <v>271</v>
@@ -4740,32 +4806,32 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="1">
-        <v>656</v>
+        <v>345</v>
       </c>
       <c r="B145" t="s" s="1">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C145" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="1">
-        <v>408</v>
+        <v>656</v>
       </c>
       <c r="B146" t="s" s="1">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="C146" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="1">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s" s="1">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C147" t="s" s="1">
         <v>271</v>
@@ -4773,21 +4839,21 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="1">
-        <v>10</v>
+        <v>486</v>
       </c>
       <c r="B148" t="s" s="1">
-        <v>284</v>
+        <v>63</v>
       </c>
       <c r="C148" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="1">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="B149" t="s" s="1">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C149" t="s" s="1">
         <v>271</v>
@@ -4795,32 +4861,32 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="1">
-        <v>640</v>
+        <v>262</v>
       </c>
       <c r="B150" t="s" s="1">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="C150" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="1">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B151" t="s" s="1">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="1">
-        <v>175</v>
+        <v>694</v>
       </c>
       <c r="B152" t="s" s="1">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C152" t="s" s="1">
         <v>271</v>
@@ -4828,10 +4894,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="1">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="B153" t="s" s="1">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C153" t="s" s="1">
         <v>5</v>
@@ -4839,21 +4905,21 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="1">
-        <v>417</v>
+        <v>703</v>
       </c>
       <c r="B154" t="s" s="1">
-        <v>585</v>
+        <v>66</v>
       </c>
       <c r="C154" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="1">
-        <v>312</v>
+        <v>143</v>
       </c>
       <c r="B155" t="s" s="1">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C155" t="s" s="1">
         <v>271</v>
@@ -4861,32 +4927,32 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="1">
-        <v>572</v>
+        <v>122</v>
       </c>
       <c r="B156" t="s" s="1">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C156" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="1">
-        <v>205</v>
+        <v>378</v>
       </c>
       <c r="B157" t="s" s="1">
-        <v>4</v>
+        <v>286</v>
       </c>
       <c r="C157" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="1">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="B158" t="s" s="1">
-        <v>267</v>
+        <v>443</v>
       </c>
       <c r="C158" t="s" s="1">
         <v>271</v>
@@ -4894,10 +4960,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="1">
-        <v>492</v>
+        <v>715</v>
       </c>
       <c r="B159" t="s" s="1">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C159" t="s" s="1">
         <v>271</v>
@@ -4905,32 +4971,32 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="1">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="B160" t="s" s="1">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C160" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="1">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="B161" t="s" s="1">
-        <v>494</v>
+        <v>107</v>
       </c>
       <c r="C161" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="1">
-        <v>642</v>
+        <v>97</v>
       </c>
       <c r="B162" t="s" s="1">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C162" t="s" s="1">
         <v>5</v>
@@ -4938,10 +5004,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="1">
-        <v>318</v>
+        <v>551</v>
       </c>
       <c r="B163" t="s" s="1">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="C163" t="s" s="1">
         <v>271</v>
@@ -4949,10 +5015,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="1">
-        <v>671</v>
+        <v>593</v>
       </c>
       <c r="B164" t="s" s="1">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C164" t="s" s="1">
         <v>271</v>
@@ -4960,10 +5026,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="1">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="B165" t="s" s="1">
-        <v>297</v>
+        <v>27</v>
       </c>
       <c r="C165" t="s" s="1">
         <v>5</v>
@@ -4971,131 +5037,131 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="1">
-        <v>495</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s" s="1">
-        <v>34</v>
+        <v>716</v>
       </c>
       <c r="C166" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="1">
-        <v>365</v>
+        <v>638</v>
       </c>
       <c r="B167" t="s" s="1">
-        <v>535</v>
+        <v>280</v>
       </c>
       <c r="C167" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="1">
-        <v>396</v>
+        <v>207</v>
       </c>
       <c r="B168" t="s" s="1">
-        <v>594</v>
+        <v>297</v>
       </c>
       <c r="C168" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="1">
-        <v>251</v>
+        <v>518</v>
       </c>
       <c r="B169" t="s" s="1">
-        <v>627</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="1">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="B170" t="s" s="1">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C170" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="1">
-        <v>651</v>
+        <v>381</v>
       </c>
       <c r="B171" t="s" s="1">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c r="C171" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="1">
-        <v>563</v>
+        <v>242</v>
       </c>
       <c r="B172" t="s" s="1">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="C172" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="1">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B173" t="s" s="1">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="1">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B174" t="s" s="1">
-        <v>276</v>
+        <v>552</v>
       </c>
       <c r="C174" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="1">
-        <v>475</v>
+        <v>697</v>
       </c>
       <c r="B175" t="s" s="1">
-        <v>449</v>
+        <v>281</v>
       </c>
       <c r="C175" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="1">
-        <v>214</v>
+        <v>421</v>
       </c>
       <c r="B176" t="s" s="1">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="C176" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="1">
-        <v>469</v>
+        <v>20</v>
       </c>
       <c r="B177" t="s" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s" s="1">
         <v>271</v>
@@ -5103,10 +5169,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="1">
-        <v>516</v>
+        <v>690</v>
       </c>
       <c r="B178" t="s" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C178" t="s" s="1">
         <v>271</v>
@@ -5114,21 +5180,21 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="1">
-        <v>660</v>
+        <v>409</v>
       </c>
       <c r="B179" t="s" s="1">
-        <v>38</v>
+        <v>545</v>
       </c>
       <c r="C179" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="1">
-        <v>579</v>
+        <v>314</v>
       </c>
       <c r="B180" t="s" s="1">
-        <v>284</v>
+        <v>19</v>
       </c>
       <c r="C180" t="s" s="1">
         <v>5</v>
@@ -5136,32 +5202,32 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="1">
-        <v>24</v>
+        <v>573</v>
       </c>
       <c r="B181" t="s" s="1">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="C181" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="1">
-        <v>154</v>
+        <v>469</v>
       </c>
       <c r="B182" t="s" s="1">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="C182" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="1">
-        <v>385</v>
+        <v>198</v>
       </c>
       <c r="B183" t="s" s="1">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s" s="1">
         <v>271</v>
@@ -5169,10 +5235,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="1">
-        <v>122</v>
+        <v>402</v>
       </c>
       <c r="B184" t="s" s="1">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="C184" t="s" s="1">
         <v>5</v>
@@ -5180,87 +5246,87 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="1">
-        <v>330</v>
+        <v>138</v>
       </c>
       <c r="B185" t="s" s="1">
-        <v>101</v>
+        <v>340</v>
       </c>
       <c r="C185" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="1">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B186" t="s" s="1">
-        <v>340</v>
+        <v>443</v>
       </c>
       <c r="C186" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="1">
-        <v>188</v>
+        <v>342</v>
       </c>
       <c r="B187" t="s" s="1">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="C187" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="1">
-        <v>189</v>
+        <v>595</v>
       </c>
       <c r="B188" t="s" s="1">
-        <v>267</v>
+        <v>403</v>
       </c>
       <c r="C188" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="1">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="B189" t="s" s="1">
-        <v>527</v>
+        <v>457</v>
       </c>
       <c r="C189" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="1">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="B190" t="s" s="1">
-        <v>537</v>
+        <v>107</v>
       </c>
       <c r="C190" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="1">
-        <v>321</v>
+        <v>684</v>
       </c>
       <c r="B191" t="s" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C191" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="1">
-        <v>67</v>
+        <v>367</v>
       </c>
       <c r="B192" t="s" s="1">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C192" t="s" s="1">
         <v>271</v>
@@ -5268,54 +5334,54 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="1">
-        <v>120</v>
+        <v>484</v>
       </c>
       <c r="B193" t="s" s="1">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C193" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="1">
-        <v>483</v>
+        <v>119</v>
       </c>
       <c r="B194" t="s" s="1">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C194" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="1">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B195" t="s" s="1">
-        <v>625</v>
+        <v>281</v>
       </c>
       <c r="C195" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="1">
-        <v>136</v>
+        <v>444</v>
       </c>
       <c r="B196" t="s" s="1">
-        <v>545</v>
+        <v>267</v>
       </c>
       <c r="C196" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="1">
-        <v>699</v>
+        <v>47</v>
       </c>
       <c r="B197" t="s" s="1">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C197" t="s" s="1">
         <v>271</v>
@@ -5323,10 +5389,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="1">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="B198" t="s" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C198" t="s" s="1">
         <v>271</v>
@@ -5334,10 +5400,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="1">
-        <v>141</v>
+        <v>430</v>
       </c>
       <c r="B199" t="s" s="1">
-        <v>532</v>
+        <v>25</v>
       </c>
       <c r="C199" t="s" s="1">
         <v>5</v>
@@ -5345,10 +5411,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="1">
-        <v>191</v>
+        <v>566</v>
       </c>
       <c r="B200" t="s" s="1">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="C200" t="s" s="1">
         <v>271</v>
@@ -5356,32 +5422,32 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="1">
-        <v>638</v>
+        <v>673</v>
       </c>
       <c r="B201" t="s" s="1">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="C201" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="1">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="B202" t="s" s="1">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="C202" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="1">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="B203" t="s" s="1">
-        <v>700</v>
+        <v>15</v>
       </c>
       <c r="C203" t="s" s="1">
         <v>5</v>
@@ -5389,87 +5455,87 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="1">
-        <v>560</v>
+        <v>651</v>
       </c>
       <c r="B204" t="s" s="1">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="C204" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="1">
-        <v>454</v>
+        <v>176</v>
       </c>
       <c r="B205" t="s" s="1">
-        <v>27</v>
+        <v>329</v>
       </c>
       <c r="C205" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="1">
-        <v>222</v>
+        <v>331</v>
       </c>
       <c r="B206" t="s" s="1">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C206" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="1">
-        <v>157</v>
+        <v>569</v>
       </c>
       <c r="B207" t="s" s="1">
-        <v>533</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="1">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B208" t="s" s="1">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="C208" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="1">
-        <v>338</v>
+        <v>126</v>
       </c>
       <c r="B209" t="s" s="1">
-        <v>72</v>
+        <v>717</v>
       </c>
       <c r="C209" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="1">
-        <v>510</v>
+        <v>224</v>
       </c>
       <c r="B210" t="s" s="1">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C210" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="1">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="B211" t="s" s="1">
-        <v>23</v>
+        <v>438</v>
       </c>
       <c r="C211" t="s" s="1">
         <v>271</v>
@@ -5477,10 +5543,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="1">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="B212" t="s" s="1">
-        <v>613</v>
+        <v>116</v>
       </c>
       <c r="C212" t="s" s="1">
         <v>271</v>
@@ -5488,32 +5554,32 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="1">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="B213" t="s" s="1">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="C213" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="1">
-        <v>416</v>
+        <v>44</v>
       </c>
       <c r="B214" t="s" s="1">
-        <v>283</v>
+        <v>532</v>
       </c>
       <c r="C214" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="1">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="B215" t="s" s="1">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C215" t="s" s="1">
         <v>5</v>
@@ -5521,21 +5587,21 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="1">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="B216" t="s" s="1">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="C216" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="1">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B217" t="s" s="1">
-        <v>7</v>
+        <v>544</v>
       </c>
       <c r="C217" t="s" s="1">
         <v>5</v>
@@ -5543,43 +5609,43 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="1">
-        <v>261</v>
+        <v>385</v>
       </c>
       <c r="B218" t="s" s="1">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="C218" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="1">
-        <v>621</v>
+        <v>147</v>
       </c>
       <c r="B219" t="s" s="1">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="C219" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="1">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="B220" t="s" s="1">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="C220" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="1">
-        <v>124</v>
+        <v>459</v>
       </c>
       <c r="B221" t="s" s="1">
-        <v>25</v>
+        <v>275</v>
       </c>
       <c r="C221" t="s" s="1">
         <v>271</v>
@@ -5587,21 +5653,21 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="1">
-        <v>471</v>
+        <v>399</v>
       </c>
       <c r="B222" t="s" s="1">
-        <v>38</v>
+        <v>545</v>
       </c>
       <c r="C222" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="1">
-        <v>239</v>
+        <v>563</v>
       </c>
       <c r="B223" t="s" s="1">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C223" t="s" s="1">
         <v>271</v>
@@ -5609,21 +5675,21 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="1">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="B224" t="s" s="1">
-        <v>544</v>
+        <v>498</v>
       </c>
       <c r="C224" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="1">
-        <v>701</v>
+        <v>516</v>
       </c>
       <c r="B225" t="s" s="1">
-        <v>665</v>
+        <v>27</v>
       </c>
       <c r="C225" t="s" s="1">
         <v>5</v>
@@ -5631,10 +5697,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="1">
-        <v>152</v>
+        <v>312</v>
       </c>
       <c r="B226" t="s" s="1">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="C226" t="s" s="1">
         <v>5</v>
@@ -5642,21 +5708,21 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="1">
-        <v>367</v>
+        <v>172</v>
       </c>
       <c r="B227" t="s" s="1">
-        <v>299</v>
+        <v>27</v>
       </c>
       <c r="C227" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B228" t="s" s="1">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C228" t="s" s="1">
         <v>5</v>
@@ -5664,10 +5730,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="1">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s" s="1">
-        <v>533</v>
+        <v>27</v>
       </c>
       <c r="C229" t="s" s="1">
         <v>5</v>
@@ -5675,7 +5741,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="1">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B230" t="s" s="1">
         <v>27</v>
@@ -5686,43 +5752,43 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="1">
-        <v>238</v>
+        <v>679</v>
       </c>
       <c r="B231" t="s" s="1">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="C231" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="1">
-        <v>551</v>
+        <v>623</v>
       </c>
       <c r="B232" t="s" s="1">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C232" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="1">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="B233" t="s" s="1">
-        <v>438</v>
+        <v>631</v>
       </c>
       <c r="C233" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="1">
-        <v>61</v>
+        <v>483</v>
       </c>
       <c r="B234" t="s" s="1">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="C234" t="s" s="1">
         <v>271</v>
@@ -5730,10 +5796,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="1">
-        <v>466</v>
+        <v>265</v>
       </c>
       <c r="B235" t="s" s="1">
-        <v>267</v>
+        <v>667</v>
       </c>
       <c r="C235" t="s" s="1">
         <v>5</v>
@@ -5741,120 +5807,120 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="1">
-        <v>226</v>
+        <v>660</v>
       </c>
       <c r="B236" t="s" s="1">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C236" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="1">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="B237" t="s" s="1">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C237" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="1">
-        <v>472</v>
+        <v>336</v>
       </c>
       <c r="B238" t="s" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="1">
-        <v>409</v>
+        <v>543</v>
       </c>
       <c r="B239" t="s" s="1">
-        <v>27</v>
+        <v>498</v>
       </c>
       <c r="C239" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="1">
-        <v>468</v>
+        <v>131</v>
       </c>
       <c r="B240" t="s" s="1">
-        <v>279</v>
+        <v>340</v>
       </c>
       <c r="C240" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="1">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="B241" t="s" s="1">
-        <v>586</v>
+        <v>4</v>
       </c>
       <c r="C241" t="s" s="1">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="1">
-        <v>620</v>
+        <v>405</v>
       </c>
       <c r="B242" t="s" s="1">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C242" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="1">
-        <v>522</v>
+        <v>200</v>
       </c>
       <c r="B243" t="s" s="1">
-        <v>284</v>
+        <v>590</v>
       </c>
       <c r="C243" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="1">
-        <v>358</v>
+        <v>692</v>
       </c>
       <c r="B244" t="s" s="1">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C244" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="1">
-        <v>670</v>
+        <v>10</v>
       </c>
       <c r="B245" t="s" s="1">
-        <v>667</v>
+        <v>283</v>
       </c>
       <c r="C245" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="1">
-        <v>242</v>
+        <v>354</v>
       </c>
       <c r="B246" t="s" s="1">
-        <v>284</v>
+        <v>527</v>
       </c>
       <c r="C246" t="s" s="1">
         <v>5</v>
@@ -5862,10 +5928,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="1">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B247" t="s" s="1">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C247" t="s" s="1">
         <v>271</v>
@@ -5873,10 +5939,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="1">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="B248" t="s" s="1">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C248" t="s" s="1">
         <v>5</v>
@@ -5884,43 +5950,43 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="1">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="B249" t="s" s="1">
         <v>23</v>
       </c>
       <c r="C249" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="1">
-        <v>401</v>
+        <v>193</v>
       </c>
       <c r="B250" t="s" s="1">
-        <v>84</v>
+        <v>352</v>
       </c>
       <c r="C250" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="1">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B251" t="s" s="1">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C251" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="1">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="B252" t="s" s="1">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="C252" t="s" s="1">
         <v>271</v>
@@ -5928,32 +5994,32 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="1">
-        <v>204</v>
+        <v>467</v>
       </c>
       <c r="B253" t="s" s="1">
-        <v>626</v>
+        <v>274</v>
       </c>
       <c r="C253" t="s" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="1">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="B254" t="s" s="1">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C254" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="1">
-        <v>464</v>
+        <v>230</v>
       </c>
       <c r="B255" t="s" s="1">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C255" t="s" s="1">
         <v>5</v>
@@ -5961,10 +6027,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="1">
-        <v>509</v>
+        <v>261</v>
       </c>
       <c r="B256" t="s" s="1">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="C256" t="s" s="1">
         <v>5</v>
@@ -5972,32 +6038,32 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="1">
-        <v>333</v>
+        <v>205</v>
       </c>
       <c r="B257" t="s" s="1">
         <v>84</v>
       </c>
       <c r="C257" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="1">
-        <v>523</v>
+        <v>216</v>
       </c>
       <c r="B258" t="s" s="1">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C258" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="1">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B259" t="s" s="1">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="C259" t="s" s="1">
         <v>271</v>
@@ -6005,10 +6071,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="1">
-        <v>346</v>
+        <v>521</v>
       </c>
       <c r="B260" t="s" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C260" t="s" s="1">
         <v>271</v>
@@ -6016,10 +6082,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="1">
-        <v>446</v>
+        <v>250</v>
       </c>
       <c r="B261" t="s" s="1">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C261" t="s" s="1">
         <v>271</v>
@@ -6027,10 +6093,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="1">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="B262" t="s" s="1">
-        <v>15</v>
+        <v>283</v>
       </c>
       <c r="C262" t="s" s="1">
         <v>271</v>
@@ -6038,21 +6104,21 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="1">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="B263" t="s" s="1">
-        <v>527</v>
+        <v>72</v>
       </c>
       <c r="C263" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="1">
-        <v>105</v>
+        <v>602</v>
       </c>
       <c r="B264" t="s" s="1">
-        <v>328</v>
+        <v>84</v>
       </c>
       <c r="C264" t="s" s="1">
         <v>271</v>
@@ -6060,10 +6126,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="1">
-        <v>602</v>
+        <v>557</v>
       </c>
       <c r="B265" t="s" s="1">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="C265" t="s" s="1">
         <v>271</v>
@@ -6071,10 +6137,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="1">
-        <v>128</v>
+        <v>305</v>
       </c>
       <c r="B266" t="s" s="1">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C266" t="s" s="1">
         <v>5</v>
@@ -6082,10 +6148,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="1">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="B267" t="s" s="1">
-        <v>392</v>
+        <v>284</v>
       </c>
       <c r="C267" t="s" s="1">
         <v>5</v>
@@ -6093,21 +6159,21 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="1">
-        <v>198</v>
+        <v>642</v>
       </c>
       <c r="B268" t="s" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C268" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="1">
-        <v>702</v>
+        <v>127</v>
       </c>
       <c r="B269" t="s" s="1">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="C269" t="s" s="1">
         <v>271</v>
@@ -6115,10 +6181,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="1">
-        <v>647</v>
+        <v>344</v>
       </c>
       <c r="B270" t="s" s="1">
-        <v>301</v>
+        <v>614</v>
       </c>
       <c r="C270" t="s" s="1">
         <v>271</v>
@@ -6126,10 +6192,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="1">
-        <v>435</v>
+        <v>363</v>
       </c>
       <c r="B271" t="s" s="1">
-        <v>287</v>
+        <v>63</v>
       </c>
       <c r="C271" t="s" s="1">
         <v>271</v>
@@ -6137,10 +6203,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="1">
-        <v>393</v>
+        <v>14</v>
       </c>
       <c r="B272" t="s" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C272" t="s" s="1">
         <v>5</v>
@@ -6148,10 +6214,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="1">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="B273" t="s" s="1">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="C273" t="s" s="1">
         <v>5</v>
@@ -6159,10 +6225,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="1">
-        <v>703</v>
+        <v>581</v>
       </c>
       <c r="B274" t="s" s="1">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="C274" t="s" s="1">
         <v>271</v>
@@ -6170,10 +6236,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="1">
-        <v>213</v>
+        <v>431</v>
       </c>
       <c r="B275" t="s" s="1">
-        <v>111</v>
+        <v>618</v>
       </c>
       <c r="C275" t="s" s="1">
         <v>5</v>
@@ -6181,43 +6247,43 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="1">
-        <v>381</v>
+        <v>154</v>
       </c>
       <c r="B276" t="s" s="1">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="C276" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="1">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="B277" t="s" s="1">
-        <v>27</v>
+        <v>631</v>
       </c>
       <c r="C277" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="1">
-        <v>704</v>
+        <v>435</v>
       </c>
       <c r="B278" t="s" s="1">
-        <v>627</v>
+        <v>340</v>
       </c>
       <c r="C278" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="1">
-        <v>539</v>
+        <v>583</v>
       </c>
       <c r="B279" t="s" s="1">
-        <v>705</v>
+        <v>375</v>
       </c>
       <c r="C279" t="s" s="1">
         <v>271</v>
@@ -6225,21 +6291,21 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="1">
-        <v>44</v>
+        <v>568</v>
       </c>
       <c r="B280" t="s" s="1">
-        <v>498</v>
+        <v>63</v>
       </c>
       <c r="C280" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="1">
-        <v>342</v>
+        <v>251</v>
       </c>
       <c r="B281" t="s" s="1">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="C281" t="s" s="1">
         <v>5</v>
@@ -6247,10 +6313,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="1">
-        <v>333</v>
+        <v>87</v>
       </c>
       <c r="B282" t="s" s="1">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="C282" t="s" s="1">
         <v>5</v>
@@ -6258,21 +6324,21 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="1">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="B283" t="s" s="1">
-        <v>341</v>
+        <v>662</v>
       </c>
       <c r="C283" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="1">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="B284" t="s" s="1">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="C284" t="s" s="1">
         <v>5</v>
@@ -6280,21 +6346,21 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="1">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B285" t="s" s="1">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="C285" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="1">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="B286" t="s" s="1">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C286" t="s" s="1">
         <v>5</v>
@@ -6302,21 +6368,21 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="1">
-        <v>666</v>
+        <v>470</v>
       </c>
       <c r="B287" t="s" s="1">
-        <v>527</v>
+        <v>283</v>
       </c>
       <c r="C287" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="1">
-        <v>132</v>
+        <v>636</v>
       </c>
       <c r="B288" t="s" s="1">
-        <v>352</v>
+        <v>451</v>
       </c>
       <c r="C288" t="s" s="1">
         <v>5</v>
@@ -6324,54 +6390,54 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="1">
-        <v>476</v>
+        <v>647</v>
       </c>
       <c r="B289" t="s" s="1">
-        <v>494</v>
+        <v>34</v>
       </c>
       <c r="C289" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="1">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="B290" t="s" s="1">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="C290" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="1">
-        <v>247</v>
+        <v>510</v>
       </c>
       <c r="B291" t="s" s="1">
-        <v>328</v>
+        <v>101</v>
       </c>
       <c r="C291" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="1">
-        <v>361</v>
+        <v>51</v>
       </c>
       <c r="B292" t="s" s="1">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="C292" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="1">
-        <v>519</v>
+        <v>666</v>
       </c>
       <c r="B293" t="s" s="1">
-        <v>4</v>
+        <v>527</v>
       </c>
       <c r="C293" t="s" s="1">
         <v>5</v>
@@ -6379,65 +6445,65 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="1">
-        <v>358</v>
+        <v>192</v>
       </c>
       <c r="B294" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C294" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="1">
-        <v>701</v>
+        <v>394</v>
       </c>
       <c r="B295" t="s" s="1">
-        <v>590</v>
+        <v>276</v>
       </c>
       <c r="C295" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="1">
-        <v>409</v>
+        <v>165</v>
       </c>
       <c r="B296" t="s" s="1">
-        <v>25</v>
+        <v>686</v>
       </c>
       <c r="C296" t="s" s="1">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="1">
-        <v>652</v>
+        <v>37</v>
       </c>
       <c r="B297" t="s" s="1">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="C297" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="1">
-        <v>39</v>
+        <v>426</v>
       </c>
       <c r="B298" t="s" s="1">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="C298" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="1">
-        <v>199</v>
+        <v>428</v>
       </c>
       <c r="B299" t="s" s="1">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c r="C299" t="s" s="1">
         <v>5</v>
@@ -6445,21 +6511,21 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="1">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B300" t="s" s="1">
         <v>27</v>
       </c>
       <c r="C300" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="1">
-        <v>508</v>
+        <v>257</v>
       </c>
       <c r="B301" t="s" s="1">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="C301" t="s" s="1">
         <v>5</v>
@@ -6467,32 +6533,32 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="1">
-        <v>495</v>
+        <v>648</v>
       </c>
       <c r="B302" t="s" s="1">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="C302" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="1">
-        <v>150</v>
+        <v>446</v>
       </c>
       <c r="B303" t="s" s="1">
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="C303" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="1">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="B304" t="s" s="1">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="C304" t="s" s="1">
         <v>5</v>
@@ -6500,43 +6566,43 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="1">
-        <v>454</v>
+        <v>572</v>
       </c>
       <c r="B305" t="s" s="1">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="C305" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="1">
-        <v>641</v>
+        <v>125</v>
       </c>
       <c r="B306" t="s" s="1">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C306" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="1">
-        <v>642</v>
+        <v>169</v>
       </c>
       <c r="B307" t="s" s="1">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="C307" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="1">
-        <v>144</v>
+        <v>718</v>
       </c>
       <c r="B308" t="s" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C308" t="s" s="1">
         <v>271</v>
@@ -6544,21 +6610,21 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="1">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="B309" t="s" s="1">
-        <v>111</v>
+        <v>541</v>
       </c>
       <c r="C309" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="1">
-        <v>119</v>
+        <v>519</v>
       </c>
       <c r="B310" t="s" s="1">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="C310" t="s" s="1">
         <v>5</v>
@@ -6566,43 +6632,43 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="1">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="B311" t="s" s="1">
-        <v>607</v>
+        <v>289</v>
       </c>
       <c r="C311" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="1">
-        <v>213</v>
+        <v>492</v>
       </c>
       <c r="B312" t="s" s="1">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c r="C312" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="1">
-        <v>464</v>
+        <v>96</v>
       </c>
       <c r="B313" t="s" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C313" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="1">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="B314" t="s" s="1">
-        <v>700</v>
+        <v>599</v>
       </c>
       <c r="C314" t="s" s="1">
         <v>5</v>
@@ -6610,21 +6676,21 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="1">
-        <v>10</v>
+        <v>391</v>
       </c>
       <c r="B315" t="s" s="1">
-        <v>274</v>
+        <v>7</v>
       </c>
       <c r="C315" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="1">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="B316" t="s" s="1">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="C316" t="s" s="1">
         <v>5</v>
@@ -6632,10 +6698,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="1">
-        <v>472</v>
+        <v>239</v>
       </c>
       <c r="B317" t="s" s="1">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C317" t="s" s="1">
         <v>271</v>
@@ -6643,21 +6709,21 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="1">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="B318" t="s" s="1">
-        <v>375</v>
+        <v>13</v>
       </c>
       <c r="C318" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="1">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="B319" t="s" s="1">
-        <v>69</v>
+        <v>337</v>
       </c>
       <c r="C319" t="s" s="1">
         <v>5</v>
@@ -6665,21 +6731,21 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="1">
-        <v>321</v>
+        <v>62</v>
       </c>
       <c r="B320" t="s" s="1">
-        <v>438</v>
+        <v>630</v>
       </c>
       <c r="C320" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="1">
-        <v>219</v>
+        <v>350</v>
       </c>
       <c r="B321" t="s" s="1">
-        <v>443</v>
+        <v>274</v>
       </c>
       <c r="C321" t="s" s="1">
         <v>5</v>
@@ -6687,10 +6753,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="1">
-        <v>639</v>
+        <v>702</v>
       </c>
       <c r="B322" t="s" s="1">
-        <v>544</v>
+        <v>57</v>
       </c>
       <c r="C322" t="s" s="1">
         <v>5</v>
@@ -6698,54 +6764,54 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="1">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="B323" t="s" s="1">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="C323" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="1">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="B324" t="s" s="1">
-        <v>527</v>
+        <v>295</v>
       </c>
       <c r="C324" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="1">
-        <v>252</v>
+        <v>678</v>
       </c>
       <c r="B325" t="s" s="1">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="C325" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="1">
-        <v>645</v>
+        <v>249</v>
       </c>
       <c r="B326" t="s" s="1">
-        <v>284</v>
+        <v>542</v>
       </c>
       <c r="C326" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="1">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="B327" t="s" s="1">
-        <v>267</v>
+        <v>7</v>
       </c>
       <c r="C327" t="s" s="1">
         <v>5</v>
@@ -6753,32 +6819,32 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="1">
-        <v>309</v>
+        <v>142</v>
       </c>
       <c r="B328" t="s" s="1">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="C328" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="1">
-        <v>108</v>
+        <v>675</v>
       </c>
       <c r="B329" t="s" s="1">
-        <v>375</v>
+        <v>72</v>
       </c>
       <c r="C329" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="1">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="B330" t="s" s="1">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C330" t="s" s="1">
         <v>5</v>
@@ -6786,21 +6852,21 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="1">
-        <v>222</v>
+        <v>478</v>
       </c>
       <c r="B331" t="s" s="1">
-        <v>375</v>
+        <v>84</v>
       </c>
       <c r="C331" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="1">
-        <v>21</v>
+        <v>550</v>
       </c>
       <c r="B332" t="s" s="1">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="C332" t="s" s="1">
         <v>271</v>
@@ -6808,21 +6874,21 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="1">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="B333" t="s" s="1">
-        <v>499</v>
+        <v>15</v>
       </c>
       <c r="C333" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s" s="1">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B334" t="s" s="1">
-        <v>276</v>
+        <v>614</v>
       </c>
       <c r="C334" t="s" s="1">
         <v>5</v>
@@ -6830,10 +6896,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="1">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="B335" t="s" s="1">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="C335" t="s" s="1">
         <v>5</v>
@@ -6841,21 +6907,21 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="1">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="B336" t="s" s="1">
-        <v>111</v>
+        <v>340</v>
       </c>
       <c r="C336" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="1">
-        <v>471</v>
+        <v>154</v>
       </c>
       <c r="B337" t="s" s="1">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="C337" t="s" s="1">
         <v>5</v>
@@ -6863,10 +6929,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="1">
-        <v>216</v>
+        <v>354</v>
       </c>
       <c r="B338" t="s" s="1">
-        <v>7</v>
+        <v>527</v>
       </c>
       <c r="C338" t="s" s="1">
         <v>5</v>
@@ -6874,10 +6940,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="1">
-        <v>24</v>
+        <v>404</v>
       </c>
       <c r="B339" t="s" s="1">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="C339" t="s" s="1">
         <v>5</v>
@@ -6885,10 +6951,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="1">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="B340" t="s" s="1">
-        <v>340</v>
+        <v>38</v>
       </c>
       <c r="C340" t="s" s="1">
         <v>5</v>
@@ -6896,32 +6962,32 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="1">
-        <v>308</v>
+        <v>136</v>
       </c>
       <c r="B341" t="s" s="1">
-        <v>118</v>
+        <v>530</v>
       </c>
       <c r="C341" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="1">
-        <v>658</v>
+        <v>512</v>
       </c>
       <c r="B342" t="s" s="1">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C342" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="1">
-        <v>636</v>
+        <v>177</v>
       </c>
       <c r="B343" t="s" s="1">
-        <v>341</v>
+        <v>527</v>
       </c>
       <c r="C343" t="s" s="1">
         <v>5</v>
@@ -6929,21 +6995,21 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="1">
-        <v>233</v>
+        <v>719</v>
       </c>
       <c r="B344" t="s" s="1">
-        <v>280</v>
+        <v>491</v>
       </c>
       <c r="C344" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="1">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="B345" t="s" s="1">
-        <v>267</v>
+        <v>646</v>
       </c>
       <c r="C345" t="s" s="1">
         <v>5</v>
@@ -6951,10 +7017,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="1">
-        <v>241</v>
+        <v>433</v>
       </c>
       <c r="B346" t="s" s="1">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="C346" t="s" s="1">
         <v>5</v>
@@ -6962,21 +7028,21 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="1">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B347" t="s" s="1">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C347" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="1">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="B348" t="s" s="1">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="C348" t="s" s="1">
         <v>5</v>
@@ -6984,10 +7050,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="1">
-        <v>99</v>
+        <v>636</v>
       </c>
       <c r="B349" t="s" s="1">
-        <v>27</v>
+        <v>626</v>
       </c>
       <c r="C349" t="s" s="1">
         <v>5</v>
@@ -6995,10 +7061,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="1">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="B350" t="s" s="1">
-        <v>276</v>
+        <v>532</v>
       </c>
       <c r="C350" t="s" s="1">
         <v>5</v>
@@ -7006,32 +7072,32 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="1">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="B351" t="s" s="1">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="C351" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="1">
-        <v>704</v>
+        <v>190</v>
       </c>
       <c r="B352" t="s" s="1">
-        <v>449</v>
+        <v>91</v>
       </c>
       <c r="C352" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="1">
-        <v>128</v>
+        <v>477</v>
       </c>
       <c r="B353" t="s" s="1">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="C353" t="s" s="1">
         <v>5</v>
@@ -7039,10 +7105,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="1">
-        <v>382</v>
+        <v>255</v>
       </c>
       <c r="B354" t="s" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C354" t="s" s="1">
         <v>5</v>
@@ -7050,10 +7116,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="1">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="B355" t="s" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C355" t="s" s="1">
         <v>5</v>
@@ -7061,32 +7127,32 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="1">
-        <v>26</v>
+        <v>423</v>
       </c>
       <c r="B356" t="s" s="1">
-        <v>591</v>
+        <v>301</v>
       </c>
       <c r="C356" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="1">
-        <v>141</v>
+        <v>465</v>
       </c>
       <c r="B357" t="s" s="1">
-        <v>657</v>
+        <v>111</v>
       </c>
       <c r="C357" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="1">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="B358" t="s" s="1">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C358" t="s" s="1">
         <v>5</v>
@@ -7094,10 +7160,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="1">
-        <v>468</v>
+        <v>179</v>
       </c>
       <c r="B359" t="s" s="1">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C359" t="s" s="1">
         <v>5</v>
@@ -7105,43 +7171,43 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="1">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="B360" t="s" s="1">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C360" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="1">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="B361" t="s" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C361" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s" s="1">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="B362" t="s" s="1">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C362" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="1">
-        <v>644</v>
+        <v>579</v>
       </c>
       <c r="B363" t="s" s="1">
-        <v>373</v>
+        <v>281</v>
       </c>
       <c r="C363" t="s" s="1">
         <v>5</v>
@@ -7149,10 +7215,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="1">
-        <v>156</v>
+        <v>508</v>
       </c>
       <c r="B364" t="s" s="1">
-        <v>352</v>
+        <v>279</v>
       </c>
       <c r="C364" t="s" s="1">
         <v>5</v>
@@ -7160,10 +7226,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="1">
-        <v>371</v>
+        <v>123</v>
       </c>
       <c r="B365" t="s" s="1">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="C365" t="s" s="1">
         <v>5</v>
@@ -7171,10 +7237,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="1">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="B366" t="s" s="1">
-        <v>38</v>
+        <v>720</v>
       </c>
       <c r="C366" t="s" s="1">
         <v>5</v>
@@ -7182,21 +7248,21 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="1">
-        <v>664</v>
+        <v>75</v>
       </c>
       <c r="B367" t="s" s="1">
-        <v>437</v>
+        <v>295</v>
       </c>
       <c r="C367" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="1">
-        <v>660</v>
+        <v>305</v>
       </c>
       <c r="B368" t="s" s="1">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="C368" t="s" s="1">
         <v>5</v>
@@ -7204,98 +7270,98 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="1">
-        <v>621</v>
+        <v>428</v>
       </c>
       <c r="B369" t="s" s="1">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="C369" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s" s="1">
-        <v>104</v>
+        <v>547</v>
       </c>
       <c r="B370" t="s" s="1">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="C370" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="1">
-        <v>536</v>
+        <v>676</v>
       </c>
       <c r="B371" t="s" s="1">
-        <v>111</v>
+        <v>438</v>
       </c>
       <c r="C371" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="1">
-        <v>466</v>
+        <v>339</v>
       </c>
       <c r="B372" t="s" s="1">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C372" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s" s="1">
-        <v>154</v>
+        <v>522</v>
       </c>
       <c r="B373" t="s" s="1">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="C373" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="1">
-        <v>242</v>
+        <v>402</v>
       </c>
       <c r="B374" t="s" s="1">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="C374" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="1">
-        <v>579</v>
+        <v>253</v>
       </c>
       <c r="B375" t="s" s="1">
-        <v>284</v>
+        <v>499</v>
       </c>
       <c r="C375" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="1">
-        <v>516</v>
+        <v>214</v>
       </c>
       <c r="B376" t="s" s="1">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="C376" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s" s="1">
-        <v>433</v>
+        <v>224</v>
       </c>
       <c r="B377" t="s" s="1">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="C377" t="s" s="1">
         <v>5</v>
@@ -7303,21 +7369,21 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="1">
-        <v>314</v>
+        <v>160</v>
       </c>
       <c r="B378" t="s" s="1">
-        <v>27</v>
+        <v>533</v>
       </c>
       <c r="C378" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s" s="1">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="B379" t="s" s="1">
-        <v>27</v>
+        <v>392</v>
       </c>
       <c r="C379" t="s" s="1">
         <v>5</v>
@@ -7325,10 +7391,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="1">
-        <v>600</v>
+        <v>468</v>
       </c>
       <c r="B380" t="s" s="1">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="C380" t="s" s="1">
         <v>5</v>
@@ -7336,10 +7402,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="1">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B381" t="s" s="1">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="C381" t="s" s="1">
         <v>5</v>
@@ -7347,32 +7413,32 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="1">
-        <v>122</v>
+        <v>445</v>
       </c>
       <c r="B382" t="s" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C382" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s" s="1">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="B383" t="s" s="1">
-        <v>657</v>
+        <v>116</v>
       </c>
       <c r="C383" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s" s="1">
-        <v>338</v>
+        <v>206</v>
       </c>
       <c r="B384" t="s" s="1">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="C384" t="s" s="1">
         <v>5</v>
@@ -7380,43 +7446,43 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="1">
-        <v>473</v>
+        <v>609</v>
       </c>
       <c r="B385" t="s" s="1">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="C385" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s" s="1">
-        <v>87</v>
+        <v>608</v>
       </c>
       <c r="B386" t="s" s="1">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="C386" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s" s="1">
-        <v>172</v>
+        <v>571</v>
       </c>
       <c r="B387" t="s" s="1">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C387" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s" s="1">
-        <v>623</v>
+        <v>378</v>
       </c>
       <c r="B388" t="s" s="1">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C388" t="s" s="1">
         <v>5</v>
@@ -7424,32 +7490,32 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="1">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="B389" t="s" s="1">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="C389" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s" s="1">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="B390" t="s" s="1">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="C390" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s" s="1">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="B391" t="s" s="1">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C391" t="s" s="1">
         <v>5</v>
@@ -7457,21 +7523,21 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="1">
-        <v>505</v>
+        <v>698</v>
       </c>
       <c r="B392" t="s" s="1">
-        <v>545</v>
+        <v>66</v>
       </c>
       <c r="C392" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s" s="1">
-        <v>187</v>
+        <v>495</v>
       </c>
       <c r="B393" t="s" s="1">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C393" t="s" s="1">
         <v>5</v>
@@ -7479,21 +7545,21 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="1">
-        <v>447</v>
+        <v>679</v>
       </c>
       <c r="B394" t="s" s="1">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C394" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s" s="1">
-        <v>477</v>
+        <v>213</v>
       </c>
       <c r="B395" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C395" t="s" s="1">
         <v>5</v>
@@ -7501,10 +7567,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="1">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="B396" t="s" s="1">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C396" t="s" s="1">
         <v>5</v>
@@ -7512,10 +7578,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="1">
-        <v>67</v>
+        <v>384</v>
       </c>
       <c r="B397" t="s" s="1">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="C397" t="s" s="1">
         <v>271</v>
@@ -7523,10 +7589,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="1">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="B398" t="s" s="1">
-        <v>614</v>
+        <v>313</v>
       </c>
       <c r="C398" t="s" s="1">
         <v>5</v>
@@ -7534,10 +7600,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="1">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="B399" t="s" s="1">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="C399" t="s" s="1">
         <v>5</v>
@@ -7545,10 +7611,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="1">
-        <v>393</v>
+        <v>639</v>
       </c>
       <c r="B400" t="s" s="1">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="C400" t="s" s="1">
         <v>5</v>
@@ -7556,21 +7622,21 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="1">
-        <v>184</v>
+        <v>721</v>
       </c>
       <c r="B401" t="s" s="1">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C401" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s" s="1">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B402" t="s" s="1">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C402" t="s" s="1">
         <v>5</v>
@@ -7578,10 +7644,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="1">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B403" t="s" s="1">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="C403" t="s" s="1">
         <v>5</v>
@@ -7589,43 +7655,43 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="1">
-        <v>477</v>
+        <v>110</v>
       </c>
       <c r="B404" t="s" s="1">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="C404" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s" s="1">
-        <v>251</v>
+        <v>722</v>
       </c>
       <c r="B405" t="s" s="1">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="C405" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s" s="1">
-        <v>417</v>
+        <v>204</v>
       </c>
       <c r="B406" t="s" s="1">
-        <v>706</v>
+        <v>438</v>
       </c>
       <c r="C406" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s" s="1">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="B407" t="s" s="1">
-        <v>390</v>
+        <v>52</v>
       </c>
       <c r="C407" t="s" s="1">
         <v>5</v>
@@ -7633,21 +7699,21 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="1">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B408" t="s" s="1">
-        <v>27</v>
+        <v>438</v>
       </c>
       <c r="C408" t="s" s="1">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s" s="1">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B409" t="s" s="1">
-        <v>527</v>
+        <v>286</v>
       </c>
       <c r="C409" t="s" s="1">
         <v>5</v>
@@ -7655,10 +7721,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="1">
-        <v>265</v>
+        <v>431</v>
       </c>
       <c r="B410" t="s" s="1">
-        <v>485</v>
+        <v>383</v>
       </c>
       <c r="C410" t="s" s="1">
         <v>5</v>
@@ -7666,10 +7732,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="1">
-        <v>321</v>
+        <v>649</v>
       </c>
       <c r="B411" t="s" s="1">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="C411" t="s" s="1">
         <v>5</v>
@@ -7677,21 +7743,21 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="1">
-        <v>636</v>
+        <v>565</v>
       </c>
       <c r="B412" t="s" s="1">
-        <v>626</v>
+        <v>57</v>
       </c>
       <c r="C412" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s" s="1">
-        <v>150</v>
+        <v>555</v>
       </c>
       <c r="B413" t="s" s="1">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C413" t="s" s="1">
         <v>5</v>
@@ -7699,32 +7765,32 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="1">
-        <v>146</v>
+        <v>474</v>
       </c>
       <c r="B414" t="s" s="1">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="C414" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="1">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B415" t="s" s="1">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C415" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s" s="1">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B416" t="s" s="1">
-        <v>281</v>
+        <v>375</v>
       </c>
       <c r="C416" t="s" s="1">
         <v>5</v>
@@ -7732,10 +7798,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="1">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="B417" t="s" s="1">
-        <v>91</v>
+        <v>590</v>
       </c>
       <c r="C417" t="s" s="1">
         <v>5</v>
@@ -7743,10 +7809,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="1">
-        <v>393</v>
+        <v>200</v>
       </c>
       <c r="B418" t="s" s="1">
-        <v>276</v>
+        <v>529</v>
       </c>
       <c r="C418" t="s" s="1">
         <v>5</v>
@@ -7754,21 +7820,21 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="1">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="B419" t="s" s="1">
-        <v>540</v>
+        <v>289</v>
       </c>
       <c r="C419" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s" s="1">
-        <v>509</v>
+        <v>393</v>
       </c>
       <c r="B420" t="s" s="1">
-        <v>274</v>
+        <v>116</v>
       </c>
       <c r="C420" t="s" s="1">
         <v>5</v>
@@ -7776,10 +7842,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="1">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="B421" t="s" s="1">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="C421" t="s" s="1">
         <v>5</v>
@@ -7787,21 +7853,21 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="1">
-        <v>338</v>
+        <v>516</v>
       </c>
       <c r="B422" t="s" s="1">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C422" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s" s="1">
-        <v>14</v>
+        <v>702</v>
       </c>
       <c r="B423" t="s" s="1">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="C423" t="s" s="1">
         <v>5</v>
@@ -7809,21 +7875,21 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="1">
-        <v>505</v>
+        <v>67</v>
       </c>
       <c r="B424" t="s" s="1">
-        <v>544</v>
+        <v>27</v>
       </c>
       <c r="C424" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s" s="1">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="B425" t="s" s="1">
-        <v>451</v>
+        <v>27</v>
       </c>
       <c r="C425" t="s" s="1">
         <v>5</v>
@@ -7831,10 +7897,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="1">
-        <v>579</v>
+        <v>132</v>
       </c>
       <c r="B426" t="s" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C426" t="s" s="1">
         <v>5</v>
@@ -7842,10 +7908,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="1">
-        <v>361</v>
+        <v>58</v>
       </c>
       <c r="B427" t="s" s="1">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="C427" t="s" s="1">
         <v>5</v>
@@ -7853,10 +7919,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="1">
-        <v>464</v>
+        <v>97</v>
       </c>
       <c r="B428" t="s" s="1">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c r="C428" t="s" s="1">
         <v>5</v>
@@ -7864,10 +7930,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="1">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B429" t="s" s="1">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="C429" t="s" s="1">
         <v>5</v>
@@ -7875,10 +7941,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="1">
-        <v>141</v>
+        <v>664</v>
       </c>
       <c r="B430" t="s" s="1">
-        <v>657</v>
+        <v>27</v>
       </c>
       <c r="C430" t="s" s="1">
         <v>5</v>
@@ -7886,10 +7952,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="1">
-        <v>235</v>
+        <v>389</v>
       </c>
       <c r="B431" t="s" s="1">
-        <v>281</v>
+        <v>27</v>
       </c>
       <c r="C431" t="s" s="1">
         <v>5</v>
@@ -7897,10 +7963,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="1">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B432" t="s" s="1">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C432" t="s" s="1">
         <v>5</v>
@@ -7908,10 +7974,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="1">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="B433" t="s" s="1">
-        <v>284</v>
+        <v>27</v>
       </c>
       <c r="C433" t="s" s="1">
         <v>5</v>
@@ -7919,10 +7985,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="1">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B434" t="s" s="1">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="C434" t="s" s="1">
         <v>5</v>
@@ -7930,10 +7996,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="1">
-        <v>219</v>
+        <v>309</v>
       </c>
       <c r="B435" t="s" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C435" t="s" s="1">
         <v>5</v>
@@ -7941,10 +8007,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="1">
-        <v>447</v>
+        <v>189</v>
       </c>
       <c r="B436" t="s" s="1">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="C436" t="s" s="1">
         <v>5</v>
@@ -7952,10 +8018,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="1">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B437" t="s" s="1">
-        <v>425</v>
+        <v>27</v>
       </c>
       <c r="C437" t="s" s="1">
         <v>5</v>
@@ -7963,10 +8029,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="1">
-        <v>128</v>
+        <v>430</v>
       </c>
       <c r="B438" t="s" s="1">
-        <v>276</v>
+        <v>98</v>
       </c>
       <c r="C438" t="s" s="1">
         <v>5</v>
@@ -7974,32 +8040,32 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="1">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="B439" t="s" s="1">
-        <v>72</v>
+        <v>455</v>
       </c>
       <c r="C439" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s" s="1">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="B440" t="s" s="1">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="C440" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s" s="1">
-        <v>214</v>
+        <v>689</v>
       </c>
       <c r="B441" t="s" s="1">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C441" t="s" s="1">
         <v>5</v>
@@ -8007,32 +8073,32 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="1">
-        <v>172</v>
+        <v>558</v>
       </c>
       <c r="B442" t="s" s="1">
-        <v>284</v>
+        <v>533</v>
       </c>
       <c r="C442" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s" s="1">
-        <v>217</v>
+        <v>685</v>
       </c>
       <c r="B443" t="s" s="1">
-        <v>707</v>
+        <v>289</v>
       </c>
       <c r="C443" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s" s="1">
-        <v>664</v>
+        <v>261</v>
       </c>
       <c r="B444" t="s" s="1">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="C444" t="s" s="1">
         <v>5</v>
@@ -8040,10 +8106,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="1">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="B445" t="s" s="1">
-        <v>373</v>
+        <v>27</v>
       </c>
       <c r="C445" t="s" s="1">
         <v>5</v>
@@ -8051,10 +8117,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="1">
-        <v>404</v>
+        <v>652</v>
       </c>
       <c r="B446" t="s" s="1">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="C446" t="s" s="1">
         <v>5</v>
@@ -8062,21 +8128,21 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="1">
-        <v>620</v>
+        <v>158</v>
       </c>
       <c r="B447" t="s" s="1">
-        <v>273</v>
+        <v>723</v>
       </c>
       <c r="C447" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s" s="1">
-        <v>67</v>
+        <v>534</v>
       </c>
       <c r="B448" t="s" s="1">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C448" t="s" s="1">
         <v>271</v>
@@ -8084,10 +8150,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="1">
-        <v>156</v>
+        <v>642</v>
       </c>
       <c r="B449" t="s" s="1">
-        <v>287</v>
+        <v>4</v>
       </c>
       <c r="C449" t="s" s="1">
         <v>5</v>
@@ -8095,21 +8161,21 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="1">
-        <v>354</v>
+        <v>55</v>
       </c>
       <c r="B450" t="s" s="1">
-        <v>527</v>
+        <v>275</v>
       </c>
       <c r="C450" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s" s="1">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="B451" t="s" s="1">
-        <v>292</v>
+        <v>720</v>
       </c>
       <c r="C451" t="s" s="1">
         <v>5</v>
@@ -8117,21 +8183,21 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="1">
-        <v>233</v>
+        <v>595</v>
       </c>
       <c r="B452" t="s" s="1">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="C452" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s" s="1">
-        <v>213</v>
+        <v>350</v>
       </c>
       <c r="B453" t="s" s="1">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="C453" t="s" s="1">
         <v>5</v>
@@ -8139,10 +8205,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="1">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B454" t="s" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C454" t="s" s="1">
         <v>5</v>
@@ -8150,21 +8216,21 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="1">
-        <v>152</v>
+        <v>567</v>
       </c>
       <c r="B455" t="s" s="1">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="C455" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s" s="1">
-        <v>122</v>
+        <v>701</v>
       </c>
       <c r="B456" t="s" s="1">
-        <v>438</v>
+        <v>517</v>
       </c>
       <c r="C456" t="s" s="1">
         <v>5</v>
@@ -8172,21 +8238,21 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="1">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="B457" t="s" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C457" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s" s="1">
-        <v>476</v>
+        <v>99</v>
       </c>
       <c r="B458" t="s" s="1">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C458" t="s" s="1">
         <v>5</v>
@@ -8194,43 +8260,43 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="1">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B459" t="s" s="1">
-        <v>527</v>
+        <v>286</v>
       </c>
       <c r="C459" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s" s="1">
-        <v>623</v>
+        <v>488</v>
       </c>
       <c r="B460" t="s" s="1">
-        <v>292</v>
+        <v>15</v>
       </c>
       <c r="C460" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s" s="1">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="B461" t="s" s="1">
-        <v>341</v>
+        <v>25</v>
       </c>
       <c r="C461" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s" s="1">
-        <v>382</v>
+        <v>215</v>
       </c>
       <c r="B462" t="s" s="1">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C462" t="s" s="1">
         <v>5</v>
@@ -8238,21 +8304,21 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="1">
-        <v>508</v>
+        <v>145</v>
       </c>
       <c r="B463" t="s" s="1">
-        <v>9</v>
+        <v>288</v>
       </c>
       <c r="C463" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s" s="1">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="B464" t="s" s="1">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C464" t="s" s="1">
         <v>5</v>
@@ -8260,10 +8326,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="1">
-        <v>495</v>
+        <v>658</v>
       </c>
       <c r="B465" t="s" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C465" t="s" s="1">
         <v>5</v>
@@ -8271,21 +8337,21 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="1">
-        <v>645</v>
+        <v>564</v>
       </c>
       <c r="B466" t="s" s="1">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="C466" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s" s="1">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="B467" t="s" s="1">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="C467" t="s" s="1">
         <v>5</v>
@@ -8293,7 +8359,7 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="1">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="B468" t="s" s="1">
         <v>390</v>
@@ -8304,10 +8370,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="1">
-        <v>536</v>
+        <v>71</v>
       </c>
       <c r="B469" t="s" s="1">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="C469" t="s" s="1">
         <v>5</v>
@@ -8315,43 +8381,43 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="1">
-        <v>431</v>
+        <v>229</v>
       </c>
       <c r="B470" t="s" s="1">
-        <v>355</v>
+        <v>30</v>
       </c>
       <c r="C470" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s" s="1">
-        <v>642</v>
+        <v>724</v>
       </c>
       <c r="B471" t="s" s="1">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="C471" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s" s="1">
-        <v>652</v>
+        <v>183</v>
       </c>
       <c r="B472" t="s" s="1">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C472" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s" s="1">
-        <v>207</v>
+        <v>358</v>
       </c>
       <c r="B473" t="s" s="1">
-        <v>589</v>
+        <v>286</v>
       </c>
       <c r="C473" t="s" s="1">
         <v>5</v>
@@ -8359,32 +8425,32 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="1">
-        <v>701</v>
+        <v>454</v>
       </c>
       <c r="B474" t="s" s="1">
-        <v>328</v>
+        <v>27</v>
       </c>
       <c r="C474" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s" s="1">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="B475" t="s" s="1">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="C475" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s" s="1">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="B476" t="s" s="1">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C476" t="s" s="1">
         <v>5</v>
@@ -8392,10 +8458,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="1">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="B477" t="s" s="1">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="C477" t="s" s="1">
         <v>5</v>
@@ -8403,10 +8469,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="1">
-        <v>193</v>
+        <v>310</v>
       </c>
       <c r="B478" t="s" s="1">
-        <v>589</v>
+        <v>27</v>
       </c>
       <c r="C478" t="s" s="1">
         <v>5</v>
@@ -8414,21 +8480,21 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="1">
-        <v>433</v>
+        <v>50</v>
       </c>
       <c r="B479" t="s" s="1">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C479" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s" s="1">
-        <v>444</v>
+        <v>243</v>
       </c>
       <c r="B480" t="s" s="1">
-        <v>267</v>
+        <v>667</v>
       </c>
       <c r="C480" t="s" s="1">
         <v>5</v>
@@ -8436,10 +8502,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s" s="1">
-        <v>252</v>
+        <v>666</v>
       </c>
       <c r="B481" t="s" s="1">
-        <v>273</v>
+        <v>527</v>
       </c>
       <c r="C481" t="s" s="1">
         <v>5</v>
@@ -8447,10 +8513,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="1">
-        <v>241</v>
+        <v>623</v>
       </c>
       <c r="B482" t="s" s="1">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="C482" t="s" s="1">
         <v>5</v>
@@ -8458,10 +8524,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="1">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="B483" t="s" s="1">
-        <v>494</v>
+        <v>27</v>
       </c>
       <c r="C483" t="s" s="1">
         <v>5</v>
@@ -8469,10 +8535,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="1">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="B484" t="s" s="1">
-        <v>301</v>
+        <v>30</v>
       </c>
       <c r="C484" t="s" s="1">
         <v>5</v>
@@ -8480,32 +8546,32 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="1">
-        <v>351</v>
+        <v>464</v>
       </c>
       <c r="B485" t="s" s="1">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="C485" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s" s="1">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="B486" t="s" s="1">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="C486" t="s" s="1">
-        <v>268</v>
+        <v>5</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s" s="1">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B487" t="s" s="1">
-        <v>27</v>
+        <v>390</v>
       </c>
       <c r="C487" t="s" s="1">
         <v>5</v>
@@ -8513,10 +8579,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="1">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B488" t="s" s="1">
-        <v>27</v>
+        <v>667</v>
       </c>
       <c r="C488" t="s" s="1">
         <v>5</v>
@@ -8524,21 +8590,21 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="1">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="B489" t="s" s="1">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="C489" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s" s="1">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="B490" t="s" s="1">
-        <v>27</v>
+        <v>499</v>
       </c>
       <c r="C490" t="s" s="1">
         <v>5</v>
@@ -8546,10 +8612,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="1">
-        <v>600</v>
+        <v>481</v>
       </c>
       <c r="B491" t="s" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C491" t="s" s="1">
         <v>5</v>
@@ -8557,21 +8623,21 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="1">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="B492" t="s" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C492" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s" s="1">
-        <v>92</v>
+        <v>502</v>
       </c>
       <c r="B493" t="s" s="1">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="C493" t="s" s="1">
         <v>5</v>
@@ -8579,7 +8645,7 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="1">
-        <v>641</v>
+        <v>148</v>
       </c>
       <c r="B494" t="s" s="1">
         <v>27</v>
@@ -8590,10 +8656,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="1">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="B495" t="s" s="1">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C495" t="s" s="1">
         <v>5</v>
@@ -8601,65 +8667,65 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="1">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="B496" t="s" s="1">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="C496" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s" s="1">
-        <v>644</v>
+        <v>186</v>
       </c>
       <c r="B497" t="s" s="1">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="C497" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s" s="1">
-        <v>24</v>
+        <v>493</v>
       </c>
       <c r="B498" t="s" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C498" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s" s="1">
-        <v>519</v>
+        <v>300</v>
       </c>
       <c r="B499" t="s" s="1">
-        <v>524</v>
+        <v>4</v>
       </c>
       <c r="C499" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s" s="1">
-        <v>658</v>
+        <v>77</v>
       </c>
       <c r="B500" t="s" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C500" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s" s="1">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B501" t="s" s="1">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="C501" t="s" s="1">
         <v>5</v>
@@ -8667,10 +8733,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="1">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B502" t="s" s="1">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C502" t="s" s="1">
         <v>5</v>
@@ -8678,21 +8744,21 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="1">
-        <v>350</v>
+        <v>129</v>
       </c>
       <c r="B503" t="s" s="1">
-        <v>275</v>
+        <v>585</v>
       </c>
       <c r="C503" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s" s="1">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="B504" t="s" s="1">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C504" t="s" s="1">
         <v>5</v>
@@ -8700,43 +8766,43 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="1">
-        <v>144</v>
+        <v>644</v>
       </c>
       <c r="B505" t="s" s="1">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C505" t="s" s="1">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s" s="1">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="B506" t="s" s="1">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C506" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s" s="1">
-        <v>660</v>
+        <v>157</v>
       </c>
       <c r="B507" t="s" s="1">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="C507" t="s" s="1">
-        <v>5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s" s="1">
-        <v>33</v>
+        <v>444</v>
       </c>
       <c r="B508" t="s" s="1">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="C508" t="s" s="1">
         <v>5</v>
@@ -8744,21 +8810,21 @@
     </row>
     <row r="509">
       <c r="A509" t="s" s="1">
-        <v>211</v>
+        <v>463</v>
       </c>
       <c r="B509" t="s" s="1">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C509" t="s" s="1">
-        <v>5</v>
+        <v>271</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s" s="1">
-        <v>480</v>
+        <v>87</v>
       </c>
       <c r="B510" t="s" s="1">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="C510" t="s" s="1">
         <v>5</v>
@@ -8766,23 +8832,2663 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="1">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="B511" t="s" s="1">
-        <v>667</v>
+        <v>274</v>
       </c>
       <c r="C511" t="s" s="1">
-        <v>5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="B512" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C512" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="1">
+        <v>523</v>
+      </c>
+      <c r="B513" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C513" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="B514" t="s" s="1">
+        <v>544</v>
+      </c>
+      <c r="C514" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="1">
+        <v>471</v>
+      </c>
+      <c r="B515" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C515" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="1">
+        <v>185</v>
+      </c>
+      <c r="B516" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C516" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="B517" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="C517" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="1">
+        <v>641</v>
+      </c>
+      <c r="B518" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C518" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B519" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C519" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="1">
+        <v>415</v>
+      </c>
+      <c r="B520" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C520" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B521" t="s" s="1">
+        <v>311</v>
+      </c>
+      <c r="C521" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="1">
+        <v>672</v>
+      </c>
+      <c r="B522" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C522" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B523" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C523" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="1">
+        <v>687</v>
+      </c>
+      <c r="B524" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C524" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="1">
+        <v>380</v>
+      </c>
+      <c r="B525" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C525" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="1">
+        <v>333</v>
+      </c>
+      <c r="B526" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C526" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="1">
+        <v>335</v>
+      </c>
+      <c r="B527" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C527" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B528" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C528" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="1">
+        <v>320</v>
+      </c>
+      <c r="B529" t="s" s="1">
+        <v>586</v>
+      </c>
+      <c r="C529" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="B530" t="s" s="1">
+        <v>544</v>
+      </c>
+      <c r="C530" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B531" t="s" s="1">
+        <v>507</v>
+      </c>
+      <c r="C531" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="B532" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C532" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="B533" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C533" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B534" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C534" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="B535" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C535" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="B536" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C536" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B537" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C537" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="B538" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C538" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B539" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C539" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s" s="1">
+        <v>704</v>
+      </c>
+      <c r="B540" t="s" s="1">
+        <v>406</v>
+      </c>
+      <c r="C540" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="B541" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C541" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="1">
+        <v>312</v>
+      </c>
+      <c r="B542" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C542" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="B543" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C543" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="B544" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C544" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="1">
+        <v>683</v>
+      </c>
+      <c r="B545" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C545" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="B546" t="s" s="1">
+        <v>520</v>
+      </c>
+      <c r="C546" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B547" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C547" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="1">
+        <v>682</v>
+      </c>
+      <c r="B548" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C548" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="B549" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C549" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s" s="1">
+        <v>319</v>
+      </c>
+      <c r="B550" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C550" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s" s="1">
+        <v>580</v>
+      </c>
+      <c r="B551" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C551" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B552" t="s" s="1">
+        <v>504</v>
+      </c>
+      <c r="C552" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="1">
+        <v>360</v>
+      </c>
+      <c r="B553" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C553" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="B554" t="s" s="1">
+        <v>627</v>
+      </c>
+      <c r="C554" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s" s="1">
+        <v>487</v>
+      </c>
+      <c r="B555" t="s" s="1">
+        <v>606</v>
+      </c>
+      <c r="C555" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s" s="1">
+        <v>514</v>
+      </c>
+      <c r="B556" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C556" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="1">
+        <v>577</v>
+      </c>
+      <c r="B557" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C557" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="B558" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C558" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="B559" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C559" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B560" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C560" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="1">
+        <v>422</v>
+      </c>
+      <c r="B561" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C561" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="B562" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C562" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="1">
+        <v>725</v>
+      </c>
+      <c r="B563" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C563" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s" s="1">
+        <v>238</v>
+      </c>
+      <c r="B564" t="s" s="1">
+        <v>726</v>
+      </c>
+      <c r="C564" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="B565" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="C565" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B566" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="C566" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="1">
+        <v>395</v>
+      </c>
+      <c r="B567" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C567" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B568" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C568" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="1">
+        <v>712</v>
+      </c>
+      <c r="B569" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C569" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="B570" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C570" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s" s="1">
+        <v>264</v>
+      </c>
+      <c r="B571" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C571" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="B572" t="s" s="1">
+        <v>599</v>
+      </c>
+      <c r="C572" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s" s="1">
+        <v>317</v>
+      </c>
+      <c r="B573" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C573" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s" s="1">
+        <v>225</v>
+      </c>
+      <c r="B574" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C574" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="B575" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="C575" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="B576" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C576" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s" s="1">
+        <v>727</v>
+      </c>
+      <c r="B577" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C577" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B578" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="C578" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="B579" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C579" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s" s="1">
+        <v>370</v>
+      </c>
+      <c r="B580" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C580" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s" s="1">
+        <v>227</v>
+      </c>
+      <c r="B581" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C581" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="B582" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C582" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="B583" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C583" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s" s="1">
+        <v>247</v>
+      </c>
+      <c r="B584" t="s" s="1">
+        <v>328</v>
+      </c>
+      <c r="C584" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B585" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C585" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B586" t="s" s="1">
+        <v>607</v>
+      </c>
+      <c r="C586" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="B587" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C587" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="B588" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C588" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s" s="1">
+        <v>171</v>
+      </c>
+      <c r="B589" t="s" s="1">
+        <v>499</v>
+      </c>
+      <c r="C589" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s" s="1">
+        <v>397</v>
+      </c>
+      <c r="B590" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C590" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="B591" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C591" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B592" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C592" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s" s="1">
+        <v>386</v>
+      </c>
+      <c r="B593" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C593" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="B594" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C594" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="B595" t="s" s="1">
+        <v>451</v>
+      </c>
+      <c r="C595" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s" s="1">
+        <v>575</v>
+      </c>
+      <c r="B596" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C596" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="B597" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C597" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B598" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C598" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="1">
+        <v>672</v>
+      </c>
+      <c r="B599" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C599" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="1">
+        <v>223</v>
+      </c>
+      <c r="B600" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C600" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="1">
+        <v>138</v>
+      </c>
+      <c r="B601" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C601" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="B602" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C602" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B603" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C603" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="B604" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C604" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B605" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C605" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="1">
+        <v>152</v>
+      </c>
+      <c r="B606" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C606" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s" s="1">
+        <v>431</v>
+      </c>
+      <c r="B607" t="s" s="1">
+        <v>383</v>
+      </c>
+      <c r="C607" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s" s="1">
+        <v>247</v>
+      </c>
+      <c r="B608" t="s" s="1">
+        <v>328</v>
+      </c>
+      <c r="C608" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="B609" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C609" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s" s="1">
+        <v>641</v>
+      </c>
+      <c r="B610" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C610" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="B611" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C611" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s" s="1">
+        <v>471</v>
+      </c>
+      <c r="B612" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C612" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="B613" t="s" s="1">
+        <v>277</v>
+      </c>
+      <c r="C613" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s" s="1">
+        <v>447</v>
+      </c>
+      <c r="B614" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C614" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s" s="1">
+        <v>128</v>
+      </c>
+      <c r="B615" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C615" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B616" t="s" s="1">
+        <v>728</v>
+      </c>
+      <c r="C616" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="B617" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C617" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="B618" t="s" s="1">
+        <v>526</v>
+      </c>
+      <c r="C618" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B619" t="s" s="1">
+        <v>537</v>
+      </c>
+      <c r="C619" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s" s="1">
+        <v>189</v>
+      </c>
+      <c r="B620" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C620" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s" s="1">
+        <v>162</v>
+      </c>
+      <c r="B621" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C621" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B622" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C622" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s" s="1">
+        <v>712</v>
+      </c>
+      <c r="B623" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C623" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="B624" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C624" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s" s="1">
+        <v>259</v>
+      </c>
+      <c r="B625" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C625" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="B626" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C626" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="B627" t="s" s="1">
+        <v>443</v>
+      </c>
+      <c r="C627" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s" s="1">
+        <v>508</v>
+      </c>
+      <c r="B628" t="s" s="1">
+        <v>437</v>
+      </c>
+      <c r="C628" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s" s="1">
+        <v>468</v>
+      </c>
+      <c r="B629" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C629" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="B630" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C630" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B631" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C631" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s" s="1">
+        <v>224</v>
+      </c>
+      <c r="B632" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C632" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="B633" t="s" s="1">
+        <v>324</v>
+      </c>
+      <c r="C633" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B634" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C634" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="B635" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C635" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="B636" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C636" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s" s="1">
+        <v>636</v>
+      </c>
+      <c r="B637" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="C637" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s" s="1">
+        <v>206</v>
+      </c>
+      <c r="B638" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C638" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="B639" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="C639" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="B640" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C640" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s" s="1">
+        <v>248</v>
+      </c>
+      <c r="B641" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C641" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="B642" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C642" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="B643" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C643" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="B644" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C644" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s" s="1">
+        <v>639</v>
+      </c>
+      <c r="B645" t="s" s="1">
+        <v>451</v>
+      </c>
+      <c r="C645" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="B646" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C646" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="B647" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C647" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s" s="1">
+        <v>243</v>
+      </c>
+      <c r="B648" t="s" s="1">
+        <v>709</v>
+      </c>
+      <c r="C648" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s" s="1">
+        <v>333</v>
+      </c>
+      <c r="B649" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C649" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="B650" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C650" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s" s="1">
+        <v>222</v>
+      </c>
+      <c r="B651" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C651" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B652" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C652" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s" s="1">
+        <v>644</v>
+      </c>
+      <c r="B653" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C653" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B654" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C654" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B655" t="s" s="1">
+        <v>443</v>
+      </c>
+      <c r="C655" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s" s="1">
+        <v>389</v>
+      </c>
+      <c r="B656" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C656" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="B657" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C657" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B658" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C658" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s" s="1">
+        <v>210</v>
+      </c>
+      <c r="B659" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C659" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s" s="1">
         <v>119</v>
       </c>
-      <c r="B512" t="s" s="1">
-        <v>708</v>
-      </c>
-      <c r="C512" t="s" s="1">
+      <c r="B660" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C660" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="B661" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C661" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s" s="1">
+        <v>92</v>
+      </c>
+      <c r="B662" t="s" s="1">
+        <v>546</v>
+      </c>
+      <c r="C662" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B663" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C663" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="B664" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C664" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s" s="1">
+        <v>664</v>
+      </c>
+      <c r="B665" t="s" s="1">
+        <v>507</v>
+      </c>
+      <c r="C665" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="B666" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C666" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s" s="1">
+        <v>233</v>
+      </c>
+      <c r="B667" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C667" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="B668" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C668" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="B669" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C669" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s" s="1">
+        <v>623</v>
+      </c>
+      <c r="B670" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C670" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B671" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C671" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s" s="1">
+        <v>148</v>
+      </c>
+      <c r="B672" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C672" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="B673" t="s" s="1">
+        <v>710</v>
+      </c>
+      <c r="C673" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B674" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C674" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="B675" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C675" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s" s="1">
+        <v>555</v>
+      </c>
+      <c r="B676" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C676" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B677" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C677" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s" s="1">
+        <v>516</v>
+      </c>
+      <c r="B678" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C678" t="s" s="1">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="B679" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C679" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B680" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C680" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="B681" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C681" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B682" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C682" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B683" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C683" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B684" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C684" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="B685" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C685" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s" s="1">
+        <v>448</v>
+      </c>
+      <c r="B686" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C686" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="B687" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C687" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B688" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C688" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B689" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C689" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="B690" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C690" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s" s="1">
+        <v>221</v>
+      </c>
+      <c r="B691" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C691" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="B692" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C692" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s" s="1">
+        <v>185</v>
+      </c>
+      <c r="B693" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C693" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s" s="1">
+        <v>702</v>
+      </c>
+      <c r="B694" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C694" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s" s="1">
+        <v>477</v>
+      </c>
+      <c r="B695" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C695" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="B696" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C696" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s" s="1">
+        <v>481</v>
+      </c>
+      <c r="B697" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C697" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s" s="1">
+        <v>689</v>
+      </c>
+      <c r="B698" t="s" s="1">
+        <v>548</v>
+      </c>
+      <c r="C698" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s" s="1">
+        <v>687</v>
+      </c>
+      <c r="B699" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C699" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="B700" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C700" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s" s="1">
+        <v>258</v>
+      </c>
+      <c r="B701" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C701" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="B702" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="C702" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s" s="1">
+        <v>251</v>
+      </c>
+      <c r="B703" t="s" s="1">
+        <v>355</v>
+      </c>
+      <c r="C703" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B704" t="s" s="1">
+        <v>730</v>
+      </c>
+      <c r="C704" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="B705" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C705" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B706" t="s" s="1">
+        <v>549</v>
+      </c>
+      <c r="C706" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="B707" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C707" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s" s="1">
+        <v>666</v>
+      </c>
+      <c r="B708" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C708" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B709" t="s" s="1">
+        <v>304</v>
+      </c>
+      <c r="C709" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B710" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C710" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="B711" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C711" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B712" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C712" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="B713" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C713" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="B714" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C714" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B715" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C715" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="B716" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C716" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s" s="1">
+        <v>649</v>
+      </c>
+      <c r="B717" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C717" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="B718" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="C718" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s" s="1">
+        <v>476</v>
+      </c>
+      <c r="B719" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C719" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s" s="1">
+        <v>342</v>
+      </c>
+      <c r="B720" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C720" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B721" t="s" s="1">
+        <v>494</v>
+      </c>
+      <c r="C721" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s" s="1">
+        <v>428</v>
+      </c>
+      <c r="B722" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C722" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="B723" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C723" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="B724" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C724" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="B725" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C725" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="B726" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C726" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s" s="1">
+        <v>652</v>
+      </c>
+      <c r="B727" t="s" s="1">
+        <v>665</v>
+      </c>
+      <c r="C727" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s" s="1">
+        <v>580</v>
+      </c>
+      <c r="B728" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C728" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s" s="1">
+        <v>610</v>
+      </c>
+      <c r="B729" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="C729" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s" s="1">
+        <v>642</v>
+      </c>
+      <c r="B730" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C730" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s" s="1">
+        <v>106</v>
+      </c>
+      <c r="B731" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C731" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s" s="1">
+        <v>579</v>
+      </c>
+      <c r="B732" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C732" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B733" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C733" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B734" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C734" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B735" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C735" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B736" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C736" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s" s="1">
+        <v>660</v>
+      </c>
+      <c r="B737" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C737" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="B738" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C738" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="B739" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C739" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="B740" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C740" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="B741" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C741" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="B742" t="s" s="1">
+        <v>369</v>
+      </c>
+      <c r="C742" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B743" t="s" s="1">
+        <v>390</v>
+      </c>
+      <c r="C743" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s" s="1">
+        <v>502</v>
+      </c>
+      <c r="B744" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C744" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s" s="1">
+        <v>97</v>
+      </c>
+      <c r="B745" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C745" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s" s="1">
+        <v>371</v>
+      </c>
+      <c r="B746" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C746" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B747" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C747" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s" s="1">
+        <v>338</v>
+      </c>
+      <c r="B748" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C748" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="B749" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C749" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="B750" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C750" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s" s="1">
+        <v>404</v>
+      </c>
+      <c r="B751" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C751" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s" s="1">
+        <v>701</v>
+      </c>
+      <c r="B752" t="s" s="1">
+        <v>665</v>
+      </c>
+      <c r="C752" t="s" s="1">
         <v>5</v>
       </c>
     </row>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20682" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23886" uniqueCount="836">
   <si>
     <t>Firm</t>
   </si>
@@ -2422,6 +2422,120 @@
   </si>
   <si>
     <t>Simmons Wolfhagen</t>
+  </si>
+  <si>
+    <t>Trilegal</t>
+  </si>
+  <si>
+    <t>Hiways</t>
+  </si>
+  <si>
+    <t>Jia Yuan Law</t>
+  </si>
+  <si>
+    <t>Momo-o Matsuo And Namba</t>
+  </si>
+  <si>
+    <t>Khaitan &amp; Co</t>
+  </si>
+  <si>
+    <t>Rahmat Lim And Partners</t>
+  </si>
+  <si>
+    <t>Tian Yuan</t>
+  </si>
+  <si>
+    <t>Oh-Ebashi LPC And Partners</t>
+  </si>
+  <si>
+    <t>Wilson Harle</t>
+  </si>
+  <si>
+    <t>Stevenson Wong And Co</t>
+  </si>
+  <si>
+    <t>Russell McVeagh</t>
+  </si>
+  <si>
+    <t>Nishimura And Asahi</t>
+  </si>
+  <si>
+    <t>Kochhar And Co</t>
+  </si>
+  <si>
+    <t>Zaid Ibrahim And Co</t>
+  </si>
+  <si>
+    <t>India Law Offices</t>
+  </si>
+  <si>
+    <t>Jincheng Tongda And Neal</t>
+  </si>
+  <si>
+    <t>Johnson Winter Slattery</t>
+  </si>
+  <si>
+    <t>Harry Elias</t>
+  </si>
+  <si>
+    <t>Romulo Law Firm</t>
+  </si>
+  <si>
+    <t>ABS And Co</t>
+  </si>
+  <si>
+    <t>Mori Hamada And Matsumoto</t>
+  </si>
+  <si>
+    <t>Tsar And Tsai</t>
+  </si>
+  <si>
+    <t>Thomson Geer</t>
+  </si>
+  <si>
+    <t>Hiswara BunjaminAndTandjung</t>
+  </si>
+  <si>
+    <t>Nagashima Ohno And Tsunematsu</t>
+  </si>
+  <si>
+    <t>Virtus</t>
+  </si>
+  <si>
+    <t>Piper Alderman</t>
+  </si>
+  <si>
+    <t>Lane Neave</t>
+  </si>
+  <si>
+    <t>Holding Redlich</t>
+  </si>
+  <si>
+    <t>Hugill And Ip</t>
+  </si>
+  <si>
+    <t>TMI Associates</t>
+  </si>
+  <si>
+    <t>Lektou</t>
+  </si>
+  <si>
+    <t>Miura &amp; Partners</t>
+  </si>
+  <si>
+    <t>Saga Legal</t>
+  </si>
+  <si>
+    <t>03min 49s</t>
+  </si>
+  <si>
+    <t>02min 09s</t>
+  </si>
+  <si>
+    <t>Drew And Napier</t>
+  </si>
+  <si>
+    <t>Hiswara Bunjamin And Tandjung</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/baseFiles/excel/Reports.xlsx
+++ b/src/main/resources/baseFiles/excel/Reports.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23886" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26247" uniqueCount="895">
   <si>
     <t>Firm</t>
   </si>
@@ -2536,6 +2536,183 @@
   </si>
   <si>
     <t>Hiswara Bunjamin And Tandjung</t>
+  </si>
+  <si>
+    <t>Mohsin Tayebaly &amp; Co</t>
+  </si>
+  <si>
+    <t>Dhir &amp; Dhir</t>
+  </si>
+  <si>
+    <t>Harry Elias Partnership</t>
+  </si>
+  <si>
+    <t>Chadha &amp; Co</t>
+  </si>
+  <si>
+    <t>WongPartnership</t>
+  </si>
+  <si>
+    <t>FirstLaw PC</t>
+  </si>
+  <si>
+    <t>Bharucha &amp; Partners</t>
+  </si>
+  <si>
+    <t>Makes &amp; Partners Law</t>
+  </si>
+  <si>
+    <t>ADCO Law</t>
+  </si>
+  <si>
+    <t>Guoyao Qindao Law</t>
+  </si>
+  <si>
+    <t>AS&amp;H Clifford Chance</t>
+  </si>
+  <si>
+    <t>Daiichi Fuyo</t>
+  </si>
+  <si>
+    <t>Puno Law</t>
+  </si>
+  <si>
+    <t>Allen And Gledhill</t>
+  </si>
+  <si>
+    <t>Vision &amp; Associates</t>
+  </si>
+  <si>
+    <t>Atsumi &amp; Sakai</t>
+  </si>
+  <si>
+    <t>HHR Lawyers</t>
+  </si>
+  <si>
+    <t>Bhandari Naqvi Riaz</t>
+  </si>
+  <si>
+    <t>Juslaws &amp; Consult</t>
+  </si>
+  <si>
+    <t>JTJB International Lawyers</t>
+  </si>
+  <si>
+    <t>Shin And Kim</t>
+  </si>
+  <si>
+    <t>V&amp;A Law</t>
+  </si>
+  <si>
+    <t>BTG Advaya</t>
+  </si>
+  <si>
+    <t>PSL</t>
+  </si>
+  <si>
+    <t>Singhania &amp; Partners</t>
+  </si>
+  <si>
+    <t>LNT</t>
+  </si>
+  <si>
+    <t>Anhad Law</t>
+  </si>
+  <si>
+    <t>Llinks</t>
+  </si>
+  <si>
+    <t>Ocampo And Suralvo</t>
+  </si>
+  <si>
+    <t>D. L. And F. De Saram</t>
+  </si>
+  <si>
+    <t>Yulchon</t>
+  </si>
+  <si>
+    <t>Sok Siphana &amp; Associates</t>
+  </si>
+  <si>
+    <t>SolomonAndCo</t>
+  </si>
+  <si>
+    <t>Dhaval Vussonji And Associates</t>
+  </si>
+  <si>
+    <t>Vellani &amp; Vellani</t>
+  </si>
+  <si>
+    <t>Amicus</t>
+  </si>
+  <si>
+    <t>Kojima Law</t>
+  </si>
+  <si>
+    <t>Jeff Leong Poon And Wong</t>
+  </si>
+  <si>
+    <t>Legacy Law</t>
+  </si>
+  <si>
+    <t>Wikborg Rein</t>
+  </si>
+  <si>
+    <t>Euclid Law</t>
+  </si>
+  <si>
+    <t>Chamberlains</t>
+  </si>
+  <si>
+    <t>Wynn Williams</t>
+  </si>
+  <si>
+    <t>Gordon Legal</t>
+  </si>
+  <si>
+    <t>Aitken Partners</t>
+  </si>
+  <si>
+    <t>Norman Waterhouse</t>
+  </si>
+  <si>
+    <t>Harmos Horton Lusk</t>
+  </si>
+  <si>
+    <t>Sierra Legal</t>
+  </si>
+  <si>
+    <t>Wenger Vieli AG</t>
+  </si>
+  <si>
+    <t>Aumento Law Firm</t>
+  </si>
+  <si>
+    <t>Wrays</t>
+  </si>
+  <si>
+    <t>Madderns</t>
+  </si>
+  <si>
+    <t>Arnold Bloch Leibler</t>
+  </si>
+  <si>
+    <t>Clayton Utz</t>
+  </si>
+  <si>
+    <t>McCullough Robertson</t>
+  </si>
+  <si>
+    <t>Konecna And Zacha</t>
+  </si>
+  <si>
+    <t>Hesketh Henry</t>
+  </si>
+  <si>
+    <t>MIO Law</t>
+  </si>
+  <si>
+    <t>Hadef &amp; Partners</t>
   </si>
 </sst>
 </file>
@@ -3523,7 +3700,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C788"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C35"/>
@@ -3544,6 +3721,8663 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>804</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>802</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>822</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>709</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>836</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>738</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>837</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>831</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>779</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>803</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>838</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>839</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>753</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>794</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>816</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>764</v>
+      </c>
+      <c r="B16" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>840</v>
+      </c>
+      <c r="B17" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>841</v>
+      </c>
+      <c r="B18" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>813</v>
+      </c>
+      <c r="B20" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C20" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>161</v>
+      </c>
+      <c r="B21" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C21" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>842</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C22" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="B23" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>760</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C25" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>744</v>
+      </c>
+      <c r="B26" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="C26" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>843</v>
+      </c>
+      <c r="B27" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C27" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>844</v>
+      </c>
+      <c r="B28" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>828</v>
+      </c>
+      <c r="B29" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>774</v>
+      </c>
+      <c r="B30" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C30" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>739</v>
+      </c>
+      <c r="B31" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>845</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>792</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>767</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>762</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>811</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>834</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>164</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>437</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>846</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>769</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>847</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C41" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="1">
+        <v>795</v>
+      </c>
+      <c r="B42" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C42" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>783</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>609</v>
+      </c>
+      <c r="B44" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="1">
+        <v>755</v>
+      </c>
+      <c r="B45" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="1">
+        <v>848</v>
+      </c>
+      <c r="B46" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="1">
+        <v>849</v>
+      </c>
+      <c r="B47" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="1">
+        <v>809</v>
+      </c>
+      <c r="B48" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s" s="1">
+        <v>494</v>
+      </c>
+      <c r="C49" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="1">
+        <v>772</v>
+      </c>
+      <c r="B50" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C50" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="1">
+        <v>777</v>
+      </c>
+      <c r="B51" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="1">
+        <v>850</v>
+      </c>
+      <c r="B52" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C52" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="1">
+        <v>770</v>
+      </c>
+      <c r="B53" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C53" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="1">
+        <v>851</v>
+      </c>
+      <c r="B54" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="1">
+        <v>852</v>
+      </c>
+      <c r="B55" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C56" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="1">
+        <v>810</v>
+      </c>
+      <c r="B57" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C57" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="1">
+        <v>155</v>
+      </c>
+      <c r="B58" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="1">
+        <v>853</v>
+      </c>
+      <c r="B59" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="1">
+        <v>263</v>
+      </c>
+      <c r="B60" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C60" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="1">
+        <v>854</v>
+      </c>
+      <c r="B61" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="C61" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="1">
+        <v>745</v>
+      </c>
+      <c r="B62" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="1">
+        <v>758</v>
+      </c>
+      <c r="B63" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C63" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="1">
+        <v>855</v>
+      </c>
+      <c r="B64" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C64" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="1">
+        <v>771</v>
+      </c>
+      <c r="B65" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C65" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="1">
+        <v>746</v>
+      </c>
+      <c r="B66" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="1">
+        <v>856</v>
+      </c>
+      <c r="B67" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="1">
+        <v>672</v>
+      </c>
+      <c r="B68" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="1">
+        <v>234</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C69" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1">
+        <v>778</v>
+      </c>
+      <c r="B70" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="1">
+        <v>817</v>
+      </c>
+      <c r="B71" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="1">
+        <v>790</v>
+      </c>
+      <c r="B72" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="1">
+        <v>799</v>
+      </c>
+      <c r="B73" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="1">
+        <v>731</v>
+      </c>
+      <c r="B74" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="1">
+        <v>857</v>
+      </c>
+      <c r="B75" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="1">
+        <v>858</v>
+      </c>
+      <c r="B76" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C76" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="1">
+        <v>859</v>
+      </c>
+      <c r="B77" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="1">
+        <v>740</v>
+      </c>
+      <c r="B78" t="s" s="1">
+        <v>460</v>
+      </c>
+      <c r="C78" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="1">
+        <v>751</v>
+      </c>
+      <c r="B79" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="1">
+        <v>860</v>
+      </c>
+      <c r="B80" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="1">
+        <v>861</v>
+      </c>
+      <c r="B81" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C81" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="1">
+        <v>862</v>
+      </c>
+      <c r="B82" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C82" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="1">
+        <v>773</v>
+      </c>
+      <c r="B83" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C83" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="1">
+        <v>506</v>
+      </c>
+      <c r="B84" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C84" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="1">
+        <v>863</v>
+      </c>
+      <c r="B85" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C85" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="1">
+        <v>800</v>
+      </c>
+      <c r="B86" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C86" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="1">
+        <v>798</v>
+      </c>
+      <c r="B87" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C87" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="1">
+        <v>864</v>
+      </c>
+      <c r="B88" t="s" s="1">
+        <v>289</v>
+      </c>
+      <c r="C88" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="1">
+        <v>865</v>
+      </c>
+      <c r="B89" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C89" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="1">
+        <v>866</v>
+      </c>
+      <c r="B90" t="s" s="1">
+        <v>491</v>
+      </c>
+      <c r="C90" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="1">
+        <v>815</v>
+      </c>
+      <c r="B91" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C91" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="1">
+        <v>246</v>
+      </c>
+      <c r="B92" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C92" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="1">
+        <v>823</v>
+      </c>
+      <c r="B93" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C93" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="1">
+        <v>830</v>
+      </c>
+      <c r="B94" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C94" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="1">
+        <v>749</v>
+      </c>
+      <c r="B95" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="1">
+        <v>835</v>
+      </c>
+      <c r="B96" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C96" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="1">
+        <v>867</v>
+      </c>
+      <c r="B97" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C97" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C98" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="B99" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="1">
+        <v>737</v>
+      </c>
+      <c r="B100" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C100" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="1">
+        <v>741</v>
+      </c>
+      <c r="B101" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C101" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="1">
+        <v>868</v>
+      </c>
+      <c r="B102" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C102" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="1">
+        <v>303</v>
+      </c>
+      <c r="B103" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="1">
+        <v>805</v>
+      </c>
+      <c r="B104" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C104" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="1">
+        <v>752</v>
+      </c>
+      <c r="B105" t="s" s="1">
+        <v>451</v>
+      </c>
+      <c r="C105" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
+        <v>775</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="1">
+        <v>812</v>
+      </c>
+      <c r="B107" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C107" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="1">
+        <v>869</v>
+      </c>
+      <c r="B108" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C108" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="1">
+        <v>734</v>
+      </c>
+      <c r="B109" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="C109" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="1">
+        <v>870</v>
+      </c>
+      <c r="B110" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="1">
+        <v>801</v>
+      </c>
+      <c r="B111" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C111" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="1">
+        <v>754</v>
+      </c>
+      <c r="B112" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C112" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="1">
+        <v>747</v>
+      </c>
+      <c r="B113" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C113" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="1">
+        <v>819</v>
+      </c>
+      <c r="B114" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C114" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="1">
+        <v>781</v>
+      </c>
+      <c r="B115" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C115" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="1">
+        <v>871</v>
+      </c>
+      <c r="B116" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C116" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="1">
+        <v>807</v>
+      </c>
+      <c r="B117" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C117" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="1">
+        <v>818</v>
+      </c>
+      <c r="B118" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="1">
+        <v>827</v>
+      </c>
+      <c r="B119" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C119" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="1">
+        <v>136</v>
+      </c>
+      <c r="B120" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C120" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="1">
+        <v>829</v>
+      </c>
+      <c r="B121" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C121" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="B122" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C122" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="1">
+        <v>872</v>
+      </c>
+      <c r="B123" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="1">
+        <v>428</v>
+      </c>
+      <c r="B124" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C124" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="1">
+        <v>750</v>
+      </c>
+      <c r="B125" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C125" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="1">
+        <v>873</v>
+      </c>
+      <c r="B126" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C126" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="1">
+        <v>757</v>
+      </c>
+      <c r="B127" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="1">
+        <v>732</v>
+      </c>
+      <c r="B128" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C128" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="1">
+        <v>874</v>
+      </c>
+      <c r="B129" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C129" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="1">
+        <v>763</v>
+      </c>
+      <c r="B130" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C130" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="1">
+        <v>347</v>
+      </c>
+      <c r="B131" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="1">
+        <v>346</v>
+      </c>
+      <c r="B132" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C132" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="1">
+        <v>727</v>
+      </c>
+      <c r="B133" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C133" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="1">
+        <v>523</v>
+      </c>
+      <c r="B134" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C134" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="1">
+        <v>249</v>
+      </c>
+      <c r="B135" t="s" s="1">
+        <v>627</v>
+      </c>
+      <c r="C135" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="1">
+        <v>602</v>
+      </c>
+      <c r="B136" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C136" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="1">
+        <v>719</v>
+      </c>
+      <c r="B137" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C137" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="B138" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="C138" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="1">
+        <v>435</v>
+      </c>
+      <c r="B139" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="C139" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="1">
+        <v>875</v>
+      </c>
+      <c r="B140" t="s" s="1">
+        <v>665</v>
+      </c>
+      <c r="C140" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="1">
+        <v>824</v>
+      </c>
+      <c r="B141" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C141" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="1">
+        <v>616</v>
+      </c>
+      <c r="B142" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C142" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="1">
+        <v>876</v>
+      </c>
+      <c r="B143" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C143" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="B144" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C144" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="1">
+        <v>253</v>
+      </c>
+      <c r="B145" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C145" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="1">
+        <v>353</v>
+      </c>
+      <c r="B146" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C146" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="1">
+        <v>503</v>
+      </c>
+      <c r="B147" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="1">
+        <v>689</v>
+      </c>
+      <c r="B148" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C148" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="1">
+        <v>431</v>
+      </c>
+      <c r="B149" t="s" s="1">
+        <v>449</v>
+      </c>
+      <c r="C149" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="1">
+        <v>725</v>
+      </c>
+      <c r="B150" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="1">
+        <v>127</v>
+      </c>
+      <c r="B151" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C151" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="1">
+        <v>319</v>
+      </c>
+      <c r="B152" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C152" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="B153" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C153" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="1">
+        <v>677</v>
+      </c>
+      <c r="B154" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C154" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="B155" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C155" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="B156" t="s" s="1">
+        <v>269</v>
+      </c>
+      <c r="C156" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="B157" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C157" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B158" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C158" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="1">
+        <v>351</v>
+      </c>
+      <c r="B159" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C159" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B160" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C160" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="B161" t="s" s="1">
+        <v>91</v>
+      </c>
+      <c r="C161" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="1">
+        <v>459</v>
+      </c>
+      <c r="B162" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C162" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="1">
+        <v>186</v>
+      </c>
+      <c r="B163" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C163" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="B164" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C164" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="1">
+        <v>446</v>
+      </c>
+      <c r="B165" t="s" s="1">
+        <v>316</v>
+      </c>
+      <c r="C165" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="1">
+        <v>877</v>
+      </c>
+      <c r="B166" t="s" s="1">
+        <v>432</v>
+      </c>
+      <c r="C166" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="B167" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C167" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="1">
+        <v>227</v>
+      </c>
+      <c r="B168" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C168" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="1">
+        <v>878</v>
+      </c>
+      <c r="B169" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C169" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="1">
+        <v>366</v>
+      </c>
+      <c r="B170" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C170" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="1">
+        <v>797</v>
+      </c>
+      <c r="B171" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C171" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B172" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C172" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="1">
+        <v>787</v>
+      </c>
+      <c r="B173" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C173" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="1">
+        <v>223</v>
+      </c>
+      <c r="B174" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C174" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="1">
+        <v>560</v>
+      </c>
+      <c r="B175" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C175" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C176" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="1">
+        <v>391</v>
+      </c>
+      <c r="B177" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C177" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="1">
+        <v>569</v>
+      </c>
+      <c r="B178" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C178" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="B179" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C179" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="1">
+        <v>481</v>
+      </c>
+      <c r="B180" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C180" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="B181" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C181" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="1">
+        <v>500</v>
+      </c>
+      <c r="B182" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C182" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="1">
+        <v>879</v>
+      </c>
+      <c r="B183" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C183" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="1">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s" s="1">
+        <v>403</v>
+      </c>
+      <c r="C184" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="1">
+        <v>640</v>
+      </c>
+      <c r="B185" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="C185" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="B186" t="s" s="1">
+        <v>329</v>
+      </c>
+      <c r="C186" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="1">
+        <v>468</v>
+      </c>
+      <c r="B187" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C187" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="1">
+        <v>471</v>
+      </c>
+      <c r="B188" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C188" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="1">
+        <v>880</v>
+      </c>
+      <c r="B189" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C189" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="1">
+        <v>574</v>
+      </c>
+      <c r="B190" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C190" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="1">
+        <v>206</v>
+      </c>
+      <c r="B191" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C191" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="1">
+        <v>557</v>
+      </c>
+      <c r="B192" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C192" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="1">
+        <v>475</v>
+      </c>
+      <c r="B193" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C193" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="1">
+        <v>690</v>
+      </c>
+      <c r="B194" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="C194" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="1">
+        <v>680</v>
+      </c>
+      <c r="B195" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C195" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="1">
+        <v>555</v>
+      </c>
+      <c r="B196" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C196" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="1">
+        <v>96</v>
+      </c>
+      <c r="B197" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C197" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="1">
+        <v>550</v>
+      </c>
+      <c r="B198" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C198" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="1">
+        <v>820</v>
+      </c>
+      <c r="B199" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C199" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="1">
+        <v>405</v>
+      </c>
+      <c r="B200" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C200" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="1">
+        <v>721</v>
+      </c>
+      <c r="B201" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C201" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="1">
+        <v>397</v>
+      </c>
+      <c r="B202" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C202" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="1">
+        <v>593</v>
+      </c>
+      <c r="B203" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C203" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="1">
+        <v>582</v>
+      </c>
+      <c r="B204" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C204" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B205" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C205" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="1">
+        <v>806</v>
+      </c>
+      <c r="B206" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C206" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="1">
+        <v>651</v>
+      </c>
+      <c r="B207" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C207" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="1">
+        <v>407</v>
+      </c>
+      <c r="B208" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C208" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="1">
+        <v>796</v>
+      </c>
+      <c r="B209" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C209" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="1">
+        <v>381</v>
+      </c>
+      <c r="B210" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C210" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="1">
+        <v>160</v>
+      </c>
+      <c r="B211" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C211" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="B212" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C212" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="B213" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C213" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="B214" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C214" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="1">
+        <v>673</v>
+      </c>
+      <c r="B215" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C215" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="1">
+        <v>345</v>
+      </c>
+      <c r="B216" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C216" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="1">
+        <v>638</v>
+      </c>
+      <c r="B217" t="s" s="1">
+        <v>438</v>
+      </c>
+      <c r="C217" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="B218" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C218" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="1">
+        <v>648</v>
+      </c>
+      <c r="B219" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C219" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="1">
+        <v>163</v>
+      </c>
+      <c r="B220" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C220" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="1">
+        <v>694</v>
+      </c>
+      <c r="B221" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C221" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="1">
+        <v>567</v>
+      </c>
+      <c r="B222" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C222" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="B223" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C223" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="1">
+        <v>666</v>
+      </c>
+      <c r="B224" t="s" s="1">
+        <v>527</v>
+      </c>
+      <c r="C224" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="1">
+        <v>881</v>
+      </c>
+      <c r="B225" t="s" s="1">
+        <v>449</v>
+      </c>
+      <c r="C225" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B226" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C226" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="1">
+        <v>551</v>
+      </c>
+      <c r="B227" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C227" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="1">
+        <v>756</v>
+      </c>
+      <c r="B228" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C228" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="1">
+        <v>678</v>
+      </c>
+      <c r="B229" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C229" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="B230" t="s" s="1">
+        <v>272</v>
+      </c>
+      <c r="C230" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="1">
+        <v>765</v>
+      </c>
+      <c r="B231" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C231" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="1">
+        <v>623</v>
+      </c>
+      <c r="B232" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C232" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B233" t="s" s="1">
+        <v>632</v>
+      </c>
+      <c r="C233" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="B234" t="s" s="1">
+        <v>455</v>
+      </c>
+      <c r="C234" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="B235" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C235" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B236" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C236" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="1">
+        <v>357</v>
+      </c>
+      <c r="B237" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="C237" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="1">
+        <v>785</v>
+      </c>
+      <c r="B238" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C238" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="1">
+        <v>384</v>
+      </c>
+      <c r="B239" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C239" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="1">
+        <v>698</v>
+      </c>
+      <c r="B240" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C240" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="1">
+        <v>826</v>
+      </c>
+      <c r="B241" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C241" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="1">
+        <v>882</v>
+      </c>
+      <c r="B242" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C242" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="1">
+        <v>575</v>
+      </c>
+      <c r="B243" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C243" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="1">
+        <v>343</v>
+      </c>
+      <c r="B244" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C244" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="1">
+        <v>715</v>
+      </c>
+      <c r="B245" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C245" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="1">
+        <v>534</v>
+      </c>
+      <c r="B246" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C246" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="1">
+        <v>675</v>
+      </c>
+      <c r="B247" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C247" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="1">
+        <v>671</v>
+      </c>
+      <c r="B248" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C248" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="1">
+        <v>577</v>
+      </c>
+      <c r="B249" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C249" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="1">
+        <v>411</v>
+      </c>
+      <c r="B250" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C250" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="1">
+        <v>198</v>
+      </c>
+      <c r="B251" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C251" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="B252" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C252" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="B253" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C253" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="1">
+        <v>476</v>
+      </c>
+      <c r="B254" t="s" s="1">
+        <v>301</v>
+      </c>
+      <c r="C254" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="B255" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C255" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="B256" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C256" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="1">
+        <v>445</v>
+      </c>
+      <c r="B257" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C257" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="1">
+        <v>493</v>
+      </c>
+      <c r="B258" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C258" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="1">
+        <v>697</v>
+      </c>
+      <c r="B259" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C259" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="1">
+        <v>434</v>
+      </c>
+      <c r="B260" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C260" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="1">
+        <v>702</v>
+      </c>
+      <c r="B261" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C261" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="1">
+        <v>761</v>
+      </c>
+      <c r="B262" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C262" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="1">
+        <v>232</v>
+      </c>
+      <c r="B263" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C263" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="1">
+        <v>484</v>
+      </c>
+      <c r="B264" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C264" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="B265" t="s" s="1">
+        <v>542</v>
+      </c>
+      <c r="C265" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B266" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C266" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="B267" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C267" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="1">
+        <v>648</v>
+      </c>
+      <c r="B268" t="s" s="1">
+        <v>460</v>
+      </c>
+      <c r="C268" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="1">
+        <v>302</v>
+      </c>
+      <c r="B269" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C269" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="1">
+        <v>883</v>
+      </c>
+      <c r="B270" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C270" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="1">
+        <v>452</v>
+      </c>
+      <c r="B271" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C271" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="B272" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C272" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="1">
+        <v>701</v>
+      </c>
+      <c r="B273" t="s" s="1">
+        <v>709</v>
+      </c>
+      <c r="C273" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="1">
+        <v>385</v>
+      </c>
+      <c r="B274" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C274" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B275" t="s" s="1">
+        <v>591</v>
+      </c>
+      <c r="C275" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="1">
+        <v>776</v>
+      </c>
+      <c r="B276" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C276" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="1">
+        <v>354</v>
+      </c>
+      <c r="B277" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C277" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="1">
+        <v>205</v>
+      </c>
+      <c r="B278" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C278" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B279" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C279" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="1">
+        <v>170</v>
+      </c>
+      <c r="B280" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C280" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="B281" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C281" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="1">
+        <v>182</v>
+      </c>
+      <c r="B282" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C282" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B283" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C283" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="1">
+        <v>421</v>
+      </c>
+      <c r="B284" t="s" s="1">
+        <v>340</v>
+      </c>
+      <c r="C284" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B285" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C285" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="1">
+        <v>171</v>
+      </c>
+      <c r="B286" t="s" s="1">
+        <v>545</v>
+      </c>
+      <c r="C286" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="1">
+        <v>218</v>
+      </c>
+      <c r="B287" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C287" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="B288" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C288" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="1">
+        <v>201</v>
+      </c>
+      <c r="B289" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C289" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="1">
+        <v>189</v>
+      </c>
+      <c r="B290" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C290" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="1">
+        <v>436</v>
+      </c>
+      <c r="B291" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C291" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="1">
+        <v>212</v>
+      </c>
+      <c r="B292" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C292" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="1">
+        <v>224</v>
+      </c>
+      <c r="B293" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C293" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="1">
+        <v>759</v>
+      </c>
+      <c r="B294" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C294" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="B295" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C295" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="1">
+        <v>423</v>
+      </c>
+      <c r="B296" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C296" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="1">
+        <v>360</v>
+      </c>
+      <c r="B297" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C297" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="1">
+        <v>687</v>
+      </c>
+      <c r="B298" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C298" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="B299" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C299" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="1">
+        <v>733</v>
+      </c>
+      <c r="B300" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C300" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="1">
+        <v>440</v>
+      </c>
+      <c r="B301" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C301" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="1">
+        <v>142</v>
+      </c>
+      <c r="B302" t="s" s="1">
+        <v>517</v>
+      </c>
+      <c r="C302" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="1">
+        <v>641</v>
+      </c>
+      <c r="B303" t="s" s="1">
+        <v>337</v>
+      </c>
+      <c r="C303" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="1">
+        <v>884</v>
+      </c>
+      <c r="B304" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C304" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="1">
+        <v>825</v>
+      </c>
+      <c r="B305" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C305" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="1">
+        <v>103</v>
+      </c>
+      <c r="B306" t="s" s="1">
+        <v>329</v>
+      </c>
+      <c r="C306" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="1">
+        <v>492</v>
+      </c>
+      <c r="B307" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="C307" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="1">
+        <v>244</v>
+      </c>
+      <c r="B308" t="s" s="1">
+        <v>373</v>
+      </c>
+      <c r="C308" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="1">
+        <v>404</v>
+      </c>
+      <c r="B309" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C309" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="1">
+        <v>502</v>
+      </c>
+      <c r="B310" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C310" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="1">
+        <v>450</v>
+      </c>
+      <c r="B311" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C311" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="B312" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C312" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="1">
+        <v>260</v>
+      </c>
+      <c r="B313" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="C313" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="1">
+        <v>547</v>
+      </c>
+      <c r="B314" t="s" s="1">
+        <v>392</v>
+      </c>
+      <c r="C314" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="B315" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C315" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="1">
+        <v>243</v>
+      </c>
+      <c r="B316" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C316" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="1">
+        <v>884</v>
+      </c>
+      <c r="B317" t="s" s="1">
+        <v>369</v>
+      </c>
+      <c r="C317" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="1">
+        <v>356</v>
+      </c>
+      <c r="B318" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="1">
+        <v>538</v>
+      </c>
+      <c r="B319" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C319" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="B320" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C320" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="1">
+        <v>470</v>
+      </c>
+      <c r="B321" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C321" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="B322" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C322" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="B323" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C323" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="1">
+        <v>317</v>
+      </c>
+      <c r="B324" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C324" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="B325" t="s" s="1">
+        <v>292</v>
+      </c>
+      <c r="C325" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="1">
+        <v>640</v>
+      </c>
+      <c r="B326" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="C326" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="1">
+        <v>514</v>
+      </c>
+      <c r="B327" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C327" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B328" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C328" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="B329" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C329" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="1">
+        <v>595</v>
+      </c>
+      <c r="B330" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C330" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="1">
+        <v>556</v>
+      </c>
+      <c r="B331" t="s" s="1">
+        <v>355</v>
+      </c>
+      <c r="C331" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="1">
+        <v>885</v>
+      </c>
+      <c r="B332" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C332" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="1">
+        <v>323</v>
+      </c>
+      <c r="B333" t="s" s="1">
+        <v>285</v>
+      </c>
+      <c r="C333" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="1">
+        <v>518</v>
+      </c>
+      <c r="B334" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C334" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="1">
+        <v>105</v>
+      </c>
+      <c r="B335" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C335" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="B336" t="s" s="1">
+        <v>504</v>
+      </c>
+      <c r="C336" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="B337" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="C337" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="1">
+        <v>782</v>
+      </c>
+      <c r="B338" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C338" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="1">
+        <v>210</v>
+      </c>
+      <c r="B339" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="C339" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="1">
+        <v>510</v>
+      </c>
+      <c r="B340" t="s" s="1">
+        <v>98</v>
+      </c>
+      <c r="C340" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="1">
+        <v>789</v>
+      </c>
+      <c r="B341" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C341" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="B342" t="s" s="1">
+        <v>626</v>
+      </c>
+      <c r="C342" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="1">
+        <v>426</v>
+      </c>
+      <c r="B343" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C343" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="B344" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C344" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="1">
+        <v>579</v>
+      </c>
+      <c r="B345" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C345" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="1">
+        <v>465</v>
+      </c>
+      <c r="B346" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C346" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="1">
+        <v>220</v>
+      </c>
+      <c r="B347" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C347" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="1">
+        <v>370</v>
+      </c>
+      <c r="B348" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="C348" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="1">
+        <v>748</v>
+      </c>
+      <c r="B349" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C349" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B350" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C350" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="1">
+        <v>86</v>
+      </c>
+      <c r="B351" t="s" s="1">
+        <v>618</v>
+      </c>
+      <c r="C351" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s" s="1">
+        <v>299</v>
+      </c>
+      <c r="C352" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="B353" t="s" s="1">
+        <v>545</v>
+      </c>
+      <c r="C353" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="1">
+        <v>886</v>
+      </c>
+      <c r="B354" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C354" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="1">
+        <v>197</v>
+      </c>
+      <c r="B355" t="s" s="1">
+        <v>288</v>
+      </c>
+      <c r="C355" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="1">
+        <v>334</v>
+      </c>
+      <c r="B356" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C356" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="1">
+        <v>300</v>
+      </c>
+      <c r="B357" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C357" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B358" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="C358" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="1">
+        <v>651</v>
+      </c>
+      <c r="B359" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="C359" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B360" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C360" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="1">
+        <v>344</v>
+      </c>
+      <c r="B361" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C361" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="B362" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C362" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="1">
+        <v>330</v>
+      </c>
+      <c r="B363" t="s" s="1">
+        <v>287</v>
+      </c>
+      <c r="C363" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="1">
+        <v>501</v>
+      </c>
+      <c r="B364" t="s" s="1">
+        <v>284</v>
+      </c>
+      <c r="C364" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="1">
+        <v>578</v>
+      </c>
+      <c r="B365" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C365" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="1">
+        <v>236</v>
+      </c>
+      <c r="B366" t="s" s="1">
+        <v>118</v>
+      </c>
+      <c r="C366" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="1">
+        <v>583</v>
+      </c>
+      <c r="B367" t="s" s="1">
+        <v>107</v>
+      </c>
+      <c r="C367" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="1">
+        <v>566</v>
+      </c>
+      <c r="B368" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="C368" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="1">
+        <v>387</v>
+      </c>
+      <c r="B369" t="s" s="1">
+        <v>294</v>
+      </c>
+      <c r="C369" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="1">
+        <v>684</v>
+      </c>
+      <c r="B370" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C370" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="1">
+        <v>711</v>
+      </c>
+      <c r="B371" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C371" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="1">
+        <v>561</v>
+      </c>
+      <c r="B372" t="s" s="1">
+        <v>281</v>
+      </c>
+      <c r="C372" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="1">
+        <v>571</v>
+      </c>
+      <c r="B373" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="C373" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="B374" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C374" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="1">
+        <v>580</v>
+      </c>
+      <c r="B375" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C375" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="1">
+        <v>742</v>
+      </c>
+      <c r="B376" t="s" s="1">
+        <v>273</v>
+      </c>
+      <c r="C376" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="1">
+        <v>245</v>
+      </c>
+      <c r="B377" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="C377" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="1">
+        <v>362</v>
+      </c>
+      <c r="B378" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="C378" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="1">
+        <v>887</v>
+      </c>
+      <c r="B379" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C379" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="B380" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C380" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="1">
+        <v>320</v>
+      </c>
+      <c r="B381" t="s" s="1">
+        <v>352</v>
+      </c>
+      <c r="C381" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="1">
+        <v>399</v>
+      </c>
+      <c r="B382" t="s" s="1">
+        <v>599</v>
+      </c>
+      <c r="C382" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="1">
+        <v>380</v>
+      </c>
+      <c r="B383" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C383" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="1">
+        <v>654</v>
+      </c>
+      <c r="B384" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C384" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="1">
+        <v>679</v>
+      </c>
+      <c r="B385" t="s" s="1">
+        <v>720</v>
+      </c>
+      <c r="C385" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="1">
+        <v>365</v>
+      </c>
+      <c r="B386" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="C386" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="1">
+        <v>336</v>
+      </c>
+      <c r="B387" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C387" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="1">
+        <v>888</v>
+      </c>
+      <c r="B388" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C388" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="B389" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C389" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="1">
+        <v>703</v>
+      </c>
+      <c r="B390" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="C390" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="B391" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C391" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="1">
+        <v>563</v>
+      </c>
+      <c r="B392" t="s" s="1">
+        <v>280</v>
+      </c>
+      <c r="C392" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="1">
+        <v>143</v>
+      </c>
+      <c r="B393" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C393" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="1">
+        <v>482</v>
+      </c>
+      <c r="B394" t="s" s="1">
+        <v>709</v>
+      </c>
+      <c r="C394" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="1">
+        <v>565</v>
+      </c>
+      <c r="B395" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C395" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="B396" t="s" s="1">
+        <v>349</v>
+      </c>
+      <c r="C396" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="B397" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="C397" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="1">
+        <v>562</v>
+      </c>
+      <c r="B398" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C398" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="1">
+        <v>558</v>
+      </c>
+      <c r="B399" t="s" s="1">
+        <v>375</v>
+      </c>
+      <c r="C399" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="1">
+        <v>367</v>
+      </c>
+      <c r="B400" t="s" s="1">
+        <v>101</v>
+      </c>
+      <c r="C400" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="1">
+        <v>676</v>
+      </c>
+      <c r="B401" t="s" s="1">
+        <v>296</v>
+      </c>
+      <c r="C401" t="s" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="B402" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C402" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B403" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C403" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="1">
+        <v>338</v>
+      </c>
+      <c r="B404" t="s" s="1">
+        <v>111</v>
+      </c>
+      <c r="C404" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="1">
+        <v>368</v>
+      </c>
+      <c r="B405" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C405" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="1">
+        <v>129</v>
+      </c>
+      <c r="B406" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C406" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B407" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C407" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="1">
+        <v>315</v>
+      </c>
+      <c r="B408" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C408" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="1">
+        <v>486</v>
+      </c>
+      <c r="B409" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C409" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="1">
+        <v>714</v>
+      </c>
+      <c r="B410" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C410" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="1">
+        <v>100</v>
+      </c>
+      <c r="B411" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="C411" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="B412" t="s" s="1">
+        <v>618</v>
+      </c>
+      <c r="C412" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="1">
+        <v>231</v>
+      </c>
+      <c r="B413" t="s" s="1">
+        <v>533</v>
+      </c>
+      <c r="C413" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="1">
+        <v>226</v>
+      </c>
+      <c r="B414" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C414" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="1">
+        <v>424</v>
+      </c>
+      <c r="B415" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C415" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B416" t="s" s="1">
+        <v>295</v>
+      </c>
+      <c r="C416" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="1">
+        <v>474</v>
+      </c>
+      <c r="B417" t="s" s="1">
+        <v>283</v>
+      </c>
+      <c r="C417" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="1">
+        <v>102</v>
+      </c>
+      <c r="B418" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C418" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B419" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C419" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="1">
+        <v>570</v>
+      </c>
+      <c r="B420" t="s" s="1">
+        <v>84</v>
+      </c>
+      <c r="C420" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="1">
+        <v>889</v>
+      </c>
+      <c r="B421" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C421" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="1">
+        <v>655</v>
+      </c>
+      <c r="B422" t="s" s="1">
+        <v>316</v>
+      </c>
+      <c r="C422" t="s" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="1">
+        <v>512</v>
+      </c>
+      <c r="B423" t="s" s="1">
+        <v>324</v>
+      </c>
+      <c r="C423" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="1">
+        <v>521</v>
+      </c>
+      <c r="B424" t="s" s="1">
+        <v>282</v>
+      </c>
+      <c r="C424" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B425" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C425" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="B426" t="s" s="1">
+        <v>625</v>
+      </c>
+      <c r="C426" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="1">
+        <v>388</v>
+      </c>
+      <c r="B427" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C427" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B428" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C428" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="1">
+        <v>660</v>
+      </c>
+      <c r="B429" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C429" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="1">
+        <v>683</v>
+      </c>
+      <c r="B430" t="s" s="1">
+        <v>276</v>
+      </c>
+      <c r="C430" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="1">
+        <v>581</v>
+      </c>
+      <c r="B431" t="s" s="1">
+        <v>355</v>
+      </c>
+      <c r="C431" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="1">
+        <v>735</v>
+      </c>
+      <c r="B432" t="s" s="1">
+        <v>116</v>
+      </c>
+      <c r="C432" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="1">
+        <v>808</v>
+      </c>
+      <c r="B433" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="C433" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="1">
+        <v>685</v>
+      </c>
+      <c r="B434" t="s" s="1">
+        <v>286</v>
+      </c>
+      <c r="C434" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="1">
+        <v>890</v>
+      </c>
+      <c r="B435" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="C435" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="1">
+        <v>572</v>
+      </c>
+      <c r="B436" t="s" s="1">
+        <v>341</v>
+      </c>
+      <c r="C436" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="1">
+        <v>891</v>
+      </c>
+      <c r="B437" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="C437" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="1">
+        <v>892</v>
+      </c>
+      <c r="B438" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C438" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="1">
+        <v>250</v>
+      </c>
+      <c r="B439" t="s" s="1">
+        <v>313</v>
+      </c>
+      <c r="C439" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="1">
+        <v>893</v>
+      </c>
+      <c r="B440" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="C440" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="B441" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C441" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="1">
+        <v>266</v>
+      </c>
+      <c r="B442" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C442" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B443" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C443" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="1">
+        <v>661</v>
+      </c>
+      <c r="B444" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C444" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="B445" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C445" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="B446" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C446" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="1">
+        <v>652</v>
+      </c>
+      <c r="B447" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C447" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B448" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C448" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="B449" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C449" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="1">
+        <v>306</v>
+      </c>
+      <c r="B450" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C450" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="B451" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C451" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B452" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C452" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s" s="1">
+        <v>644</v>
+      </c>
+      <c r="B453" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C453" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s" s="1">
+        <v>339</v>
+      </c>
+      <c r="B454" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C454" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s" s="1">
+        <v>636</v>
+      </c>
+      <c r="B455" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C455" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s" s="1">
+        <v>195</v>
+      </c>
+      <c r="B456" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C456" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B457" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C457" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s" s="1">
+        <v>539</v>
+      </c>
+      <c r="B458" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C458" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s" s="1">
+        <v>372</v>
+      </c>
+      <c r="B459" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C459" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s" s="1">
+        <v>194</v>
+      </c>
+      <c r="B460" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C460" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B461" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C461" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="B462" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C462" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="B463" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C463" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s" s="1">
+        <v>364</v>
+      </c>
+      <c r="B464" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C464" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B465" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C465" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s" s="1">
+        <v>467</v>
+      </c>
+      <c r="B466" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C466" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s" s="1">
+        <v>543</v>
+      </c>
+      <c r="B467" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C467" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s" s="1">
+        <v>488</v>
+      </c>
+      <c r="B468" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C468" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s" s="1">
+        <v>442</v>
+      </c>
+      <c r="B469" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C469" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="B470" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C470" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B471" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C471" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s" s="1">
+        <v>478</v>
+      </c>
+      <c r="B472" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C472" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s" s="1">
+        <v>196</v>
+      </c>
+      <c r="B473" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C473" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s" s="1">
+        <v>682</v>
+      </c>
+      <c r="B474" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C474" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s" s="1">
+        <v>237</v>
+      </c>
+      <c r="B475" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C475" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="B476" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C476" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="B477" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C477" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s" s="1">
+        <v>225</v>
+      </c>
+      <c r="B478" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C478" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="B479" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C479" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="B480" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C480" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s" s="1">
+        <v>176</v>
+      </c>
+      <c r="B481" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C481" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s" s="1">
+        <v>637</v>
+      </c>
+      <c r="B482" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C482" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="B483" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C483" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="B484" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C484" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s" s="1">
+        <v>342</v>
+      </c>
+      <c r="B485" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C485" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s" s="1">
+        <v>209</v>
+      </c>
+      <c r="B486" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C486" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="B487" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C487" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B488" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C488" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s" s="1">
+        <v>409</v>
+      </c>
+      <c r="B489" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C489" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s" s="1">
+        <v>479</v>
+      </c>
+      <c r="B490" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C490" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="B491" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C491" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s" s="1">
+        <v>165</v>
+      </c>
+      <c r="B492" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C492" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s" s="1">
+        <v>650</v>
+      </c>
+      <c r="B493" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C493" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s" s="1">
+        <v>487</v>
+      </c>
+      <c r="B494" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C494" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B495" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C495" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s" s="1">
+        <v>511</v>
+      </c>
+      <c r="B496" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C496" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="B497" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C497" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="B498" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C498" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="B499" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C499" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s" s="1">
+        <v>429</v>
+      </c>
+      <c r="B500" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C500" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s" s="1">
+        <v>483</v>
+      </c>
+      <c r="B501" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C501" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="B502" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C502" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s" s="1">
+        <v>477</v>
+      </c>
+      <c r="B503" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C503" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B504" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C504" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B505" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C505" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="B506" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C506" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s" s="1">
+        <v>262</v>
+      </c>
+      <c r="B507" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C507" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="1">
+        <v>894</v>
+      </c>
+      <c r="B508" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C508" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s" s="1">
+        <v>516</v>
+      </c>
+      <c r="B509" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C509" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s" s="1">
+        <v>610</v>
+      </c>
+      <c r="B510" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C510" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="B511" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C511" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="B512" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C512" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="B513" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C513" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s" s="1">
+        <v>639</v>
+      </c>
+      <c r="B514" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C514" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="B515" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C515" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s" s="1">
+        <v>394</v>
+      </c>
+      <c r="B516" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C516" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s" s="1">
+        <v>642</v>
+      </c>
+      <c r="B517" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C517" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B518" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C518" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B519" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C519" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s" s="1">
+        <v>157</v>
+      </c>
+      <c r="B520" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C520" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s" s="1">
+        <v>331</v>
+      </c>
+      <c r="B521" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C521" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="B522" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C522" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s" s="1">
+        <v>508</v>
+      </c>
+      <c r="B523" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C523" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s" s="1">
+        <v>147</v>
+      </c>
+      <c r="B524" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C524" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s" s="1">
+        <v>188</v>
+      </c>
+      <c r="B525" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C525" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="B526" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C526" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s" s="1">
+        <v>649</v>
+      </c>
+      <c r="B527" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C527" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B528" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C528" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s" s="1">
+        <v>167</v>
+      </c>
+      <c r="B529" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C529" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B530" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C530" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="B531" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C531" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s" s="1">
+        <v>90</v>
+      </c>
+      <c r="B532" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C532" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="B533" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C533" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="B534" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C534" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s" s="1">
+        <v>664</v>
+      </c>
+      <c r="B535" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C535" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s" s="1">
+        <v>469</v>
+      </c>
+      <c r="B536" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C536" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s" s="1">
+        <v>229</v>
+      </c>
+      <c r="B537" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C537" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B538" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C538" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B539" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C539" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s" s="1">
+        <v>413</v>
+      </c>
+      <c r="B540" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C540" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="B541" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C541" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="B542" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C542" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B543" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C543" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s" s="1">
+        <v>305</v>
+      </c>
+      <c r="B544" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C544" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s" s="1">
+        <v>187</v>
+      </c>
+      <c r="B545" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C545" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s" s="1">
+        <v>737</v>
+      </c>
+      <c r="B546" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C546" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s" s="1">
+        <v>745</v>
+      </c>
+      <c r="B547" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C547" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s" s="1">
+        <v>94</v>
+      </c>
+      <c r="B548" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C548" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s" s="1">
+        <v>779</v>
+      </c>
+      <c r="B549" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C549" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s" s="1">
+        <v>758</v>
+      </c>
+      <c r="B550" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C550" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s" s="1">
+        <v>749</v>
+      </c>
+      <c r="B551" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C551" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s" s="1">
+        <v>750</v>
+      </c>
+      <c r="B552" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C552" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B553" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C553" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s" s="1">
+        <v>132</v>
+      </c>
+      <c r="B554" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C554" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s" s="1">
+        <v>738</v>
+      </c>
+      <c r="B555" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C555" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s" s="1">
+        <v>741</v>
+      </c>
+      <c r="B556" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C556" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s" s="1">
+        <v>870</v>
+      </c>
+      <c r="B557" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C557" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s" s="1">
+        <v>303</v>
+      </c>
+      <c r="B558" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C558" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s" s="1">
+        <v>867</v>
+      </c>
+      <c r="B559" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C559" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s" s="1">
+        <v>740</v>
+      </c>
+      <c r="B560" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C560" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s" s="1">
+        <v>428</v>
+      </c>
+      <c r="B561" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C561" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s" s="1">
+        <v>853</v>
+      </c>
+      <c r="B562" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C562" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s" s="1">
+        <v>755</v>
+      </c>
+      <c r="B563" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C563" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s" s="1">
+        <v>817</v>
+      </c>
+      <c r="B564" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C564" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s" s="1">
+        <v>850</v>
+      </c>
+      <c r="B565" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C565" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s" s="1">
+        <v>861</v>
+      </c>
+      <c r="B566" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C566" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s" s="1">
+        <v>836</v>
+      </c>
+      <c r="B567" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C567" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s" s="1">
+        <v>207</v>
+      </c>
+      <c r="B568" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C568" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s" s="1">
+        <v>888</v>
+      </c>
+      <c r="B569" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C569" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s" s="1">
+        <v>555</v>
+      </c>
+      <c r="B570" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C570" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B571" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C571" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s" s="1">
+        <v>201</v>
+      </c>
+      <c r="B572" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C572" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s" s="1">
+        <v>227</v>
+      </c>
+      <c r="B573" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C573" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s" s="1">
+        <v>638</v>
+      </c>
+      <c r="B574" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C574" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s" s="1">
+        <v>185</v>
+      </c>
+      <c r="B575" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C575" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s" s="1">
+        <v>104</v>
+      </c>
+      <c r="B576" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C576" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s" s="1">
+        <v>360</v>
+      </c>
+      <c r="B577" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C577" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s" s="1">
+        <v>334</v>
+      </c>
+      <c r="B578" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C578" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s" s="1">
+        <v>210</v>
+      </c>
+      <c r="B579" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C579" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B580" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C580" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s" s="1">
+        <v>759</v>
+      </c>
+      <c r="B581" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C581" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="B582" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C582" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s" s="1">
+        <v>108</v>
+      </c>
+      <c r="B583" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C583" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s" s="1">
+        <v>156</v>
+      </c>
+      <c r="B584" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C584" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s" s="1">
+        <v>230</v>
+      </c>
+      <c r="B585" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C585" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s" s="1">
+        <v>687</v>
+      </c>
+      <c r="B586" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C586" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s" s="1">
+        <v>391</v>
+      </c>
+      <c r="B587" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C587" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s" s="1">
+        <v>444</v>
+      </c>
+      <c r="B588" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C588" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s" s="1">
+        <v>211</v>
+      </c>
+      <c r="B589" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C589" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s" s="1">
+        <v>351</v>
+      </c>
+      <c r="B590" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C590" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s" s="1">
+        <v>502</v>
+      </c>
+      <c r="B591" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C591" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s" s="1">
+        <v>878</v>
+      </c>
+      <c r="B592" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C592" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s" s="1">
+        <v>130</v>
+      </c>
+      <c r="B593" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C593" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s" s="1">
+        <v>434</v>
+      </c>
+      <c r="B594" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C594" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s" s="1">
+        <v>666</v>
+      </c>
+      <c r="B595" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C595" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s" s="1">
+        <v>206</v>
+      </c>
+      <c r="B596" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C596" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s" s="1">
+        <v>213</v>
+      </c>
+      <c r="B597" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C597" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s" s="1">
+        <v>879</v>
+      </c>
+      <c r="B598" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C598" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s" s="1">
+        <v>509</v>
+      </c>
+      <c r="B599" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C599" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s" s="1">
+        <v>242</v>
+      </c>
+      <c r="B600" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C600" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s" s="1">
+        <v>382</v>
+      </c>
+      <c r="B601" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C601" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s" s="1">
+        <v>133</v>
+      </c>
+      <c r="B602" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C602" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s" s="1">
+        <v>146</v>
+      </c>
+      <c r="B603" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C603" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s" s="1">
+        <v>519</v>
+      </c>
+      <c r="B604" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C604" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s" s="1">
+        <v>560</v>
+      </c>
+      <c r="B605" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C605" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s" s="1">
+        <v>481</v>
+      </c>
+      <c r="B606" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C606" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s" s="1">
+        <v>797</v>
+      </c>
+      <c r="B607" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C607" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s" s="1">
+        <v>140</v>
+      </c>
+      <c r="B608" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C608" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s" s="1">
+        <v>595</v>
+      </c>
+      <c r="B609" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C609" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s" s="1">
+        <v>223</v>
+      </c>
+      <c r="B610" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C610" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s" s="1">
+        <v>350</v>
+      </c>
+      <c r="B611" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C611" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="B612" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C612" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s" s="1">
+        <v>252</v>
+      </c>
+      <c r="B613" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C613" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s" s="1">
+        <v>877</v>
+      </c>
+      <c r="B614" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C614" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s" s="1">
+        <v>725</v>
+      </c>
+      <c r="B615" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C615" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s" s="1">
+        <v>480</v>
+      </c>
+      <c r="B616" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C616" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s" s="1">
+        <v>433</v>
+      </c>
+      <c r="B617" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C617" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="B618" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C618" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s" s="1">
+        <v>431</v>
+      </c>
+      <c r="B619" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C619" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s" s="1">
+        <v>417</v>
+      </c>
+      <c r="B620" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C620" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s" s="1">
+        <v>404</v>
+      </c>
+      <c r="B621" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C621" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s" s="1">
+        <v>343</v>
+      </c>
+      <c r="B622" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C622" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="B623" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C623" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s" s="1">
+        <v>476</v>
+      </c>
+      <c r="B624" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C624" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s" s="1">
+        <v>641</v>
+      </c>
+      <c r="B625" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C625" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s" s="1">
+        <v>505</v>
+      </c>
+      <c r="B626" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C626" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s" s="1">
+        <v>302</v>
+      </c>
+      <c r="B627" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C627" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s" s="1">
+        <v>158</v>
+      </c>
+      <c r="B628" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C628" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s" s="1">
+        <v>175</v>
+      </c>
+      <c r="B629" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C629" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s" s="1">
+        <v>378</v>
+      </c>
+      <c r="B630" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C630" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s" s="1">
+        <v>620</v>
+      </c>
+      <c r="B631" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C631" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s" s="1">
+        <v>321</v>
+      </c>
+      <c r="B632" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C632" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="B633" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C633" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s" s="1">
+        <v>501</v>
+      </c>
+      <c r="B634" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C634" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s" s="1">
+        <v>366</v>
+      </c>
+      <c r="B635" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C635" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s" s="1">
+        <v>358</v>
+      </c>
+      <c r="B636" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C636" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s" s="1">
+        <v>673</v>
+      </c>
+      <c r="B637" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C637" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s" s="1">
+        <v>883</v>
+      </c>
+      <c r="B638" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C638" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B639" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C639" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s" s="1">
+        <v>582</v>
+      </c>
+      <c r="B640" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C640" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s" s="1">
+        <v>420</v>
+      </c>
+      <c r="B641" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C641" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s" s="1">
+        <v>680</v>
+      </c>
+      <c r="B642" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C642" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s" s="1">
+        <v>235</v>
+      </c>
+      <c r="B643" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C643" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s" s="1">
+        <v>473</v>
+      </c>
+      <c r="B644" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C644" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s" s="1">
+        <v>500</v>
+      </c>
+      <c r="B645" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C645" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s" s="1">
+        <v>579</v>
+      </c>
+      <c r="B646" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C646" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s" s="1">
+        <v>184</v>
+      </c>
+      <c r="B647" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C647" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s" s="1">
+        <v>135</v>
+      </c>
+      <c r="B648" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C648" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s" s="1">
+        <v>129</v>
+      </c>
+      <c r="B649" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C649" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s" s="1">
+        <v>338</v>
+      </c>
+      <c r="B650" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C650" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s" s="1">
+        <v>497</v>
+      </c>
+      <c r="B651" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C651" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s" s="1">
+        <v>600</v>
+      </c>
+      <c r="B652" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C652" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s" s="1">
+        <v>396</v>
+      </c>
+      <c r="B653" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C653" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="B654" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C654" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s" s="1">
+        <v>575</v>
+      </c>
+      <c r="B655" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C655" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s" s="1">
+        <v>172</v>
+      </c>
+      <c r="B656" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C656" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s" s="1">
+        <v>701</v>
+      </c>
+      <c r="B657" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C657" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s" s="1">
+        <v>787</v>
+      </c>
+      <c r="B658" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C658" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s" s="1">
+        <v>495</v>
+      </c>
+      <c r="B659" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C659" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s" s="1">
+        <v>314</v>
+      </c>
+      <c r="B660" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C660" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s" s="1">
+        <v>224</v>
+      </c>
+      <c r="B661" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C661" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s" s="1">
+        <v>645</v>
+      </c>
+      <c r="B662" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C662" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s" s="1">
+        <v>569</v>
+      </c>
+      <c r="B663" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C663" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s" s="1">
+        <v>309</v>
+      </c>
+      <c r="B664" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C664" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="B665" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C665" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s" s="1">
+        <v>393</v>
+      </c>
+      <c r="B666" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C666" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s" s="1">
+        <v>179</v>
+      </c>
+      <c r="B667" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C667" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s" s="1">
+        <v>219</v>
+      </c>
+      <c r="B668" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C668" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="B669" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C669" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B670" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C670" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s" s="1">
+        <v>468</v>
+      </c>
+      <c r="B671" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C671" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s" s="1">
+        <v>621</v>
+      </c>
+      <c r="B672" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C672" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s" s="1">
+        <v>536</v>
+      </c>
+      <c r="B673" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C673" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s" s="1">
+        <v>679</v>
+      </c>
+      <c r="B674" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C674" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s" s="1">
+        <v>399</v>
+      </c>
+      <c r="B675" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C675" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="B676" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C676" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s" s="1">
+        <v>702</v>
+      </c>
+      <c r="B677" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C677" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s" s="1">
+        <v>580</v>
+      </c>
+      <c r="B678" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C678" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s" s="1">
+        <v>464</v>
+      </c>
+      <c r="B679" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C679" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s" s="1">
+        <v>154</v>
+      </c>
+      <c r="B680" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C680" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s" s="1">
+        <v>623</v>
+      </c>
+      <c r="B681" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C681" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s" s="1">
+        <v>430</v>
+      </c>
+      <c r="B682" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C682" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="B683" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C683" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s" s="1">
+        <v>660</v>
+      </c>
+      <c r="B684" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C684" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s" s="1">
+        <v>678</v>
+      </c>
+      <c r="B685" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C685" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s" s="1">
+        <v>194</v>
+      </c>
+      <c r="B686" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C686" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s" s="1">
+        <v>649</v>
+      </c>
+      <c r="B687" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C687" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s" s="1">
+        <v>99</v>
+      </c>
+      <c r="B688" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C688" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="B689" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C689" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s" s="1">
+        <v>539</v>
+      </c>
+      <c r="B690" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C690" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s" s="1">
+        <v>150</v>
+      </c>
+      <c r="B691" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C691" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s" s="1">
+        <v>394</v>
+      </c>
+      <c r="B692" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C692" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B693" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C693" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s" s="1">
+        <v>82</v>
+      </c>
+      <c r="B694" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C694" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s" s="1">
+        <v>177</v>
+      </c>
+      <c r="B695" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C695" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="B696" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C696" t="s" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s" s="1">
+        <v>487</v>
+      </c>
+      <c r="B697" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C697" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s" s="1">
+        <v>664</v>
+      </c>
+      <c r="B698" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C698" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s" s="1">
+        <v>225</v>
+      </c>
+      <c r="B699" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C699" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s" s="1">
+        <v>339</v>
+      </c>
+      <c r="B700" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C700" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s" s="1">
+        <v>149</v>
+      </c>
+      <c r="B701" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C701" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s" s="1">
+        <v>639</v>
+      </c>
+      <c r="B702" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C702" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s" s="1">
+        <v>266</v>
+      </c>
+      <c r="B703" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C703" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s" s="1">
+        <v>228</v>
+      </c>
+      <c r="B704" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C704" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s" s="1">
+        <v>479</v>
+      </c>
+      <c r="B705" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C705" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s" s="1">
+        <v>466</v>
+      </c>
+      <c r="B706" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C706" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B707" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C707" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s" s="1">
+        <v>469</v>
+      </c>
+      <c r="B708" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C708" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B709" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C709" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="B710" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C710" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s" s="1">
+        <v>144</v>
+      </c>
+      <c r="B711" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C711" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s" s="1">
+        <v>442</v>
+      </c>
+      <c r="B712" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C712" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s" s="1">
+        <v>209</v>
+      </c>
+      <c r="B713" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C713" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s" s="1">
+        <v>642</v>
+      </c>
+      <c r="B714" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C714" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s" s="1">
+        <v>255</v>
+      </c>
+      <c r="B715" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C715" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s" s="1">
+        <v>637</v>
+      </c>
+      <c r="B716" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C716" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s" s="1">
+        <v>467</v>
+      </c>
+      <c r="B717" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C717" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s" s="1">
+        <v>229</v>
+      </c>
+      <c r="B718" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C718" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s" s="1">
+        <v>332</v>
+      </c>
+      <c r="B719" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C719" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B720" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C720" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s" s="1">
+        <v>165</v>
+      </c>
+      <c r="B721" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C721" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s" s="1">
+        <v>262</v>
+      </c>
+      <c r="B722" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C722" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s" s="1">
+        <v>652</v>
+      </c>
+      <c r="B723" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C723" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s" s="1">
+        <v>123</v>
+      </c>
+      <c r="B724" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C724" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s" s="1">
+        <v>658</v>
+      </c>
+      <c r="B725" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C725" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="B726" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C726" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B727" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C727" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s" s="1">
+        <v>682</v>
+      </c>
+      <c r="B728" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C728" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s" s="1">
+        <v>306</v>
+      </c>
+      <c r="B729" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C729" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="B730" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C730" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s" s="1">
+        <v>348</v>
+      </c>
+      <c r="B731" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C731" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="B732" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C732" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s" s="1">
+        <v>650</v>
+      </c>
+      <c r="B733" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C733" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s" s="1">
+        <v>119</v>
+      </c>
+      <c r="B734" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C734" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s" s="1">
+        <v>478</v>
+      </c>
+      <c r="B735" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C735" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="B736" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C736" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s" s="1">
+        <v>636</v>
+      </c>
+      <c r="B737" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C737" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s" s="1">
+        <v>511</v>
+      </c>
+      <c r="B738" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C738" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="B739" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C739" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s" s="1">
+        <v>661</v>
+      </c>
+      <c r="B740" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C740" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s" s="1">
+        <v>157</v>
+      </c>
+      <c r="B741" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C741" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="B742" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C742" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s" s="1">
+        <v>117</v>
+      </c>
+      <c r="B743" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C743" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s" s="1">
+        <v>516</v>
+      </c>
+      <c r="B744" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C744" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s" s="1">
+        <v>483</v>
+      </c>
+      <c r="B745" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C745" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s" s="1">
+        <v>147</v>
+      </c>
+      <c r="B746" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C746" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B747" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C747" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s" s="1">
+        <v>372</v>
+      </c>
+      <c r="B748" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C748" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s" s="1">
+        <v>342</v>
+      </c>
+      <c r="B749" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C749" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="B750" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C750" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s" s="1">
+        <v>115</v>
+      </c>
+      <c r="B751" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C751" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s" s="1">
+        <v>167</v>
+      </c>
+      <c r="B752" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C752" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s" s="1">
+        <v>254</v>
+      </c>
+      <c r="B753" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C753" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s" s="1">
+        <v>429</v>
+      </c>
+      <c r="B754" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C754" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s" s="1">
+        <v>83</v>
+      </c>
+      <c r="B755" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C755" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s" s="1">
+        <v>181</v>
+      </c>
+      <c r="B756" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C756" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s" s="1">
+        <v>124</v>
+      </c>
+      <c r="B757" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C757" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s" s="1">
+        <v>126</v>
+      </c>
+      <c r="B758" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C758" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s" s="1">
+        <v>364</v>
+      </c>
+      <c r="B759" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C759" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s" s="1">
+        <v>610</v>
+      </c>
+      <c r="B760" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C760" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s" s="1">
+        <v>188</v>
+      </c>
+      <c r="B761" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C761" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s" s="1">
+        <v>894</v>
+      </c>
+      <c r="B762" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C762" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s" s="1">
+        <v>308</v>
+      </c>
+      <c r="B763" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C763" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B764" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C764" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s" s="1">
+        <v>176</v>
+      </c>
+      <c r="B765" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C765" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s" s="1">
+        <v>409</v>
+      </c>
+      <c r="B766" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C766" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B767" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C767" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="B768" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C768" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s" s="1">
+        <v>241</v>
+      </c>
+      <c r="B769" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C769" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s" s="1">
+        <v>508</v>
+      </c>
+      <c r="B770" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C770" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s" s="1">
+        <v>488</v>
+      </c>
+      <c r="B771" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C771" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s" s="1">
+        <v>141</v>
+      </c>
+      <c r="B772" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C772" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="B773" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C773" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s" s="1">
+        <v>196</v>
+      </c>
+      <c r="B774" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C774" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s" s="1">
+        <v>200</v>
+      </c>
+      <c r="B775" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C775" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="B776" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C776" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s" s="1">
+        <v>477</v>
+      </c>
+      <c r="B777" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C777" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s" s="1">
+        <v>310</v>
+      </c>
+      <c r="B778" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C778" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s" s="1">
+        <v>90</v>
+      </c>
+      <c r="B779" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C779" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s" s="1">
+        <v>237</v>
+      </c>
+      <c r="B780" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C780" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B781" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C781" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s" s="1">
+        <v>331</v>
+      </c>
+      <c r="B782" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C782" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s" s="1">
+        <v>195</v>
+      </c>
+      <c r="B783" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C783" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B784" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C784" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s" s="1">
+        <v>120</v>
+      </c>
+      <c r="B785" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C785" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s" s="1">
+        <v>543</v>
+      </c>
+      <c r="B786" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C786" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s" s="1">
+        <v>644</v>
+      </c>
+      <c r="B787" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C787" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s" s="1">
+        <v>413</v>
+      </c>
+      <c r="B788" t="s" s="1">
+        <v>121</v>
+      </c>
+      <c r="C788" t="s" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
